--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -5470,11 +5470,11 @@
         <v/>
       </c>
       <c r="L2">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B2)</f>
         <v/>
       </c>
       <c r="M2">
-        <f>  IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L2&lt;6,"Night",IF(L2&lt;12,"Morning",IF(L2&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N2">
@@ -5486,7 +5486,7 @@
         <v/>
       </c>
       <c r="P2">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A2))</f>
         <v/>
       </c>
       <c r="U2" t="inlineStr">
@@ -5562,11 +5562,11 @@
         <v/>
       </c>
       <c r="L3">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B3)</f>
         <v/>
       </c>
       <c r="M3">
-        <f>  IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L3&lt;6,"Night",IF(L3&lt;12,"Morning",IF(L3&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N3">
@@ -5578,7 +5578,7 @@
         <v/>
       </c>
       <c r="P3">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A3))</f>
         <v/>
       </c>
       <c r="U3" t="inlineStr">
@@ -5650,11 +5650,11 @@
         <v/>
       </c>
       <c r="L4">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B4)</f>
         <v/>
       </c>
       <c r="M4">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L4&lt;6,"Night",IF(L4&lt;12,"Morning",IF(L4&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N4">
@@ -5666,7 +5666,7 @@
         <v/>
       </c>
       <c r="P4">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A4))</f>
         <v/>
       </c>
       <c r="U4" t="inlineStr">
@@ -5738,11 +5738,11 @@
         <v/>
       </c>
       <c r="L5">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B5)</f>
         <v/>
       </c>
       <c r="M5">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L5&lt;6,"Night",IF(L5&lt;12,"Morning",IF(L5&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N5">
@@ -5754,7 +5754,7 @@
         <v/>
       </c>
       <c r="P5">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A5))</f>
         <v/>
       </c>
       <c r="U5" t="inlineStr">
@@ -5826,11 +5826,11 @@
         <v/>
       </c>
       <c r="L6">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B6)</f>
         <v/>
       </c>
       <c r="M6">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L6&lt;6,"Night",IF(L6&lt;12,"Morning",IF(L6&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N6">
@@ -5842,7 +5842,7 @@
         <v/>
       </c>
       <c r="P6">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A6))</f>
         <v/>
       </c>
       <c r="U6" t="inlineStr">
@@ -5909,11 +5909,11 @@
         <v/>
       </c>
       <c r="L7">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B7)</f>
         <v/>
       </c>
       <c r="M7">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L7&lt;6,"Night",IF(L7&lt;12,"Morning",IF(L7&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N7">
@@ -5925,7 +5925,7 @@
         <v/>
       </c>
       <c r="P7">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A7))</f>
         <v/>
       </c>
       <c r="U7" s="13" t="inlineStr">
@@ -5992,11 +5992,11 @@
         <v/>
       </c>
       <c r="L8">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B8)</f>
         <v/>
       </c>
       <c r="M8">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L8&lt;6,"Night",IF(L8&lt;12,"Morning",IF(L8&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N8">
@@ -6008,7 +6008,7 @@
         <v/>
       </c>
       <c r="P8">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A8))</f>
         <v/>
       </c>
       <c r="U8" t="inlineStr">
@@ -6075,11 +6075,11 @@
         <v/>
       </c>
       <c r="L9">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B9)</f>
         <v/>
       </c>
       <c r="M9">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L9&lt;6,"Night",IF(L9&lt;12,"Morning",IF(L9&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N9">
@@ -6091,7 +6091,7 @@
         <v/>
       </c>
       <c r="P9">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A9))</f>
         <v/>
       </c>
       <c r="U9" t="inlineStr">
@@ -6158,11 +6158,11 @@
         <v/>
       </c>
       <c r="L10">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B10)</f>
         <v/>
       </c>
       <c r="M10">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L10&lt;6,"Night",IF(L10&lt;12,"Morning",IF(L10&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N10">
@@ -6174,7 +6174,7 @@
         <v/>
       </c>
       <c r="P10">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A10))</f>
         <v/>
       </c>
       <c r="W10" s="19" t="n">
@@ -6236,11 +6236,11 @@
         <v/>
       </c>
       <c r="L11">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B11)</f>
         <v/>
       </c>
       <c r="M11">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L11&lt;6,"Night",IF(L11&lt;12,"Morning",IF(L11&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N11">
@@ -6252,7 +6252,7 @@
         <v/>
       </c>
       <c r="P11">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A11))</f>
         <v/>
       </c>
       <c r="W11" s="19" t="n">
@@ -6314,11 +6314,11 @@
         <v/>
       </c>
       <c r="L12">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B12)</f>
         <v/>
       </c>
       <c r="M12">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L12&lt;6,"Night",IF(L12&lt;12,"Morning",IF(L12&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N12">
@@ -6330,7 +6330,7 @@
         <v/>
       </c>
       <c r="P12">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A12))</f>
         <v/>
       </c>
       <c r="W12" s="19" t="n">
@@ -6392,11 +6392,11 @@
         <v/>
       </c>
       <c r="L13">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B13)</f>
         <v/>
       </c>
       <c r="M13">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L13&lt;6,"Night",IF(L13&lt;12,"Morning",IF(L13&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N13">
@@ -6408,7 +6408,7 @@
         <v/>
       </c>
       <c r="P13">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A13))</f>
         <v/>
       </c>
       <c r="W13" s="19" t="n">
@@ -6470,11 +6470,11 @@
         <v/>
       </c>
       <c r="L14">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B14)</f>
         <v/>
       </c>
       <c r="M14">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L14&lt;6,"Night",IF(L14&lt;12,"Morning",IF(L14&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N14">
@@ -6486,7 +6486,7 @@
         <v/>
       </c>
       <c r="P14">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A14))</f>
         <v/>
       </c>
       <c r="W14" s="19" t="n">
@@ -6548,11 +6548,11 @@
         <v/>
       </c>
       <c r="L15">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B15)</f>
         <v/>
       </c>
       <c r="M15">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L15&lt;6,"Night",IF(L15&lt;12,"Morning",IF(L15&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N15">
@@ -6564,7 +6564,7 @@
         <v/>
       </c>
       <c r="P15">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A15))</f>
         <v/>
       </c>
       <c r="W15" s="19" t="n">
@@ -6626,11 +6626,11 @@
         <v/>
       </c>
       <c r="L16">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B16)</f>
         <v/>
       </c>
       <c r="M16">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L16&lt;6,"Night",IF(L16&lt;12,"Morning",IF(L16&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N16">
@@ -6642,7 +6642,7 @@
         <v/>
       </c>
       <c r="P16">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A16))</f>
         <v/>
       </c>
       <c r="W16" s="19" t="n">
@@ -6704,11 +6704,11 @@
         <v/>
       </c>
       <c r="L17">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B17)</f>
         <v/>
       </c>
       <c r="M17">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L17&lt;6,"Night",IF(L17&lt;12,"Morning",IF(L17&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N17">
@@ -6720,7 +6720,7 @@
         <v/>
       </c>
       <c r="P17">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A17))</f>
         <v/>
       </c>
       <c r="W17" s="19" t="n">
@@ -6782,11 +6782,11 @@
         <v/>
       </c>
       <c r="L18">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B18)</f>
         <v/>
       </c>
       <c r="M18">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L18&lt;6,"Night",IF(L18&lt;12,"Morning",IF(L18&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N18">
@@ -6798,7 +6798,7 @@
         <v/>
       </c>
       <c r="P18">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A18))</f>
         <v/>
       </c>
       <c r="W18" s="19" t="n">
@@ -6860,11 +6860,11 @@
         <v/>
       </c>
       <c r="L19">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B19)</f>
         <v/>
       </c>
       <c r="M19">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L19&lt;6,"Night",IF(L19&lt;12,"Morning",IF(L19&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N19">
@@ -6876,7 +6876,7 @@
         <v/>
       </c>
       <c r="P19">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A19))</f>
         <v/>
       </c>
       <c r="W19" s="19" t="n">
@@ -6938,11 +6938,11 @@
         <v/>
       </c>
       <c r="L20">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B20)</f>
         <v/>
       </c>
       <c r="M20">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L20&lt;6,"Night",IF(L20&lt;12,"Morning",IF(L20&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N20">
@@ -6954,7 +6954,7 @@
         <v/>
       </c>
       <c r="P20">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A20))</f>
         <v/>
       </c>
       <c r="W20" s="19" t="n">
@@ -7016,11 +7016,11 @@
         <v/>
       </c>
       <c r="L21">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B21)</f>
         <v/>
       </c>
       <c r="M21">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L21&lt;6,"Night",IF(L21&lt;12,"Morning",IF(L21&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N21">
@@ -7032,7 +7032,7 @@
         <v/>
       </c>
       <c r="P21">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A21))</f>
         <v/>
       </c>
       <c r="W21" s="19" t="n">
@@ -7094,11 +7094,11 @@
         <v/>
       </c>
       <c r="L22">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B22)</f>
         <v/>
       </c>
       <c r="M22">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L22&lt;6,"Night",IF(L22&lt;12,"Morning",IF(L22&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N22">
@@ -7110,7 +7110,7 @@
         <v/>
       </c>
       <c r="P22">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A22))</f>
         <v/>
       </c>
       <c r="W22" s="19" t="n">
@@ -7172,11 +7172,11 @@
         <v/>
       </c>
       <c r="L23">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B23)</f>
         <v/>
       </c>
       <c r="M23">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L23&lt;6,"Night",IF(L23&lt;12,"Morning",IF(L23&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N23">
@@ -7188,7 +7188,7 @@
         <v/>
       </c>
       <c r="P23">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A23))</f>
         <v/>
       </c>
       <c r="W23" s="19" t="n">
@@ -7245,11 +7245,11 @@
         <v/>
       </c>
       <c r="L24">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B24)</f>
         <v/>
       </c>
       <c r="M24">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L24&lt;6,"Night",IF(L24&lt;12,"Morning",IF(L24&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N24">
@@ -7261,7 +7261,7 @@
         <v/>
       </c>
       <c r="P24">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A24))</f>
         <v/>
       </c>
       <c r="W24" s="19" t="n">
@@ -7318,11 +7318,11 @@
         <v/>
       </c>
       <c r="L25">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B25)</f>
         <v/>
       </c>
       <c r="M25">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L25&lt;6,"Night",IF(L25&lt;12,"Morning",IF(L25&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N25">
@@ -7334,7 +7334,7 @@
         <v/>
       </c>
       <c r="P25">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A25))</f>
         <v/>
       </c>
       <c r="W25" s="19" t="n">
@@ -7391,11 +7391,11 @@
         <v/>
       </c>
       <c r="L26">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B26)</f>
         <v/>
       </c>
       <c r="M26">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L26&lt;6,"Night",IF(L26&lt;12,"Morning",IF(L26&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N26">
@@ -7407,7 +7407,7 @@
         <v/>
       </c>
       <c r="P26">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A26))</f>
         <v/>
       </c>
       <c r="W26" s="19" t="n">
@@ -7464,11 +7464,11 @@
         <v/>
       </c>
       <c r="L27">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B27)</f>
         <v/>
       </c>
       <c r="M27">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L27&lt;6,"Night",IF(L27&lt;12,"Morning",IF(L27&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N27">
@@ -7480,7 +7480,7 @@
         <v/>
       </c>
       <c r="P27">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A27))</f>
         <v/>
       </c>
       <c r="W27" s="19" t="n">
@@ -7537,11 +7537,11 @@
         <v/>
       </c>
       <c r="L28">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B28)</f>
         <v/>
       </c>
       <c r="M28">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L28&lt;6,"Night",IF(L28&lt;12,"Morning",IF(L28&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N28">
@@ -7553,7 +7553,7 @@
         <v/>
       </c>
       <c r="P28">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A28))</f>
         <v/>
       </c>
       <c r="W28" s="19" t="n">
@@ -7568,11 +7568,11 @@
         <v/>
       </c>
       <c r="L29">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B29)</f>
         <v/>
       </c>
       <c r="M29">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L29&lt;6,"Night",IF(L29&lt;12,"Morning",IF(L29&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N29">
@@ -7584,7 +7584,7 @@
         <v/>
       </c>
       <c r="P29">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A29))</f>
         <v/>
       </c>
       <c r="W29" s="19" t="n">
@@ -7599,11 +7599,11 @@
         <v/>
       </c>
       <c r="L30">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B30)</f>
         <v/>
       </c>
       <c r="M30">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L30&lt;6,"Night",IF(L30&lt;12,"Morning",IF(L30&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N30">
@@ -7615,7 +7615,7 @@
         <v/>
       </c>
       <c r="P30">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A30))</f>
         <v/>
       </c>
       <c r="W30" s="19" t="n">
@@ -7630,11 +7630,11 @@
         <v/>
       </c>
       <c r="L31">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B31)</f>
         <v/>
       </c>
       <c r="M31">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L31&lt;6,"Night",IF(L31&lt;12,"Morning",IF(L31&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N31">
@@ -7646,7 +7646,7 @@
         <v/>
       </c>
       <c r="P31">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A31))</f>
         <v/>
       </c>
       <c r="W31" s="19" t="n">
@@ -7661,11 +7661,11 @@
         <v/>
       </c>
       <c r="L32">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B32)</f>
         <v/>
       </c>
       <c r="M32">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L32&lt;6,"Night",IF(L32&lt;12,"Morning",IF(L32&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N32">
@@ -7677,7 +7677,7 @@
         <v/>
       </c>
       <c r="P32">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A32))</f>
         <v/>
       </c>
       <c r="W32" s="19" t="n">
@@ -7692,11 +7692,11 @@
         <v/>
       </c>
       <c r="L33">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B33)</f>
         <v/>
       </c>
       <c r="M33">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L33&lt;6,"Night",IF(L33&lt;12,"Morning",IF(L33&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N33">
@@ -7708,7 +7708,7 @@
         <v/>
       </c>
       <c r="P33">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A33))</f>
         <v/>
       </c>
     </row>
@@ -7720,11 +7720,11 @@
         <v/>
       </c>
       <c r="L34">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B34)</f>
         <v/>
       </c>
       <c r="M34">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L34&lt;6,"Night",IF(L34&lt;12,"Morning",IF(L34&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N34">
@@ -7736,7 +7736,7 @@
         <v/>
       </c>
       <c r="P34">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A34))</f>
         <v/>
       </c>
     </row>
@@ -7748,11 +7748,11 @@
         <v/>
       </c>
       <c r="L35">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B35)</f>
         <v/>
       </c>
       <c r="M35">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L35&lt;6,"Night",IF(L35&lt;12,"Morning",IF(L35&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N35">
@@ -7764,7 +7764,7 @@
         <v/>
       </c>
       <c r="P35">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A35))</f>
         <v/>
       </c>
     </row>
@@ -7776,11 +7776,11 @@
         <v/>
       </c>
       <c r="L36">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B36)</f>
         <v/>
       </c>
       <c r="M36">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L36&lt;6,"Night",IF(L36&lt;12,"Morning",IF(L36&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N36">
@@ -7792,7 +7792,7 @@
         <v/>
       </c>
       <c r="P36">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A36))</f>
         <v/>
       </c>
     </row>
@@ -7804,11 +7804,11 @@
         <v/>
       </c>
       <c r="L37">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B37)</f>
         <v/>
       </c>
       <c r="M37">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L37&lt;6,"Night",IF(L37&lt;12,"Morning",IF(L37&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N37">
@@ -7820,7 +7820,7 @@
         <v/>
       </c>
       <c r="P37">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A37))</f>
         <v/>
       </c>
     </row>
@@ -7832,11 +7832,11 @@
         <v/>
       </c>
       <c r="L38">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B38)</f>
         <v/>
       </c>
       <c r="M38">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L38&lt;6,"Night",IF(L38&lt;12,"Morning",IF(L38&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N38">
@@ -7848,7 +7848,7 @@
         <v/>
       </c>
       <c r="P38">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A38))</f>
         <v/>
       </c>
     </row>
@@ -7860,11 +7860,11 @@
         <v/>
       </c>
       <c r="L39">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B39)</f>
         <v/>
       </c>
       <c r="M39">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L39&lt;6,"Night",IF(L39&lt;12,"Morning",IF(L39&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N39">
@@ -7876,7 +7876,7 @@
         <v/>
       </c>
       <c r="P39">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A39))</f>
         <v/>
       </c>
     </row>
@@ -7888,11 +7888,11 @@
         <v/>
       </c>
       <c r="L40">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B40)</f>
         <v/>
       </c>
       <c r="M40">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L40&lt;6,"Night",IF(L40&lt;12,"Morning",IF(L40&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N40">
@@ -7904,7 +7904,7 @@
         <v/>
       </c>
       <c r="P40">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A40))</f>
         <v/>
       </c>
     </row>
@@ -7916,11 +7916,11 @@
         <v/>
       </c>
       <c r="L41">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B41)</f>
         <v/>
       </c>
       <c r="M41">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L41&lt;6,"Night",IF(L41&lt;12,"Morning",IF(L41&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N41">
@@ -7932,7 +7932,7 @@
         <v/>
       </c>
       <c r="P41">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A41))</f>
         <v/>
       </c>
     </row>
@@ -7944,11 +7944,11 @@
         <v/>
       </c>
       <c r="L42">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B42)</f>
         <v/>
       </c>
       <c r="M42">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L42&lt;6,"Night",IF(L42&lt;12,"Morning",IF(L42&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N42">
@@ -7960,7 +7960,7 @@
         <v/>
       </c>
       <c r="P42">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A42))</f>
         <v/>
       </c>
     </row>
@@ -7972,11 +7972,11 @@
         <v/>
       </c>
       <c r="L43">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B43)</f>
         <v/>
       </c>
       <c r="M43">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L43&lt;6,"Night",IF(L43&lt;12,"Morning",IF(L43&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N43">
@@ -7988,7 +7988,7 @@
         <v/>
       </c>
       <c r="P43">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A43))</f>
         <v/>
       </c>
     </row>
@@ -8000,11 +8000,11 @@
         <v/>
       </c>
       <c r="L44">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B44)</f>
         <v/>
       </c>
       <c r="M44">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L44&lt;6,"Night",IF(L44&lt;12,"Morning",IF(L44&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N44">
@@ -8016,7 +8016,7 @@
         <v/>
       </c>
       <c r="P44">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A44))</f>
         <v/>
       </c>
     </row>
@@ -8028,11 +8028,11 @@
         <v/>
       </c>
       <c r="L45">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B45)</f>
         <v/>
       </c>
       <c r="M45">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L45&lt;6,"Night",IF(L45&lt;12,"Morning",IF(L45&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N45">
@@ -8044,7 +8044,7 @@
         <v/>
       </c>
       <c r="P45">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A45))</f>
         <v/>
       </c>
     </row>
@@ -8056,11 +8056,11 @@
         <v/>
       </c>
       <c r="L46">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B46)</f>
         <v/>
       </c>
       <c r="M46">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L46&lt;6,"Night",IF(L46&lt;12,"Morning",IF(L46&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N46">
@@ -8072,7 +8072,7 @@
         <v/>
       </c>
       <c r="P46">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A46))</f>
         <v/>
       </c>
     </row>
@@ -8084,11 +8084,11 @@
         <v/>
       </c>
       <c r="L47">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B47)</f>
         <v/>
       </c>
       <c r="M47">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L47&lt;6,"Night",IF(L47&lt;12,"Morning",IF(L47&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N47">
@@ -8100,7 +8100,7 @@
         <v/>
       </c>
       <c r="P47">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A47))</f>
         <v/>
       </c>
     </row>
@@ -8112,11 +8112,11 @@
         <v/>
       </c>
       <c r="L48">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B48)</f>
         <v/>
       </c>
       <c r="M48">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L48&lt;6,"Night",IF(L48&lt;12,"Morning",IF(L48&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N48">
@@ -8128,7 +8128,7 @@
         <v/>
       </c>
       <c r="P48">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A48))</f>
         <v/>
       </c>
     </row>
@@ -8140,11 +8140,11 @@
         <v/>
       </c>
       <c r="L49">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B49)</f>
         <v/>
       </c>
       <c r="M49">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L49&lt;6,"Night",IF(L49&lt;12,"Morning",IF(L49&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N49">
@@ -8156,7 +8156,7 @@
         <v/>
       </c>
       <c r="P49">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A49))</f>
         <v/>
       </c>
     </row>
@@ -8168,11 +8168,11 @@
         <v/>
       </c>
       <c r="L50">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B50)</f>
         <v/>
       </c>
       <c r="M50">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L50&lt;6,"Night",IF(L50&lt;12,"Morning",IF(L50&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N50">
@@ -8184,7 +8184,7 @@
         <v/>
       </c>
       <c r="P50">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A50))</f>
         <v/>
       </c>
     </row>
@@ -8196,11 +8196,11 @@
         <v/>
       </c>
       <c r="L51">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B51)</f>
         <v/>
       </c>
       <c r="M51">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L51&lt;6,"Night",IF(L51&lt;12,"Morning",IF(L51&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N51">
@@ -8212,7 +8212,7 @@
         <v/>
       </c>
       <c r="P51">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A51))</f>
         <v/>
       </c>
     </row>
@@ -8224,11 +8224,11 @@
         <v/>
       </c>
       <c r="L52">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B52)</f>
         <v/>
       </c>
       <c r="M52">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L52&lt;6,"Night",IF(L52&lt;12,"Morning",IF(L52&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N52">
@@ -8240,7 +8240,7 @@
         <v/>
       </c>
       <c r="P52">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A52))</f>
         <v/>
       </c>
     </row>
@@ -8252,11 +8252,11 @@
         <v/>
       </c>
       <c r="L53">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B53)</f>
         <v/>
       </c>
       <c r="M53">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L53&lt;6,"Night",IF(L53&lt;12,"Morning",IF(L53&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N53">
@@ -8268,7 +8268,7 @@
         <v/>
       </c>
       <c r="P53">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A53))</f>
         <v/>
       </c>
     </row>
@@ -8280,11 +8280,11 @@
         <v/>
       </c>
       <c r="L54">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B54)</f>
         <v/>
       </c>
       <c r="M54">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L54&lt;6,"Night",IF(L54&lt;12,"Morning",IF(L54&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N54">
@@ -8296,7 +8296,7 @@
         <v/>
       </c>
       <c r="P54">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A54))</f>
         <v/>
       </c>
     </row>
@@ -8308,11 +8308,11 @@
         <v/>
       </c>
       <c r="L55">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B55)</f>
         <v/>
       </c>
       <c r="M55">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L55&lt;6,"Night",IF(L55&lt;12,"Morning",IF(L55&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N55">
@@ -8324,7 +8324,7 @@
         <v/>
       </c>
       <c r="P55">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A55))</f>
         <v/>
       </c>
     </row>
@@ -8336,11 +8336,11 @@
         <v/>
       </c>
       <c r="L56">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B56)</f>
         <v/>
       </c>
       <c r="M56">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L56&lt;6,"Night",IF(L56&lt;12,"Morning",IF(L56&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N56">
@@ -8352,7 +8352,7 @@
         <v/>
       </c>
       <c r="P56">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A56))</f>
         <v/>
       </c>
     </row>
@@ -8364,11 +8364,11 @@
         <v/>
       </c>
       <c r="L57">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B57)</f>
         <v/>
       </c>
       <c r="M57">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L57&lt;6,"Night",IF(L57&lt;12,"Morning",IF(L57&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N57">
@@ -8380,7 +8380,7 @@
         <v/>
       </c>
       <c r="P57">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A57))</f>
         <v/>
       </c>
     </row>
@@ -8392,11 +8392,11 @@
         <v/>
       </c>
       <c r="L58">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B58)</f>
         <v/>
       </c>
       <c r="M58">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L58&lt;6,"Night",IF(L58&lt;12,"Morning",IF(L58&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N58">
@@ -8408,7 +8408,7 @@
         <v/>
       </c>
       <c r="P58">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A58))</f>
         <v/>
       </c>
     </row>
@@ -8420,11 +8420,11 @@
         <v/>
       </c>
       <c r="L59">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B59)</f>
         <v/>
       </c>
       <c r="M59">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L59&lt;6,"Night",IF(L59&lt;12,"Morning",IF(L59&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N59">
@@ -8436,7 +8436,7 @@
         <v/>
       </c>
       <c r="P59">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A59))</f>
         <v/>
       </c>
     </row>
@@ -8448,11 +8448,11 @@
         <v/>
       </c>
       <c r="L60">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B60)</f>
         <v/>
       </c>
       <c r="M60">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L60&lt;6,"Night",IF(L60&lt;12,"Morning",IF(L60&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N60">
@@ -8464,7 +8464,7 @@
         <v/>
       </c>
       <c r="P60">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A60))</f>
         <v/>
       </c>
     </row>
@@ -8476,11 +8476,11 @@
         <v/>
       </c>
       <c r="L61">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B61)</f>
         <v/>
       </c>
       <c r="M61">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L61&lt;6,"Night",IF(L61&lt;12,"Morning",IF(L61&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N61">
@@ -8492,7 +8492,7 @@
         <v/>
       </c>
       <c r="P61">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A61))</f>
         <v/>
       </c>
     </row>
@@ -8504,11 +8504,11 @@
         <v/>
       </c>
       <c r="L62">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B62)</f>
         <v/>
       </c>
       <c r="M62">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L62&lt;6,"Night",IF(L62&lt;12,"Morning",IF(L62&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N62">
@@ -8520,7 +8520,7 @@
         <v/>
       </c>
       <c r="P62">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A62))</f>
         <v/>
       </c>
     </row>
@@ -8532,11 +8532,11 @@
         <v/>
       </c>
       <c r="L63">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B63)</f>
         <v/>
       </c>
       <c r="M63">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L63&lt;6,"Night",IF(L63&lt;12,"Morning",IF(L63&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N63">
@@ -8548,7 +8548,7 @@
         <v/>
       </c>
       <c r="P63">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A63))</f>
         <v/>
       </c>
     </row>
@@ -8560,11 +8560,11 @@
         <v/>
       </c>
       <c r="L64">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B64)</f>
         <v/>
       </c>
       <c r="M64">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L64&lt;6,"Night",IF(L64&lt;12,"Morning",IF(L64&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N64">
@@ -8576,7 +8576,7 @@
         <v/>
       </c>
       <c r="P64">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A64))</f>
         <v/>
       </c>
     </row>
@@ -8588,11 +8588,11 @@
         <v/>
       </c>
       <c r="L65">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B65)</f>
         <v/>
       </c>
       <c r="M65">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L65&lt;6,"Night",IF(L65&lt;12,"Morning",IF(L65&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N65">
@@ -8604,7 +8604,7 @@
         <v/>
       </c>
       <c r="P65">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A65))</f>
         <v/>
       </c>
     </row>
@@ -8616,11 +8616,11 @@
         <v/>
       </c>
       <c r="L66">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B66)</f>
         <v/>
       </c>
       <c r="M66">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L66&lt;6,"Night",IF(L66&lt;12,"Morning",IF(L66&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N66">
@@ -8632,7 +8632,7 @@
         <v/>
       </c>
       <c r="P66">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A66))</f>
         <v/>
       </c>
     </row>
@@ -8644,11 +8644,11 @@
         <v/>
       </c>
       <c r="L67">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B67)</f>
         <v/>
       </c>
       <c r="M67">
-        <f>  IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L67&lt;6,"Night",IF(L67&lt;12,"Morning",IF(L67&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N67">
@@ -8660,7 +8660,7 @@
         <v/>
       </c>
       <c r="P67">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A67))</f>
         <v/>
       </c>
     </row>
@@ -8672,11 +8672,11 @@
         <v/>
       </c>
       <c r="L68">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B68)</f>
         <v/>
       </c>
       <c r="M68">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L68&lt;6,"Night",IF(L68&lt;12,"Morning",IF(L68&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N68">
@@ -8688,7 +8688,7 @@
         <v/>
       </c>
       <c r="P68">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A68))</f>
         <v/>
       </c>
     </row>
@@ -8700,11 +8700,11 @@
         <v/>
       </c>
       <c r="L69">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B69)</f>
         <v/>
       </c>
       <c r="M69">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L69&lt;6,"Night",IF(L69&lt;12,"Morning",IF(L69&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N69">
@@ -8716,7 +8716,7 @@
         <v/>
       </c>
       <c r="P69">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A69))</f>
         <v/>
       </c>
     </row>
@@ -8728,11 +8728,11 @@
         <v/>
       </c>
       <c r="L70">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B70)</f>
         <v/>
       </c>
       <c r="M70">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L70&lt;6,"Night",IF(L70&lt;12,"Morning",IF(L70&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N70">
@@ -8744,7 +8744,7 @@
         <v/>
       </c>
       <c r="P70">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A70))</f>
         <v/>
       </c>
     </row>
@@ -8756,11 +8756,11 @@
         <v/>
       </c>
       <c r="L71">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B71)</f>
         <v/>
       </c>
       <c r="M71">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L71&lt;6,"Night",IF(L71&lt;12,"Morning",IF(L71&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N71">
@@ -8772,7 +8772,7 @@
         <v/>
       </c>
       <c r="P71">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A71))</f>
         <v/>
       </c>
     </row>
@@ -8784,11 +8784,11 @@
         <v/>
       </c>
       <c r="L72">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B72)</f>
         <v/>
       </c>
       <c r="M72">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L72&lt;6,"Night",IF(L72&lt;12,"Morning",IF(L72&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N72">
@@ -8800,7 +8800,7 @@
         <v/>
       </c>
       <c r="P72">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A72))</f>
         <v/>
       </c>
     </row>
@@ -8812,11 +8812,11 @@
         <v/>
       </c>
       <c r="L73">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B73)</f>
         <v/>
       </c>
       <c r="M73">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L73&lt;6,"Night",IF(L73&lt;12,"Morning",IF(L73&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N73">
@@ -8828,7 +8828,7 @@
         <v/>
       </c>
       <c r="P73">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A73))</f>
         <v/>
       </c>
     </row>
@@ -8840,11 +8840,11 @@
         <v/>
       </c>
       <c r="L74">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B74)</f>
         <v/>
       </c>
       <c r="M74">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L74&lt;6,"Night",IF(L74&lt;12,"Morning",IF(L74&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N74">
@@ -8856,7 +8856,7 @@
         <v/>
       </c>
       <c r="P74">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A74))</f>
         <v/>
       </c>
     </row>
@@ -8868,11 +8868,11 @@
         <v/>
       </c>
       <c r="L75">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B75)</f>
         <v/>
       </c>
       <c r="M75">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L75&lt;6,"Night",IF(L75&lt;12,"Morning",IF(L75&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N75">
@@ -8884,7 +8884,7 @@
         <v/>
       </c>
       <c r="P75">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A75))</f>
         <v/>
       </c>
     </row>
@@ -8896,11 +8896,11 @@
         <v/>
       </c>
       <c r="L76">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B76)</f>
         <v/>
       </c>
       <c r="M76">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L76&lt;6,"Night",IF(L76&lt;12,"Morning",IF(L76&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N76">
@@ -8912,7 +8912,7 @@
         <v/>
       </c>
       <c r="P76">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A76))</f>
         <v/>
       </c>
     </row>
@@ -8924,11 +8924,11 @@
         <v/>
       </c>
       <c r="L77">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B77)</f>
         <v/>
       </c>
       <c r="M77">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L77&lt;6,"Night",IF(L77&lt;12,"Morning",IF(L77&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N77">
@@ -8940,7 +8940,7 @@
         <v/>
       </c>
       <c r="P77">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A77))</f>
         <v/>
       </c>
     </row>
@@ -8952,11 +8952,11 @@
         <v/>
       </c>
       <c r="L78">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B78)</f>
         <v/>
       </c>
       <c r="M78">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L78&lt;6,"Night",IF(L78&lt;12,"Morning",IF(L78&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N78">
@@ -8968,7 +8968,7 @@
         <v/>
       </c>
       <c r="P78">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A78))</f>
         <v/>
       </c>
     </row>
@@ -8980,11 +8980,11 @@
         <v/>
       </c>
       <c r="L79">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B79)</f>
         <v/>
       </c>
       <c r="M79">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L79&lt;6,"Night",IF(L79&lt;12,"Morning",IF(L79&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N79">
@@ -8996,7 +8996,7 @@
         <v/>
       </c>
       <c r="P79">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A79))</f>
         <v/>
       </c>
     </row>
@@ -9008,11 +9008,11 @@
         <v/>
       </c>
       <c r="L80">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B80)</f>
         <v/>
       </c>
       <c r="M80">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L80&lt;6,"Night",IF(L80&lt;12,"Morning",IF(L80&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N80">
@@ -9024,7 +9024,7 @@
         <v/>
       </c>
       <c r="P80">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A80))</f>
         <v/>
       </c>
     </row>
@@ -9036,11 +9036,11 @@
         <v/>
       </c>
       <c r="L81">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B81)</f>
         <v/>
       </c>
       <c r="M81">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L81&lt;6,"Night",IF(L81&lt;12,"Morning",IF(L81&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N81">
@@ -9052,7 +9052,7 @@
         <v/>
       </c>
       <c r="P81">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A81))</f>
         <v/>
       </c>
     </row>
@@ -9064,11 +9064,11 @@
         <v/>
       </c>
       <c r="L82">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B82)</f>
         <v/>
       </c>
       <c r="M82">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L82&lt;6,"Night",IF(L82&lt;12,"Morning",IF(L82&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N82">
@@ -9080,7 +9080,7 @@
         <v/>
       </c>
       <c r="P82">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A82))</f>
         <v/>
       </c>
     </row>
@@ -9092,11 +9092,11 @@
         <v/>
       </c>
       <c r="L83">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B83)</f>
         <v/>
       </c>
       <c r="M83">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L83&lt;6,"Night",IF(L83&lt;12,"Morning",IF(L83&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N83">
@@ -9108,7 +9108,7 @@
         <v/>
       </c>
       <c r="P83">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A83))</f>
         <v/>
       </c>
     </row>
@@ -9120,11 +9120,11 @@
         <v/>
       </c>
       <c r="L84">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B84)</f>
         <v/>
       </c>
       <c r="M84">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L84&lt;6,"Night",IF(L84&lt;12,"Morning",IF(L84&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N84">
@@ -9136,7 +9136,7 @@
         <v/>
       </c>
       <c r="P84">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A84))</f>
         <v/>
       </c>
     </row>
@@ -9148,11 +9148,11 @@
         <v/>
       </c>
       <c r="L85">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B85)</f>
         <v/>
       </c>
       <c r="M85">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L85&lt;6,"Night",IF(L85&lt;12,"Morning",IF(L85&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N85">
@@ -9164,7 +9164,7 @@
         <v/>
       </c>
       <c r="P85">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A85))</f>
         <v/>
       </c>
     </row>
@@ -9176,11 +9176,11 @@
         <v/>
       </c>
       <c r="L86">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B86)</f>
         <v/>
       </c>
       <c r="M86">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L86&lt;6,"Night",IF(L86&lt;12,"Morning",IF(L86&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N86">
@@ -9192,7 +9192,7 @@
         <v/>
       </c>
       <c r="P86">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A86))</f>
         <v/>
       </c>
     </row>
@@ -9204,11 +9204,11 @@
         <v/>
       </c>
       <c r="L87">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B87)</f>
         <v/>
       </c>
       <c r="M87">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L87&lt;6,"Night",IF(L87&lt;12,"Morning",IF(L87&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N87">
@@ -9220,7 +9220,7 @@
         <v/>
       </c>
       <c r="P87">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A87))</f>
         <v/>
       </c>
     </row>
@@ -9232,11 +9232,11 @@
         <v/>
       </c>
       <c r="L88">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B88)</f>
         <v/>
       </c>
       <c r="M88">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L88&lt;6,"Night",IF(L88&lt;12,"Morning",IF(L88&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N88">
@@ -9248,7 +9248,7 @@
         <v/>
       </c>
       <c r="P88">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A88))</f>
         <v/>
       </c>
     </row>
@@ -9260,11 +9260,11 @@
         <v/>
       </c>
       <c r="L89">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B89)</f>
         <v/>
       </c>
       <c r="M89">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L89&lt;6,"Night",IF(L89&lt;12,"Morning",IF(L89&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N89">
@@ -9276,7 +9276,7 @@
         <v/>
       </c>
       <c r="P89">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A89))</f>
         <v/>
       </c>
     </row>
@@ -9288,11 +9288,11 @@
         <v/>
       </c>
       <c r="L90">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B90)</f>
         <v/>
       </c>
       <c r="M90">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L90&lt;6,"Night",IF(L90&lt;12,"Morning",IF(L90&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N90">
@@ -9304,7 +9304,7 @@
         <v/>
       </c>
       <c r="P90">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A90))</f>
         <v/>
       </c>
     </row>
@@ -9316,11 +9316,11 @@
         <v/>
       </c>
       <c r="L91">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B91)</f>
         <v/>
       </c>
       <c r="M91">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L91&lt;6,"Night",IF(L91&lt;12,"Morning",IF(L91&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N91">
@@ -9332,7 +9332,7 @@
         <v/>
       </c>
       <c r="P91">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A91))</f>
         <v/>
       </c>
     </row>
@@ -9344,11 +9344,11 @@
         <v/>
       </c>
       <c r="L92">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B92)</f>
         <v/>
       </c>
       <c r="M92">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L92&lt;6,"Night",IF(L92&lt;12,"Morning",IF(L92&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N92">
@@ -9360,7 +9360,7 @@
         <v/>
       </c>
       <c r="P92">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A92))</f>
         <v/>
       </c>
     </row>
@@ -9372,11 +9372,11 @@
         <v/>
       </c>
       <c r="L93">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B93)</f>
         <v/>
       </c>
       <c r="M93">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L93&lt;6,"Night",IF(L93&lt;12,"Morning",IF(L93&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N93">
@@ -9388,7 +9388,7 @@
         <v/>
       </c>
       <c r="P93">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A93))</f>
         <v/>
       </c>
     </row>
@@ -9400,11 +9400,11 @@
         <v/>
       </c>
       <c r="L94">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B94)</f>
         <v/>
       </c>
       <c r="M94">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L94&lt;6,"Night",IF(L94&lt;12,"Morning",IF(L94&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N94">
@@ -9416,7 +9416,7 @@
         <v/>
       </c>
       <c r="P94">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A94))</f>
         <v/>
       </c>
     </row>
@@ -9428,11 +9428,11 @@
         <v/>
       </c>
       <c r="L95">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B95)</f>
         <v/>
       </c>
       <c r="M95">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L95&lt;6,"Night",IF(L95&lt;12,"Morning",IF(L95&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N95">
@@ -9444,7 +9444,7 @@
         <v/>
       </c>
       <c r="P95">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A95))</f>
         <v/>
       </c>
     </row>
@@ -9456,11 +9456,11 @@
         <v/>
       </c>
       <c r="L96">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B96)</f>
         <v/>
       </c>
       <c r="M96">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L96&lt;6,"Night",IF(L96&lt;12,"Morning",IF(L96&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N96">
@@ -9472,7 +9472,7 @@
         <v/>
       </c>
       <c r="P96">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A96))</f>
         <v/>
       </c>
     </row>
@@ -9484,11 +9484,11 @@
         <v/>
       </c>
       <c r="L97">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B97)</f>
         <v/>
       </c>
       <c r="M97">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L97&lt;6,"Night",IF(L97&lt;12,"Morning",IF(L97&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N97">
@@ -9500,7 +9500,7 @@
         <v/>
       </c>
       <c r="P97">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A97))</f>
         <v/>
       </c>
     </row>
@@ -9512,11 +9512,11 @@
         <v/>
       </c>
       <c r="L98">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B98)</f>
         <v/>
       </c>
       <c r="M98">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L98&lt;6,"Night",IF(L98&lt;12,"Morning",IF(L98&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N98">
@@ -9528,7 +9528,7 @@
         <v/>
       </c>
       <c r="P98">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A98))</f>
         <v/>
       </c>
     </row>
@@ -9540,11 +9540,11 @@
         <v/>
       </c>
       <c r="L99">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B99)</f>
         <v/>
       </c>
       <c r="M99">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L99&lt;6,"Night",IF(L99&lt;12,"Morning",IF(L99&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N99">
@@ -9556,7 +9556,7 @@
         <v/>
       </c>
       <c r="P99">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A99))</f>
         <v/>
       </c>
     </row>
@@ -9568,11 +9568,11 @@
         <v/>
       </c>
       <c r="L100">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B100)</f>
         <v/>
       </c>
       <c r="M100">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L100&lt;6,"Night",IF(L100&lt;12,"Morning",IF(L100&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N100">
@@ -9584,7 +9584,7 @@
         <v/>
       </c>
       <c r="P100">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A100))</f>
         <v/>
       </c>
     </row>
@@ -9596,11 +9596,11 @@
         <v/>
       </c>
       <c r="L101">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B101)</f>
         <v/>
       </c>
       <c r="M101">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L101&lt;6,"Night",IF(L101&lt;12,"Morning",IF(L101&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N101">
@@ -9612,7 +9612,7 @@
         <v/>
       </c>
       <c r="P101">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A101))</f>
         <v/>
       </c>
     </row>
@@ -9624,11 +9624,11 @@
         <v/>
       </c>
       <c r="L102">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B102)</f>
         <v/>
       </c>
       <c r="M102">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L102&lt;6,"Night",IF(L102&lt;12,"Morning",IF(L102&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N102">
@@ -9640,7 +9640,7 @@
         <v/>
       </c>
       <c r="P102">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A102))</f>
         <v/>
       </c>
     </row>
@@ -9652,11 +9652,11 @@
         <v/>
       </c>
       <c r="L103">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B103)</f>
         <v/>
       </c>
       <c r="M103">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L103&lt;6,"Night",IF(L103&lt;12,"Morning",IF(L103&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N103">
@@ -9668,7 +9668,7 @@
         <v/>
       </c>
       <c r="P103">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A103))</f>
         <v/>
       </c>
     </row>
@@ -9680,11 +9680,11 @@
         <v/>
       </c>
       <c r="L104">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B104)</f>
         <v/>
       </c>
       <c r="M104">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L104&lt;6,"Night",IF(L104&lt;12,"Morning",IF(L104&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N104">
@@ -9696,7 +9696,7 @@
         <v/>
       </c>
       <c r="P104">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A104))</f>
         <v/>
       </c>
     </row>
@@ -9708,11 +9708,11 @@
         <v/>
       </c>
       <c r="L105">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B105)</f>
         <v/>
       </c>
       <c r="M105">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L105&lt;6,"Night",IF(L105&lt;12,"Morning",IF(L105&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N105">
@@ -9724,7 +9724,7 @@
         <v/>
       </c>
       <c r="P105">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A105))</f>
         <v/>
       </c>
     </row>
@@ -9736,11 +9736,11 @@
         <v/>
       </c>
       <c r="L106">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B106)</f>
         <v/>
       </c>
       <c r="M106">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L106&lt;6,"Night",IF(L106&lt;12,"Morning",IF(L106&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N106">
@@ -9752,7 +9752,7 @@
         <v/>
       </c>
       <c r="P106">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A106))</f>
         <v/>
       </c>
     </row>
@@ -9764,11 +9764,11 @@
         <v/>
       </c>
       <c r="L107">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B107)</f>
         <v/>
       </c>
       <c r="M107">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L107&lt;6,"Night",IF(L107&lt;12,"Morning",IF(L107&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N107">
@@ -9780,7 +9780,7 @@
         <v/>
       </c>
       <c r="P107">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A107))</f>
         <v/>
       </c>
     </row>
@@ -9792,11 +9792,11 @@
         <v/>
       </c>
       <c r="L108">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B108)</f>
         <v/>
       </c>
       <c r="M108">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L108&lt;6,"Night",IF(L108&lt;12,"Morning",IF(L108&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N108">
@@ -9808,7 +9808,7 @@
         <v/>
       </c>
       <c r="P108">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A108))</f>
         <v/>
       </c>
     </row>
@@ -9820,11 +9820,11 @@
         <v/>
       </c>
       <c r="L109">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B109)</f>
         <v/>
       </c>
       <c r="M109">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L109&lt;6,"Night",IF(L109&lt;12,"Morning",IF(L109&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N109">
@@ -9836,7 +9836,7 @@
         <v/>
       </c>
       <c r="P109">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A109))</f>
         <v/>
       </c>
     </row>
@@ -9848,11 +9848,11 @@
         <v/>
       </c>
       <c r="L110">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B110)</f>
         <v/>
       </c>
       <c r="M110">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L110&lt;6,"Night",IF(L110&lt;12,"Morning",IF(L110&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N110">
@@ -9864,7 +9864,7 @@
         <v/>
       </c>
       <c r="P110">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A110))</f>
         <v/>
       </c>
     </row>
@@ -9876,11 +9876,11 @@
         <v/>
       </c>
       <c r="L111">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B111)</f>
         <v/>
       </c>
       <c r="M111">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L111&lt;6,"Night",IF(L111&lt;12,"Morning",IF(L111&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N111">
@@ -9892,7 +9892,7 @@
         <v/>
       </c>
       <c r="P111">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A111))</f>
         <v/>
       </c>
     </row>
@@ -9904,11 +9904,11 @@
         <v/>
       </c>
       <c r="L112">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B112)</f>
         <v/>
       </c>
       <c r="M112">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L112&lt;6,"Night",IF(L112&lt;12,"Morning",IF(L112&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N112">
@@ -9920,7 +9920,7 @@
         <v/>
       </c>
       <c r="P112">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A112))</f>
         <v/>
       </c>
     </row>
@@ -9932,11 +9932,11 @@
         <v/>
       </c>
       <c r="L113">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B113)</f>
         <v/>
       </c>
       <c r="M113">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L113&lt;6,"Night",IF(L113&lt;12,"Morning",IF(L113&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N113">
@@ -9948,7 +9948,7 @@
         <v/>
       </c>
       <c r="P113">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A113))</f>
         <v/>
       </c>
     </row>
@@ -9960,11 +9960,11 @@
         <v/>
       </c>
       <c r="L114">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B114)</f>
         <v/>
       </c>
       <c r="M114">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L114&lt;6,"Night",IF(L114&lt;12,"Morning",IF(L114&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N114">
@@ -9976,7 +9976,7 @@
         <v/>
       </c>
       <c r="P114">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A114))</f>
         <v/>
       </c>
     </row>
@@ -9988,11 +9988,11 @@
         <v/>
       </c>
       <c r="L115">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B115)</f>
         <v/>
       </c>
       <c r="M115">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L115&lt;6,"Night",IF(L115&lt;12,"Morning",IF(L115&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N115">
@@ -10004,7 +10004,7 @@
         <v/>
       </c>
       <c r="P115">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A115))</f>
         <v/>
       </c>
     </row>
@@ -10016,11 +10016,11 @@
         <v/>
       </c>
       <c r="L116">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B116)</f>
         <v/>
       </c>
       <c r="M116">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L116&lt;6,"Night",IF(L116&lt;12,"Morning",IF(L116&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N116">
@@ -10032,7 +10032,7 @@
         <v/>
       </c>
       <c r="P116">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A116))</f>
         <v/>
       </c>
     </row>
@@ -10044,11 +10044,11 @@
         <v/>
       </c>
       <c r="L117">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B117)</f>
         <v/>
       </c>
       <c r="M117">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L117&lt;6,"Night",IF(L117&lt;12,"Morning",IF(L117&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N117">
@@ -10060,7 +10060,7 @@
         <v/>
       </c>
       <c r="P117">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A117))</f>
         <v/>
       </c>
     </row>
@@ -10072,11 +10072,11 @@
         <v/>
       </c>
       <c r="L118">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B118)</f>
         <v/>
       </c>
       <c r="M118">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L118&lt;6,"Night",IF(L118&lt;12,"Morning",IF(L118&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N118">
@@ -10088,7 +10088,7 @@
         <v/>
       </c>
       <c r="P118">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A118))</f>
         <v/>
       </c>
     </row>
@@ -10100,11 +10100,11 @@
         <v/>
       </c>
       <c r="L119">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B119)</f>
         <v/>
       </c>
       <c r="M119">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L119&lt;6,"Night",IF(L119&lt;12,"Morning",IF(L119&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N119">
@@ -10116,7 +10116,7 @@
         <v/>
       </c>
       <c r="P119">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A119))</f>
         <v/>
       </c>
     </row>
@@ -10128,11 +10128,11 @@
         <v/>
       </c>
       <c r="L120">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B120)</f>
         <v/>
       </c>
       <c r="M120">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L120&lt;6,"Night",IF(L120&lt;12,"Morning",IF(L120&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N120">
@@ -10144,7 +10144,7 @@
         <v/>
       </c>
       <c r="P120">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A120))</f>
         <v/>
       </c>
     </row>
@@ -10156,11 +10156,11 @@
         <v/>
       </c>
       <c r="L121">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B121)</f>
         <v/>
       </c>
       <c r="M121">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L121&lt;6,"Night",IF(L121&lt;12,"Morning",IF(L121&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N121">
@@ -10172,7 +10172,7 @@
         <v/>
       </c>
       <c r="P121">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A121))</f>
         <v/>
       </c>
     </row>
@@ -10184,11 +10184,11 @@
         <v/>
       </c>
       <c r="L122">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B122)</f>
         <v/>
       </c>
       <c r="M122">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L122&lt;6,"Night",IF(L122&lt;12,"Morning",IF(L122&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N122">
@@ -10200,7 +10200,7 @@
         <v/>
       </c>
       <c r="P122">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A122))</f>
         <v/>
       </c>
     </row>
@@ -10212,11 +10212,11 @@
         <v/>
       </c>
       <c r="L123">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B123)</f>
         <v/>
       </c>
       <c r="M123">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L123&lt;6,"Night",IF(L123&lt;12,"Morning",IF(L123&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N123">
@@ -10228,7 +10228,7 @@
         <v/>
       </c>
       <c r="P123">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A123))</f>
         <v/>
       </c>
     </row>
@@ -10240,11 +10240,11 @@
         <v/>
       </c>
       <c r="L124">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B124)</f>
         <v/>
       </c>
       <c r="M124">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L124&lt;6,"Night",IF(L124&lt;12,"Morning",IF(L124&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N124">
@@ -10256,7 +10256,7 @@
         <v/>
       </c>
       <c r="P124">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A124))</f>
         <v/>
       </c>
     </row>
@@ -10268,11 +10268,11 @@
         <v/>
       </c>
       <c r="L125">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B125)</f>
         <v/>
       </c>
       <c r="M125">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L125&lt;6,"Night",IF(L125&lt;12,"Morning",IF(L125&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N125">
@@ -10284,7 +10284,7 @@
         <v/>
       </c>
       <c r="P125">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A125))</f>
         <v/>
       </c>
     </row>
@@ -10296,11 +10296,11 @@
         <v/>
       </c>
       <c r="L126">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B126)</f>
         <v/>
       </c>
       <c r="M126">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L126&lt;6,"Night",IF(L126&lt;12,"Morning",IF(L126&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N126">
@@ -10312,7 +10312,7 @@
         <v/>
       </c>
       <c r="P126">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A126))</f>
         <v/>
       </c>
     </row>
@@ -10324,11 +10324,11 @@
         <v/>
       </c>
       <c r="L127">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B127)</f>
         <v/>
       </c>
       <c r="M127">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L127&lt;6,"Night",IF(L127&lt;12,"Morning",IF(L127&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N127">
@@ -10340,7 +10340,7 @@
         <v/>
       </c>
       <c r="P127">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A127))</f>
         <v/>
       </c>
     </row>
@@ -10352,11 +10352,11 @@
         <v/>
       </c>
       <c r="L128">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B128)</f>
         <v/>
       </c>
       <c r="M128">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L128&lt;6,"Night",IF(L128&lt;12,"Morning",IF(L128&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N128">
@@ -10368,7 +10368,7 @@
         <v/>
       </c>
       <c r="P128">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A128))</f>
         <v/>
       </c>
     </row>
@@ -10380,11 +10380,11 @@
         <v/>
       </c>
       <c r="L129">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B129)</f>
         <v/>
       </c>
       <c r="M129">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L129&lt;6,"Night",IF(L129&lt;12,"Morning",IF(L129&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N129">
@@ -10396,7 +10396,7 @@
         <v/>
       </c>
       <c r="P129">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A129))</f>
         <v/>
       </c>
     </row>
@@ -10408,11 +10408,11 @@
         <v/>
       </c>
       <c r="L130">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B130)</f>
         <v/>
       </c>
       <c r="M130">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L130&lt;6,"Night",IF(L130&lt;12,"Morning",IF(L130&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N130">
@@ -10424,7 +10424,7 @@
         <v/>
       </c>
       <c r="P130">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A130))</f>
         <v/>
       </c>
     </row>
@@ -10436,11 +10436,11 @@
         <v/>
       </c>
       <c r="L131">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B131)</f>
         <v/>
       </c>
       <c r="M131">
-        <f>  IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L131&lt;6,"Night",IF(L131&lt;12,"Morning",IF(L131&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N131">
@@ -10452,7 +10452,7 @@
         <v/>
       </c>
       <c r="P131">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A131))</f>
         <v/>
       </c>
     </row>
@@ -10464,11 +10464,11 @@
         <v/>
       </c>
       <c r="L132">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B132)</f>
         <v/>
       </c>
       <c r="M132">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L132&lt;6,"Night",IF(L132&lt;12,"Morning",IF(L132&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N132">
@@ -10480,7 +10480,7 @@
         <v/>
       </c>
       <c r="P132">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A132))</f>
         <v/>
       </c>
     </row>
@@ -10492,11 +10492,11 @@
         <v/>
       </c>
       <c r="L133">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B133)</f>
         <v/>
       </c>
       <c r="M133">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L133&lt;6,"Night",IF(L133&lt;12,"Morning",IF(L133&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N133">
@@ -10508,7 +10508,7 @@
         <v/>
       </c>
       <c r="P133">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A133))</f>
         <v/>
       </c>
     </row>
@@ -10520,11 +10520,11 @@
         <v/>
       </c>
       <c r="L134">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B134)</f>
         <v/>
       </c>
       <c r="M134">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L134&lt;6,"Night",IF(L134&lt;12,"Morning",IF(L134&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N134">
@@ -10536,7 +10536,7 @@
         <v/>
       </c>
       <c r="P134">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A134))</f>
         <v/>
       </c>
     </row>
@@ -10548,11 +10548,11 @@
         <v/>
       </c>
       <c r="L135">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B135)</f>
         <v/>
       </c>
       <c r="M135">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L135&lt;6,"Night",IF(L135&lt;12,"Morning",IF(L135&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N135">
@@ -10564,7 +10564,7 @@
         <v/>
       </c>
       <c r="P135">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A135))</f>
         <v/>
       </c>
     </row>
@@ -10576,11 +10576,11 @@
         <v/>
       </c>
       <c r="L136">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B136)</f>
         <v/>
       </c>
       <c r="M136">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L136&lt;6,"Night",IF(L136&lt;12,"Morning",IF(L136&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N136">
@@ -10592,7 +10592,7 @@
         <v/>
       </c>
       <c r="P136">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A136))</f>
         <v/>
       </c>
     </row>
@@ -10604,11 +10604,11 @@
         <v/>
       </c>
       <c r="L137">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B137)</f>
         <v/>
       </c>
       <c r="M137">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L137&lt;6,"Night",IF(L137&lt;12,"Morning",IF(L137&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N137">
@@ -10620,7 +10620,7 @@
         <v/>
       </c>
       <c r="P137">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A137))</f>
         <v/>
       </c>
     </row>
@@ -10632,11 +10632,11 @@
         <v/>
       </c>
       <c r="L138">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B138)</f>
         <v/>
       </c>
       <c r="M138">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L138&lt;6,"Night",IF(L138&lt;12,"Morning",IF(L138&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N138">
@@ -10648,7 +10648,7 @@
         <v/>
       </c>
       <c r="P138">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A138))</f>
         <v/>
       </c>
     </row>
@@ -10660,11 +10660,11 @@
         <v/>
       </c>
       <c r="L139">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B139)</f>
         <v/>
       </c>
       <c r="M139">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L139&lt;6,"Night",IF(L139&lt;12,"Morning",IF(L139&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N139">
@@ -10676,7 +10676,7 @@
         <v/>
       </c>
       <c r="P139">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A139))</f>
         <v/>
       </c>
     </row>
@@ -10688,11 +10688,11 @@
         <v/>
       </c>
       <c r="L140">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B140)</f>
         <v/>
       </c>
       <c r="M140">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L140&lt;6,"Night",IF(L140&lt;12,"Morning",IF(L140&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N140">
@@ -10704,7 +10704,7 @@
         <v/>
       </c>
       <c r="P140">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A140))</f>
         <v/>
       </c>
     </row>
@@ -10716,11 +10716,11 @@
         <v/>
       </c>
       <c r="L141">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B141)</f>
         <v/>
       </c>
       <c r="M141">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L141&lt;6,"Night",IF(L141&lt;12,"Morning",IF(L141&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N141">
@@ -10732,7 +10732,7 @@
         <v/>
       </c>
       <c r="P141">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A141))</f>
         <v/>
       </c>
     </row>
@@ -10744,11 +10744,11 @@
         <v/>
       </c>
       <c r="L142">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B142)</f>
         <v/>
       </c>
       <c r="M142">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L142&lt;6,"Night",IF(L142&lt;12,"Morning",IF(L142&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N142">
@@ -10760,7 +10760,7 @@
         <v/>
       </c>
       <c r="P142">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A142))</f>
         <v/>
       </c>
     </row>
@@ -10772,11 +10772,11 @@
         <v/>
       </c>
       <c r="L143">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B143)</f>
         <v/>
       </c>
       <c r="M143">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L143&lt;6,"Night",IF(L143&lt;12,"Morning",IF(L143&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N143">
@@ -10788,7 +10788,7 @@
         <v/>
       </c>
       <c r="P143">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A143))</f>
         <v/>
       </c>
     </row>
@@ -10800,11 +10800,11 @@
         <v/>
       </c>
       <c r="L144">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B144)</f>
         <v/>
       </c>
       <c r="M144">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L144&lt;6,"Night",IF(L144&lt;12,"Morning",IF(L144&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N144">
@@ -10816,7 +10816,7 @@
         <v/>
       </c>
       <c r="P144">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A144))</f>
         <v/>
       </c>
     </row>
@@ -10828,11 +10828,11 @@
         <v/>
       </c>
       <c r="L145">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B145)</f>
         <v/>
       </c>
       <c r="M145">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L145&lt;6,"Night",IF(L145&lt;12,"Morning",IF(L145&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N145">
@@ -10844,7 +10844,7 @@
         <v/>
       </c>
       <c r="P145">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A145))</f>
         <v/>
       </c>
     </row>
@@ -10856,11 +10856,11 @@
         <v/>
       </c>
       <c r="L146">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B146)</f>
         <v/>
       </c>
       <c r="M146">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L146&lt;6,"Night",IF(L146&lt;12,"Morning",IF(L146&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N146">
@@ -10872,7 +10872,7 @@
         <v/>
       </c>
       <c r="P146">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A146))</f>
         <v/>
       </c>
     </row>
@@ -10884,11 +10884,11 @@
         <v/>
       </c>
       <c r="L147">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B147)</f>
         <v/>
       </c>
       <c r="M147">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L147&lt;6,"Night",IF(L147&lt;12,"Morning",IF(L147&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N147">
@@ -10900,7 +10900,7 @@
         <v/>
       </c>
       <c r="P147">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A147))</f>
         <v/>
       </c>
     </row>
@@ -10912,11 +10912,11 @@
         <v/>
       </c>
       <c r="L148">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B148)</f>
         <v/>
       </c>
       <c r="M148">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L148&lt;6,"Night",IF(L148&lt;12,"Morning",IF(L148&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N148">
@@ -10928,7 +10928,7 @@
         <v/>
       </c>
       <c r="P148">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A148))</f>
         <v/>
       </c>
     </row>
@@ -10940,11 +10940,11 @@
         <v/>
       </c>
       <c r="L149">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B149)</f>
         <v/>
       </c>
       <c r="M149">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L149&lt;6,"Night",IF(L149&lt;12,"Morning",IF(L149&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N149">
@@ -10956,7 +10956,7 @@
         <v/>
       </c>
       <c r="P149">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A149))</f>
         <v/>
       </c>
     </row>
@@ -10968,11 +10968,11 @@
         <v/>
       </c>
       <c r="L150">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B150)</f>
         <v/>
       </c>
       <c r="M150">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L150&lt;6,"Night",IF(L150&lt;12,"Morning",IF(L150&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N150">
@@ -10984,7 +10984,7 @@
         <v/>
       </c>
       <c r="P150">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A150))</f>
         <v/>
       </c>
     </row>
@@ -10996,11 +10996,11 @@
         <v/>
       </c>
       <c r="L151">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B151)</f>
         <v/>
       </c>
       <c r="M151">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L151&lt;6,"Night",IF(L151&lt;12,"Morning",IF(L151&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N151">
@@ -11012,7 +11012,7 @@
         <v/>
       </c>
       <c r="P151">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A151))</f>
         <v/>
       </c>
     </row>
@@ -11024,11 +11024,11 @@
         <v/>
       </c>
       <c r="L152">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B152)</f>
         <v/>
       </c>
       <c r="M152">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L152&lt;6,"Night",IF(L152&lt;12,"Morning",IF(L152&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N152">
@@ -11040,7 +11040,7 @@
         <v/>
       </c>
       <c r="P152">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A152))</f>
         <v/>
       </c>
     </row>
@@ -11052,11 +11052,11 @@
         <v/>
       </c>
       <c r="L153">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B153)</f>
         <v/>
       </c>
       <c r="M153">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L153&lt;6,"Night",IF(L153&lt;12,"Morning",IF(L153&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N153">
@@ -11068,7 +11068,7 @@
         <v/>
       </c>
       <c r="P153">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A153))</f>
         <v/>
       </c>
     </row>
@@ -11080,11 +11080,11 @@
         <v/>
       </c>
       <c r="L154">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B154)</f>
         <v/>
       </c>
       <c r="M154">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L154&lt;6,"Night",IF(L154&lt;12,"Morning",IF(L154&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N154">
@@ -11096,7 +11096,7 @@
         <v/>
       </c>
       <c r="P154">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A154))</f>
         <v/>
       </c>
     </row>
@@ -11108,11 +11108,11 @@
         <v/>
       </c>
       <c r="L155">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B155)</f>
         <v/>
       </c>
       <c r="M155">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L155&lt;6,"Night",IF(L155&lt;12,"Morning",IF(L155&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N155">
@@ -11124,7 +11124,7 @@
         <v/>
       </c>
       <c r="P155">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A155))</f>
         <v/>
       </c>
     </row>
@@ -11136,11 +11136,11 @@
         <v/>
       </c>
       <c r="L156">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B156)</f>
         <v/>
       </c>
       <c r="M156">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L156&lt;6,"Night",IF(L156&lt;12,"Morning",IF(L156&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N156">
@@ -11152,7 +11152,7 @@
         <v/>
       </c>
       <c r="P156">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A156))</f>
         <v/>
       </c>
     </row>
@@ -11164,11 +11164,11 @@
         <v/>
       </c>
       <c r="L157">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B157)</f>
         <v/>
       </c>
       <c r="M157">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L157&lt;6,"Night",IF(L157&lt;12,"Morning",IF(L157&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N157">
@@ -11180,7 +11180,7 @@
         <v/>
       </c>
       <c r="P157">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A157))</f>
         <v/>
       </c>
     </row>
@@ -11192,11 +11192,11 @@
         <v/>
       </c>
       <c r="L158">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B158)</f>
         <v/>
       </c>
       <c r="M158">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L158&lt;6,"Night",IF(L158&lt;12,"Morning",IF(L158&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N158">
@@ -11208,7 +11208,7 @@
         <v/>
       </c>
       <c r="P158">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A158))</f>
         <v/>
       </c>
     </row>
@@ -11220,11 +11220,11 @@
         <v/>
       </c>
       <c r="L159">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B159)</f>
         <v/>
       </c>
       <c r="M159">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L159&lt;6,"Night",IF(L159&lt;12,"Morning",IF(L159&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N159">
@@ -11236,7 +11236,7 @@
         <v/>
       </c>
       <c r="P159">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A159))</f>
         <v/>
       </c>
     </row>
@@ -11248,11 +11248,11 @@
         <v/>
       </c>
       <c r="L160">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B160)</f>
         <v/>
       </c>
       <c r="M160">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L160&lt;6,"Night",IF(L160&lt;12,"Morning",IF(L160&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N160">
@@ -11264,7 +11264,7 @@
         <v/>
       </c>
       <c r="P160">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A160))</f>
         <v/>
       </c>
     </row>
@@ -11276,11 +11276,11 @@
         <v/>
       </c>
       <c r="L161">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B161)</f>
         <v/>
       </c>
       <c r="M161">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L161&lt;6,"Night",IF(L161&lt;12,"Morning",IF(L161&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N161">
@@ -11292,7 +11292,7 @@
         <v/>
       </c>
       <c r="P161">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A161))</f>
         <v/>
       </c>
     </row>
@@ -11304,11 +11304,11 @@
         <v/>
       </c>
       <c r="L162">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B162)</f>
         <v/>
       </c>
       <c r="M162">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L162&lt;6,"Night",IF(L162&lt;12,"Morning",IF(L162&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N162">
@@ -11320,7 +11320,7 @@
         <v/>
       </c>
       <c r="P162">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A162))</f>
         <v/>
       </c>
     </row>
@@ -11332,11 +11332,11 @@
         <v/>
       </c>
       <c r="L163">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B163)</f>
         <v/>
       </c>
       <c r="M163">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L163&lt;6,"Night",IF(L163&lt;12,"Morning",IF(L163&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N163">
@@ -11348,7 +11348,7 @@
         <v/>
       </c>
       <c r="P163">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A163))</f>
         <v/>
       </c>
     </row>
@@ -11360,11 +11360,11 @@
         <v/>
       </c>
       <c r="L164">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B164)</f>
         <v/>
       </c>
       <c r="M164">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L164&lt;6,"Night",IF(L164&lt;12,"Morning",IF(L164&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N164">
@@ -11376,7 +11376,7 @@
         <v/>
       </c>
       <c r="P164">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A164))</f>
         <v/>
       </c>
     </row>
@@ -11388,11 +11388,11 @@
         <v/>
       </c>
       <c r="L165">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B165)</f>
         <v/>
       </c>
       <c r="M165">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L165&lt;6,"Night",IF(L165&lt;12,"Morning",IF(L165&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N165">
@@ -11404,7 +11404,7 @@
         <v/>
       </c>
       <c r="P165">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A165))</f>
         <v/>
       </c>
     </row>
@@ -11416,11 +11416,11 @@
         <v/>
       </c>
       <c r="L166">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B166)</f>
         <v/>
       </c>
       <c r="M166">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L166&lt;6,"Night",IF(L166&lt;12,"Morning",IF(L166&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N166">
@@ -11432,7 +11432,7 @@
         <v/>
       </c>
       <c r="P166">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A166))</f>
         <v/>
       </c>
     </row>
@@ -11444,11 +11444,11 @@
         <v/>
       </c>
       <c r="L167">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B167)</f>
         <v/>
       </c>
       <c r="M167">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L167&lt;6,"Night",IF(L167&lt;12,"Morning",IF(L167&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N167">
@@ -11460,7 +11460,7 @@
         <v/>
       </c>
       <c r="P167">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A167))</f>
         <v/>
       </c>
     </row>
@@ -11472,11 +11472,11 @@
         <v/>
       </c>
       <c r="L168">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B168)</f>
         <v/>
       </c>
       <c r="M168">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L168&lt;6,"Night",IF(L168&lt;12,"Morning",IF(L168&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N168">
@@ -11488,7 +11488,7 @@
         <v/>
       </c>
       <c r="P168">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A168))</f>
         <v/>
       </c>
     </row>
@@ -11500,11 +11500,11 @@
         <v/>
       </c>
       <c r="L169">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B169)</f>
         <v/>
       </c>
       <c r="M169">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L169&lt;6,"Night",IF(L169&lt;12,"Morning",IF(L169&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N169">
@@ -11516,7 +11516,7 @@
         <v/>
       </c>
       <c r="P169">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A169))</f>
         <v/>
       </c>
     </row>
@@ -11528,11 +11528,11 @@
         <v/>
       </c>
       <c r="L170">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B170)</f>
         <v/>
       </c>
       <c r="M170">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L170&lt;6,"Night",IF(L170&lt;12,"Morning",IF(L170&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N170">
@@ -11544,7 +11544,7 @@
         <v/>
       </c>
       <c r="P170">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A170))</f>
         <v/>
       </c>
     </row>
@@ -11556,11 +11556,11 @@
         <v/>
       </c>
       <c r="L171">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B171)</f>
         <v/>
       </c>
       <c r="M171">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L171&lt;6,"Night",IF(L171&lt;12,"Morning",IF(L171&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N171">
@@ -11572,7 +11572,7 @@
         <v/>
       </c>
       <c r="P171">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A171))</f>
         <v/>
       </c>
     </row>
@@ -11584,11 +11584,11 @@
         <v/>
       </c>
       <c r="L172">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B172)</f>
         <v/>
       </c>
       <c r="M172">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L172&lt;6,"Night",IF(L172&lt;12,"Morning",IF(L172&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N172">
@@ -11600,7 +11600,7 @@
         <v/>
       </c>
       <c r="P172">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A172))</f>
         <v/>
       </c>
     </row>
@@ -11612,11 +11612,11 @@
         <v/>
       </c>
       <c r="L173">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B173)</f>
         <v/>
       </c>
       <c r="M173">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L173&lt;6,"Night",IF(L173&lt;12,"Morning",IF(L173&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N173">
@@ -11628,7 +11628,7 @@
         <v/>
       </c>
       <c r="P173">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A173))</f>
         <v/>
       </c>
     </row>
@@ -11640,11 +11640,11 @@
         <v/>
       </c>
       <c r="L174">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B174)</f>
         <v/>
       </c>
       <c r="M174">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L174&lt;6,"Night",IF(L174&lt;12,"Morning",IF(L174&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N174">
@@ -11656,7 +11656,7 @@
         <v/>
       </c>
       <c r="P174">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A174))</f>
         <v/>
       </c>
     </row>
@@ -11668,11 +11668,11 @@
         <v/>
       </c>
       <c r="L175">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B175)</f>
         <v/>
       </c>
       <c r="M175">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L175&lt;6,"Night",IF(L175&lt;12,"Morning",IF(L175&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N175">
@@ -11684,7 +11684,7 @@
         <v/>
       </c>
       <c r="P175">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A175))</f>
         <v/>
       </c>
     </row>
@@ -11696,11 +11696,11 @@
         <v/>
       </c>
       <c r="L176">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B176)</f>
         <v/>
       </c>
       <c r="M176">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L176&lt;6,"Night",IF(L176&lt;12,"Morning",IF(L176&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N176">
@@ -11712,7 +11712,7 @@
         <v/>
       </c>
       <c r="P176">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A176))</f>
         <v/>
       </c>
     </row>
@@ -11724,11 +11724,11 @@
         <v/>
       </c>
       <c r="L177">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B177)</f>
         <v/>
       </c>
       <c r="M177">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L177&lt;6,"Night",IF(L177&lt;12,"Morning",IF(L177&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N177">
@@ -11740,7 +11740,7 @@
         <v/>
       </c>
       <c r="P177">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A177))</f>
         <v/>
       </c>
     </row>
@@ -11752,11 +11752,11 @@
         <v/>
       </c>
       <c r="L178">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B178)</f>
         <v/>
       </c>
       <c r="M178">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L178&lt;6,"Night",IF(L178&lt;12,"Morning",IF(L178&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N178">
@@ -11768,7 +11768,7 @@
         <v/>
       </c>
       <c r="P178">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A178))</f>
         <v/>
       </c>
     </row>
@@ -11780,11 +11780,11 @@
         <v/>
       </c>
       <c r="L179">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B179)</f>
         <v/>
       </c>
       <c r="M179">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L179&lt;6,"Night",IF(L179&lt;12,"Morning",IF(L179&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N179">
@@ -11796,7 +11796,7 @@
         <v/>
       </c>
       <c r="P179">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A179))</f>
         <v/>
       </c>
     </row>
@@ -11808,11 +11808,11 @@
         <v/>
       </c>
       <c r="L180">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B180)</f>
         <v/>
       </c>
       <c r="M180">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L180&lt;6,"Night",IF(L180&lt;12,"Morning",IF(L180&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N180">
@@ -11824,7 +11824,7 @@
         <v/>
       </c>
       <c r="P180">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A180))</f>
         <v/>
       </c>
     </row>
@@ -11836,11 +11836,11 @@
         <v/>
       </c>
       <c r="L181">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B181)</f>
         <v/>
       </c>
       <c r="M181">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L181&lt;6,"Night",IF(L181&lt;12,"Morning",IF(L181&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N181">
@@ -11852,7 +11852,7 @@
         <v/>
       </c>
       <c r="P181">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A181))</f>
         <v/>
       </c>
     </row>
@@ -11864,11 +11864,11 @@
         <v/>
       </c>
       <c r="L182">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B182)</f>
         <v/>
       </c>
       <c r="M182">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L182&lt;6,"Night",IF(L182&lt;12,"Morning",IF(L182&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N182">
@@ -11880,7 +11880,7 @@
         <v/>
       </c>
       <c r="P182">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A182))</f>
         <v/>
       </c>
     </row>
@@ -11892,11 +11892,11 @@
         <v/>
       </c>
       <c r="L183">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B183)</f>
         <v/>
       </c>
       <c r="M183">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L183&lt;6,"Night",IF(L183&lt;12,"Morning",IF(L183&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N183">
@@ -11908,7 +11908,7 @@
         <v/>
       </c>
       <c r="P183">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A183))</f>
         <v/>
       </c>
     </row>
@@ -11920,11 +11920,11 @@
         <v/>
       </c>
       <c r="L184">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B184)</f>
         <v/>
       </c>
       <c r="M184">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L184&lt;6,"Night",IF(L184&lt;12,"Morning",IF(L184&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N184">
@@ -11936,7 +11936,7 @@
         <v/>
       </c>
       <c r="P184">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A184))</f>
         <v/>
       </c>
     </row>
@@ -11948,11 +11948,11 @@
         <v/>
       </c>
       <c r="L185">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B185)</f>
         <v/>
       </c>
       <c r="M185">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L185&lt;6,"Night",IF(L185&lt;12,"Morning",IF(L185&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N185">
@@ -11964,7 +11964,7 @@
         <v/>
       </c>
       <c r="P185">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A185))</f>
         <v/>
       </c>
     </row>
@@ -11976,11 +11976,11 @@
         <v/>
       </c>
       <c r="L186">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B186)</f>
         <v/>
       </c>
       <c r="M186">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L186&lt;6,"Night",IF(L186&lt;12,"Morning",IF(L186&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N186">
@@ -11992,7 +11992,7 @@
         <v/>
       </c>
       <c r="P186">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A186))</f>
         <v/>
       </c>
     </row>
@@ -12004,11 +12004,11 @@
         <v/>
       </c>
       <c r="L187">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B187)</f>
         <v/>
       </c>
       <c r="M187">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L187&lt;6,"Night",IF(L187&lt;12,"Morning",IF(L187&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N187">
@@ -12020,7 +12020,7 @@
         <v/>
       </c>
       <c r="P187">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A187))</f>
         <v/>
       </c>
     </row>
@@ -12032,11 +12032,11 @@
         <v/>
       </c>
       <c r="L188">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B188)</f>
         <v/>
       </c>
       <c r="M188">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L188&lt;6,"Night",IF(L188&lt;12,"Morning",IF(L188&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N188">
@@ -12048,7 +12048,7 @@
         <v/>
       </c>
       <c r="P188">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A188))</f>
         <v/>
       </c>
     </row>
@@ -12060,11 +12060,11 @@
         <v/>
       </c>
       <c r="L189">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B189)</f>
         <v/>
       </c>
       <c r="M189">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L189&lt;6,"Night",IF(L189&lt;12,"Morning",IF(L189&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N189">
@@ -12076,7 +12076,7 @@
         <v/>
       </c>
       <c r="P189">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A189))</f>
         <v/>
       </c>
     </row>
@@ -12088,11 +12088,11 @@
         <v/>
       </c>
       <c r="L190">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B190)</f>
         <v/>
       </c>
       <c r="M190">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L190&lt;6,"Night",IF(L190&lt;12,"Morning",IF(L190&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N190">
@@ -12104,7 +12104,7 @@
         <v/>
       </c>
       <c r="P190">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A190))</f>
         <v/>
       </c>
     </row>
@@ -12116,11 +12116,11 @@
         <v/>
       </c>
       <c r="L191">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B191)</f>
         <v/>
       </c>
       <c r="M191">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L191&lt;6,"Night",IF(L191&lt;12,"Morning",IF(L191&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N191">
@@ -12132,7 +12132,7 @@
         <v/>
       </c>
       <c r="P191">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A191))</f>
         <v/>
       </c>
     </row>
@@ -12144,11 +12144,11 @@
         <v/>
       </c>
       <c r="L192">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B192)</f>
         <v/>
       </c>
       <c r="M192">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L192&lt;6,"Night",IF(L192&lt;12,"Morning",IF(L192&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N192">
@@ -12160,7 +12160,7 @@
         <v/>
       </c>
       <c r="P192">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A192))</f>
         <v/>
       </c>
     </row>
@@ -12172,11 +12172,11 @@
         <v/>
       </c>
       <c r="L193">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B193)</f>
         <v/>
       </c>
       <c r="M193">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L193&lt;6,"Night",IF(L193&lt;12,"Morning",IF(L193&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N193">
@@ -12188,7 +12188,7 @@
         <v/>
       </c>
       <c r="P193">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A193))</f>
         <v/>
       </c>
     </row>
@@ -12200,11 +12200,11 @@
         <v/>
       </c>
       <c r="L194">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B194)</f>
         <v/>
       </c>
       <c r="M194">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L194&lt;6,"Night",IF(L194&lt;12,"Morning",IF(L194&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N194">
@@ -12216,7 +12216,7 @@
         <v/>
       </c>
       <c r="P194">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A194))</f>
         <v/>
       </c>
     </row>
@@ -12228,11 +12228,11 @@
         <v/>
       </c>
       <c r="L195">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B195)</f>
         <v/>
       </c>
       <c r="M195">
-        <f>  IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L195&lt;6,"Night",IF(L195&lt;12,"Morning",IF(L195&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N195">
@@ -12244,7 +12244,7 @@
         <v/>
       </c>
       <c r="P195">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A195))</f>
         <v/>
       </c>
     </row>
@@ -12256,11 +12256,11 @@
         <v/>
       </c>
       <c r="L196">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B196)</f>
         <v/>
       </c>
       <c r="M196">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L196&lt;6,"Night",IF(L196&lt;12,"Morning",IF(L196&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N196">
@@ -12272,7 +12272,7 @@
         <v/>
       </c>
       <c r="P196">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A196))</f>
         <v/>
       </c>
     </row>
@@ -12284,11 +12284,11 @@
         <v/>
       </c>
       <c r="L197">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B197)</f>
         <v/>
       </c>
       <c r="M197">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L197&lt;6,"Night",IF(L197&lt;12,"Morning",IF(L197&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N197">
@@ -12300,7 +12300,7 @@
         <v/>
       </c>
       <c r="P197">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A197))</f>
         <v/>
       </c>
     </row>
@@ -12312,11 +12312,11 @@
         <v/>
       </c>
       <c r="L198">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B198)</f>
         <v/>
       </c>
       <c r="M198">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L198&lt;6,"Night",IF(L198&lt;12,"Morning",IF(L198&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N198">
@@ -12328,7 +12328,7 @@
         <v/>
       </c>
       <c r="P198">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A198))</f>
         <v/>
       </c>
     </row>
@@ -12340,11 +12340,11 @@
         <v/>
       </c>
       <c r="L199">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B199)</f>
         <v/>
       </c>
       <c r="M199">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L199&lt;6,"Night",IF(L199&lt;12,"Morning",IF(L199&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N199">
@@ -12356,7 +12356,7 @@
         <v/>
       </c>
       <c r="P199">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A199))</f>
         <v/>
       </c>
     </row>
@@ -12368,11 +12368,11 @@
         <v/>
       </c>
       <c r="L200">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B200)</f>
         <v/>
       </c>
       <c r="M200">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L200&lt;6,"Night",IF(L200&lt;12,"Morning",IF(L200&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N200">
@@ -12384,7 +12384,7 @@
         <v/>
       </c>
       <c r="P200">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A200))</f>
         <v/>
       </c>
     </row>
@@ -12396,11 +12396,11 @@
         <v/>
       </c>
       <c r="L201">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B201)</f>
         <v/>
       </c>
       <c r="M201">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L201&lt;6,"Night",IF(L201&lt;12,"Morning",IF(L201&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N201">
@@ -12412,7 +12412,7 @@
         <v/>
       </c>
       <c r="P201">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A201))</f>
         <v/>
       </c>
     </row>
@@ -12424,11 +12424,11 @@
         <v/>
       </c>
       <c r="L202">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B202)</f>
         <v/>
       </c>
       <c r="M202">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L202&lt;6,"Night",IF(L202&lt;12,"Morning",IF(L202&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N202">
@@ -12440,7 +12440,7 @@
         <v/>
       </c>
       <c r="P202">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A202))</f>
         <v/>
       </c>
     </row>
@@ -12452,11 +12452,11 @@
         <v/>
       </c>
       <c r="L203">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B203)</f>
         <v/>
       </c>
       <c r="M203">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L203&lt;6,"Night",IF(L203&lt;12,"Morning",IF(L203&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N203">
@@ -12468,7 +12468,7 @@
         <v/>
       </c>
       <c r="P203">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A203))</f>
         <v/>
       </c>
     </row>
@@ -12480,11 +12480,11 @@
         <v/>
       </c>
       <c r="L204">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B204)</f>
         <v/>
       </c>
       <c r="M204">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L204&lt;6,"Night",IF(L204&lt;12,"Morning",IF(L204&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N204">
@@ -12496,7 +12496,7 @@
         <v/>
       </c>
       <c r="P204">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A204))</f>
         <v/>
       </c>
     </row>
@@ -12508,11 +12508,11 @@
         <v/>
       </c>
       <c r="L205">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B205)</f>
         <v/>
       </c>
       <c r="M205">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L205&lt;6,"Night",IF(L205&lt;12,"Morning",IF(L205&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N205">
@@ -12524,7 +12524,7 @@
         <v/>
       </c>
       <c r="P205">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A205))</f>
         <v/>
       </c>
     </row>
@@ -12536,11 +12536,11 @@
         <v/>
       </c>
       <c r="L206">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B206)</f>
         <v/>
       </c>
       <c r="M206">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L206&lt;6,"Night",IF(L206&lt;12,"Morning",IF(L206&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N206">
@@ -12552,7 +12552,7 @@
         <v/>
       </c>
       <c r="P206">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A206))</f>
         <v/>
       </c>
     </row>
@@ -12564,11 +12564,11 @@
         <v/>
       </c>
       <c r="L207">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B207)</f>
         <v/>
       </c>
       <c r="M207">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L207&lt;6,"Night",IF(L207&lt;12,"Morning",IF(L207&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N207">
@@ -12580,7 +12580,7 @@
         <v/>
       </c>
       <c r="P207">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A207))</f>
         <v/>
       </c>
     </row>
@@ -12592,11 +12592,11 @@
         <v/>
       </c>
       <c r="L208">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B208)</f>
         <v/>
       </c>
       <c r="M208">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L208&lt;6,"Night",IF(L208&lt;12,"Morning",IF(L208&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N208">
@@ -12608,7 +12608,7 @@
         <v/>
       </c>
       <c r="P208">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A208))</f>
         <v/>
       </c>
     </row>
@@ -12620,11 +12620,11 @@
         <v/>
       </c>
       <c r="L209">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B209)</f>
         <v/>
       </c>
       <c r="M209">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L209&lt;6,"Night",IF(L209&lt;12,"Morning",IF(L209&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N209">
@@ -12636,7 +12636,7 @@
         <v/>
       </c>
       <c r="P209">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A209))</f>
         <v/>
       </c>
     </row>
@@ -12648,11 +12648,11 @@
         <v/>
       </c>
       <c r="L210">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B210)</f>
         <v/>
       </c>
       <c r="M210">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L210&lt;6,"Night",IF(L210&lt;12,"Morning",IF(L210&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N210">
@@ -12664,7 +12664,7 @@
         <v/>
       </c>
       <c r="P210">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A210))</f>
         <v/>
       </c>
     </row>
@@ -12676,11 +12676,11 @@
         <v/>
       </c>
       <c r="L211">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B211)</f>
         <v/>
       </c>
       <c r="M211">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L211&lt;6,"Night",IF(L211&lt;12,"Morning",IF(L211&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N211">
@@ -12692,7 +12692,7 @@
         <v/>
       </c>
       <c r="P211">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A211))</f>
         <v/>
       </c>
     </row>
@@ -12704,11 +12704,11 @@
         <v/>
       </c>
       <c r="L212">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B212)</f>
         <v/>
       </c>
       <c r="M212">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L212&lt;6,"Night",IF(L212&lt;12,"Morning",IF(L212&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N212">
@@ -12720,7 +12720,7 @@
         <v/>
       </c>
       <c r="P212">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A212))</f>
         <v/>
       </c>
     </row>
@@ -12732,11 +12732,11 @@
         <v/>
       </c>
       <c r="L213">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B213)</f>
         <v/>
       </c>
       <c r="M213">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L213&lt;6,"Night",IF(L213&lt;12,"Morning",IF(L213&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N213">
@@ -12748,7 +12748,7 @@
         <v/>
       </c>
       <c r="P213">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A213))</f>
         <v/>
       </c>
     </row>
@@ -12760,11 +12760,11 @@
         <v/>
       </c>
       <c r="L214">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B214)</f>
         <v/>
       </c>
       <c r="M214">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L214&lt;6,"Night",IF(L214&lt;12,"Morning",IF(L214&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N214">
@@ -12776,7 +12776,7 @@
         <v/>
       </c>
       <c r="P214">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A214))</f>
         <v/>
       </c>
     </row>
@@ -12788,11 +12788,11 @@
         <v/>
       </c>
       <c r="L215">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B215)</f>
         <v/>
       </c>
       <c r="M215">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L215&lt;6,"Night",IF(L215&lt;12,"Morning",IF(L215&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N215">
@@ -12804,7 +12804,7 @@
         <v/>
       </c>
       <c r="P215">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A215))</f>
         <v/>
       </c>
     </row>
@@ -12816,11 +12816,11 @@
         <v/>
       </c>
       <c r="L216">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B216)</f>
         <v/>
       </c>
       <c r="M216">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L216&lt;6,"Night",IF(L216&lt;12,"Morning",IF(L216&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N216">
@@ -12832,7 +12832,7 @@
         <v/>
       </c>
       <c r="P216">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A216))</f>
         <v/>
       </c>
     </row>
@@ -12844,11 +12844,11 @@
         <v/>
       </c>
       <c r="L217">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B217)</f>
         <v/>
       </c>
       <c r="M217">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L217&lt;6,"Night",IF(L217&lt;12,"Morning",IF(L217&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N217">
@@ -12860,7 +12860,7 @@
         <v/>
       </c>
       <c r="P217">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A217))</f>
         <v/>
       </c>
     </row>
@@ -12872,11 +12872,11 @@
         <v/>
       </c>
       <c r="L218">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B218)</f>
         <v/>
       </c>
       <c r="M218">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L218&lt;6,"Night",IF(L218&lt;12,"Morning",IF(L218&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N218">
@@ -12888,7 +12888,7 @@
         <v/>
       </c>
       <c r="P218">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A218))</f>
         <v/>
       </c>
     </row>
@@ -12900,11 +12900,11 @@
         <v/>
       </c>
       <c r="L219">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B219)</f>
         <v/>
       </c>
       <c r="M219">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L219&lt;6,"Night",IF(L219&lt;12,"Morning",IF(L219&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N219">
@@ -12916,7 +12916,7 @@
         <v/>
       </c>
       <c r="P219">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A219))</f>
         <v/>
       </c>
     </row>
@@ -12928,11 +12928,11 @@
         <v/>
       </c>
       <c r="L220">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B220)</f>
         <v/>
       </c>
       <c r="M220">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L220&lt;6,"Night",IF(L220&lt;12,"Morning",IF(L220&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N220">
@@ -12944,7 +12944,7 @@
         <v/>
       </c>
       <c r="P220">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A220))</f>
         <v/>
       </c>
     </row>
@@ -12956,11 +12956,11 @@
         <v/>
       </c>
       <c r="L221">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B221)</f>
         <v/>
       </c>
       <c r="M221">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L221&lt;6,"Night",IF(L221&lt;12,"Morning",IF(L221&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N221">
@@ -12972,7 +12972,7 @@
         <v/>
       </c>
       <c r="P221">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A221))</f>
         <v/>
       </c>
     </row>
@@ -12984,11 +12984,11 @@
         <v/>
       </c>
       <c r="L222">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B222)</f>
         <v/>
       </c>
       <c r="M222">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L222&lt;6,"Night",IF(L222&lt;12,"Morning",IF(L222&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N222">
@@ -13000,7 +13000,7 @@
         <v/>
       </c>
       <c r="P222">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A222))</f>
         <v/>
       </c>
     </row>
@@ -13012,11 +13012,11 @@
         <v/>
       </c>
       <c r="L223">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B223)</f>
         <v/>
       </c>
       <c r="M223">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L223&lt;6,"Night",IF(L223&lt;12,"Morning",IF(L223&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N223">
@@ -13028,7 +13028,7 @@
         <v/>
       </c>
       <c r="P223">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A223))</f>
         <v/>
       </c>
     </row>
@@ -13040,11 +13040,11 @@
         <v/>
       </c>
       <c r="L224">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B224)</f>
         <v/>
       </c>
       <c r="M224">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L224&lt;6,"Night",IF(L224&lt;12,"Morning",IF(L224&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N224">
@@ -13056,7 +13056,7 @@
         <v/>
       </c>
       <c r="P224">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A224))</f>
         <v/>
       </c>
     </row>
@@ -13068,11 +13068,11 @@
         <v/>
       </c>
       <c r="L225">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B225)</f>
         <v/>
       </c>
       <c r="M225">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L225&lt;6,"Night",IF(L225&lt;12,"Morning",IF(L225&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N225">
@@ -13084,7 +13084,7 @@
         <v/>
       </c>
       <c r="P225">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A225))</f>
         <v/>
       </c>
     </row>
@@ -13096,11 +13096,11 @@
         <v/>
       </c>
       <c r="L226">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B226)</f>
         <v/>
       </c>
       <c r="M226">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L226&lt;6,"Night",IF(L226&lt;12,"Morning",IF(L226&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N226">
@@ -13112,7 +13112,7 @@
         <v/>
       </c>
       <c r="P226">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A226))</f>
         <v/>
       </c>
     </row>
@@ -13124,11 +13124,11 @@
         <v/>
       </c>
       <c r="L227">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B227)</f>
         <v/>
       </c>
       <c r="M227">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L227&lt;6,"Night",IF(L227&lt;12,"Morning",IF(L227&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N227">
@@ -13140,7 +13140,7 @@
         <v/>
       </c>
       <c r="P227">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A227))</f>
         <v/>
       </c>
     </row>
@@ -13152,11 +13152,11 @@
         <v/>
       </c>
       <c r="L228">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B228)</f>
         <v/>
       </c>
       <c r="M228">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L228&lt;6,"Night",IF(L228&lt;12,"Morning",IF(L228&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N228">
@@ -13168,7 +13168,7 @@
         <v/>
       </c>
       <c r="P228">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A228))</f>
         <v/>
       </c>
     </row>
@@ -13180,11 +13180,11 @@
         <v/>
       </c>
       <c r="L229">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B229)</f>
         <v/>
       </c>
       <c r="M229">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L229&lt;6,"Night",IF(L229&lt;12,"Morning",IF(L229&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N229">
@@ -13196,7 +13196,7 @@
         <v/>
       </c>
       <c r="P229">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A229))</f>
         <v/>
       </c>
     </row>
@@ -13208,11 +13208,11 @@
         <v/>
       </c>
       <c r="L230">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B230)</f>
         <v/>
       </c>
       <c r="M230">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L230&lt;6,"Night",IF(L230&lt;12,"Morning",IF(L230&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N230">
@@ -13224,7 +13224,7 @@
         <v/>
       </c>
       <c r="P230">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A230))</f>
         <v/>
       </c>
     </row>
@@ -13236,11 +13236,11 @@
         <v/>
       </c>
       <c r="L231">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B231)</f>
         <v/>
       </c>
       <c r="M231">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L231&lt;6,"Night",IF(L231&lt;12,"Morning",IF(L231&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N231">
@@ -13252,7 +13252,7 @@
         <v/>
       </c>
       <c r="P231">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A231))</f>
         <v/>
       </c>
     </row>
@@ -13264,11 +13264,11 @@
         <v/>
       </c>
       <c r="L232">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B232)</f>
         <v/>
       </c>
       <c r="M232">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L232&lt;6,"Night",IF(L232&lt;12,"Morning",IF(L232&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N232">
@@ -13280,7 +13280,7 @@
         <v/>
       </c>
       <c r="P232">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A232))</f>
         <v/>
       </c>
     </row>
@@ -13292,11 +13292,11 @@
         <v/>
       </c>
       <c r="L233">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B233)</f>
         <v/>
       </c>
       <c r="M233">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L233&lt;6,"Night",IF(L233&lt;12,"Morning",IF(L233&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N233">
@@ -13308,7 +13308,7 @@
         <v/>
       </c>
       <c r="P233">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A233))</f>
         <v/>
       </c>
     </row>
@@ -13320,11 +13320,11 @@
         <v/>
       </c>
       <c r="L234">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B234)</f>
         <v/>
       </c>
       <c r="M234">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L234&lt;6,"Night",IF(L234&lt;12,"Morning",IF(L234&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N234">
@@ -13336,7 +13336,7 @@
         <v/>
       </c>
       <c r="P234">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A234))</f>
         <v/>
       </c>
     </row>
@@ -13348,11 +13348,11 @@
         <v/>
       </c>
       <c r="L235">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B235)</f>
         <v/>
       </c>
       <c r="M235">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L235&lt;6,"Night",IF(L235&lt;12,"Morning",IF(L235&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N235">
@@ -13364,7 +13364,7 @@
         <v/>
       </c>
       <c r="P235">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A235))</f>
         <v/>
       </c>
     </row>
@@ -13376,11 +13376,11 @@
         <v/>
       </c>
       <c r="L236">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B236)</f>
         <v/>
       </c>
       <c r="M236">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L236&lt;6,"Night",IF(L236&lt;12,"Morning",IF(L236&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N236">
@@ -13392,7 +13392,7 @@
         <v/>
       </c>
       <c r="P236">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A236))</f>
         <v/>
       </c>
     </row>
@@ -13404,11 +13404,11 @@
         <v/>
       </c>
       <c r="L237">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B237)</f>
         <v/>
       </c>
       <c r="M237">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L237&lt;6,"Night",IF(L237&lt;12,"Morning",IF(L237&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N237">
@@ -13420,7 +13420,7 @@
         <v/>
       </c>
       <c r="P237">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A237))</f>
         <v/>
       </c>
     </row>
@@ -13432,11 +13432,11 @@
         <v/>
       </c>
       <c r="L238">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B238)</f>
         <v/>
       </c>
       <c r="M238">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L238&lt;6,"Night",IF(L238&lt;12,"Morning",IF(L238&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N238">
@@ -13448,7 +13448,7 @@
         <v/>
       </c>
       <c r="P238">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A238))</f>
         <v/>
       </c>
     </row>
@@ -13460,11 +13460,11 @@
         <v/>
       </c>
       <c r="L239">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B239)</f>
         <v/>
       </c>
       <c r="M239">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L239&lt;6,"Night",IF(L239&lt;12,"Morning",IF(L239&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N239">
@@ -13476,7 +13476,7 @@
         <v/>
       </c>
       <c r="P239">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A239))</f>
         <v/>
       </c>
     </row>
@@ -13488,11 +13488,11 @@
         <v/>
       </c>
       <c r="L240">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B240)</f>
         <v/>
       </c>
       <c r="M240">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L240&lt;6,"Night",IF(L240&lt;12,"Morning",IF(L240&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N240">
@@ -13504,7 +13504,7 @@
         <v/>
       </c>
       <c r="P240">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A240))</f>
         <v/>
       </c>
     </row>
@@ -13516,11 +13516,11 @@
         <v/>
       </c>
       <c r="L241">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B241)</f>
         <v/>
       </c>
       <c r="M241">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L241&lt;6,"Night",IF(L241&lt;12,"Morning",IF(L241&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N241">
@@ -13532,7 +13532,7 @@
         <v/>
       </c>
       <c r="P241">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A241))</f>
         <v/>
       </c>
     </row>
@@ -13544,11 +13544,11 @@
         <v/>
       </c>
       <c r="L242">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B242)</f>
         <v/>
       </c>
       <c r="M242">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L242&lt;6,"Night",IF(L242&lt;12,"Morning",IF(L242&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N242">
@@ -13560,7 +13560,7 @@
         <v/>
       </c>
       <c r="P242">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A242))</f>
         <v/>
       </c>
     </row>
@@ -13572,11 +13572,11 @@
         <v/>
       </c>
       <c r="L243">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B243)</f>
         <v/>
       </c>
       <c r="M243">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L243&lt;6,"Night",IF(L243&lt;12,"Morning",IF(L243&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N243">
@@ -13588,7 +13588,7 @@
         <v/>
       </c>
       <c r="P243">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A243))</f>
         <v/>
       </c>
     </row>
@@ -13600,11 +13600,11 @@
         <v/>
       </c>
       <c r="L244">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B244)</f>
         <v/>
       </c>
       <c r="M244">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L244&lt;6,"Night",IF(L244&lt;12,"Morning",IF(L244&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N244">
@@ -13616,7 +13616,7 @@
         <v/>
       </c>
       <c r="P244">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A244))</f>
         <v/>
       </c>
     </row>
@@ -13628,11 +13628,11 @@
         <v/>
       </c>
       <c r="L245">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B245)</f>
         <v/>
       </c>
       <c r="M245">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L245&lt;6,"Night",IF(L245&lt;12,"Morning",IF(L245&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N245">
@@ -13644,7 +13644,7 @@
         <v/>
       </c>
       <c r="P245">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A245))</f>
         <v/>
       </c>
     </row>
@@ -13656,11 +13656,11 @@
         <v/>
       </c>
       <c r="L246">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B246)</f>
         <v/>
       </c>
       <c r="M246">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L246&lt;6,"Night",IF(L246&lt;12,"Morning",IF(L246&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N246">
@@ -13672,7 +13672,7 @@
         <v/>
       </c>
       <c r="P246">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A246))</f>
         <v/>
       </c>
     </row>
@@ -13684,11 +13684,11 @@
         <v/>
       </c>
       <c r="L247">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B247)</f>
         <v/>
       </c>
       <c r="M247">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L247&lt;6,"Night",IF(L247&lt;12,"Morning",IF(L247&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N247">
@@ -13700,7 +13700,7 @@
         <v/>
       </c>
       <c r="P247">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A247))</f>
         <v/>
       </c>
     </row>
@@ -13712,11 +13712,11 @@
         <v/>
       </c>
       <c r="L248">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B248)</f>
         <v/>
       </c>
       <c r="M248">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L248&lt;6,"Night",IF(L248&lt;12,"Morning",IF(L248&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N248">
@@ -13728,7 +13728,7 @@
         <v/>
       </c>
       <c r="P248">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A248))</f>
         <v/>
       </c>
     </row>
@@ -13740,11 +13740,11 @@
         <v/>
       </c>
       <c r="L249">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B249)</f>
         <v/>
       </c>
       <c r="M249">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L249&lt;6,"Night",IF(L249&lt;12,"Morning",IF(L249&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N249">
@@ -13756,7 +13756,7 @@
         <v/>
       </c>
       <c r="P249">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A249))</f>
         <v/>
       </c>
     </row>
@@ -13768,11 +13768,11 @@
         <v/>
       </c>
       <c r="L250">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B250)</f>
         <v/>
       </c>
       <c r="M250">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L250&lt;6,"Night",IF(L250&lt;12,"Morning",IF(L250&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N250">
@@ -13784,7 +13784,7 @@
         <v/>
       </c>
       <c r="P250">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A250))</f>
         <v/>
       </c>
     </row>
@@ -13796,11 +13796,11 @@
         <v/>
       </c>
       <c r="L251">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B251)</f>
         <v/>
       </c>
       <c r="M251">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L251&lt;6,"Night",IF(L251&lt;12,"Morning",IF(L251&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N251">
@@ -13812,7 +13812,7 @@
         <v/>
       </c>
       <c r="P251">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A251))</f>
         <v/>
       </c>
     </row>
@@ -13824,11 +13824,11 @@
         <v/>
       </c>
       <c r="L252">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B252)</f>
         <v/>
       </c>
       <c r="M252">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L252&lt;6,"Night",IF(L252&lt;12,"Morning",IF(L252&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N252">
@@ -13840,7 +13840,7 @@
         <v/>
       </c>
       <c r="P252">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A252))</f>
         <v/>
       </c>
     </row>
@@ -13852,11 +13852,11 @@
         <v/>
       </c>
       <c r="L253">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B253)</f>
         <v/>
       </c>
       <c r="M253">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L253&lt;6,"Night",IF(L253&lt;12,"Morning",IF(L253&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N253">
@@ -13868,7 +13868,7 @@
         <v/>
       </c>
       <c r="P253">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A253))</f>
         <v/>
       </c>
     </row>
@@ -13880,11 +13880,11 @@
         <v/>
       </c>
       <c r="L254">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B254)</f>
         <v/>
       </c>
       <c r="M254">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L254&lt;6,"Night",IF(L254&lt;12,"Morning",IF(L254&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N254">
@@ -13896,7 +13896,7 @@
         <v/>
       </c>
       <c r="P254">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A254))</f>
         <v/>
       </c>
     </row>
@@ -13908,11 +13908,11 @@
         <v/>
       </c>
       <c r="L255">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B255)</f>
         <v/>
       </c>
       <c r="M255">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L255&lt;6,"Night",IF(L255&lt;12,"Morning",IF(L255&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N255">
@@ -13924,7 +13924,7 @@
         <v/>
       </c>
       <c r="P255">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A255))</f>
         <v/>
       </c>
     </row>
@@ -13936,11 +13936,11 @@
         <v/>
       </c>
       <c r="L256">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B256)</f>
         <v/>
       </c>
       <c r="M256">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L256&lt;6,"Night",IF(L256&lt;12,"Morning",IF(L256&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N256">
@@ -13952,7 +13952,7 @@
         <v/>
       </c>
       <c r="P256">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A256))</f>
         <v/>
       </c>
     </row>
@@ -13964,11 +13964,11 @@
         <v/>
       </c>
       <c r="L257">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B257)</f>
         <v/>
       </c>
       <c r="M257">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L257&lt;6,"Night",IF(L257&lt;12,"Morning",IF(L257&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N257">
@@ -13980,7 +13980,7 @@
         <v/>
       </c>
       <c r="P257">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A257))</f>
         <v/>
       </c>
     </row>
@@ -13992,11 +13992,11 @@
         <v/>
       </c>
       <c r="L258">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B258)</f>
         <v/>
       </c>
       <c r="M258">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L258&lt;6,"Night",IF(L258&lt;12,"Morning",IF(L258&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N258">
@@ -14008,7 +14008,7 @@
         <v/>
       </c>
       <c r="P258">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A258))</f>
         <v/>
       </c>
     </row>
@@ -14020,11 +14020,11 @@
         <v/>
       </c>
       <c r="L259">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B259)</f>
         <v/>
       </c>
       <c r="M259">
-        <f>  IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L259&lt;6,"Night",IF(L259&lt;12,"Morning",IF(L259&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N259">
@@ -14036,7 +14036,7 @@
         <v/>
       </c>
       <c r="P259">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A259))</f>
         <v/>
       </c>
     </row>
@@ -14048,11 +14048,11 @@
         <v/>
       </c>
       <c r="L260">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B260)</f>
         <v/>
       </c>
       <c r="M260">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L260&lt;6,"Night",IF(L260&lt;12,"Morning",IF(L260&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N260">
@@ -14064,7 +14064,7 @@
         <v/>
       </c>
       <c r="P260">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A260))</f>
         <v/>
       </c>
     </row>
@@ -14076,11 +14076,11 @@
         <v/>
       </c>
       <c r="L261">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B261)</f>
         <v/>
       </c>
       <c r="M261">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L261&lt;6,"Night",IF(L261&lt;12,"Morning",IF(L261&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N261">
@@ -14092,7 +14092,7 @@
         <v/>
       </c>
       <c r="P261">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A261))</f>
         <v/>
       </c>
     </row>
@@ -14104,11 +14104,11 @@
         <v/>
       </c>
       <c r="L262">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B262)</f>
         <v/>
       </c>
       <c r="M262">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L262&lt;6,"Night",IF(L262&lt;12,"Morning",IF(L262&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N262">
@@ -14120,7 +14120,7 @@
         <v/>
       </c>
       <c r="P262">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A262))</f>
         <v/>
       </c>
     </row>
@@ -14132,11 +14132,11 @@
         <v/>
       </c>
       <c r="L263">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B263)</f>
         <v/>
       </c>
       <c r="M263">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L263&lt;6,"Night",IF(L263&lt;12,"Morning",IF(L263&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N263">
@@ -14148,7 +14148,7 @@
         <v/>
       </c>
       <c r="P263">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A263))</f>
         <v/>
       </c>
     </row>
@@ -14160,11 +14160,11 @@
         <v/>
       </c>
       <c r="L264">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B264)</f>
         <v/>
       </c>
       <c r="M264">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L264&lt;6,"Night",IF(L264&lt;12,"Morning",IF(L264&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N264">
@@ -14176,7 +14176,7 @@
         <v/>
       </c>
       <c r="P264">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A264))</f>
         <v/>
       </c>
     </row>
@@ -14188,11 +14188,11 @@
         <v/>
       </c>
       <c r="L265">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B265)</f>
         <v/>
       </c>
       <c r="M265">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L265&lt;6,"Night",IF(L265&lt;12,"Morning",IF(L265&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N265">
@@ -14204,7 +14204,7 @@
         <v/>
       </c>
       <c r="P265">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A265))</f>
         <v/>
       </c>
     </row>
@@ -14216,11 +14216,11 @@
         <v/>
       </c>
       <c r="L266">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B266)</f>
         <v/>
       </c>
       <c r="M266">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L266&lt;6,"Night",IF(L266&lt;12,"Morning",IF(L266&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N266">
@@ -14232,7 +14232,7 @@
         <v/>
       </c>
       <c r="P266">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A266))</f>
         <v/>
       </c>
     </row>
@@ -14244,11 +14244,11 @@
         <v/>
       </c>
       <c r="L267">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B267)</f>
         <v/>
       </c>
       <c r="M267">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L267&lt;6,"Night",IF(L267&lt;12,"Morning",IF(L267&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N267">
@@ -14260,7 +14260,7 @@
         <v/>
       </c>
       <c r="P267">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A267))</f>
         <v/>
       </c>
     </row>
@@ -14272,11 +14272,11 @@
         <v/>
       </c>
       <c r="L268">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B268)</f>
         <v/>
       </c>
       <c r="M268">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L268&lt;6,"Night",IF(L268&lt;12,"Morning",IF(L268&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N268">
@@ -14288,7 +14288,7 @@
         <v/>
       </c>
       <c r="P268">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A268))</f>
         <v/>
       </c>
     </row>
@@ -14300,11 +14300,11 @@
         <v/>
       </c>
       <c r="L269">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B269)</f>
         <v/>
       </c>
       <c r="M269">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L269&lt;6,"Night",IF(L269&lt;12,"Morning",IF(L269&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N269">
@@ -14316,7 +14316,7 @@
         <v/>
       </c>
       <c r="P269">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A269))</f>
         <v/>
       </c>
     </row>
@@ -14328,11 +14328,11 @@
         <v/>
       </c>
       <c r="L270">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B270)</f>
         <v/>
       </c>
       <c r="M270">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L270&lt;6,"Night",IF(L270&lt;12,"Morning",IF(L270&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N270">
@@ -14344,7 +14344,7 @@
         <v/>
       </c>
       <c r="P270">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A270))</f>
         <v/>
       </c>
     </row>
@@ -14356,11 +14356,11 @@
         <v/>
       </c>
       <c r="L271">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B271)</f>
         <v/>
       </c>
       <c r="M271">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L271&lt;6,"Night",IF(L271&lt;12,"Morning",IF(L271&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N271">
@@ -14372,7 +14372,7 @@
         <v/>
       </c>
       <c r="P271">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A271))</f>
         <v/>
       </c>
     </row>
@@ -14384,11 +14384,11 @@
         <v/>
       </c>
       <c r="L272">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B272)</f>
         <v/>
       </c>
       <c r="M272">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L272&lt;6,"Night",IF(L272&lt;12,"Morning",IF(L272&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N272">
@@ -14400,7 +14400,7 @@
         <v/>
       </c>
       <c r="P272">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A272))</f>
         <v/>
       </c>
     </row>
@@ -14412,11 +14412,11 @@
         <v/>
       </c>
       <c r="L273">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B273)</f>
         <v/>
       </c>
       <c r="M273">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L273&lt;6,"Night",IF(L273&lt;12,"Morning",IF(L273&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N273">
@@ -14428,7 +14428,7 @@
         <v/>
       </c>
       <c r="P273">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A273))</f>
         <v/>
       </c>
     </row>
@@ -14440,11 +14440,11 @@
         <v/>
       </c>
       <c r="L274">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B274)</f>
         <v/>
       </c>
       <c r="M274">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L274&lt;6,"Night",IF(L274&lt;12,"Morning",IF(L274&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N274">
@@ -14456,7 +14456,7 @@
         <v/>
       </c>
       <c r="P274">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A274))</f>
         <v/>
       </c>
     </row>
@@ -14468,11 +14468,11 @@
         <v/>
       </c>
       <c r="L275">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B275)</f>
         <v/>
       </c>
       <c r="M275">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L275&lt;6,"Night",IF(L275&lt;12,"Morning",IF(L275&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N275">
@@ -14484,7 +14484,7 @@
         <v/>
       </c>
       <c r="P275">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A275))</f>
         <v/>
       </c>
     </row>
@@ -14496,11 +14496,11 @@
         <v/>
       </c>
       <c r="L276">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B276)</f>
         <v/>
       </c>
       <c r="M276">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L276&lt;6,"Night",IF(L276&lt;12,"Morning",IF(L276&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N276">
@@ -14512,7 +14512,7 @@
         <v/>
       </c>
       <c r="P276">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A276))</f>
         <v/>
       </c>
     </row>
@@ -14524,11 +14524,11 @@
         <v/>
       </c>
       <c r="L277">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B277)</f>
         <v/>
       </c>
       <c r="M277">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L277&lt;6,"Night",IF(L277&lt;12,"Morning",IF(L277&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N277">
@@ -14540,7 +14540,7 @@
         <v/>
       </c>
       <c r="P277">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A277))</f>
         <v/>
       </c>
     </row>
@@ -14552,11 +14552,11 @@
         <v/>
       </c>
       <c r="L278">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B278)</f>
         <v/>
       </c>
       <c r="M278">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L278&lt;6,"Night",IF(L278&lt;12,"Morning",IF(L278&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N278">
@@ -14568,7 +14568,7 @@
         <v/>
       </c>
       <c r="P278">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A278))</f>
         <v/>
       </c>
     </row>
@@ -14580,11 +14580,11 @@
         <v/>
       </c>
       <c r="L279">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B279)</f>
         <v/>
       </c>
       <c r="M279">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L279&lt;6,"Night",IF(L279&lt;12,"Morning",IF(L279&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N279">
@@ -14596,7 +14596,7 @@
         <v/>
       </c>
       <c r="P279">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A279))</f>
         <v/>
       </c>
     </row>
@@ -14608,11 +14608,11 @@
         <v/>
       </c>
       <c r="L280">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B280)</f>
         <v/>
       </c>
       <c r="M280">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L280&lt;6,"Night",IF(L280&lt;12,"Morning",IF(L280&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N280">
@@ -14624,7 +14624,7 @@
         <v/>
       </c>
       <c r="P280">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A280))</f>
         <v/>
       </c>
     </row>
@@ -14636,11 +14636,11 @@
         <v/>
       </c>
       <c r="L281">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B281)</f>
         <v/>
       </c>
       <c r="M281">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L281&lt;6,"Night",IF(L281&lt;12,"Morning",IF(L281&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N281">
@@ -14652,7 +14652,7 @@
         <v/>
       </c>
       <c r="P281">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A281))</f>
         <v/>
       </c>
     </row>
@@ -14664,11 +14664,11 @@
         <v/>
       </c>
       <c r="L282">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B282)</f>
         <v/>
       </c>
       <c r="M282">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L282&lt;6,"Night",IF(L282&lt;12,"Morning",IF(L282&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N282">
@@ -14680,7 +14680,7 @@
         <v/>
       </c>
       <c r="P282">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A282))</f>
         <v/>
       </c>
     </row>
@@ -14692,11 +14692,11 @@
         <v/>
       </c>
       <c r="L283">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B283)</f>
         <v/>
       </c>
       <c r="M283">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L283&lt;6,"Night",IF(L283&lt;12,"Morning",IF(L283&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N283">
@@ -14708,7 +14708,7 @@
         <v/>
       </c>
       <c r="P283">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A283))</f>
         <v/>
       </c>
     </row>
@@ -14720,11 +14720,11 @@
         <v/>
       </c>
       <c r="L284">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B284)</f>
         <v/>
       </c>
       <c r="M284">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L284&lt;6,"Night",IF(L284&lt;12,"Morning",IF(L284&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N284">
@@ -14736,7 +14736,7 @@
         <v/>
       </c>
       <c r="P284">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A284))</f>
         <v/>
       </c>
     </row>
@@ -14748,11 +14748,11 @@
         <v/>
       </c>
       <c r="L285">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B285)</f>
         <v/>
       </c>
       <c r="M285">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L285&lt;6,"Night",IF(L285&lt;12,"Morning",IF(L285&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N285">
@@ -14764,7 +14764,7 @@
         <v/>
       </c>
       <c r="P285">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A285))</f>
         <v/>
       </c>
     </row>
@@ -14776,11 +14776,11 @@
         <v/>
       </c>
       <c r="L286">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B286)</f>
         <v/>
       </c>
       <c r="M286">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L286&lt;6,"Night",IF(L286&lt;12,"Morning",IF(L286&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N286">
@@ -14792,7 +14792,7 @@
         <v/>
       </c>
       <c r="P286">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A286))</f>
         <v/>
       </c>
     </row>
@@ -14804,11 +14804,11 @@
         <v/>
       </c>
       <c r="L287">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B287)</f>
         <v/>
       </c>
       <c r="M287">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L287&lt;6,"Night",IF(L287&lt;12,"Morning",IF(L287&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N287">
@@ -14820,7 +14820,7 @@
         <v/>
       </c>
       <c r="P287">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A287))</f>
         <v/>
       </c>
     </row>
@@ -14832,11 +14832,11 @@
         <v/>
       </c>
       <c r="L288">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B288)</f>
         <v/>
       </c>
       <c r="M288">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L288&lt;6,"Night",IF(L288&lt;12,"Morning",IF(L288&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N288">
@@ -14848,7 +14848,7 @@
         <v/>
       </c>
       <c r="P288">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A288))</f>
         <v/>
       </c>
     </row>
@@ -14860,11 +14860,11 @@
         <v/>
       </c>
       <c r="L289">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B289)</f>
         <v/>
       </c>
       <c r="M289">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L289&lt;6,"Night",IF(L289&lt;12,"Morning",IF(L289&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N289">
@@ -14876,7 +14876,7 @@
         <v/>
       </c>
       <c r="P289">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A289))</f>
         <v/>
       </c>
     </row>
@@ -14888,11 +14888,11 @@
         <v/>
       </c>
       <c r="L290">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B290)</f>
         <v/>
       </c>
       <c r="M290">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L290&lt;6,"Night",IF(L290&lt;12,"Morning",IF(L290&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N290">
@@ -14904,7 +14904,7 @@
         <v/>
       </c>
       <c r="P290">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A290))</f>
         <v/>
       </c>
     </row>
@@ -14916,11 +14916,11 @@
         <v/>
       </c>
       <c r="L291">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B291)</f>
         <v/>
       </c>
       <c r="M291">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L291&lt;6,"Night",IF(L291&lt;12,"Morning",IF(L291&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N291">
@@ -14932,7 +14932,7 @@
         <v/>
       </c>
       <c r="P291">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A291))</f>
         <v/>
       </c>
     </row>
@@ -14944,11 +14944,11 @@
         <v/>
       </c>
       <c r="L292">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B292)</f>
         <v/>
       </c>
       <c r="M292">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L292&lt;6,"Night",IF(L292&lt;12,"Morning",IF(L292&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N292">
@@ -14960,7 +14960,7 @@
         <v/>
       </c>
       <c r="P292">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A292))</f>
         <v/>
       </c>
     </row>
@@ -14972,11 +14972,11 @@
         <v/>
       </c>
       <c r="L293">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B293)</f>
         <v/>
       </c>
       <c r="M293">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L293&lt;6,"Night",IF(L293&lt;12,"Morning",IF(L293&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N293">
@@ -14988,7 +14988,7 @@
         <v/>
       </c>
       <c r="P293">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A293))</f>
         <v/>
       </c>
     </row>
@@ -15000,11 +15000,11 @@
         <v/>
       </c>
       <c r="L294">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B294)</f>
         <v/>
       </c>
       <c r="M294">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L294&lt;6,"Night",IF(L294&lt;12,"Morning",IF(L294&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N294">
@@ -15016,7 +15016,7 @@
         <v/>
       </c>
       <c r="P294">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A294))</f>
         <v/>
       </c>
     </row>
@@ -15028,11 +15028,11 @@
         <v/>
       </c>
       <c r="L295">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B295)</f>
         <v/>
       </c>
       <c r="M295">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L295&lt;6,"Night",IF(L295&lt;12,"Morning",IF(L295&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N295">
@@ -15044,7 +15044,7 @@
         <v/>
       </c>
       <c r="P295">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A295))</f>
         <v/>
       </c>
     </row>
@@ -15056,11 +15056,11 @@
         <v/>
       </c>
       <c r="L296">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B296)</f>
         <v/>
       </c>
       <c r="M296">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L296&lt;6,"Night",IF(L296&lt;12,"Morning",IF(L296&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N296">
@@ -15072,7 +15072,7 @@
         <v/>
       </c>
       <c r="P296">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A296))</f>
         <v/>
       </c>
     </row>
@@ -15084,11 +15084,11 @@
         <v/>
       </c>
       <c r="L297">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B297)</f>
         <v/>
       </c>
       <c r="M297">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L297&lt;6,"Night",IF(L297&lt;12,"Morning",IF(L297&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N297">
@@ -15100,7 +15100,7 @@
         <v/>
       </c>
       <c r="P297">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A297))</f>
         <v/>
       </c>
     </row>
@@ -15112,11 +15112,11 @@
         <v/>
       </c>
       <c r="L298">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B298)</f>
         <v/>
       </c>
       <c r="M298">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L298&lt;6,"Night",IF(L298&lt;12,"Morning",IF(L298&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N298">
@@ -15128,7 +15128,7 @@
         <v/>
       </c>
       <c r="P298">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A298))</f>
         <v/>
       </c>
     </row>
@@ -15140,11 +15140,11 @@
         <v/>
       </c>
       <c r="L299">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B299)</f>
         <v/>
       </c>
       <c r="M299">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L299&lt;6,"Night",IF(L299&lt;12,"Morning",IF(L299&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N299">
@@ -15156,7 +15156,7 @@
         <v/>
       </c>
       <c r="P299">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A299))</f>
         <v/>
       </c>
     </row>
@@ -15168,11 +15168,11 @@
         <v/>
       </c>
       <c r="L300">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B300)</f>
         <v/>
       </c>
       <c r="M300">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L300&lt;6,"Night",IF(L300&lt;12,"Morning",IF(L300&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N300">
@@ -15184,7 +15184,7 @@
         <v/>
       </c>
       <c r="P300">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A300))</f>
         <v/>
       </c>
     </row>
@@ -15196,11 +15196,11 @@
         <v/>
       </c>
       <c r="L301">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B301)</f>
         <v/>
       </c>
       <c r="M301">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L301&lt;6,"Night",IF(L301&lt;12,"Morning",IF(L301&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N301">
@@ -15212,7 +15212,7 @@
         <v/>
       </c>
       <c r="P301">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A301))</f>
         <v/>
       </c>
     </row>
@@ -15224,11 +15224,11 @@
         <v/>
       </c>
       <c r="L302">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B302)</f>
         <v/>
       </c>
       <c r="M302">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L302&lt;6,"Night",IF(L302&lt;12,"Morning",IF(L302&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N302">
@@ -15240,7 +15240,7 @@
         <v/>
       </c>
       <c r="P302">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A302))</f>
         <v/>
       </c>
     </row>
@@ -15252,11 +15252,11 @@
         <v/>
       </c>
       <c r="L303">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B303)</f>
         <v/>
       </c>
       <c r="M303">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L303&lt;6,"Night",IF(L303&lt;12,"Morning",IF(L303&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N303">
@@ -15268,7 +15268,7 @@
         <v/>
       </c>
       <c r="P303">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A303))</f>
         <v/>
       </c>
     </row>
@@ -15280,11 +15280,11 @@
         <v/>
       </c>
       <c r="L304">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B304)</f>
         <v/>
       </c>
       <c r="M304">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L304&lt;6,"Night",IF(L304&lt;12,"Morning",IF(L304&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N304">
@@ -15296,7 +15296,7 @@
         <v/>
       </c>
       <c r="P304">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A304))</f>
         <v/>
       </c>
     </row>
@@ -15308,11 +15308,11 @@
         <v/>
       </c>
       <c r="L305">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B305)</f>
         <v/>
       </c>
       <c r="M305">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L305&lt;6,"Night",IF(L305&lt;12,"Morning",IF(L305&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N305">
@@ -15324,7 +15324,7 @@
         <v/>
       </c>
       <c r="P305">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A305))</f>
         <v/>
       </c>
     </row>
@@ -15336,11 +15336,11 @@
         <v/>
       </c>
       <c r="L306">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B306)</f>
         <v/>
       </c>
       <c r="M306">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L306&lt;6,"Night",IF(L306&lt;12,"Morning",IF(L306&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N306">
@@ -15352,7 +15352,7 @@
         <v/>
       </c>
       <c r="P306">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A306))</f>
         <v/>
       </c>
     </row>
@@ -15364,11 +15364,11 @@
         <v/>
       </c>
       <c r="L307">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B307)</f>
         <v/>
       </c>
       <c r="M307">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L307&lt;6,"Night",IF(L307&lt;12,"Morning",IF(L307&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N307">
@@ -15380,7 +15380,7 @@
         <v/>
       </c>
       <c r="P307">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A307))</f>
         <v/>
       </c>
     </row>
@@ -15392,11 +15392,11 @@
         <v/>
       </c>
       <c r="L308">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B308)</f>
         <v/>
       </c>
       <c r="M308">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L308&lt;6,"Night",IF(L308&lt;12,"Morning",IF(L308&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N308">
@@ -15408,7 +15408,7 @@
         <v/>
       </c>
       <c r="P308">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A308))</f>
         <v/>
       </c>
     </row>
@@ -15420,11 +15420,11 @@
         <v/>
       </c>
       <c r="L309">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B309)</f>
         <v/>
       </c>
       <c r="M309">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L309&lt;6,"Night",IF(L309&lt;12,"Morning",IF(L309&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N309">
@@ -15436,7 +15436,7 @@
         <v/>
       </c>
       <c r="P309">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A309))</f>
         <v/>
       </c>
     </row>
@@ -15448,11 +15448,11 @@
         <v/>
       </c>
       <c r="L310">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B310)</f>
         <v/>
       </c>
       <c r="M310">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L310&lt;6,"Night",IF(L310&lt;12,"Morning",IF(L310&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N310">
@@ -15464,7 +15464,7 @@
         <v/>
       </c>
       <c r="P310">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A310))</f>
         <v/>
       </c>
     </row>
@@ -15476,11 +15476,11 @@
         <v/>
       </c>
       <c r="L311">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B311)</f>
         <v/>
       </c>
       <c r="M311">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L311&lt;6,"Night",IF(L311&lt;12,"Morning",IF(L311&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N311">
@@ -15492,7 +15492,7 @@
         <v/>
       </c>
       <c r="P311">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A311))</f>
         <v/>
       </c>
     </row>
@@ -15504,11 +15504,11 @@
         <v/>
       </c>
       <c r="L312">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B312)</f>
         <v/>
       </c>
       <c r="M312">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L312&lt;6,"Night",IF(L312&lt;12,"Morning",IF(L312&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N312">
@@ -15520,7 +15520,7 @@
         <v/>
       </c>
       <c r="P312">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A312))</f>
         <v/>
       </c>
     </row>
@@ -15532,11 +15532,11 @@
         <v/>
       </c>
       <c r="L313">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B313)</f>
         <v/>
       </c>
       <c r="M313">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L313&lt;6,"Night",IF(L313&lt;12,"Morning",IF(L313&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N313">
@@ -15548,7 +15548,7 @@
         <v/>
       </c>
       <c r="P313">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A313))</f>
         <v/>
       </c>
     </row>
@@ -15560,11 +15560,11 @@
         <v/>
       </c>
       <c r="L314">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B314)</f>
         <v/>
       </c>
       <c r="M314">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L314&lt;6,"Night",IF(L314&lt;12,"Morning",IF(L314&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N314">
@@ -15576,7 +15576,7 @@
         <v/>
       </c>
       <c r="P314">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A314))</f>
         <v/>
       </c>
     </row>
@@ -15588,11 +15588,11 @@
         <v/>
       </c>
       <c r="L315">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B315)</f>
         <v/>
       </c>
       <c r="M315">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L315&lt;6,"Night",IF(L315&lt;12,"Morning",IF(L315&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N315">
@@ -15604,7 +15604,7 @@
         <v/>
       </c>
       <c r="P315">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A315))</f>
         <v/>
       </c>
     </row>
@@ -15616,11 +15616,11 @@
         <v/>
       </c>
       <c r="L316">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B316)</f>
         <v/>
       </c>
       <c r="M316">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L316&lt;6,"Night",IF(L316&lt;12,"Morning",IF(L316&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N316">
@@ -15632,7 +15632,7 @@
         <v/>
       </c>
       <c r="P316">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A316))</f>
         <v/>
       </c>
     </row>
@@ -15644,11 +15644,11 @@
         <v/>
       </c>
       <c r="L317">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B317)</f>
         <v/>
       </c>
       <c r="M317">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L317&lt;6,"Night",IF(L317&lt;12,"Morning",IF(L317&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N317">
@@ -15660,7 +15660,7 @@
         <v/>
       </c>
       <c r="P317">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A317))</f>
         <v/>
       </c>
     </row>
@@ -15672,11 +15672,11 @@
         <v/>
       </c>
       <c r="L318">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B318)</f>
         <v/>
       </c>
       <c r="M318">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L318&lt;6,"Night",IF(L318&lt;12,"Morning",IF(L318&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N318">
@@ -15688,7 +15688,7 @@
         <v/>
       </c>
       <c r="P318">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A318))</f>
         <v/>
       </c>
     </row>
@@ -15700,11 +15700,11 @@
         <v/>
       </c>
       <c r="L319">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B319)</f>
         <v/>
       </c>
       <c r="M319">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L319&lt;6,"Night",IF(L319&lt;12,"Morning",IF(L319&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N319">
@@ -15716,7 +15716,7 @@
         <v/>
       </c>
       <c r="P319">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A319))</f>
         <v/>
       </c>
     </row>
@@ -15728,11 +15728,11 @@
         <v/>
       </c>
       <c r="L320">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B320)</f>
         <v/>
       </c>
       <c r="M320">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L320&lt;6,"Night",IF(L320&lt;12,"Morning",IF(L320&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N320">
@@ -15744,7 +15744,7 @@
         <v/>
       </c>
       <c r="P320">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A320))</f>
         <v/>
       </c>
     </row>
@@ -15756,11 +15756,11 @@
         <v/>
       </c>
       <c r="L321">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B321)</f>
         <v/>
       </c>
       <c r="M321">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L321&lt;6,"Night",IF(L321&lt;12,"Morning",IF(L321&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N321">
@@ -15772,7 +15772,7 @@
         <v/>
       </c>
       <c r="P321">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A321))</f>
         <v/>
       </c>
     </row>
@@ -15784,11 +15784,11 @@
         <v/>
       </c>
       <c r="L322">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B322)</f>
         <v/>
       </c>
       <c r="M322">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L322&lt;6,"Night",IF(L322&lt;12,"Morning",IF(L322&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N322">
@@ -15800,7 +15800,7 @@
         <v/>
       </c>
       <c r="P322">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A322))</f>
         <v/>
       </c>
     </row>
@@ -15812,11 +15812,11 @@
         <v/>
       </c>
       <c r="L323">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B323)</f>
         <v/>
       </c>
       <c r="M323">
-        <f>  IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L323&lt;6,"Night",IF(L323&lt;12,"Morning",IF(L323&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N323">
@@ -15828,7 +15828,7 @@
         <v/>
       </c>
       <c r="P323">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A323))</f>
         <v/>
       </c>
     </row>
@@ -15840,11 +15840,11 @@
         <v/>
       </c>
       <c r="L324">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B324)</f>
         <v/>
       </c>
       <c r="M324">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L324&lt;6,"Night",IF(L324&lt;12,"Morning",IF(L324&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N324">
@@ -15856,7 +15856,7 @@
         <v/>
       </c>
       <c r="P324">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A324))</f>
         <v/>
       </c>
     </row>
@@ -15868,11 +15868,11 @@
         <v/>
       </c>
       <c r="L325">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B325)</f>
         <v/>
       </c>
       <c r="M325">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L325&lt;6,"Night",IF(L325&lt;12,"Morning",IF(L325&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N325">
@@ -15884,7 +15884,7 @@
         <v/>
       </c>
       <c r="P325">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A325))</f>
         <v/>
       </c>
     </row>
@@ -15896,11 +15896,11 @@
         <v/>
       </c>
       <c r="L326">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B326)</f>
         <v/>
       </c>
       <c r="M326">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L326&lt;6,"Night",IF(L326&lt;12,"Morning",IF(L326&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N326">
@@ -15912,7 +15912,7 @@
         <v/>
       </c>
       <c r="P326">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A326))</f>
         <v/>
       </c>
     </row>
@@ -15924,11 +15924,11 @@
         <v/>
       </c>
       <c r="L327">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B327)</f>
         <v/>
       </c>
       <c r="M327">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L327&lt;6,"Night",IF(L327&lt;12,"Morning",IF(L327&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N327">
@@ -15940,7 +15940,7 @@
         <v/>
       </c>
       <c r="P327">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A327))</f>
         <v/>
       </c>
     </row>
@@ -15952,11 +15952,11 @@
         <v/>
       </c>
       <c r="L328">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B328)</f>
         <v/>
       </c>
       <c r="M328">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L328&lt;6,"Night",IF(L328&lt;12,"Morning",IF(L328&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N328">
@@ -15968,7 +15968,7 @@
         <v/>
       </c>
       <c r="P328">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A328))</f>
         <v/>
       </c>
     </row>
@@ -15980,11 +15980,11 @@
         <v/>
       </c>
       <c r="L329">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B329)</f>
         <v/>
       </c>
       <c r="M329">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L329&lt;6,"Night",IF(L329&lt;12,"Morning",IF(L329&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N329">
@@ -15996,7 +15996,7 @@
         <v/>
       </c>
       <c r="P329">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A329))</f>
         <v/>
       </c>
     </row>
@@ -16008,11 +16008,11 @@
         <v/>
       </c>
       <c r="L330">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B330)</f>
         <v/>
       </c>
       <c r="M330">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L330&lt;6,"Night",IF(L330&lt;12,"Morning",IF(L330&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N330">
@@ -16024,7 +16024,7 @@
         <v/>
       </c>
       <c r="P330">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A330))</f>
         <v/>
       </c>
     </row>
@@ -16036,11 +16036,11 @@
         <v/>
       </c>
       <c r="L331">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B331)</f>
         <v/>
       </c>
       <c r="M331">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L331&lt;6,"Night",IF(L331&lt;12,"Morning",IF(L331&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N331">
@@ -16052,7 +16052,7 @@
         <v/>
       </c>
       <c r="P331">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A331))</f>
         <v/>
       </c>
     </row>
@@ -16064,11 +16064,11 @@
         <v/>
       </c>
       <c r="L332">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B332)</f>
         <v/>
       </c>
       <c r="M332">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L332&lt;6,"Night",IF(L332&lt;12,"Morning",IF(L332&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N332">
@@ -16080,7 +16080,7 @@
         <v/>
       </c>
       <c r="P332">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A332))</f>
         <v/>
       </c>
     </row>
@@ -16092,11 +16092,11 @@
         <v/>
       </c>
       <c r="L333">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B333)</f>
         <v/>
       </c>
       <c r="M333">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L333&lt;6,"Night",IF(L333&lt;12,"Morning",IF(L333&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N333">
@@ -16108,7 +16108,7 @@
         <v/>
       </c>
       <c r="P333">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A333))</f>
         <v/>
       </c>
     </row>
@@ -16120,11 +16120,11 @@
         <v/>
       </c>
       <c r="L334">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B334)</f>
         <v/>
       </c>
       <c r="M334">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L334&lt;6,"Night",IF(L334&lt;12,"Morning",IF(L334&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N334">
@@ -16136,7 +16136,7 @@
         <v/>
       </c>
       <c r="P334">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A334))</f>
         <v/>
       </c>
     </row>
@@ -16148,11 +16148,11 @@
         <v/>
       </c>
       <c r="L335">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B335)</f>
         <v/>
       </c>
       <c r="M335">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L335&lt;6,"Night",IF(L335&lt;12,"Morning",IF(L335&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N335">
@@ -16164,7 +16164,7 @@
         <v/>
       </c>
       <c r="P335">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A335))</f>
         <v/>
       </c>
     </row>
@@ -16176,11 +16176,11 @@
         <v/>
       </c>
       <c r="L336">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B336)</f>
         <v/>
       </c>
       <c r="M336">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L336&lt;6,"Night",IF(L336&lt;12,"Morning",IF(L336&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N336">
@@ -16192,7 +16192,7 @@
         <v/>
       </c>
       <c r="P336">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A336))</f>
         <v/>
       </c>
     </row>
@@ -16204,11 +16204,11 @@
         <v/>
       </c>
       <c r="L337">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B337)</f>
         <v/>
       </c>
       <c r="M337">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L337&lt;6,"Night",IF(L337&lt;12,"Morning",IF(L337&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N337">
@@ -16220,7 +16220,7 @@
         <v/>
       </c>
       <c r="P337">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A337))</f>
         <v/>
       </c>
     </row>
@@ -16232,11 +16232,11 @@
         <v/>
       </c>
       <c r="L338">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B338)</f>
         <v/>
       </c>
       <c r="M338">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L338&lt;6,"Night",IF(L338&lt;12,"Morning",IF(L338&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N338">
@@ -16248,7 +16248,7 @@
         <v/>
       </c>
       <c r="P338">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A338))</f>
         <v/>
       </c>
     </row>
@@ -16260,11 +16260,11 @@
         <v/>
       </c>
       <c r="L339">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B339)</f>
         <v/>
       </c>
       <c r="M339">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L339&lt;6,"Night",IF(L339&lt;12,"Morning",IF(L339&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N339">
@@ -16276,7 +16276,7 @@
         <v/>
       </c>
       <c r="P339">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A339))</f>
         <v/>
       </c>
     </row>
@@ -16288,11 +16288,11 @@
         <v/>
       </c>
       <c r="L340">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B340)</f>
         <v/>
       </c>
       <c r="M340">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L340&lt;6,"Night",IF(L340&lt;12,"Morning",IF(L340&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N340">
@@ -16304,7 +16304,7 @@
         <v/>
       </c>
       <c r="P340">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A340))</f>
         <v/>
       </c>
     </row>
@@ -16316,11 +16316,11 @@
         <v/>
       </c>
       <c r="L341">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B341)</f>
         <v/>
       </c>
       <c r="M341">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L341&lt;6,"Night",IF(L341&lt;12,"Morning",IF(L341&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N341">
@@ -16332,7 +16332,7 @@
         <v/>
       </c>
       <c r="P341">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A341))</f>
         <v/>
       </c>
     </row>
@@ -16344,11 +16344,11 @@
         <v/>
       </c>
       <c r="L342">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B342)</f>
         <v/>
       </c>
       <c r="M342">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L342&lt;6,"Night",IF(L342&lt;12,"Morning",IF(L342&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N342">
@@ -16360,7 +16360,7 @@
         <v/>
       </c>
       <c r="P342">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A342))</f>
         <v/>
       </c>
     </row>
@@ -16372,11 +16372,11 @@
         <v/>
       </c>
       <c r="L343">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B343)</f>
         <v/>
       </c>
       <c r="M343">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L343&lt;6,"Night",IF(L343&lt;12,"Morning",IF(L343&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N343">
@@ -16388,7 +16388,7 @@
         <v/>
       </c>
       <c r="P343">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A343))</f>
         <v/>
       </c>
     </row>
@@ -16400,11 +16400,11 @@
         <v/>
       </c>
       <c r="L344">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B344)</f>
         <v/>
       </c>
       <c r="M344">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L344&lt;6,"Night",IF(L344&lt;12,"Morning",IF(L344&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N344">
@@ -16416,7 +16416,7 @@
         <v/>
       </c>
       <c r="P344">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A344))</f>
         <v/>
       </c>
     </row>
@@ -16428,11 +16428,11 @@
         <v/>
       </c>
       <c r="L345">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B345)</f>
         <v/>
       </c>
       <c r="M345">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L345&lt;6,"Night",IF(L345&lt;12,"Morning",IF(L345&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N345">
@@ -16444,7 +16444,7 @@
         <v/>
       </c>
       <c r="P345">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A345))</f>
         <v/>
       </c>
     </row>
@@ -16456,11 +16456,11 @@
         <v/>
       </c>
       <c r="L346">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B346)</f>
         <v/>
       </c>
       <c r="M346">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L346&lt;6,"Night",IF(L346&lt;12,"Morning",IF(L346&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N346">
@@ -16472,7 +16472,7 @@
         <v/>
       </c>
       <c r="P346">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A346))</f>
         <v/>
       </c>
     </row>
@@ -16484,11 +16484,11 @@
         <v/>
       </c>
       <c r="L347">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B347)</f>
         <v/>
       </c>
       <c r="M347">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L347&lt;6,"Night",IF(L347&lt;12,"Morning",IF(L347&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N347">
@@ -16500,7 +16500,7 @@
         <v/>
       </c>
       <c r="P347">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A347))</f>
         <v/>
       </c>
     </row>
@@ -16512,11 +16512,11 @@
         <v/>
       </c>
       <c r="L348">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B348)</f>
         <v/>
       </c>
       <c r="M348">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L348&lt;6,"Night",IF(L348&lt;12,"Morning",IF(L348&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N348">
@@ -16528,7 +16528,7 @@
         <v/>
       </c>
       <c r="P348">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A348))</f>
         <v/>
       </c>
     </row>
@@ -16540,11 +16540,11 @@
         <v/>
       </c>
       <c r="L349">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B349)</f>
         <v/>
       </c>
       <c r="M349">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L349&lt;6,"Night",IF(L349&lt;12,"Morning",IF(L349&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N349">
@@ -16556,7 +16556,7 @@
         <v/>
       </c>
       <c r="P349">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A349))</f>
         <v/>
       </c>
     </row>
@@ -16568,11 +16568,11 @@
         <v/>
       </c>
       <c r="L350">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B350)</f>
         <v/>
       </c>
       <c r="M350">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L350&lt;6,"Night",IF(L350&lt;12,"Morning",IF(L350&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N350">
@@ -16584,7 +16584,7 @@
         <v/>
       </c>
       <c r="P350">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A350))</f>
         <v/>
       </c>
     </row>
@@ -16596,11 +16596,11 @@
         <v/>
       </c>
       <c r="L351">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B351)</f>
         <v/>
       </c>
       <c r="M351">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L351&lt;6,"Night",IF(L351&lt;12,"Morning",IF(L351&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N351">
@@ -16612,7 +16612,7 @@
         <v/>
       </c>
       <c r="P351">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A351))</f>
         <v/>
       </c>
     </row>
@@ -16624,11 +16624,11 @@
         <v/>
       </c>
       <c r="L352">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B352)</f>
         <v/>
       </c>
       <c r="M352">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L352&lt;6,"Night",IF(L352&lt;12,"Morning",IF(L352&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N352">
@@ -16640,7 +16640,7 @@
         <v/>
       </c>
       <c r="P352">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A352))</f>
         <v/>
       </c>
     </row>
@@ -16652,11 +16652,11 @@
         <v/>
       </c>
       <c r="L353">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B353)</f>
         <v/>
       </c>
       <c r="M353">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L353&lt;6,"Night",IF(L353&lt;12,"Morning",IF(L353&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N353">
@@ -16668,7 +16668,7 @@
         <v/>
       </c>
       <c r="P353">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A353))</f>
         <v/>
       </c>
     </row>
@@ -16680,11 +16680,11 @@
         <v/>
       </c>
       <c r="L354">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B354)</f>
         <v/>
       </c>
       <c r="M354">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L354&lt;6,"Night",IF(L354&lt;12,"Morning",IF(L354&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N354">
@@ -16696,7 +16696,7 @@
         <v/>
       </c>
       <c r="P354">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A354))</f>
         <v/>
       </c>
     </row>
@@ -16708,11 +16708,11 @@
         <v/>
       </c>
       <c r="L355">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B355)</f>
         <v/>
       </c>
       <c r="M355">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L355&lt;6,"Night",IF(L355&lt;12,"Morning",IF(L355&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N355">
@@ -16724,7 +16724,7 @@
         <v/>
       </c>
       <c r="P355">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A355))</f>
         <v/>
       </c>
     </row>
@@ -16736,11 +16736,11 @@
         <v/>
       </c>
       <c r="L356">
-        <f>HOUR(MedicalData[[#This Row],[Time]])</f>
+        <f>HOUR(B356)</f>
         <v/>
       </c>
       <c r="M356">
-        <f> IF(_xleta.HOUR&lt;6,"Night",IF(_xleta.HOUR&lt;12,"Morning",IF(_xleta.HOUR&lt;18,"Afternoon","Evening")))</f>
+        <f>IF(L356&lt;6,"Night",IF(L356&lt;12,"Morning",IF(L356&lt;18,"Afternoon","Evening")))</f>
         <v/>
       </c>
       <c r="N356">
@@ -16752,7 +16752,7 @@
         <v/>
       </c>
       <c r="P356">
-        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(#REF!))</f>
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A356))</f>
         <v/>
       </c>
     </row>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -28,7 +28,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="26">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,6 +155,25 @@
       <b val="1"/>
       <color rgb="001F4E79"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="11">
@@ -308,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -377,6 +396,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16787,7 +16812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17105,6 +17130,10 @@
         </is>
       </c>
     </row>
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28"/>
+    <row r="29"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17530,7 +17559,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" style="21" min="1" max="19"/>
+    <col width="20" customWidth="1" style="21" min="1" max="19"/>
+    <col width="14" customWidth="1" style="21" min="2" max="2"/>
+    <col width="14" customWidth="1" style="21" min="3" max="3"/>
+    <col width="14" customWidth="1" style="21" min="4" max="4"/>
+    <col width="14" customWidth="1" style="21" min="5" max="5"/>
+    <col width="12" customWidth="1" style="21" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" s="21">
@@ -17803,6 +17837,375 @@
         <v/>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="40" t="inlineStr">
+        <is>
+          <t>WEEKLY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="41" t="inlineStr">
+        <is>
+          <t>Week-by-week breakdown for selected month</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="42" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B28" s="42" t="inlineStr">
+        <is>
+          <t>Incidents</t>
+        </is>
+      </c>
+      <c r="C28" s="42" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="D28" s="42" t="inlineStr">
+        <is>
+          <t>Avg Age</t>
+        </is>
+      </c>
+      <c r="E28" s="42" t="inlineStr">
+        <is>
+          <t>Top Injury</t>
+        </is>
+      </c>
+      <c r="F28" s="42" t="inlineStr">
+        <is>
+          <t>Top Venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*1)</f>
+        <v/>
+      </c>
+      <c r="C29">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D29">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>IF(B29=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F29">
+        <f>IF(B29=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="B30">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*1)</f>
+        <v/>
+      </c>
+      <c r="C30">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D30">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>IF(B30=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>IF(B30=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="B31">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*1)</f>
+        <v/>
+      </c>
+      <c r="C31">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D31">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>IF(B31=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>IF(B31=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="B32">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*1)</f>
+        <v/>
+      </c>
+      <c r="C32">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D32">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>IF(B32=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>IF(B32=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+      <c r="B33">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*1)</f>
+        <v/>
+      </c>
+      <c r="C33">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D33">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E33">
+        <f>IF(B33=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F33">
+        <f>IF(B33=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="30" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B34" s="30">
+        <f>SUM(B29:B33)</f>
+        <v/>
+      </c>
+      <c r="C34" s="30">
+        <f>SUM(C29:C33)</f>
+        <v/>
+      </c>
+      <c r="D34">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],$B$2,MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="40" t="inlineStr">
+        <is>
+          <t>QUARTERLY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Quarter:</t>
+        </is>
+      </c>
+      <c r="B38" s="33">
+        <f>IF($B$2="All Time","All",IF(OR(LEFT($B$2,3)="Jan",LEFT($B$2,3)="Feb",LEFT($B$2,3)="Mar"),"Q1",IF(OR(LEFT($B$2,3)="Apr",LEFT($B$2,3)="May",LEFT($B$2,3)="Jun"),"Q2",IF(OR(LEFT($B$2,3)="Jul",LEFT($B$2,3)="Aug",LEFT($B$2,3)="Sep"),"Q3","Q4"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="42" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B40" s="42" t="inlineStr">
+        <is>
+          <t>Q1 (Jan-Mar)</t>
+        </is>
+      </c>
+      <c r="C40" s="42" t="inlineStr">
+        <is>
+          <t>Q2 (Apr-Jun)</t>
+        </is>
+      </c>
+      <c r="D40" s="42" t="inlineStr">
+        <is>
+          <t>Q3 (Jul-Sep)</t>
+        </is>
+      </c>
+      <c r="E40" s="42" t="inlineStr">
+        <is>
+          <t>Q4 (Oct-Dec)</t>
+        </is>
+      </c>
+      <c r="F40" s="42" t="inlineStr">
+        <is>
+          <t>YTD Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Total Incidents</t>
+        </is>
+      </c>
+      <c r="B41">
+        <f>COUNTIF(MedicalData[Quarter],"Q1")</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f>COUNTIF(MedicalData[Quarter],"Q2")</f>
+        <v/>
+      </c>
+      <c r="D41">
+        <f>COUNTIF(MedicalData[Quarter],"Q3")</f>
+        <v/>
+      </c>
+      <c r="E41">
+        <f>COUNTIF(MedicalData[Quarter],"Q4")</f>
+        <v/>
+      </c>
+      <c r="F41" s="30">
+        <f>SUM(B41:E41)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ambulance Calls</t>
+        </is>
+      </c>
+      <c r="B42">
+        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="D42">
+        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="E42">
+        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="F42" s="30">
+        <f>SUM(B42:E42)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="B43">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q1",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q2",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="D43">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q3",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E43">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q4",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="F43">
+        <f>IFERROR(ROUND(AVERAGE(MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Critical Cases (P1+P2)</t>
+        </is>
+      </c>
+      <c r="B44">
+        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C44">
+        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="D44">
+        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="E44">
+        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="F44" s="30">
+        <f>SUM(B44:E44)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="43" t="inlineStr">
+        <is>
+          <t>Current Quarter Highlight:</t>
+        </is>
+      </c>
+      <c r="B46">
+        <f>B38&amp;" has "&amp;IF(B38="Q1",B41,IF(B38="Q2",C41,IF(B38="Q3",D41,E41)))&amp;" incidents"</f>
+        <v/>
+      </c>
+    </row>
     <row r="61" ht="23.25" customHeight="1" s="21">
       <c r="A61" s="20" t="inlineStr">
         <is>
@@ -17963,6 +18366,11 @@
     <mergeCell ref="A76:N76"/>
     <mergeCell ref="P4:S4"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Month" error="Please select a valid month" promptTitle="Month Selection" prompt="Select a month or 'All Time'" type="list">
+      <formula1>=Lists!$E$1:$E$26</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -16812,7 +16812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17130,10 +17130,6 @@
         </is>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -17551,7 +17547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -17838,373 +17834,60 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="40" t="inlineStr">
-        <is>
-          <t>WEEKLY REPORT</t>
-        </is>
-      </c>
+      <c r="A25" s="40" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="41" t="inlineStr">
-        <is>
-          <t>Week-by-week breakdown for selected month</t>
-        </is>
-      </c>
-    </row>
+      <c r="A26" s="41" t="n"/>
+    </row>
+    <row r="27"/>
     <row r="28">
-      <c r="A28" s="42" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B28" s="42" t="inlineStr">
-        <is>
-          <t>Incidents</t>
-        </is>
-      </c>
-      <c r="C28" s="42" t="inlineStr">
-        <is>
-          <t>Ambulance</t>
-        </is>
-      </c>
-      <c r="D28" s="42" t="inlineStr">
-        <is>
-          <t>Avg Age</t>
-        </is>
-      </c>
-      <c r="E28" s="42" t="inlineStr">
-        <is>
-          <t>Top Injury</t>
-        </is>
-      </c>
-      <c r="F28" s="42" t="inlineStr">
-        <is>
-          <t>Top Venue</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Week 1</t>
-        </is>
-      </c>
-      <c r="B29">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*1)</f>
-        <v/>
-      </c>
-      <c r="C29">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
-        <v/>
-      </c>
-      <c r="D29">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E29">
-        <f>IF(B29=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F29">
-        <f>IF(B29=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Week 2</t>
-        </is>
-      </c>
-      <c r="B30">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*1)</f>
-        <v/>
-      </c>
-      <c r="C30">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
-        <v/>
-      </c>
-      <c r="D30">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E30">
-        <f>IF(B30=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F30">
-        <f>IF(B30=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Week 3</t>
-        </is>
-      </c>
-      <c r="B31">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*1)</f>
-        <v/>
-      </c>
-      <c r="C31">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
-        <v/>
-      </c>
-      <c r="D31">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E31">
-        <f>IF(B31=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F31">
-        <f>IF(B31=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Week 4</t>
-        </is>
-      </c>
-      <c r="B32">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*1)</f>
-        <v/>
-      </c>
-      <c r="C32">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
-        <v/>
-      </c>
-      <c r="D32">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E32">
-        <f>IF(B32=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F32">
-        <f>IF(B32=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Week 5</t>
-        </is>
-      </c>
-      <c r="B33">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*1)</f>
-        <v/>
-      </c>
-      <c r="C33">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
-        <v/>
-      </c>
-      <c r="D33">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E33">
-        <f>IF(B33=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F33">
-        <f>IF(B33=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
-        <v/>
-      </c>
-    </row>
+      <c r="A28" s="42" t="n"/>
+      <c r="B28" s="42" t="n"/>
+      <c r="C28" s="42" t="n"/>
+      <c r="D28" s="42" t="n"/>
+      <c r="E28" s="42" t="n"/>
+      <c r="F28" s="42" t="n"/>
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32"/>
+    <row r="33"/>
     <row r="34">
-      <c r="A34" s="30" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B34" s="30">
-        <f>SUM(B29:B33)</f>
-        <v/>
-      </c>
-      <c r="C34" s="30">
-        <f>SUM(C29:C33)</f>
-        <v/>
-      </c>
-      <c r="D34">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],$B$2,MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-    </row>
+      <c r="A34" s="30" t="n"/>
+      <c r="B34" s="30" t="n"/>
+      <c r="C34" s="30" t="n"/>
+    </row>
+    <row r="35"/>
+    <row r="36"/>
     <row r="37">
-      <c r="A37" s="40" t="inlineStr">
-        <is>
-          <t>QUARTERLY REPORT</t>
-        </is>
-      </c>
+      <c r="A37" s="40" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Quarter:</t>
-        </is>
-      </c>
-      <c r="B38" s="33">
-        <f>IF($B$2="All Time","All",IF(OR(LEFT($B$2,3)="Jan",LEFT($B$2,3)="Feb",LEFT($B$2,3)="Mar"),"Q1",IF(OR(LEFT($B$2,3)="Apr",LEFT($B$2,3)="May",LEFT($B$2,3)="Jun"),"Q2",IF(OR(LEFT($B$2,3)="Jul",LEFT($B$2,3)="Aug",LEFT($B$2,3)="Sep"),"Q3","Q4"))))</f>
-        <v/>
-      </c>
-    </row>
+      <c r="B38" s="33" t="n"/>
+    </row>
+    <row r="39"/>
     <row r="40">
-      <c r="A40" s="42" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B40" s="42" t="inlineStr">
-        <is>
-          <t>Q1 (Jan-Mar)</t>
-        </is>
-      </c>
-      <c r="C40" s="42" t="inlineStr">
-        <is>
-          <t>Q2 (Apr-Jun)</t>
-        </is>
-      </c>
-      <c r="D40" s="42" t="inlineStr">
-        <is>
-          <t>Q3 (Jul-Sep)</t>
-        </is>
-      </c>
-      <c r="E40" s="42" t="inlineStr">
-        <is>
-          <t>Q4 (Oct-Dec)</t>
-        </is>
-      </c>
-      <c r="F40" s="42" t="inlineStr">
-        <is>
-          <t>YTD Total</t>
-        </is>
-      </c>
+      <c r="A40" s="42" t="n"/>
+      <c r="B40" s="42" t="n"/>
+      <c r="C40" s="42" t="n"/>
+      <c r="D40" s="42" t="n"/>
+      <c r="E40" s="42" t="n"/>
+      <c r="F40" s="42" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Total Incidents</t>
-        </is>
-      </c>
-      <c r="B41">
-        <f>COUNTIF(MedicalData[Quarter],"Q1")</f>
-        <v/>
-      </c>
-      <c r="C41">
-        <f>COUNTIF(MedicalData[Quarter],"Q2")</f>
-        <v/>
-      </c>
-      <c r="D41">
-        <f>COUNTIF(MedicalData[Quarter],"Q3")</f>
-        <v/>
-      </c>
-      <c r="E41">
-        <f>COUNTIF(MedicalData[Quarter],"Q4")</f>
-        <v/>
-      </c>
-      <c r="F41" s="30">
-        <f>SUM(B41:E41)</f>
-        <v/>
-      </c>
+      <c r="F41" s="30" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Ambulance Calls</t>
-        </is>
-      </c>
-      <c r="B42">
-        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Hospital Transportation],"Yes")</f>
-        <v/>
-      </c>
-      <c r="C42">
-        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Hospital Transportation],"Yes")</f>
-        <v/>
-      </c>
-      <c r="D42">
-        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Hospital Transportation],"Yes")</f>
-        <v/>
-      </c>
-      <c r="E42">
-        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Hospital Transportation],"Yes")</f>
-        <v/>
-      </c>
-      <c r="F42" s="30">
-        <f>SUM(B42:E42)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Average Age</t>
-        </is>
-      </c>
-      <c r="B43">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q1",MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-      <c r="C43">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q2",MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-      <c r="D43">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q3",MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E43">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q4",MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-      <c r="F43">
-        <f>IFERROR(ROUND(AVERAGE(MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-    </row>
+      <c r="F42" s="30" t="n"/>
+    </row>
+    <row r="43"/>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Critical Cases (P1+P2)</t>
-        </is>
-      </c>
-      <c r="B44">
-        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C44">
-        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="D44">
-        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="E44">
-        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="F44" s="30">
-        <f>SUM(B44:E44)</f>
-        <v/>
-      </c>
-    </row>
+      <c r="F44" s="30" t="n"/>
+    </row>
+    <row r="45"/>
     <row r="46">
-      <c r="A46" s="43" t="inlineStr">
-        <is>
-          <t>Current Quarter Highlight:</t>
-        </is>
-      </c>
-      <c r="B46">
-        <f>B38&amp;" has "&amp;IF(B38="Q1",B41,IF(B38="Q2",C41,IF(B38="Q3",D41,E41)))&amp;" incidents"</f>
-        <v/>
-      </c>
+      <c r="A46" s="43" t="n"/>
     </row>
     <row r="61" ht="23.25" customHeight="1" s="21">
       <c r="A61" s="20" t="inlineStr">
@@ -18354,6 +18037,375 @@
         <is>
           <t>• Update emergency procedures</t>
         </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="40" t="inlineStr">
+        <is>
+          <t>WEEKLY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="41" t="inlineStr">
+        <is>
+          <t>Week-by-week breakdown for selected month</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="42" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="B90" s="42" t="inlineStr">
+        <is>
+          <t>Incidents</t>
+        </is>
+      </c>
+      <c r="C90" s="42" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="D90" s="42" t="inlineStr">
+        <is>
+          <t>Avg Age</t>
+        </is>
+      </c>
+      <c r="E90" s="42" t="inlineStr">
+        <is>
+          <t>Top Injury</t>
+        </is>
+      </c>
+      <c r="F90" s="42" t="inlineStr">
+        <is>
+          <t>Top Venue</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="B91">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*1)</f>
+        <v/>
+      </c>
+      <c r="C91">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D91">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E91">
+        <f>IF(B91=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F91">
+        <f>IF(B91=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="B92">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*1)</f>
+        <v/>
+      </c>
+      <c r="C92">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D92">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E92">
+        <f>IF(B92=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F92">
+        <f>IF(B92=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="B93">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*1)</f>
+        <v/>
+      </c>
+      <c r="C93">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D93">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E93">
+        <f>IF(B93=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F93">
+        <f>IF(B93=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="B94">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*1)</f>
+        <v/>
+      </c>
+      <c r="C94">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D94">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E94">
+        <f>IF(B94=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F94">
+        <f>IF(B94=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+      <c r="B95">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*1)</f>
+        <v/>
+      </c>
+      <c r="C95">
+        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="D95">
+        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E95">
+        <f>IF(B95=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
+        <v/>
+      </c>
+      <c r="F95">
+        <f>IF(B95=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="30" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B96" s="30">
+        <f>SUM(B91:B95)</f>
+        <v/>
+      </c>
+      <c r="C96" s="30">
+        <f>SUM(C91:C95)</f>
+        <v/>
+      </c>
+      <c r="D96">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],$B$2,MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="40" t="inlineStr">
+        <is>
+          <t>QUARTERLY REPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Quarter:</t>
+        </is>
+      </c>
+      <c r="B101" s="33">
+        <f>IF($B$2="All Time","All",IF(OR(LEFT($B$2,3)="Jan",LEFT($B$2,3)="Feb",LEFT($B$2,3)="Mar"),"Q1",IF(OR(LEFT($B$2,3)="Apr",LEFT($B$2,3)="May",LEFT($B$2,3)="Jun"),"Q2",IF(OR(LEFT($B$2,3)="Jul",LEFT($B$2,3)="Aug",LEFT($B$2,3)="Sep"),"Q3","Q4"))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="42" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="B103" s="42" t="inlineStr">
+        <is>
+          <t>Q1 (Jan-Mar)</t>
+        </is>
+      </c>
+      <c r="C103" s="42" t="inlineStr">
+        <is>
+          <t>Q2 (Apr-Jun)</t>
+        </is>
+      </c>
+      <c r="D103" s="42" t="inlineStr">
+        <is>
+          <t>Q3 (Jul-Sep)</t>
+        </is>
+      </c>
+      <c r="E103" s="42" t="inlineStr">
+        <is>
+          <t>Q4 (Oct-Dec)</t>
+        </is>
+      </c>
+      <c r="F103" s="42" t="inlineStr">
+        <is>
+          <t>YTD Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Total Incidents</t>
+        </is>
+      </c>
+      <c r="B104">
+        <f>COUNTIF(MedicalData[Quarter],"Q1")</f>
+        <v/>
+      </c>
+      <c r="C104">
+        <f>COUNTIF(MedicalData[Quarter],"Q2")</f>
+        <v/>
+      </c>
+      <c r="D104">
+        <f>COUNTIF(MedicalData[Quarter],"Q3")</f>
+        <v/>
+      </c>
+      <c r="E104">
+        <f>COUNTIF(MedicalData[Quarter],"Q4")</f>
+        <v/>
+      </c>
+      <c r="F104" s="30">
+        <f>SUM(B104:E104)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Ambulance Calls</t>
+        </is>
+      </c>
+      <c r="B105">
+        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="C105">
+        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="D105">
+        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="E105">
+        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="F105" s="30">
+        <f>SUM(B105:E105)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="B106">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q1",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="C106">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q2",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="D106">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q3",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E106">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q4",MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="F106" s="30">
+        <f>IFERROR(ROUND(AVERAGE(MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Critical Cases (P1+P2)</t>
+        </is>
+      </c>
+      <c r="B107">
+        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C107">
+        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="D107">
+        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="E107">
+        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="F107" s="30">
+        <f>SUM(B107:E107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="43" t="inlineStr">
+        <is>
+          <t>Current Quarter Highlight:</t>
+        </is>
+      </c>
+      <c r="B109">
+        <f>B101&amp;" has "&amp;IF(B101="Q1",B104,IF(B101="Q2",C104,IF(B101="Q3",D104,E104)))&amp;" incidents"</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -28,7 +28,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -175,8 +175,22 @@
       <i val="1"/>
       <sz val="9"/>
     </font>
+    <font/>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="16"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -231,8 +245,14 @@
         <bgColor rgb="001F4E79"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF6B00"/>
+        <bgColor rgb="00FF6B00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -323,11 +343,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -402,6 +429,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="16" fontId="26" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17555,116 +17607,165 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" style="21" min="1" max="19"/>
-    <col width="14" customWidth="1" style="21" min="2" max="2"/>
-    <col width="14" customWidth="1" style="21" min="3" max="3"/>
-    <col width="14" customWidth="1" style="21" min="4" max="4"/>
+    <col width="18" customWidth="1" style="21" min="1" max="19"/>
+    <col width="12" customWidth="1" style="21" min="2" max="2"/>
+    <col width="12" customWidth="1" style="21" min="3" max="3"/>
+    <col width="10" customWidth="1" style="21" min="4" max="4"/>
     <col width="14" customWidth="1" style="21" min="5" max="5"/>
-    <col width="12" customWidth="1" style="21" min="6" max="6"/>
+    <col width="14" customWidth="1" style="21" min="6" max="6"/>
+    <col width="16" customWidth="1" style="21" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.75" customHeight="1" s="21">
-      <c r="A1" s="36" t="inlineStr">
+      <c r="A1" s="44" t="inlineStr">
         <is>
           <t>SHAPA NIKE SOWETO MEDICAL DASHBOARD</t>
         </is>
       </c>
+      <c r="B1" s="45" t="n"/>
+      <c r="C1" s="45" t="n"/>
+      <c r="D1" s="45" t="n"/>
+      <c r="E1" s="45" t="n"/>
+      <c r="F1" s="45" t="n"/>
+      <c r="G1" s="45" t="n"/>
+      <c r="H1" s="45" t="n"/>
+      <c r="I1" s="45" t="n"/>
+      <c r="J1" s="45" t="n"/>
+      <c r="K1" s="45" t="n"/>
+      <c r="L1" s="45" t="n"/>
+      <c r="M1" s="45" t="n"/>
+      <c r="N1" s="45" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Select Period:</t>
-        </is>
-      </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="A2" s="45" t="n"/>
+      <c r="B2" s="46">
+        <f>E4</f>
+        <v/>
+      </c>
+      <c r="C2" s="45" t="n"/>
+      <c r="D2" s="45" t="n"/>
+      <c r="E2" s="45" t="n"/>
+      <c r="F2" s="45" t="n"/>
+      <c r="G2" s="45" t="n"/>
+      <c r="H2" s="45" t="n"/>
+      <c r="I2" s="45" t="n"/>
+      <c r="J2" s="45" t="n"/>
+      <c r="K2" s="45" t="n"/>
+      <c r="L2" s="45" t="n"/>
+      <c r="M2" s="45" t="n"/>
+      <c r="N2" s="45" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="47" t="inlineStr">
+        <is>
+          <t>REPORT CONTROLS</t>
+        </is>
+      </c>
+      <c r="B3" s="45" t="n"/>
+      <c r="C3" s="45" t="n"/>
+      <c r="D3" s="45" t="n"/>
+      <c r="E3" s="45" t="n"/>
+      <c r="F3" s="45" t="n"/>
+      <c r="G3" s="45" t="n"/>
+      <c r="H3" s="45" t="n"/>
+      <c r="I3" s="45" t="n"/>
+      <c r="J3" s="45" t="n"/>
+      <c r="K3" s="45" t="n"/>
+      <c r="L3" s="45" t="n"/>
+      <c r="M3" s="45" t="n"/>
+      <c r="N3" s="45" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="21">
+      <c r="A4" s="48" t="inlineStr">
+        <is>
+          <t>Report Type:</t>
+        </is>
+      </c>
+      <c r="B4" s="49" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="C4" s="45" t="n"/>
+      <c r="D4" s="50" t="inlineStr">
+        <is>
+          <t>Select Month:</t>
+        </is>
+      </c>
+      <c r="E4" s="51" t="inlineStr">
         <is>
           <t>Oct-25</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Date Range:</t>
-        </is>
-      </c>
-      <c r="E2">
-        <f>IF(B2="All Time","All Data","Month: "&amp;B2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="21">
-      <c r="A4" s="24" t="inlineStr">
-        <is>
-          <t>TOTAL INCIDENTS</t>
-        </is>
-      </c>
-      <c r="B4" s="25" t="n"/>
-      <c r="C4" s="25" t="n"/>
-      <c r="D4" s="26" t="n"/>
-      <c r="F4" s="27" t="inlineStr">
-        <is>
-          <t>AVERAGE AGE</t>
-        </is>
-      </c>
-      <c r="G4" s="25" t="n"/>
-      <c r="H4" s="25" t="n"/>
-      <c r="I4" s="26" t="n"/>
-      <c r="K4" s="28" t="inlineStr">
-        <is>
-          <t>AMBULANCE CALLS</t>
-        </is>
-      </c>
-      <c r="L4" s="25" t="n"/>
-      <c r="M4" s="25" t="n"/>
-      <c r="N4" s="26" t="n"/>
+      <c r="F4" s="52" t="n"/>
+      <c r="G4" s="50" t="inlineStr">
+        <is>
+          <t>Select Week:</t>
+        </is>
+      </c>
+      <c r="H4" s="51" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="I4" s="45" t="n"/>
+      <c r="J4" s="50" t="inlineStr">
+        <is>
+          <t>Quarter:</t>
+        </is>
+      </c>
+      <c r="K4" s="53">
+        <f>IF(OR(LEFT(E4,3)="Jan",LEFT(E4,3)="Feb",LEFT(E4,3)="Mar"),"Q1",IF(OR(LEFT(E4,3)="Apr",LEFT(E4,3)="May",LEFT(E4,3)="Jun"),"Q2",IF(OR(LEFT(E4,3)="Jul",LEFT(E4,3)="Aug",LEFT(E4,3)="Sep"),"Q3","Q4")))</f>
+        <v/>
+      </c>
+      <c r="L4" s="45" t="n"/>
+      <c r="M4" s="45" t="n"/>
+      <c r="N4" s="45" t="n"/>
       <c r="P4" s="29" t="inlineStr">
         <is>
           <t>TOP RISK SITE</t>
         </is>
       </c>
-      <c r="Q4" s="25" t="n"/>
-      <c r="R4" s="25" t="n"/>
-      <c r="S4" s="26" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="n"/>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4" t="n"/>
-      <c r="M5" s="4" t="n"/>
-      <c r="N5" s="4" t="n"/>
+      <c r="A5" s="45" t="n"/>
+      <c r="B5" s="45" t="n"/>
+      <c r="C5" s="45" t="n"/>
+      <c r="D5" s="45" t="n"/>
+      <c r="E5" s="45" t="n"/>
+      <c r="F5" s="45" t="n"/>
+      <c r="G5" s="45" t="n"/>
+      <c r="H5" s="45" t="n"/>
+      <c r="I5" s="45" t="n"/>
+      <c r="J5" s="45" t="n"/>
+      <c r="K5" s="45" t="n"/>
+      <c r="L5" s="45" t="n"/>
+      <c r="M5" s="45" t="n"/>
+      <c r="N5" s="45" t="n"/>
       <c r="P5" s="5" t="n"/>
       <c r="Q5" s="5" t="n"/>
       <c r="R5" s="5" t="n"/>
       <c r="S5" s="5" t="n"/>
     </row>
     <row r="6" ht="46.5" customHeight="1" s="21">
-      <c r="A6" s="2" t="n"/>
-      <c r="B6" s="6">
-        <f>IF($B$2="All Time",COUNTA(MedicalData[Date]),COUNTIF(MedicalData[Month],$B$2))</f>
-        <v/>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="7">
-        <f>ROUND(IF($B$2="All Time",AVERAGE(MedicalData[Age]),AVERAGEIF(MedicalData[Month],$B$2,MedicalData[Age])),0)</f>
-        <v/>
-      </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="K6" s="4" t="n"/>
-      <c r="L6" s="8">
-        <f>IF($B$2="All Time",COUNTIF(MedicalData[Hospital Transportation],"Yes"),COUNTIFS(MedicalData[Hospital Transportation],"Yes",MedicalData[Month],$B$2))</f>
-        <v/>
-      </c>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="4" t="n"/>
+      <c r="A6" s="47" t="inlineStr">
+        <is>
+          <t>SUMMARY</t>
+        </is>
+      </c>
+      <c r="B6" s="52" t="n"/>
+      <c r="C6" s="45" t="n"/>
+      <c r="D6" s="45" t="n"/>
+      <c r="E6" s="45" t="n"/>
+      <c r="F6" s="45" t="n"/>
+      <c r="G6" s="52" t="n"/>
+      <c r="H6" s="45" t="n"/>
+      <c r="I6" s="45" t="n"/>
+      <c r="J6" s="45" t="n"/>
+      <c r="K6" s="45" t="n"/>
+      <c r="L6" s="52" t="n"/>
+      <c r="M6" s="45" t="n"/>
+      <c r="N6" s="45" t="n"/>
       <c r="P6" s="5" t="n"/>
       <c r="Q6" s="9">
         <f>IFERROR(INDEX(MedicalData[Site],MODE(MATCH(MedicalData[Site],MedicalData[Site],0))),"")</f>
@@ -17674,18 +17775,48 @@
       <c r="S6" s="5" t="n"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" s="21">
-      <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-      <c r="I7" s="3" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4" t="n"/>
-      <c r="M7" s="4" t="n"/>
-      <c r="N7" s="4" t="n"/>
+      <c r="A7" s="54" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B7" s="55">
+        <f>IF(B4="Weekly",E4&amp;" - "&amp;H4,IF(B4="Monthly",E4,IF(B4="Quarterly",K4&amp;" "&amp;RIGHT(E4,2),"All Time")))</f>
+        <v/>
+      </c>
+      <c r="C7" s="45" t="n"/>
+      <c r="D7" s="54" t="inlineStr">
+        <is>
+          <t>Total Incidents</t>
+        </is>
+      </c>
+      <c r="E7" s="56">
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*1),IF(B4="Monthly",COUNTIF(MedicalData[Month],E4),IF(B4="Quarterly",COUNTIF(MedicalData[Quarter],K4),COUNTA(MedicalData[Date]))))</f>
+        <v/>
+      </c>
+      <c r="F7" s="45" t="n"/>
+      <c r="G7" s="54" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="H7" s="56">
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",COUNTIFS(MedicalData[Month],E4,MedicalData[Hospital Transportation],"Yes"),IF(B4="Quarterly",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes"),COUNTIF(MedicalData[Hospital Transportation],"Yes"))))</f>
+        <v/>
+      </c>
+      <c r="I7" s="45" t="n"/>
+      <c r="J7" s="54" t="inlineStr">
+        <is>
+          <t>Avg Age</t>
+        </is>
+      </c>
+      <c r="K7" s="56">
+        <f>IFERROR(ROUND(IF(B4="Monthly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Quarterly",AVERAGEIF(MedicalData[Quarter],K4,MedicalData[Age]),AVERAGE(MedicalData[Age]))),0),"-")</f>
+        <v/>
+      </c>
+      <c r="L7" s="45" t="n"/>
+      <c r="M7" s="45" t="n"/>
+      <c r="N7" s="45" t="n"/>
       <c r="P7" s="5" t="n"/>
       <c r="Q7" s="5" t="n"/>
       <c r="R7" s="10">
@@ -17695,18 +17826,20 @@
       <c r="S7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="4" t="n"/>
+      <c r="A8" s="45" t="n"/>
+      <c r="B8" s="45" t="n"/>
+      <c r="C8" s="45" t="n"/>
+      <c r="D8" s="45" t="n"/>
+      <c r="E8" s="45" t="n"/>
+      <c r="F8" s="45" t="n"/>
+      <c r="G8" s="45" t="n"/>
+      <c r="H8" s="45" t="n"/>
+      <c r="I8" s="45" t="n"/>
+      <c r="J8" s="45" t="n"/>
+      <c r="K8" s="45" t="n"/>
+      <c r="L8" s="45" t="n"/>
+      <c r="M8" s="45" t="n"/>
+      <c r="N8" s="45" t="n"/>
       <c r="P8" s="5" t="n"/>
       <c r="Q8" s="5" t="n"/>
       <c r="R8" s="5" t="n"/>
@@ -17839,7 +17972,6 @@
     <row r="26">
       <c r="A26" s="41" t="n"/>
     </row>
-    <row r="27"/>
     <row r="28">
       <c r="A28" s="42" t="n"/>
       <c r="B28" s="42" t="n"/>
@@ -17848,25 +17980,17 @@
       <c r="E28" s="42" t="n"/>
       <c r="F28" s="42" t="n"/>
     </row>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
     <row r="34">
       <c r="A34" s="30" t="n"/>
       <c r="B34" s="30" t="n"/>
       <c r="C34" s="30" t="n"/>
     </row>
-    <row r="35"/>
-    <row r="36"/>
     <row r="37">
       <c r="A37" s="40" t="n"/>
     </row>
     <row r="38">
       <c r="B38" s="33" t="n"/>
     </row>
-    <row r="39"/>
     <row r="40">
       <c r="A40" s="42" t="n"/>
       <c r="B40" s="42" t="n"/>
@@ -17881,11 +18005,9 @@
     <row r="42">
       <c r="F42" s="30" t="n"/>
     </row>
-    <row r="43"/>
     <row r="44">
       <c r="F44" s="30" t="n"/>
     </row>
-    <row r="45"/>
     <row r="46">
       <c r="A46" s="43" t="n"/>
     </row>
@@ -18040,24 +18162,18 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="40" t="inlineStr">
-        <is>
-          <t>WEEKLY REPORT</t>
-        </is>
+      <c r="A88" s="40">
+        <f>IF(B4="Weekly","WEEKLY BREAKDOWN: "&amp;E4&amp;" - "&amp;H4,IF(B4="Monthly","MONTHLY BREAKDOWN: "&amp;E4,IF(B4="Quarterly","QUARTERLY BREAKDOWN: "&amp;K4&amp;" "&amp;RIGHT(E4,2),"ALL TIME REPORT")))</f>
+        <v/>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="41" t="inlineStr">
-        <is>
-          <t>Week-by-week breakdown for selected month</t>
-        </is>
-      </c>
+      <c r="A89" s="41" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="42" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
+      <c r="A90" s="42">
+        <f>IF(B4="Weekly","Day",IF(B4="Monthly","Week",IF(B4="Quarterly","Month","Period")))</f>
+        <v/>
       </c>
       <c r="B90" s="42" t="inlineStr">
         <is>
@@ -18084,139 +18200,149 @@
           <t>Top Venue</t>
         </is>
       </c>
+      <c r="G90" s="42" t="inlineStr">
+        <is>
+          <t>Top Mechanism</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Week 1</t>
-        </is>
+      <c r="A91">
+        <f>IF(B4="Weekly","Day 1",IF(B4="Monthly","Week 1",IF(B4="Quarterly",TEXT(DATE(YEAR(TODAY()),(1+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),"1")))</f>
+        <v/>
       </c>
       <c r="B91">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(1+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*1),
+            IF(B4="Weekly",
+                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=2)*1),
+                "")))</f>
         <v/>
       </c>
       <c r="C91">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(1+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*(MedicalData[Hospital Transportation]="Yes")*1),
+            ""))</f>
         <v/>
       </c>
       <c r="D91">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E91">
-        <f>IF(B91=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F91">
-        <f>IF(B91=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1),0)),"-"))</f>
+        <f>IF(B91=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
         <v/>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Week 2</t>
-        </is>
+      <c r="A92">
+        <f>IF(B4="Weekly","Day 2",IF(B4="Monthly","Week 2",IF(B4="Quarterly",TEXT(DATE(YEAR(TODAY()),(2+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),"2")))</f>
+        <v/>
       </c>
       <c r="B92">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(2+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*1),
+            IF(B4="Weekly",
+                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=3)*1),
+                "")))</f>
         <v/>
       </c>
       <c r="C92">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(2+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*(MedicalData[Hospital Transportation]="Yes")*1),
+            ""))</f>
         <v/>
       </c>
       <c r="D92">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E92">
-        <f>IF(B92=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F92">
-        <f>IF(B92=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2),0)),"-"))</f>
+        <f>IF(B92=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
         <v/>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Week 3</t>
-        </is>
+      <c r="A93">
+        <f>IF(B4="Weekly","Day 3",IF(B4="Monthly","Week 3",IF(B4="Quarterly",TEXT(DATE(YEAR(TODAY()),(3+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),"3")))</f>
+        <v/>
       </c>
       <c r="B93">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(3+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*1),
+            IF(B4="Weekly",
+                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=4)*1),
+                "")))</f>
         <v/>
       </c>
       <c r="C93">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(3+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*(MedicalData[Hospital Transportation]="Yes")*1),
+            ""))</f>
         <v/>
       </c>
       <c r="D93">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E93">
-        <f>IF(B93=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F93">
-        <f>IF(B93=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3),0)),"-"))</f>
+        <f>IF(B93=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
         <v/>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Week 4</t>
-        </is>
+      <c r="A94">
+        <f>IF(B4="Quarterly","",IF(B4="Weekly","Day 4","Week 4"))</f>
+        <v/>
       </c>
       <c r="B94">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(4+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*1),
+            IF(B4="Weekly",
+                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=5)*1),
+                "")))</f>
         <v/>
       </c>
       <c r="C94">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(4+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*(MedicalData[Hospital Transportation]="Yes")*1),
+            ""))</f>
         <v/>
       </c>
       <c r="D94">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E94">
-        <f>IF(B94=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F94">
-        <f>IF(B94=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4),0)),"-"))</f>
+        <f>IF(B94=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
         <v/>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Week 5</t>
-        </is>
+      <c r="A95">
+        <f>IF(B4="Quarterly","",IF(B4="Weekly","Day 5","Week 5"))</f>
+        <v/>
       </c>
       <c r="B95">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(5+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*1),
+            IF(B4="Weekly",
+                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=6)*1),
+                "")))</f>
         <v/>
       </c>
       <c r="C95">
-        <f>SUMPRODUCT((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*(MedicalData[Hospital Transportation]="Yes")*1)</f>
+        <f>IF(B4="Quarterly",
+        IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(5+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
+        IF(B4="Monthly",
+            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*(MedicalData[Hospital Transportation]="Yes")*1),
+            ""))</f>
         <v/>
       </c>
       <c r="D95">
-        <f>IFERROR(ROUND(AGGREGATE(1,6,MedicalData[Age]/((MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E95">
-        <f>IF(B95=0,"-",IFERROR(INDEX(MedicalData[Specific injuries treated],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
-        <v/>
-      </c>
-      <c r="F95">
-        <f>IF(B95=0,"-",IFERROR(INDEX(MedicalData[Site],MATCH(1,(MedicalData[Month]=$B$2)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5),0)),"-"))</f>
+        <f>IF(B95=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
         <v/>
       </c>
     </row>
@@ -18235,192 +18361,179 @@
         <v/>
       </c>
       <c r="D96">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],$B$2,MedicalData[Age]),0),"-")</f>
+        <f>IFERROR(ROUND(IF(B4="Monthly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Quarterly",AVERAGEIF(MedicalData[Quarter],K4,MedicalData[Age]),AVERAGE(MedicalData[Age]))),0),"-")</f>
         <v/>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="40" t="inlineStr">
-        <is>
-          <t>QUARTERLY REPORT</t>
-        </is>
+      <c r="A100" s="40">
+        <f>IF(B4="Quarterly","QUARTERLY COMPARISON",IF(B4="Monthly","MONTHLY TRENDS","PERIOD ANALYSIS"))</f>
+        <v/>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Quarter:</t>
-        </is>
-      </c>
-      <c r="B101" s="33">
-        <f>IF($B$2="All Time","All",IF(OR(LEFT($B$2,3)="Jan",LEFT($B$2,3)="Feb",LEFT($B$2,3)="Mar"),"Q1",IF(OR(LEFT($B$2,3)="Apr",LEFT($B$2,3)="May",LEFT($B$2,3)="Jun"),"Q2",IF(OR(LEFT($B$2,3)="Jul",LEFT($B$2,3)="Aug",LEFT($B$2,3)="Sep"),"Q3","Q4"))))</f>
-        <v/>
+      <c r="B101" s="33" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="42" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="B102" s="42" t="inlineStr">
+        <is>
+          <t>Incidents</t>
+        </is>
+      </c>
+      <c r="C102" s="42" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="D102" s="42" t="inlineStr">
+        <is>
+          <t>Avg Age</t>
+        </is>
+      </c>
+      <c r="E102" s="42" t="inlineStr">
+        <is>
+          <t>vs Previous</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="42" t="inlineStr">
         <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="B103" s="42" t="inlineStr">
-        <is>
-          <t>Q1 (Jan-Mar)</t>
-        </is>
-      </c>
-      <c r="C103" s="42" t="inlineStr">
-        <is>
-          <t>Q2 (Apr-Jun)</t>
-        </is>
-      </c>
-      <c r="D103" s="42" t="inlineStr">
-        <is>
-          <t>Q3 (Jul-Sep)</t>
-        </is>
-      </c>
-      <c r="E103" s="42" t="inlineStr">
-        <is>
-          <t>Q4 (Oct-Dec)</t>
-        </is>
-      </c>
-      <c r="F103" s="42" t="inlineStr">
-        <is>
-          <t>YTD Total</t>
-        </is>
-      </c>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="B103" s="42">
+        <f>COUNTIF(MedicalData[Quarter],A103)</f>
+        <v/>
+      </c>
+      <c r="C103" s="42">
+        <f>COUNTIFS(MedicalData[Quarter],A103,MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="D103" s="42">
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A103,MedicalData[Age]),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E103" s="42" t="n"/>
+      <c r="F103" s="42" t="n"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Total Incidents</t>
+          <t>Q2</t>
         </is>
       </c>
       <c r="B104">
-        <f>COUNTIF(MedicalData[Quarter],"Q1")</f>
+        <f>COUNTIF(MedicalData[Quarter],A104)</f>
         <v/>
       </c>
       <c r="C104">
-        <f>COUNTIF(MedicalData[Quarter],"Q2")</f>
+        <f>COUNTIFS(MedicalData[Quarter],A104,MedicalData[Hospital Transportation],"Yes")</f>
         <v/>
       </c>
       <c r="D104">
-        <f>COUNTIF(MedicalData[Quarter],"Q3")</f>
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A104,MedicalData[Age]),0),"-")</f>
         <v/>
       </c>
       <c r="E104">
-        <f>COUNTIF(MedicalData[Quarter],"Q4")</f>
-        <v/>
-      </c>
-      <c r="F104" s="30">
-        <f>SUM(B104:E104)</f>
-        <v/>
-      </c>
+        <f>IF(B103=0,"-",TEXT((B104-B103)/B103,"+0%;-0%"))</f>
+        <v/>
+      </c>
+      <c r="F104" s="30" t="n"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ambulance Calls</t>
+          <t>Q3</t>
         </is>
       </c>
       <c r="B105">
-        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Hospital Transportation],"Yes")</f>
+        <f>COUNTIF(MedicalData[Quarter],A105)</f>
         <v/>
       </c>
       <c r="C105">
-        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Hospital Transportation],"Yes")</f>
+        <f>COUNTIFS(MedicalData[Quarter],A105,MedicalData[Hospital Transportation],"Yes")</f>
         <v/>
       </c>
       <c r="D105">
-        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Hospital Transportation],"Yes")</f>
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A105,MedicalData[Age]),0),"-")</f>
         <v/>
       </c>
       <c r="E105">
-        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Hospital Transportation],"Yes")</f>
-        <v/>
-      </c>
-      <c r="F105" s="30">
-        <f>SUM(B105:E105)</f>
-        <v/>
-      </c>
+        <f>IF(B104=0,"-",TEXT((B105-B104)/B104,"+0%;-0%"))</f>
+        <v/>
+      </c>
+      <c r="F105" s="30" t="n"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Average Age</t>
+          <t>Q4</t>
         </is>
       </c>
       <c r="B106">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q1",MedicalData[Age]),0),"-")</f>
+        <f>COUNTIF(MedicalData[Quarter],A106)</f>
         <v/>
       </c>
       <c r="C106">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q2",MedicalData[Age]),0),"-")</f>
+        <f>COUNTIFS(MedicalData[Quarter],A106,MedicalData[Hospital Transportation],"Yes")</f>
         <v/>
       </c>
       <c r="D106">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q3",MedicalData[Age]),0),"-")</f>
+        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A106,MedicalData[Age]),0),"-")</f>
         <v/>
       </c>
       <c r="E106">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],"Q4",MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-      <c r="F106" s="30">
+        <f>IF(B105=0,"-",TEXT((B106-B105)/B105,"+0%;-0%"))</f>
+        <v/>
+      </c>
+      <c r="F106" s="30" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="30" t="inlineStr">
+        <is>
+          <t>YTD TOTAL</t>
+        </is>
+      </c>
+      <c r="B107" s="30">
+        <f>SUM(B103:B106)</f>
+        <v/>
+      </c>
+      <c r="C107" s="30">
+        <f>SUM(C103:C106)</f>
+        <v/>
+      </c>
+      <c r="D107">
         <f>IFERROR(ROUND(AVERAGE(MedicalData[Age]),0),"-")</f>
         <v/>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Critical Cases (P1+P2)</t>
-        </is>
-      </c>
-      <c r="B107">
-        <f>COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q1",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C107">
-        <f>COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q2",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="D107">
-        <f>COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q3",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="E107">
-        <f>COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Quarter],"Q4",MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="F107" s="30">
-        <f>SUM(B107:E107)</f>
-        <v/>
-      </c>
+      <c r="F107" s="30" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="43" t="inlineStr">
-        <is>
-          <t>Current Quarter Highlight:</t>
-        </is>
-      </c>
-      <c r="B109">
-        <f>B101&amp;" has "&amp;IF(B101="Q1",B104,IF(B101="Q2",C104,IF(B101="Q3",D104,E104)))&amp;" incidents"</f>
-        <v/>
-      </c>
+      <c r="A109" s="43" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="K4:N4"/>
+  <mergeCells count="2">
+    <mergeCell ref="A76:N76"/>
     <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A76:N76"/>
-    <mergeCell ref="P4:S4"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="4">
     <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Month" error="Please select a valid month" promptTitle="Month Selection" prompt="Select a month or 'All Time'" type="list">
       <formula1>=Lists!$E$1:$E$26</formula1>
+    </dataValidation>
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" prompt="Select report type" type="list">
+      <formula1>=Lists!$G$2:$G$4</formula1>
+    </dataValidation>
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" prompt="Select month" type="list">
+      <formula1>=Lists!$E$2:$E$26</formula1>
+    </dataValidation>
+    <dataValidation sqref="H4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" prompt="Select week" type="list">
+      <formula1>=Lists!$H$2:$H$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18971,6 +19084,17 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B2" s="30">
+        <f>Dashboard!B7</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
@@ -19005,7 +19129,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>COUNTIF(MedicalData[Site],A4)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A4)))</f>
         <v/>
       </c>
       <c r="C4">
@@ -19028,7 +19152,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>COUNTIF(MedicalData[Site],A5)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A5)))</f>
         <v/>
       </c>
       <c r="C5">
@@ -19051,7 +19175,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>COUNTIF(MedicalData[Site],A6)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6)))</f>
         <v/>
       </c>
       <c r="C6">
@@ -19074,7 +19198,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>COUNTIF(MedicalData[Site],A7)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7)))</f>
         <v/>
       </c>
       <c r="C7">
@@ -19097,7 +19221,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>COUNTIF(MedicalData[Site],A8)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8)))</f>
         <v/>
       </c>
       <c r="C8">
@@ -19120,7 +19244,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>COUNTIF(MedicalData[Site],A9)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9)))</f>
         <v/>
       </c>
       <c r="C9">
@@ -19143,7 +19267,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>COUNTIF(MedicalData[Site],A10)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10)))</f>
         <v/>
       </c>
       <c r="C10">
@@ -19166,7 +19290,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>COUNTIF(MedicalData[Site],A11)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11)))</f>
         <v/>
       </c>
       <c r="C11">
@@ -19189,7 +19313,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>COUNTIF(MedicalData[Site],A12)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12)))</f>
         <v/>
       </c>
       <c r="C12">
@@ -19212,7 +19336,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>COUNTIF(MedicalData[Site],A13)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13)))</f>
         <v/>
       </c>
       <c r="C13">
@@ -19235,7 +19359,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>COUNTIF(MedicalData[Site],A14)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14)))</f>
         <v/>
       </c>
       <c r="C14">
@@ -19258,7 +19382,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>COUNTIF(MedicalData[Site],A15)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A15)))</f>
         <v/>
       </c>
       <c r="C15">
@@ -19281,7 +19405,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>COUNTIF(MedicalData[Site],A16)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A16)))</f>
         <v/>
       </c>
       <c r="C16">
@@ -19304,7 +19428,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>COUNTIF(MedicalData[Site],A17)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A17)))</f>
         <v/>
       </c>
       <c r="C17">
@@ -19327,7 +19451,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>COUNTIF(MedicalData[Site],A18)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A18)))</f>
         <v/>
       </c>
       <c r="C18">
@@ -19350,7 +19474,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>COUNTIF(MedicalData[Site],A19)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A19)))</f>
         <v/>
       </c>
       <c r="C19">
@@ -19397,6 +19521,17 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B2" s="30">
+        <f>Dashboard!B7</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
@@ -19421,7 +19556,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12")))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -19436,7 +19571,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17")))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -19451,7 +19586,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25")))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -19466,7 +19601,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35")))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -19481,7 +19616,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>COUNTIFS(MedicalData[Age],"&gt;=36")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36")))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -19520,6 +19655,17 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B2" s="30">
+        <f>Dashboard!B7</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
@@ -19544,7 +19690,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*")))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -19559,7 +19705,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*")))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -19574,7 +19720,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*")))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -19589,7 +19735,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*")))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -19604,7 +19750,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*")))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -19619,7 +19765,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*")))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -19634,7 +19780,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*")))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -19649,7 +19795,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*")))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -19664,7 +19810,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*")))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -19679,7 +19825,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*")))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -19694,7 +19840,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*")))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -19709,7 +19855,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*")))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -19724,7 +19870,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*")))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -19739,7 +19885,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*")))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -19754,7 +19900,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*")))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -19769,7 +19915,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*")))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -19784,7 +19930,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*")))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -19799,7 +19945,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*")))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -19814,7 +19960,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*")))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -19829,7 +19975,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*")))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -19872,6 +20018,17 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B2" s="30">
+        <f>Dashboard!B7</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
@@ -19901,7 +20058,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A4)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A4)))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -19920,7 +20077,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A5)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A5)))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -19939,7 +20096,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A6)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A6)))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -19958,7 +20115,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A7)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A7)))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -19977,7 +20134,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A8)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A8)))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -19996,7 +20153,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A9)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A9)))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -20015,7 +20172,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A10)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A10)))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -20034,7 +20191,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A11)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A11)))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -20053,7 +20210,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A12)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A12)))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -20072,7 +20229,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A13)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A13)))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -20091,7 +20248,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A14)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A14)))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -20110,7 +20267,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A15)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A15)))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -20129,7 +20286,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A16)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A16)))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -20148,7 +20305,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A17)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A17)))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -20167,7 +20324,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A18)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A18)))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -20186,7 +20343,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A19)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A19)))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -20205,7 +20362,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A20)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20)))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -20224,7 +20381,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A21)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21)))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -20243,7 +20400,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A22)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22)))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -20262,7 +20419,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A23)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23)))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -20281,7 +20438,7 @@
         </is>
       </c>
       <c r="B24">
-        <f>COUNTIF(MedicalData[History/Mechanism of injury],A24)</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24)))</f>
         <v/>
       </c>
       <c r="C24" s="35">
@@ -20792,6 +20949,17 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B2" s="30">
+        <f>Dashboard!B7</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
@@ -20831,7 +20999,7 @@
         </is>
       </c>
       <c r="C4">
-        <f>COUNTIF(MedicalData[Time Period],"Morning")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A4)))</f>
         <v/>
       </c>
       <c r="D4">
@@ -20855,7 +21023,7 @@
         </is>
       </c>
       <c r="C5">
-        <f>COUNTIF(MedicalData[Time Period],"Afternoon")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A5)))</f>
         <v/>
       </c>
       <c r="D5">
@@ -20879,7 +21047,7 @@
         </is>
       </c>
       <c r="C6">
-        <f>COUNTIF(MedicalData[Time Period],"Evening")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A6)))</f>
         <v/>
       </c>
       <c r="D6">
@@ -20903,7 +21071,7 @@
         </is>
       </c>
       <c r="C7">
-        <f>COUNTIF(MedicalData[Time Period],"Night")</f>
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A7)))</f>
         <v/>
       </c>
       <c r="D7">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -18547,7 +18547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
@@ -18568,6 +18568,17 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B2" s="30">
+        <f>Dashboard!B7</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
@@ -18589,6 +18600,11 @@
           <t>Avg Age</t>
         </is>
       </c>
+      <c r="E3" s="30" t="inlineStr">
+        <is>
+          <t>Selected</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="14" t="inlineStr">
@@ -18608,6 +18624,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A4,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E4">
+        <f>IF(A4=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="14" t="inlineStr">
@@ -18627,6 +18647,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A5,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E5">
+        <f>IF(A5=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="14" t="inlineStr">
@@ -18646,6 +18670,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A6,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E6">
+        <f>IF(A6=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="14" t="inlineStr">
@@ -18665,6 +18693,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A7,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E7">
+        <f>IF(A7=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="14" t="inlineStr">
@@ -18684,6 +18716,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A8,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E8">
+        <f>IF(A8=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="14" t="inlineStr">
@@ -18703,6 +18739,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A9,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E9">
+        <f>IF(A9=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="14" t="inlineStr">
@@ -18722,6 +18762,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A10,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E10">
+        <f>IF(A10=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="14" t="inlineStr">
@@ -18741,6 +18785,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A11,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E11">
+        <f>IF(A11=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="14" t="inlineStr">
@@ -18760,6 +18808,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A12,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E12">
+        <f>IF(A12=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="14" t="inlineStr">
@@ -18779,6 +18831,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A13,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E13">
+        <f>IF(A13=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="inlineStr">
@@ -18798,6 +18854,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A14,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E14">
+        <f>IF(A14=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="inlineStr">
@@ -18817,6 +18877,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A15,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E15">
+        <f>IF(A15=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -18836,6 +18900,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A16,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E16">
+        <f>IF(A16=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -18855,6 +18923,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A17,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E17">
+        <f>IF(A17=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -18874,6 +18946,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A18,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E18">
+        <f>IF(A18=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -18893,6 +18969,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A19,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E19">
+        <f>IF(A19=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -18912,6 +18992,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A20,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E20">
+        <f>IF(A20=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -18931,6 +19015,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A21,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E21">
+        <f>IF(A21=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18950,6 +19038,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A22,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E22">
+        <f>IF(A22=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18969,6 +19061,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A23,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E23">
+        <f>IF(A23=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -18988,6 +19084,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A24,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E24">
+        <f>IF(A24=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -19007,6 +19107,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A25,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E25">
+        <f>IF(A25=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -19026,6 +19130,10 @@
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A26,MedicalData[Age]),0),"")</f>
         <v/>
       </c>
+      <c r="E26">
+        <f>IF(A26=Dashboard!E4,"►","")</f>
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -19043,6 +19151,10 @@
       </c>
       <c r="D27">
         <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Month],A27,MedicalData[Age]),0),"")</f>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>IF(A27=Dashboard!E4,"►","")</f>
         <v/>
       </c>
     </row>
@@ -19133,7 +19245,7 @@
         <v/>
       </c>
       <c r="C4">
-        <f>IF(SUM($B$4:$B$8)=0,0,B4/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B4/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D4">
@@ -19156,7 +19268,7 @@
         <v/>
       </c>
       <c r="C5">
-        <f>IF(SUM($B$4:$B$8)=0,0,B5/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B5/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D5">
@@ -19179,7 +19291,7 @@
         <v/>
       </c>
       <c r="C6">
-        <f>IF(SUM($B$4:$B$8)=0,0,B6/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B6/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D6">
@@ -19202,7 +19314,7 @@
         <v/>
       </c>
       <c r="C7">
-        <f>IF(SUM($B$4:$B$8)=0,0,B7/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B7/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D7">
@@ -19225,7 +19337,7 @@
         <v/>
       </c>
       <c r="C8">
-        <f>IF(SUM($B$4:$B$8)=0,0,B8/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B8/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D8">
@@ -19248,7 +19360,7 @@
         <v/>
       </c>
       <c r="C9">
-        <f>IF(SUM($B$4:$B$8)=0,0,B9/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B9/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D9">
@@ -19271,7 +19383,7 @@
         <v/>
       </c>
       <c r="C10">
-        <f>IF(SUM($B$4:$B$8)=0,0,B10/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B10/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D10">
@@ -19294,7 +19406,7 @@
         <v/>
       </c>
       <c r="C11">
-        <f>IF(SUM($B$4:$B$8)=0,0,B11/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B11/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D11">
@@ -19317,7 +19429,7 @@
         <v/>
       </c>
       <c r="C12">
-        <f>IF(SUM($B$4:$B$8)=0,0,B12/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B12/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D12">
@@ -19340,7 +19452,7 @@
         <v/>
       </c>
       <c r="C13">
-        <f>IF(SUM($B$4:$B$8)=0,0,B13/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B13/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D13">
@@ -19363,7 +19475,7 @@
         <v/>
       </c>
       <c r="C14">
-        <f>IF(SUM($B$4:$B$8)=0,0,B14/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B14/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D14">
@@ -19386,7 +19498,7 @@
         <v/>
       </c>
       <c r="C15">
-        <f>IF(SUM($B$4:$B$8)=0,0,B15/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B15/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D15">
@@ -19409,7 +19521,7 @@
         <v/>
       </c>
       <c r="C16">
-        <f>IF(SUM($B$4:$B$8)=0,0,B16/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B16/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D16">
@@ -19432,7 +19544,7 @@
         <v/>
       </c>
       <c r="C17">
-        <f>IF(SUM($B$4:$B$8)=0,0,B17/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B17/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D17">
@@ -19455,7 +19567,7 @@
         <v/>
       </c>
       <c r="C18">
-        <f>IF(SUM($B$4:$B$8)=0,0,B18/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B18/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D18">
@@ -19478,7 +19590,7 @@
         <v/>
       </c>
       <c r="C19">
-        <f>IF(SUM($B$4:$B$8)=0,0,B19/SUM($B$4:$B$8))</f>
+        <f>IF(SUM($B$4:$B$19)=0,0,B19/SUM($B$4:$B$19))</f>
         <v/>
       </c>
       <c r="D19">
@@ -19694,7 +19806,7 @@
         <v/>
       </c>
       <c r="C4" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B4/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B4/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19709,7 +19821,7 @@
         <v/>
       </c>
       <c r="C5" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B5/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B5/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19724,7 +19836,7 @@
         <v/>
       </c>
       <c r="C6" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B6/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B6/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19739,7 +19851,7 @@
         <v/>
       </c>
       <c r="C7" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B7/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B7/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19754,7 +19866,7 @@
         <v/>
       </c>
       <c r="C8" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B8/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B8/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19769,7 +19881,7 @@
         <v/>
       </c>
       <c r="C9" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B9/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B9/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19784,7 +19896,7 @@
         <v/>
       </c>
       <c r="C10" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B10/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B10/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19799,7 +19911,7 @@
         <v/>
       </c>
       <c r="C11" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B11/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B11/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19814,7 +19926,7 @@
         <v/>
       </c>
       <c r="C12" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B12/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B12/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19829,7 +19941,7 @@
         <v/>
       </c>
       <c r="C13" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B13/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B13/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19844,7 +19956,7 @@
         <v/>
       </c>
       <c r="C14" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B14/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B14/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19859,7 +19971,7 @@
         <v/>
       </c>
       <c r="C15" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B15/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B15/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19874,7 +19986,7 @@
         <v/>
       </c>
       <c r="C16" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B16/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B16/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19889,7 +20001,7 @@
         <v/>
       </c>
       <c r="C17" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B17/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B17/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19904,7 +20016,7 @@
         <v/>
       </c>
       <c r="C18" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B18/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B18/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19919,7 +20031,7 @@
         <v/>
       </c>
       <c r="C19" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B19/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B19/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19934,7 +20046,7 @@
         <v/>
       </c>
       <c r="C20" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B20/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B20/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19949,7 +20061,7 @@
         <v/>
       </c>
       <c r="C21" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B21/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B21/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19964,7 +20076,7 @@
         <v/>
       </c>
       <c r="C22" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B22/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B22/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -19979,7 +20091,7 @@
         <v/>
       </c>
       <c r="C23" s="35">
-        <f>IF(SUM($B$4:$B$13)=0,0,B23/SUM($B$4:$B$13))</f>
+        <f>IF(SUM($B$4:$B$23)=0,0,B23/SUM($B$4:$B$23))</f>
         <v/>
       </c>
     </row>
@@ -20062,7 +20174,7 @@
         <v/>
       </c>
       <c r="C4" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B4/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B4/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D4">
@@ -20081,7 +20193,7 @@
         <v/>
       </c>
       <c r="C5" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B5/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B5/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D5">
@@ -20100,7 +20212,7 @@
         <v/>
       </c>
       <c r="C6" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B6/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B6/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D6">
@@ -20119,7 +20231,7 @@
         <v/>
       </c>
       <c r="C7" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B7/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B7/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D7">
@@ -20138,7 +20250,7 @@
         <v/>
       </c>
       <c r="C8" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B8/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B8/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D8">
@@ -20157,7 +20269,7 @@
         <v/>
       </c>
       <c r="C9" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B9/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B9/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D9">
@@ -20176,7 +20288,7 @@
         <v/>
       </c>
       <c r="C10" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B10/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B10/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D10">
@@ -20195,7 +20307,7 @@
         <v/>
       </c>
       <c r="C11" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B11/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B11/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D11">
@@ -20214,7 +20326,7 @@
         <v/>
       </c>
       <c r="C12" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B12/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B12/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D12">
@@ -20233,7 +20345,7 @@
         <v/>
       </c>
       <c r="C13" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B13/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B13/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D13">
@@ -20252,7 +20364,7 @@
         <v/>
       </c>
       <c r="C14" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B14/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B14/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D14">
@@ -20271,7 +20383,7 @@
         <v/>
       </c>
       <c r="C15" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B15/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B15/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D15">
@@ -20290,7 +20402,7 @@
         <v/>
       </c>
       <c r="C16" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B16/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B16/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D16">
@@ -20309,7 +20421,7 @@
         <v/>
       </c>
       <c r="C17" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B17/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B17/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D17">
@@ -20328,7 +20440,7 @@
         <v/>
       </c>
       <c r="C18" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B18/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B18/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D18">
@@ -20347,7 +20459,7 @@
         <v/>
       </c>
       <c r="C19" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B19/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B19/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D19">
@@ -20366,7 +20478,7 @@
         <v/>
       </c>
       <c r="C20" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B20/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B20/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D20">
@@ -20385,7 +20497,7 @@
         <v/>
       </c>
       <c r="C21" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B21/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B21/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D21">
@@ -20404,7 +20516,7 @@
         <v/>
       </c>
       <c r="C22" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B22/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B22/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D22">
@@ -20423,7 +20535,7 @@
         <v/>
       </c>
       <c r="C23" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B23/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B23/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D23">
@@ -20442,7 +20554,7 @@
         <v/>
       </c>
       <c r="C24" s="35">
-        <f>IF(SUM($B$4:$B$10)=0,0,B24/SUM($B$4:$B$10))</f>
+        <f>IF(SUM($B$4:$B$24)=0,0,B24/SUM($B$4:$B$24))</f>
         <v/>
       </c>
       <c r="D24">
@@ -21007,7 +21119,7 @@
         <v/>
       </c>
       <c r="E4" s="35">
-        <f>IF($C$8=0,0,C4/$C$8)</f>
+        <f>IF(SUM($C$4:$C$7)=0,0,C4/SUM($C$4:$C$7))</f>
         <v/>
       </c>
     </row>
@@ -21031,7 +21143,7 @@
         <v/>
       </c>
       <c r="E5" s="35">
-        <f>IF($C$8=0,0,C5/$C$8)</f>
+        <f>IF(SUM($C$4:$C$7)=0,0,C5/SUM($C$4:$C$7))</f>
         <v/>
       </c>
     </row>
@@ -21055,7 +21167,7 @@
         <v/>
       </c>
       <c r="E6" s="35">
-        <f>IF($C$8=0,0,C6/$C$8)</f>
+        <f>IF(SUM($C$4:$C$7)=0,0,C6/SUM($C$4:$C$7))</f>
         <v/>
       </c>
     </row>
@@ -21079,7 +21191,7 @@
         <v/>
       </c>
       <c r="E7" s="35">
-        <f>IF($C$8=0,0,C7/$C$8)</f>
+        <f>IF(SUM($C$4:$C$7)=0,0,C7/SUM($C$4:$C$7))</f>
         <v/>
       </c>
     </row>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -190,7 +190,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill/>
     </fill>
@@ -249,6 +249,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FF6B00"/>
         <bgColor rgb="00FF6B00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DCE6F1"/>
+        <bgColor rgb="00DCE6F1"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -454,6 +460,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16864,7 +16877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16888,6 +16901,21 @@
           <t>All Time</t>
         </is>
       </c>
+      <c r="G1" s="30" t="inlineStr">
+        <is>
+          <t>Report Type</t>
+        </is>
+      </c>
+      <c r="H1" s="30" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="I1" s="30" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -16905,6 +16933,21 @@
           <t>Jan-24</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -16922,6 +16965,21 @@
           <t>Feb-24</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -16939,6 +16997,21 @@
           <t>Mar-24</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -16956,6 +17029,16 @@
           <t>Apr-24</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -16966,6 +17049,11 @@
       <c r="E6" t="inlineStr">
         <is>
           <t>May-24</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Week 5</t>
         </is>
       </c>
     </row>
@@ -17678,7 +17766,7 @@
     <row r="4" ht="15.75" customHeight="1" s="21">
       <c r="A4" s="48" t="inlineStr">
         <is>
-          <t>Report Type:</t>
+          <t>1. Report Type:</t>
         </is>
       </c>
       <c r="B4" s="49" t="inlineStr">
@@ -17689,10 +17777,10 @@
       <c r="C4" s="45" t="n"/>
       <c r="D4" s="50" t="inlineStr">
         <is>
-          <t>Select Month:</t>
-        </is>
-      </c>
-      <c r="E4" s="51" t="inlineStr">
+          <t>2. Select Month:</t>
+        </is>
+      </c>
+      <c r="E4" s="57" t="inlineStr">
         <is>
           <t>Oct-25</t>
         </is>
@@ -17700,10 +17788,10 @@
       <c r="F4" s="52" t="n"/>
       <c r="G4" s="50" t="inlineStr">
         <is>
-          <t>Select Week:</t>
-        </is>
-      </c>
-      <c r="H4" s="51" t="inlineStr">
+          <t>3. Select Week:</t>
+        </is>
+      </c>
+      <c r="H4" s="57" t="inlineStr">
         <is>
           <t>Week 1</t>
         </is>
@@ -17711,12 +17799,13 @@
       <c r="I4" s="45" t="n"/>
       <c r="J4" s="50" t="inlineStr">
         <is>
-          <t>Quarter:</t>
-        </is>
-      </c>
-      <c r="K4" s="53">
-        <f>IF(OR(LEFT(E4,3)="Jan",LEFT(E4,3)="Feb",LEFT(E4,3)="Mar"),"Q1",IF(OR(LEFT(E4,3)="Apr",LEFT(E4,3)="May",LEFT(E4,3)="Jun"),"Q2",IF(OR(LEFT(E4,3)="Jul",LEFT(E4,3)="Aug",LEFT(E4,3)="Sep"),"Q3","Q4")))</f>
-        <v/>
+          <t>4. Select Quarter:</t>
+        </is>
+      </c>
+      <c r="K4" s="58" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
       </c>
       <c r="L4" s="45" t="n"/>
       <c r="M4" s="45" t="n"/>
@@ -17728,15 +17817,27 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="45" t="n"/>
+      <c r="A5" s="59" t="inlineStr">
+        <is>
+          <t>→ Monthly: Select Report Type + Month</t>
+        </is>
+      </c>
       <c r="B5" s="45" t="n"/>
       <c r="C5" s="45" t="n"/>
       <c r="D5" s="45" t="n"/>
-      <c r="E5" s="45" t="n"/>
+      <c r="E5" s="59" t="inlineStr">
+        <is>
+          <t>→ Weekly: Select Month + Week</t>
+        </is>
+      </c>
       <c r="F5" s="45" t="n"/>
       <c r="G5" s="45" t="n"/>
       <c r="H5" s="45" t="n"/>
-      <c r="I5" s="45" t="n"/>
+      <c r="I5" s="59" t="inlineStr">
+        <is>
+          <t>→ Quarterly: Select Quarter</t>
+        </is>
+      </c>
       <c r="J5" s="45" t="n"/>
       <c r="K5" s="45" t="n"/>
       <c r="L5" s="45" t="n"/>
@@ -17811,7 +17912,7 @@
         </is>
       </c>
       <c r="K7" s="56">
-        <f>IFERROR(ROUND(IF(B4="Monthly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Quarterly",AVERAGEIF(MedicalData[Quarter],K4,MedicalData[Age]),AVERAGE(MedicalData[Age]))),0),"-")</f>
+        <f>IFERROR(ROUND(IF(B4="Weekly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Monthly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Quarterly",AVERAGEIF(MedicalData[Quarter],K4,MedicalData[Age]),AVERAGE(MedicalData[Age])))),0),"-")</f>
         <v/>
       </c>
       <c r="L7" s="45" t="n"/>
@@ -18523,17 +18624,17 @@
     <mergeCell ref="A61:N61"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation sqref="B2" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Month" error="Please select a valid month" promptTitle="Month Selection" prompt="Select a month or 'All Time'" type="list">
-      <formula1>=Lists!$E$1:$E$26</formula1>
-    </dataValidation>
-    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" prompt="Select report type" type="list">
+    <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Selection" error="Select: Monthly, Weekly, or Quarterly" type="list">
       <formula1>=Lists!$G$2:$G$4</formula1>
     </dataValidation>
-    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" prompt="Select month" type="list">
+    <dataValidation sqref="E4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" error="Select a valid month" type="list">
       <formula1>=Lists!$E$2:$E$26</formula1>
     </dataValidation>
-    <dataValidation sqref="H4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" prompt="Select week" type="list">
+    <dataValidation sqref="H4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" error="Select Week 1-5" type="list">
       <formula1>=Lists!$H$2:$H$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="K4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" error="Select Q1, Q2, Q3, or Q4" type="list">
+      <formula1>=Lists!$I$2:$I$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Time Analysis" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Lists" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Severity Analysis" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Chart Data" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -17681,6 +17682,370 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" style="21" min="1" max="1"/>
+    <col width="10" customWidth="1" style="21" min="2" max="2"/>
+    <col width="15" customWidth="1" style="21" min="4" max="4"/>
+    <col width="10" customWidth="1" style="21" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="32" t="inlineStr">
+        <is>
+          <t>FILTERED CHART DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="43" t="inlineStr">
+        <is>
+          <t>(Updates based on Dashboard selections)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="30" t="inlineStr">
+        <is>
+          <t>VENUE DATA</t>
+        </is>
+      </c>
+      <c r="D4" s="30" t="inlineStr">
+        <is>
+          <t>AGE DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="30" t="inlineStr">
+        <is>
+          <t>Venue</t>
+        </is>
+      </c>
+      <c r="B5" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D5" s="30" t="inlineStr">
+        <is>
+          <t>Age Group</t>
+        </is>
+      </c>
+      <c r="E5" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Skate Park</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6))))</f>
+        <v/>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0-12 years</t>
+        </is>
+      </c>
+      <c r="E6">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7))))</f>
+        <v/>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13-17 years</t>
+        </is>
+      </c>
+      <c r="E7">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B8">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8))))</f>
+        <v/>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18-25 years</t>
+        </is>
+      </c>
+      <c r="E8">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Outdoor gym</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9))))</f>
+        <v/>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26-35 years</t>
+        </is>
+      </c>
+      <c r="E9">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JDI Studio </t>
+        </is>
+      </c>
+      <c r="B10">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10))))</f>
+        <v/>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36+ years</t>
+        </is>
+      </c>
+      <c r="E10">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="B11">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Athletics track</t>
+        </is>
+      </c>
+      <c r="B12">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Change Rooms</t>
+        </is>
+      </c>
+      <c r="B13">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1KM RUN/WALK PATH</t>
+        </is>
+      </c>
+      <c r="B14">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="30" t="inlineStr">
+        <is>
+          <t>MECHANISM DATA</t>
+        </is>
+      </c>
+      <c r="D18" s="30" t="inlineStr">
+        <is>
+          <t>TIME DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="30" t="inlineStr">
+        <is>
+          <t>Mechanism</t>
+        </is>
+      </c>
+      <c r="B19" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D19" s="30" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="E19" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="B20">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20)))</f>
+        <v/>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="E20">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D20)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21)))</f>
+        <v/>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="E21">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D21)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="B22">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22)))</f>
+        <v/>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E22">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D22)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Struck by Equipment</t>
+        </is>
+      </c>
+      <c r="B23">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23)))</f>
+        <v/>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="E23">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D23)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Player-to-Object</t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A25,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A25,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A25)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Heat-Related</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A26,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A26,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A26)))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -18264,7 +18629,7 @@
     </row>
     <row r="88">
       <c r="A88" s="40">
-        <f>IF(B4="Weekly","WEEKLY BREAKDOWN: "&amp;E4&amp;" - "&amp;H4,IF(B4="Monthly","MONTHLY BREAKDOWN: "&amp;E4,IF(B4="Quarterly","QUARTERLY BREAKDOWN: "&amp;K4&amp;" "&amp;RIGHT(E4,2),"ALL TIME REPORT")))</f>
+        <f>IF(B4="Weekly","WEEKLY BREAKDOWN: "&amp;E4&amp;" - "&amp;H4,IF(B4="Monthly","MONTHLY BREAKDOWN: "&amp;E4,"QUARTERLY BREAKDOWN: "&amp;K4))</f>
         <v/>
       </c>
     </row>
@@ -18272,9 +18637,10 @@
       <c r="A89" s="41" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="42">
-        <f>IF(B4="Weekly","Day",IF(B4="Monthly","Week",IF(B4="Quarterly","Month","Period")))</f>
-        <v/>
+      <c r="A90" s="42" t="inlineStr">
+        <is>
+          <t>Day/Week</t>
+        </is>
       </c>
       <c r="B90" s="42" t="inlineStr">
         <is>
@@ -18309,141 +18675,211 @@
     </row>
     <row r="91">
       <c r="A91">
-        <f>IF(B4="Weekly","Day 1",IF(B4="Monthly","Week 1",IF(B4="Quarterly",TEXT(DATE(YEAR(TODAY()),(1+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),"1")))</f>
+        <f>IF(B4="Weekly","Day 1",IF(B4="Monthly","Week 1",IF(B4="Quarterly",IF(1&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+1)),"1")))</f>
         <v/>
       </c>
       <c r="B91">
-        <f>IF(B4="Quarterly",
-        IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(1+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*1),
-            IF(B4="Weekly",
-                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=2)*1),
-                "")))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=1)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*1),
+IF(B4="Quarterly",
+IF(1&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
+"")))</f>
         <v/>
       </c>
       <c r="C91">
-        <f>IF(B4="Quarterly",
-        IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(1+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=1)*(MedicalData[Hospital Transportation]="Yes")*1),
-            ""))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=1)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Quarterly",
+IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
+"")))</f>
         <v/>
       </c>
       <c r="D91">
-        <f>IF(B91=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(OR(B91=0,B91=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <v/>
+      </c>
+      <c r="E91">
+        <f>IF(OR(B91=0,B91=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="F91">
+        <f>IF(OR(B91=0,B91=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="G91">
+        <f>IF(OR(B91=0,B91=""),"-","-")</f>
         <v/>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <f>IF(B4="Weekly","Day 2",IF(B4="Monthly","Week 2",IF(B4="Quarterly",TEXT(DATE(YEAR(TODAY()),(2+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),"2")))</f>
+        <f>IF(B4="Weekly","Day 2",IF(B4="Monthly","Week 2",IF(B4="Quarterly",IF(2&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+2)),"2")))</f>
         <v/>
       </c>
       <c r="B92">
-        <f>IF(B4="Quarterly",
-        IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(2+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*1),
-            IF(B4="Weekly",
-                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=3)*1),
-                "")))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=2)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*1),
+IF(B4="Quarterly",
+IF(2&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
+"")))</f>
         <v/>
       </c>
       <c r="C92">
-        <f>IF(B4="Quarterly",
-        IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(2+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=2)*(MedicalData[Hospital Transportation]="Yes")*1),
-            ""))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=2)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Quarterly",
+IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
+"")))</f>
         <v/>
       </c>
       <c r="D92">
-        <f>IF(B92=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(OR(B92=0,B92=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <v/>
+      </c>
+      <c r="E92">
+        <f>IF(OR(B92=0,B92=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="F92">
+        <f>IF(OR(B92=0,B92=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="G92">
+        <f>IF(OR(B92=0,B92=""),"-","-")</f>
         <v/>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <f>IF(B4="Weekly","Day 3",IF(B4="Monthly","Week 3",IF(B4="Quarterly",TEXT(DATE(YEAR(TODAY()),(3+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),"3")))</f>
+        <f>IF(B4="Weekly","Day 3",IF(B4="Monthly","Week 3",IF(B4="Quarterly",IF(3&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+3)),"3")))</f>
         <v/>
       </c>
       <c r="B93">
-        <f>IF(B4="Quarterly",
-        IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(3+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*1),
-            IF(B4="Weekly",
-                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=4)*1),
-                "")))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=3)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*1),
+IF(B4="Quarterly",
+IF(3&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
+"")))</f>
         <v/>
       </c>
       <c r="C93">
-        <f>IF(B4="Quarterly",
-        IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(3+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=3)*(MedicalData[Hospital Transportation]="Yes")*1),
-            ""))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=3)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Quarterly",
+IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
+"")))</f>
         <v/>
       </c>
       <c r="D93">
-        <f>IF(B93=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(OR(B93=0,B93=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <v/>
+      </c>
+      <c r="E93">
+        <f>IF(OR(B93=0,B93=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="F93">
+        <f>IF(OR(B93=0,B93=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="G93">
+        <f>IF(OR(B93=0,B93=""),"-","-")</f>
         <v/>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <f>IF(B4="Quarterly","",IF(B4="Weekly","Day 4","Week 4"))</f>
+        <f>IF(B4="Weekly","Day 4",IF(B4="Monthly","Week 4",IF(B4="Quarterly",IF(4&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+4)),"4")))</f>
         <v/>
       </c>
       <c r="B94">
-        <f>IF(B4="Quarterly",
-        IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(4+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*1),
-            IF(B4="Weekly",
-                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=5)*1),
-                "")))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*1),
+IF(B4="Quarterly",
+IF(4&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
+"")))</f>
         <v/>
       </c>
       <c r="C94">
-        <f>IF(B4="Quarterly",
-        IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(4+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=4)*(MedicalData[Hospital Transportation]="Yes")*1),
-            ""))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Quarterly",
+IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
+"")))</f>
         <v/>
       </c>
       <c r="D94">
-        <f>IF(B94=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(OR(B94=0,B94=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <v/>
+      </c>
+      <c r="E94">
+        <f>IF(OR(B94=0,B94=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="F94">
+        <f>IF(OR(B94=0,B94=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="G94">
+        <f>IF(OR(B94=0,B94=""),"-","-")</f>
         <v/>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <f>IF(B4="Quarterly","",IF(B4="Weekly","Day 5","Week 5"))</f>
+        <f>IF(B4="Weekly","Day 5",IF(B4="Monthly","Week 5",IF(B4="Quarterly",IF(5&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+5)),"5")))</f>
         <v/>
       </c>
       <c r="B95">
-        <f>IF(B4="Quarterly",
-        IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(5+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"))),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*1),
-            IF(B4="Weekly",
-                SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(WEEKDAY(MedicalData[Date])=6)*1),
-                "")))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=5)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*1),
+IF(B4="Quarterly",
+IF(5&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
+"")))</f>
         <v/>
       </c>
       <c r="C95">
-        <f>IF(B4="Quarterly",
-        IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Month],TEXT(DATE(YEAR(TODAY()),(5+IF(K4="Q1",0,IF(K4="Q2",3,IF(K4="Q3",6,9)))),1),"MMM-YY"),MedicalData[Hospital Transportation],"Yes")),
-        IF(B4="Monthly",
-            SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=5)*(MedicalData[Hospital Transportation]="Yes")*1),
-            ""))</f>
+        <f>IF(B4="Weekly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=5)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Monthly",
+SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*(MedicalData[Hospital Transportation]="Yes")*1),
+IF(B4="Quarterly",
+IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
+"")))</f>
         <v/>
       </c>
       <c r="D95">
-        <f>IF(B95=0,"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(OR(B95=0,B95=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <v/>
+      </c>
+      <c r="E95">
+        <f>IF(OR(B95=0,B95=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="F95">
+        <f>IF(OR(B95=0,B95=""),"-","-")</f>
+        <v/>
+      </c>
+      <c r="G95">
+        <f>IF(OR(B95=0,B95=""),"-","-")</f>
         <v/>
       </c>
     </row>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -29,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,6 +189,9 @@
     <font>
       <b val="1"/>
       <sz val="16"/>
+    </font>
+    <font>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="13">
@@ -361,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -468,6 +471,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18173,7 +18177,10 @@
         </is>
       </c>
       <c r="L4" s="45" t="n"/>
-      <c r="M4" s="45" t="n"/>
+      <c r="M4" s="60">
+        <f>VALUE(SUBSTITUTE(H4,"Week ",""))</f>
+        <v/>
+      </c>
       <c r="N4" s="45" t="n"/>
       <c r="P4" s="29" t="inlineStr">
         <is>
@@ -18257,7 +18264,7 @@
         </is>
       </c>
       <c r="E7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*1),IF(B4="Monthly",COUNTIF(MedicalData[Month],E4),IF(B4="Quarterly",COUNTIF(MedicalData[Quarter],K4),COUNTA(MedicalData[Date]))))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*1),IF(B4="Monthly",COUNTIF(MedicalData[Month],E4),IF(B4="Quarterly",COUNTIF(MedicalData[Quarter],K4),COUNTA(MedicalData[Date]))))</f>
         <v/>
       </c>
       <c r="F7" s="45" t="n"/>
@@ -18267,7 +18274,7 @@
         </is>
       </c>
       <c r="H7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*((WEEKNUM(MedicalData[Date])-WEEKNUM(DATE(YEAR(MedicalData[Date]),MONTH(MedicalData[Date]),1))+1)=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",COUNTIFS(MedicalData[Month],E4,MedicalData[Hospital Transportation],"Yes"),IF(B4="Quarterly",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes"),COUNTIF(MedicalData[Hospital Transportation],"Yes"))))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",COUNTIFS(MedicalData[Month],E4,MedicalData[Hospital Transportation],"Yes"),IF(B4="Quarterly",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes"),COUNTIF(MedicalData[Hospital Transportation],"Yes"))))</f>
         <v/>
       </c>
       <c r="I7" s="45" t="n"/>
@@ -18277,7 +18284,7 @@
         </is>
       </c>
       <c r="K7" s="56">
-        <f>IFERROR(ROUND(IF(B4="Weekly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Monthly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Quarterly",AVERAGEIF(MedicalData[Quarter],K4,MedicalData[Age]),AVERAGE(MedicalData[Age])))),0),"-")</f>
+        <f>IFERROR(ROUND(IF(B4="Monthly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Quarterly",AVERAGEIF(MedicalData[Quarter],K4,MedicalData[Age]),AVERAGE(MedicalData[Age]))),0),"-")</f>
         <v/>
       </c>
       <c r="L7" s="45" t="n"/>
@@ -18675,27 +18682,15 @@
     </row>
     <row r="91">
       <c r="A91">
-        <f>IF(B4="Weekly","Day 1",IF(B4="Monthly","Week 1",IF(B4="Quarterly",IF(1&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+1)),"1")))</f>
+        <f>IF(B4="Weekly","Monday",IF(B4="Monthly","Week 1",IF(B4="Quarterly",IF(1&gt;3,"","Month 1"),"1")))</f>
         <v/>
       </c>
       <c r="B91">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=1)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*1),
-IF(B4="Quarterly",
-IF(1&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*1),IF(B4="Quarterly",IF(1&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C91">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=1)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Quarterly",
-IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
         <v/>
       </c>
       <c r="D91">
@@ -18717,27 +18712,15 @@
     </row>
     <row r="92">
       <c r="A92">
-        <f>IF(B4="Weekly","Day 2",IF(B4="Monthly","Week 2",IF(B4="Quarterly",IF(2&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+2)),"2")))</f>
+        <f>IF(B4="Weekly","Tuesday",IF(B4="Monthly","Week 2",IF(B4="Quarterly",IF(2&gt;3,"","Month 2"),"2")))</f>
         <v/>
       </c>
       <c r="B92">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=2)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*1),
-IF(B4="Quarterly",
-IF(2&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*1),IF(B4="Quarterly",IF(2&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C92">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=2)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Quarterly",
-IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
         <v/>
       </c>
       <c r="D92">
@@ -18759,27 +18742,15 @@
     </row>
     <row r="93">
       <c r="A93">
-        <f>IF(B4="Weekly","Day 3",IF(B4="Monthly","Week 3",IF(B4="Quarterly",IF(3&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+3)),"3")))</f>
+        <f>IF(B4="Weekly","Wednesday",IF(B4="Monthly","Week 3",IF(B4="Quarterly",IF(3&gt;3,"","Month 3"),"3")))</f>
         <v/>
       </c>
       <c r="B93">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=3)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*1),
-IF(B4="Quarterly",
-IF(3&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*1),IF(B4="Quarterly",IF(3&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C93">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=3)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Quarterly",
-IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
         <v/>
       </c>
       <c r="D93">
@@ -18801,27 +18772,15 @@
     </row>
     <row r="94">
       <c r="A94">
-        <f>IF(B4="Weekly","Day 4",IF(B4="Monthly","Week 4",IF(B4="Quarterly",IF(4&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+4)),"4")))</f>
+        <f>IF(B4="Weekly","Thursday",IF(B4="Monthly","Week 4",IF(B4="Quarterly",IF(4&gt;3,"","Month 4"),"4")))</f>
         <v/>
       </c>
       <c r="B94">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*1),
-IF(B4="Quarterly",
-IF(4&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*1),IF(B4="Quarterly",IF(4&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C94">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Quarterly",
-IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
         <v/>
       </c>
       <c r="D94">
@@ -18843,27 +18802,15 @@
     </row>
     <row r="95">
       <c r="A95">
-        <f>IF(B4="Weekly","Day 5",IF(B4="Monthly","Week 5",IF(B4="Quarterly",IF(5&gt;3,"",INDEX({"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},(VALUE(RIGHT(K4,1))-1)*3+5)),"5")))</f>
+        <f>IF(B4="Weekly","Friday",IF(B4="Monthly","Week 5",IF(B4="Quarterly",IF(5&gt;3,"","Month 5"),"5")))</f>
         <v/>
       </c>
       <c r="B95">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=5)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*1),
-IF(B4="Quarterly",
-IF(5&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*1),IF(B4="Quarterly",IF(5&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C95">
-        <f>IF(B4="Weekly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(WEEKDAY(MedicalData[Date],2)=5)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(H4,1)))*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Monthly",
-SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*(MedicalData[Hospital Transportation]="Yes")*1),
-IF(B4="Quarterly",
-IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),
-"")))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
         <v/>
       </c>
       <c r="D95">
@@ -19778,7 +19725,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A4)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A4)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A4))))</f>
         <v/>
       </c>
       <c r="C4">
@@ -19801,7 +19748,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A5)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A5)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A5))))</f>
         <v/>
       </c>
       <c r="C5">
@@ -19824,7 +19771,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6))))</f>
         <v/>
       </c>
       <c r="C6">
@@ -19847,7 +19794,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7))))</f>
         <v/>
       </c>
       <c r="C7">
@@ -19870,7 +19817,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8))))</f>
         <v/>
       </c>
       <c r="C8">
@@ -19893,7 +19840,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9))))</f>
         <v/>
       </c>
       <c r="C9">
@@ -19916,7 +19863,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10))))</f>
         <v/>
       </c>
       <c r="C10">
@@ -19939,7 +19886,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11))))</f>
         <v/>
       </c>
       <c r="C11">
@@ -19962,7 +19909,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12))))</f>
         <v/>
       </c>
       <c r="C12">
@@ -19985,7 +19932,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13))))</f>
         <v/>
       </c>
       <c r="C13">
@@ -20008,7 +19955,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14))))</f>
         <v/>
       </c>
       <c r="C14">
@@ -20031,7 +19978,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A15)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A15)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A15))))</f>
         <v/>
       </c>
       <c r="C15">
@@ -20054,7 +20001,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A16)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A16)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A16))))</f>
         <v/>
       </c>
       <c r="C16">
@@ -20077,7 +20024,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A17)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A17)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A17))))</f>
         <v/>
       </c>
       <c r="C17">
@@ -20100,7 +20047,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A18)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A18)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A18))))</f>
         <v/>
       </c>
       <c r="C18">
@@ -20123,7 +20070,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A19)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A19)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A19))))</f>
         <v/>
       </c>
       <c r="C19">
@@ -20205,7 +20152,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=0)*(MedicalData[Age]&lt;=12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12"))))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -20220,7 +20167,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=13)*(MedicalData[Age]&lt;=17)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17"))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -20235,7 +20182,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=18)*(MedicalData[Age]&lt;=25)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25"))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -20250,7 +20197,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=26)*(MedicalData[Age]&lt;=35)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35"))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -20265,7 +20212,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=36)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36"))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -20339,7 +20286,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A4,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A4&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -20354,7 +20301,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A5,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -20369,7 +20316,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A6,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -20384,7 +20331,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A7,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -20399,7 +20346,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A8,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -20414,7 +20361,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A9,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -20429,7 +20376,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A10,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -20444,7 +20391,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A11,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -20459,7 +20406,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A12,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -20474,7 +20421,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A13,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -20489,7 +20436,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A14,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -20504,7 +20451,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A15,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -20519,7 +20466,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A16,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -20534,7 +20481,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A17,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -20549,7 +20496,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A18,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -20564,7 +20511,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A19,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -20579,7 +20526,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A20,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -20594,7 +20541,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A21,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -20609,7 +20556,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A22,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -20624,7 +20571,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*")))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A23,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*"))))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -20707,7 +20654,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A4)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A4)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A4))))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -20726,7 +20673,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A5)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A5)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A5))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -20745,7 +20692,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A6)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A6))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -20764,7 +20711,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A7)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A7))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -20783,7 +20730,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A8)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A8)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A8))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -20802,7 +20749,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A9)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A9)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A9))))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -20821,7 +20768,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A10)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A10)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A10))))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -20840,7 +20787,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A11)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A11)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A11))))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -20859,7 +20806,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A12)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A12))))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -20878,7 +20825,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A13)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A13)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A13))))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -20897,7 +20844,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A14)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A14)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A14))))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -20916,7 +20863,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A15)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A15)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A15))))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -20935,7 +20882,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A16)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A16)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A16))))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -20954,7 +20901,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A17)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A17)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A17))))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -20973,7 +20920,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A18)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A18)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A18))))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -20992,7 +20939,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A19)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A19)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A19))))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -21011,7 +20958,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A20)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20))))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -21030,7 +20977,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A21)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21))))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -21049,7 +20996,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A22)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22))))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -21068,7 +21015,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A23)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23))))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -21087,7 +21034,7 @@
         </is>
       </c>
       <c r="B24">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A24)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24))))</f>
         <v/>
       </c>
       <c r="C24" s="35">
@@ -21648,7 +21595,7 @@
         </is>
       </c>
       <c r="C4">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A4)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A4)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A4))))</f>
         <v/>
       </c>
       <c r="D4">
@@ -21672,7 +21619,7 @@
         </is>
       </c>
       <c r="C5">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A5)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A5)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A5))))</f>
         <v/>
       </c>
       <c r="D5">
@@ -21696,7 +21643,7 @@
         </is>
       </c>
       <c r="C6">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A6)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A6))))</f>
         <v/>
       </c>
       <c r="D6">
@@ -21720,7 +21667,7 @@
         </is>
       </c>
       <c r="C7">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A7)))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A7))))</f>
         <v/>
       </c>
       <c r="D7">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -472,6 +472,7 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18181,7 +18182,14 @@
         <f>VALUE(SUBSTITUTE(H4,"Week ",""))</f>
         <v/>
       </c>
-      <c r="N4" s="45" t="n"/>
+      <c r="N4" s="60">
+        <f>MONTH(DATEVALUE("1-"&amp;E4))</f>
+        <v/>
+      </c>
+      <c r="O4" s="61">
+        <f>YEAR(DATEVALUE("1-"&amp;E4))</f>
+        <v/>
+      </c>
       <c r="P4" s="29" t="inlineStr">
         <is>
           <t>TOP RISK SITE</t>
@@ -18264,7 +18272,7 @@
         </is>
       </c>
       <c r="E7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*1),IF(B4="Monthly",COUNTIF(MedicalData[Month],E4),IF(B4="Quarterly",COUNTIF(MedicalData[Quarter],K4),COUNTA(MedicalData[Date]))))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*1),IF(B4="Quarterly",COUNTIF(MedicalData[Quarter],K4),COUNTA(MedicalData[Date]))))</f>
         <v/>
       </c>
       <c r="F7" s="45" t="n"/>
@@ -18274,7 +18282,7 @@
         </is>
       </c>
       <c r="H7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",COUNTIFS(MedicalData[Month],E4,MedicalData[Hospital Transportation],"Yes"),IF(B4="Quarterly",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes"),COUNTIF(MedicalData[Hospital Transportation],"Yes"))))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes"),COUNTIF(MedicalData[Hospital Transportation],"Yes"))))</f>
         <v/>
       </c>
       <c r="I7" s="45" t="n"/>
@@ -18686,11 +18694,11 @@
         <v/>
       </c>
       <c r="B91">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*1),IF(B4="Quarterly",IF(1&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*1),IF(B4="Quarterly",IF(1&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C91">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(1&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
         <v/>
       </c>
       <c r="D91">
@@ -18716,11 +18724,11 @@
         <v/>
       </c>
       <c r="B92">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*1),IF(B4="Quarterly",IF(2&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*1),IF(B4="Quarterly",IF(2&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C92">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(2&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
         <v/>
       </c>
       <c r="D92">
@@ -18746,11 +18754,11 @@
         <v/>
       </c>
       <c r="B93">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*1),IF(B4="Quarterly",IF(3&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*1),IF(B4="Quarterly",IF(3&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C93">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(3&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
         <v/>
       </c>
       <c r="D93">
@@ -18776,11 +18784,11 @@
         <v/>
       </c>
       <c r="B94">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*1),IF(B4="Quarterly",IF(4&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*1),IF(B4="Quarterly",IF(4&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C94">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(4&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
         <v/>
       </c>
       <c r="D94">
@@ -18806,11 +18814,11 @@
         <v/>
       </c>
       <c r="B95">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*1),IF(B4="Quarterly",IF(5&gt;3,"",COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*1),IF(B4="Quarterly",IF(5&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
         <v/>
       </c>
       <c r="C95">
-        <f>IF(B4="Weekly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MedicalData[Month]=E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",IF(5&gt;3,"",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes")),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
         <v/>
       </c>
       <c r="D95">
@@ -19725,7 +19733,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A4)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A4))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A4)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A4))))</f>
         <v/>
       </c>
       <c r="C4">
@@ -19748,7 +19756,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A5)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A5))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A5)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A5))))</f>
         <v/>
       </c>
       <c r="C5">
@@ -19771,7 +19779,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6))))</f>
         <v/>
       </c>
       <c r="C6">
@@ -19794,7 +19802,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7))))</f>
         <v/>
       </c>
       <c r="C7">
@@ -19817,7 +19825,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8))))</f>
         <v/>
       </c>
       <c r="C8">
@@ -19840,7 +19848,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9))))</f>
         <v/>
       </c>
       <c r="C9">
@@ -19863,7 +19871,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10))))</f>
         <v/>
       </c>
       <c r="C10">
@@ -19886,7 +19894,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11))))</f>
         <v/>
       </c>
       <c r="C11">
@@ -19909,7 +19917,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12))))</f>
         <v/>
       </c>
       <c r="C12">
@@ -19932,7 +19940,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13))))</f>
         <v/>
       </c>
       <c r="C13">
@@ -19955,7 +19963,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14))))</f>
         <v/>
       </c>
       <c r="C14">
@@ -19978,7 +19986,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A15)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A15))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A15)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A15))))</f>
         <v/>
       </c>
       <c r="C15">
@@ -20001,7 +20009,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A16)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A16))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A16)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A16))))</f>
         <v/>
       </c>
       <c r="C16">
@@ -20024,7 +20032,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A17)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A17))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A17)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A17))))</f>
         <v/>
       </c>
       <c r="C17">
@@ -20047,7 +20055,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A18)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A18))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A18)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A18))))</f>
         <v/>
       </c>
       <c r="C18">
@@ -20070,7 +20078,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A19)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A19))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A19)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A19))))</f>
         <v/>
       </c>
       <c r="C19">
@@ -20152,7 +20160,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=0)*(MedicalData[Age]&lt;=12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=0)*(MedicalData[Age]&lt;=12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=0)*(MedicalData[Age]&lt;=12)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12"))))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -20167,7 +20175,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=13)*(MedicalData[Age]&lt;=17)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=13)*(MedicalData[Age]&lt;=17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=13)*(MedicalData[Age]&lt;=17)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17"))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -20182,7 +20190,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=18)*(MedicalData[Age]&lt;=25)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=18)*(MedicalData[Age]&lt;=25)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=18)*(MedicalData[Age]&lt;=25)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25"))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -20197,7 +20205,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=26)*(MedicalData[Age]&lt;=35)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=26)*(MedicalData[Age]&lt;=35)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=26)*(MedicalData[Age]&lt;=35)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35"))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -20212,7 +20220,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=36)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=36)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=36)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36"))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -20654,7 +20662,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A4)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A4))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A4)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A4))))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -20673,7 +20681,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A5)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A5))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A5)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A5))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -20692,7 +20700,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A6))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A6)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A6))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -20711,7 +20719,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A7))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A7)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A7))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -20730,7 +20738,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A8)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A8))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A8)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A8))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -20749,7 +20757,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A9)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A9))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A9)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A9))))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -20768,7 +20776,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A10)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A10))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A10)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A10))))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -20787,7 +20795,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A11)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A11))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A11)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A11))))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -20806,7 +20814,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A12))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A12)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A12))))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -20825,7 +20833,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A13)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A13))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A13)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A13))))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -20844,7 +20852,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A14)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A14))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A14)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A14))))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -20863,7 +20871,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A15)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A15))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A15)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A15))))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -20882,7 +20890,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A16)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A16))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A16)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A16))))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -20901,7 +20909,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A17)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A17))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A17)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A17))))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -20920,7 +20928,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A18)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A18))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A18)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A18))))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -20939,7 +20947,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A19)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A19))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A19)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A19))))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -20958,7 +20966,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A20)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A20)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A20)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20))))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -20977,7 +20985,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A21)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A21)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A21)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21))))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -20996,7 +21004,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A22)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A22)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A22)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22))))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -21015,7 +21023,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A23)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A23)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A23)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23))))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -21034,7 +21042,7 @@
         </is>
       </c>
       <c r="B24">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A24)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A24)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A24)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24))))</f>
         <v/>
       </c>
       <c r="C24" s="35">
@@ -21595,7 +21603,7 @@
         </is>
       </c>
       <c r="C4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A4)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A4))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A4)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A4))))</f>
         <v/>
       </c>
       <c r="D4">
@@ -21619,7 +21627,7 @@
         </is>
       </c>
       <c r="C5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A5)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A5))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A5)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A5))))</f>
         <v/>
       </c>
       <c r="D5">
@@ -21643,7 +21651,7 @@
         </is>
       </c>
       <c r="C6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A6))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A6)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A6))))</f>
         <v/>
       </c>
       <c r="D6">
@@ -21667,7 +21675,7 @@
         </is>
       </c>
       <c r="C7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A7))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A7)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A7))))</f>
         <v/>
       </c>
       <c r="D7">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -18183,11 +18183,11 @@
         <v/>
       </c>
       <c r="N4" s="60">
-        <f>MONTH(DATEVALUE("1-"&amp;E4))</f>
+        <f>MATCH(LEFT(E4,3),{"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},0)</f>
         <v/>
       </c>
       <c r="O4" s="61">
-        <f>YEAR(DATEVALUE("1-"&amp;E4))</f>
+        <f>2000+VALUE(RIGHT(E4,2))</f>
         <v/>
       </c>
       <c r="P4" s="29" t="inlineStr">
@@ -18272,7 +18272,7 @@
         </is>
       </c>
       <c r="E7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*1),IF(B4="Quarterly",COUNTIF(MedicalData[Quarter],K4),COUNTA(MedicalData[Date]))))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*1),COUNTA('Data Entry'!A2:A356)))</f>
         <v/>
       </c>
       <c r="F7" s="45" t="n"/>
@@ -18282,7 +18282,7 @@
         </is>
       </c>
       <c r="H7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Quarterly",COUNTIFS(MedicalData[Quarter],K4,MedicalData[Hospital Transportation],"Yes"),COUNTIF(MedicalData[Hospital Transportation],"Yes"))))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*('Data Entry'!J2:J356="Yes")*1),COUNTIF('Data Entry'!J2:J356,"Yes")))</f>
         <v/>
       </c>
       <c r="I7" s="45" t="n"/>
@@ -18690,19 +18690,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <f>IF(B4="Weekly","Monday",IF(B4="Monthly","Week 1",IF(B4="Quarterly",IF(1&gt;3,"","Month 1"),"1")))</f>
+        <f>IF(B4="Weekly","Monday","Week 1")</f>
         <v/>
       </c>
       <c r="B91">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*1),IF(B4="Quarterly",IF(1&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=1)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*1))</f>
         <v/>
       </c>
       <c r="C91">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=1)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=1)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=1)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*('Data Entry'!J2:J356="Yes")*1))</f>
         <v/>
       </c>
       <c r="D91">
-        <f>IF(OR(B91=0,B91=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(B91=0,"-",17)</f>
         <v/>
       </c>
       <c r="E91">
@@ -18720,19 +18720,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <f>IF(B4="Weekly","Tuesday",IF(B4="Monthly","Week 2",IF(B4="Quarterly",IF(2&gt;3,"","Month 2"),"2")))</f>
+        <f>IF(B4="Weekly","Tuesday","Week 2")</f>
         <v/>
       </c>
       <c r="B92">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*1),IF(B4="Quarterly",IF(2&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=2)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*1))</f>
         <v/>
       </c>
       <c r="C92">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=2)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=2)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=2)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*('Data Entry'!J2:J356="Yes")*1))</f>
         <v/>
       </c>
       <c r="D92">
-        <f>IF(OR(B92=0,B92=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(B92=0,"-",17)</f>
         <v/>
       </c>
       <c r="E92">
@@ -18750,19 +18750,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <f>IF(B4="Weekly","Wednesday",IF(B4="Monthly","Week 3",IF(B4="Quarterly",IF(3&gt;3,"","Month 3"),"3")))</f>
+        <f>IF(B4="Weekly","Wednesday","Week 3")</f>
         <v/>
       </c>
       <c r="B93">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*1),IF(B4="Quarterly",IF(3&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=3)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*1))</f>
         <v/>
       </c>
       <c r="C93">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=3)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=3)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=3)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*('Data Entry'!J2:J356="Yes")*1))</f>
         <v/>
       </c>
       <c r="D93">
-        <f>IF(OR(B93=0,B93=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(B93=0,"-",17)</f>
         <v/>
       </c>
       <c r="E93">
@@ -18780,19 +18780,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <f>IF(B4="Weekly","Thursday",IF(B4="Monthly","Week 4",IF(B4="Quarterly",IF(4&gt;3,"","Month 4"),"4")))</f>
+        <f>IF(B4="Weekly","Thursday","Week 4")</f>
         <v/>
       </c>
       <c r="B94">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*1),IF(B4="Quarterly",IF(4&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=4)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*1))</f>
         <v/>
       </c>
       <c r="C94">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=4)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=4)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=4)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*('Data Entry'!J2:J356="Yes")*1))</f>
         <v/>
       </c>
       <c r="D94">
-        <f>IF(OR(B94=0,B94=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(B94=0,"-",17)</f>
         <v/>
       </c>
       <c r="E94">
@@ -18810,19 +18810,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <f>IF(B4="Weekly","Friday",IF(B4="Monthly","Week 5",IF(B4="Quarterly",IF(5&gt;3,"","Month 5"),"5")))</f>
+        <f>IF(B4="Weekly","Friday","Week 5")</f>
         <v/>
       </c>
       <c r="B95">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*1),IF(B4="Quarterly",IF(5&gt;3,0,COUNTIF(MedicalData[Quarter],K4)),0)))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=5)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1))</f>
         <v/>
       </c>
       <c r="C95">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=$M$4)*(WEEKDAY(MedicalData[Date],2)=5)*(MedicalData[Hospital Transportation]="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=$N$4)*(YEAR(MedicalData[Date])=$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=5)*(MedicalData[Hospital Transportation]="Yes")*1),0))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=5)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!J2:J356="Yes")*1))</f>
         <v/>
       </c>
       <c r="D95">
-        <f>IF(OR(B95=0,B95=""),"-",IFERROR(ROUND(AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),0),"-"))</f>
+        <f>IF(B95=0,"-",17)</f>
         <v/>
       </c>
       <c r="E95">
@@ -19733,7 +19733,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A4)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A4))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A4)*1),COUNTIF('Data Entry'!F2:F356,A4)))</f>
         <v/>
       </c>
       <c r="C4">
@@ -19756,7 +19756,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A5)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A5))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A5)*1),COUNTIF('Data Entry'!F2:F356,A5)))</f>
         <v/>
       </c>
       <c r="C5">
@@ -19779,7 +19779,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6)))</f>
         <v/>
       </c>
       <c r="C6">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7)))</f>
         <v/>
       </c>
       <c r="C7">
@@ -19825,7 +19825,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8)))</f>
         <v/>
       </c>
       <c r="C8">
@@ -19848,7 +19848,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9)))</f>
         <v/>
       </c>
       <c r="C9">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10)))</f>
         <v/>
       </c>
       <c r="C10">
@@ -19894,7 +19894,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11)))</f>
         <v/>
       </c>
       <c r="C11">
@@ -19917,7 +19917,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12)))</f>
         <v/>
       </c>
       <c r="C12">
@@ -19940,7 +19940,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13)))</f>
         <v/>
       </c>
       <c r="C13">
@@ -19963,7 +19963,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14)))</f>
         <v/>
       </c>
       <c r="C14">
@@ -19986,7 +19986,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A15)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A15))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A15)*1),COUNTIF('Data Entry'!F2:F356,A15)))</f>
         <v/>
       </c>
       <c r="C15">
@@ -20009,7 +20009,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A16)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A16))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A16)*1),COUNTIF('Data Entry'!F2:F356,A16)))</f>
         <v/>
       </c>
       <c r="C16">
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A17)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A17))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A17)*1),COUNTIF('Data Entry'!F2:F356,A17)))</f>
         <v/>
       </c>
       <c r="C17">
@@ -20055,7 +20055,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A18)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A18))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A18)*1),COUNTIF('Data Entry'!F2:F356,A18)))</f>
         <v/>
       </c>
       <c r="C18">
@@ -20078,7 +20078,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Site]=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Site]=A19)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A19))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A19)*1),COUNTIF('Data Entry'!F2:F356,A19)))</f>
         <v/>
       </c>
       <c r="C19">
@@ -20160,7 +20160,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=0)*(MedicalData[Age]&lt;=12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=0)*(MedicalData[Age]&lt;=12)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),COUNTIFS('Data Entry'!C2:C356,"&gt;=0",'Data Entry'!C2:C356,"&lt;=12")))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -20175,7 +20175,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=13)*(MedicalData[Age]&lt;=17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=13)*(MedicalData[Age]&lt;=17)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),COUNTIFS('Data Entry'!C2:C356,"&gt;=13",'Data Entry'!C2:C356,"&lt;=17")))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -20190,7 +20190,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=18)*(MedicalData[Age]&lt;=25)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=18)*(MedicalData[Age]&lt;=25)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),COUNTIFS('Data Entry'!C2:C356,"&gt;=18",'Data Entry'!C2:C356,"&lt;=25")))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -20205,7 +20205,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=26)*(MedicalData[Age]&lt;=35)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=26)*(MedicalData[Age]&lt;=35)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),COUNTIFS('Data Entry'!C2:C356,"&gt;=26",'Data Entry'!C2:C356,"&lt;=35")))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -20220,7 +20220,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Age]&gt;=36)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Age]&gt;=36)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36"))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!C2:C356&gt;=36)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!C2:C356&gt;=36)*1),COUNTIF('Data Entry'!C2:C356,"&gt;=36")))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -20662,7 +20662,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A4)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A4))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A4)*1),COUNTIF('Data Entry'!D2:D356,A4)))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -20681,7 +20681,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A5)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A5))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A5)*1),COUNTIF('Data Entry'!D2:D356,A5)))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -20700,7 +20700,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A6)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A6))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A6)*1),COUNTIF('Data Entry'!D2:D356,A6)))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -20719,7 +20719,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A7)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A7))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A7)*1),COUNTIF('Data Entry'!D2:D356,A7)))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -20738,7 +20738,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A8)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A8))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A8)*1),COUNTIF('Data Entry'!D2:D356,A8)))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -20757,7 +20757,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A9)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A9))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A9)*1),COUNTIF('Data Entry'!D2:D356,A9)))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -20776,7 +20776,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A10)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A10))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A10)*1),COUNTIF('Data Entry'!D2:D356,A10)))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -20795,7 +20795,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A11)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A11))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A11)*1),COUNTIF('Data Entry'!D2:D356,A11)))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -20814,7 +20814,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A12)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A12))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A12)*1),COUNTIF('Data Entry'!D2:D356,A12)))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -20833,7 +20833,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A13)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A13))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A13)*1),COUNTIF('Data Entry'!D2:D356,A13)))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -20852,7 +20852,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A14)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A14))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A14)*1),COUNTIF('Data Entry'!D2:D356,A14)))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A15)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A15,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A15))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A15)*1),COUNTIF('Data Entry'!D2:D356,A15)))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -20890,7 +20890,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A16)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A16,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A16))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A16)*1),COUNTIF('Data Entry'!D2:D356,A16)))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -20909,7 +20909,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A17)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A17,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A17))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A17)*1),COUNTIF('Data Entry'!D2:D356,A17)))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -20928,7 +20928,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A18)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A18,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A18))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A18)*1),COUNTIF('Data Entry'!D2:D356,A18)))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -20947,7 +20947,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A19)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A19,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A19))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A19)*1),COUNTIF('Data Entry'!D2:D356,A19)))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -20966,7 +20966,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A20)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A20)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20)))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -20985,7 +20985,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A21)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A21)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21)))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -21004,7 +21004,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A22)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A22)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22)))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -21023,7 +21023,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A23)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A23)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23)))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="B24">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[History/Mechanism of injury]=A24)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[History/Mechanism of injury]=A24)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24)))</f>
         <v/>
       </c>
       <c r="C24" s="35">
@@ -21603,7 +21603,7 @@
         </is>
       </c>
       <c r="C4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A4)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A4,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A4))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A4)*1),COUNTIF('Data Entry'!M2:M356,A4)))</f>
         <v/>
       </c>
       <c r="D4">
@@ -21627,7 +21627,7 @@
         </is>
       </c>
       <c r="C5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A5)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A5,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A5))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A5)*1),COUNTIF('Data Entry'!M2:M356,A5)))</f>
         <v/>
       </c>
       <c r="D5">
@@ -21651,7 +21651,7 @@
         </is>
       </c>
       <c r="C6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A6)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A6))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A6)*1),COUNTIF('Data Entry'!M2:M356,A6)))</f>
         <v/>
       </c>
       <c r="D6">
@@ -21675,7 +21675,7 @@
         </is>
       </c>
       <c r="C7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(MedicalData[Time Period]=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH(MedicalData[Date])=Dashboard!$N$4)*(YEAR(MedicalData[Date])=Dashboard!$O$4)*(MedicalData[Time Period]=A7)*1),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],A7))))</f>
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A7)*1),COUNTIF('Data Entry'!M2:M356,A7)))</f>
         <v/>
       </c>
       <c r="D7">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -18690,19 +18690,19 @@
     </row>
     <row r="91">
       <c r="A91">
-        <f>IF(B4="Weekly","Monday","Week 1")</f>
+        <f>IF(B4="Weekly","Monday",IF(B4="Monthly","Week 1",IF(B4="Quarterly",IF(1&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+1,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
         <v/>
       </c>
       <c r="B91">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=1)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=1)*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*1),IF(B4="Quarterly",IF(1&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+1)*(YEAR('Data Entry'!A2:A356)=O4)*1)),0)))</f>
         <v/>
       </c>
       <c r="C91">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=1)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*('Data Entry'!J2:J356="Yes")*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=1)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Quarterly",IF(1&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+1)*(YEAR('Data Entry'!A2:A356)=O4)*('Data Entry'!J2:J356="Yes")*1)),0)))</f>
         <v/>
       </c>
       <c r="D91">
-        <f>IF(B91=0,"-",17)</f>
+        <f>IF(OR(B91=0,B91=""),"-",IF(B4="Quarterly",IF(1&gt;3,"-",IFERROR(ROUND(AVERAGEIF('Data Entry'!A2:A356,"&gt;="&amp;DATE(O4,(VALUE(RIGHT(K4,1))-1)*3+1,1),'Data Entry'!C2:C356),0),"-")),IFERROR(ROUND(AVERAGEIF('Data Entry'!K2:K356,E4,'Data Entry'!C2:C356),0),"-")))</f>
         <v/>
       </c>
       <c r="E91">
@@ -18720,19 +18720,19 @@
     </row>
     <row r="92">
       <c r="A92">
-        <f>IF(B4="Weekly","Tuesday","Week 2")</f>
+        <f>IF(B4="Weekly","Tuesday",IF(B4="Monthly","Week 2",IF(B4="Quarterly",IF(2&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+2,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
         <v/>
       </c>
       <c r="B92">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=2)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=2)*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*1),IF(B4="Quarterly",IF(2&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+2)*(YEAR('Data Entry'!A2:A356)=O4)*1)),0)))</f>
         <v/>
       </c>
       <c r="C92">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=2)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*('Data Entry'!J2:J356="Yes")*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=2)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Quarterly",IF(2&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+2)*(YEAR('Data Entry'!A2:A356)=O4)*('Data Entry'!J2:J356="Yes")*1)),0)))</f>
         <v/>
       </c>
       <c r="D92">
-        <f>IF(B92=0,"-",17)</f>
+        <f>IF(OR(B92=0,B92=""),"-",IF(B4="Quarterly",IF(2&gt;3,"-",IFERROR(ROUND(AVERAGEIF('Data Entry'!A2:A356,"&gt;="&amp;DATE(O4,(VALUE(RIGHT(K4,1))-1)*3+2,1),'Data Entry'!C2:C356),0),"-")),IFERROR(ROUND(AVERAGEIF('Data Entry'!K2:K356,E4,'Data Entry'!C2:C356),0),"-")))</f>
         <v/>
       </c>
       <c r="E92">
@@ -18750,19 +18750,19 @@
     </row>
     <row r="93">
       <c r="A93">
-        <f>IF(B4="Weekly","Wednesday","Week 3")</f>
+        <f>IF(B4="Weekly","Wednesday",IF(B4="Monthly","Week 3",IF(B4="Quarterly",IF(3&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+3,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
         <v/>
       </c>
       <c r="B93">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=3)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=3)*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*1),IF(B4="Quarterly",IF(3&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+3)*(YEAR('Data Entry'!A2:A356)=O4)*1)),0)))</f>
         <v/>
       </c>
       <c r="C93">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=3)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*('Data Entry'!J2:J356="Yes")*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=3)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Quarterly",IF(3&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+3)*(YEAR('Data Entry'!A2:A356)=O4)*('Data Entry'!J2:J356="Yes")*1)),0)))</f>
         <v/>
       </c>
       <c r="D93">
-        <f>IF(B93=0,"-",17)</f>
+        <f>IF(OR(B93=0,B93=""),"-",IF(B4="Quarterly",IF(3&gt;3,"-",IFERROR(ROUND(AVERAGEIF('Data Entry'!A2:A356,"&gt;="&amp;DATE(O4,(VALUE(RIGHT(K4,1))-1)*3+3,1),'Data Entry'!C2:C356),0),"-")),IFERROR(ROUND(AVERAGEIF('Data Entry'!K2:K356,E4,'Data Entry'!C2:C356),0),"-")))</f>
         <v/>
       </c>
       <c r="E93">
@@ -18780,19 +18780,19 @@
     </row>
     <row r="94">
       <c r="A94">
-        <f>IF(B4="Weekly","Thursday","Week 4")</f>
+        <f>IF(B4="Weekly","Thursday",IF(B4="Monthly","Week 4",IF(B4="Quarterly",IF(4&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+4,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
         <v/>
       </c>
       <c r="B94">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=4)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=4)*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*1),IF(B4="Quarterly",IF(4&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+4)*(YEAR('Data Entry'!A2:A356)=O4)*1)),0)))</f>
         <v/>
       </c>
       <c r="C94">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=4)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*('Data Entry'!J2:J356="Yes")*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=4)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Quarterly",IF(4&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+4)*(YEAR('Data Entry'!A2:A356)=O4)*('Data Entry'!J2:J356="Yes")*1)),0)))</f>
         <v/>
       </c>
       <c r="D94">
-        <f>IF(B94=0,"-",17)</f>
+        <f>IF(OR(B94=0,B94=""),"-",IF(B4="Quarterly",IF(4&gt;3,"-",IFERROR(ROUND(AVERAGEIF('Data Entry'!A2:A356,"&gt;="&amp;DATE(O4,(VALUE(RIGHT(K4,1))-1)*3+4,1),'Data Entry'!C2:C356),0),"-")),IFERROR(ROUND(AVERAGEIF('Data Entry'!K2:K356,E4,'Data Entry'!C2:C356),0),"-")))</f>
         <v/>
       </c>
       <c r="E94">
@@ -18810,19 +18810,19 @@
     </row>
     <row r="95">
       <c r="A95">
-        <f>IF(B4="Weekly","Friday","Week 5")</f>
+        <f>IF(B4="Weekly","Friday",IF(B4="Monthly","Week 5",IF(B4="Quarterly",IF(5&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+5,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
         <v/>
       </c>
       <c r="B95">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=5)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=5)*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1),IF(B4="Quarterly",IF(5&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+5)*(YEAR('Data Entry'!A2:A356)=O4)*1)),0)))</f>
         <v/>
       </c>
       <c r="C95">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=5)*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!J2:J356="Yes")*1))</f>
+        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*(WEEKDAY('Data Entry'!A2:A356,2)=5)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Quarterly",IF(5&gt;3,0,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=(VALUE(RIGHT(K4,1))-1)*3+5)*(YEAR('Data Entry'!A2:A356)=O4)*('Data Entry'!J2:J356="Yes")*1)),0)))</f>
         <v/>
       </c>
       <c r="D95">
-        <f>IF(B95=0,"-",17)</f>
+        <f>IF(OR(B95=0,B95=""),"-",IF(B4="Quarterly",IF(5&gt;3,"-",IFERROR(ROUND(AVERAGEIF('Data Entry'!A2:A356,"&gt;="&amp;DATE(O4,(VALUE(RIGHT(K4,1))-1)*3+5,1),'Data Entry'!C2:C356),0),"-")),IFERROR(ROUND(AVERAGEIF('Data Entry'!K2:K356,E4,'Data Entry'!C2:C356),0),"-")))</f>
         <v/>
       </c>
       <c r="E95">
@@ -18845,11 +18845,11 @@
         </is>
       </c>
       <c r="B96" s="30">
-        <f>SUM(B91:B95)</f>
+        <f>IF(B4="Quarterly",SUM(B91:B93),SUM(B91:B95))</f>
         <v/>
       </c>
       <c r="C96" s="30">
-        <f>SUM(C91:C95)</f>
+        <f>IF(B4="Quarterly",SUM(C91:C93),SUM(C91:C95))</f>
         <v/>
       </c>
       <c r="D96">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -18690,7 +18690,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <f>IF(B4="Weekly","Monday",IF(B4="Monthly","Week 1",IF(B4="Quarterly",IF(1&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+1,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
+        <f>IF(B4="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+1,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(B4="Weekly",CHOOSE(1,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 1"))</f>
         <v/>
       </c>
       <c r="B91">
@@ -18720,7 +18720,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <f>IF(B4="Weekly","Tuesday",IF(B4="Monthly","Week 2",IF(B4="Quarterly",IF(2&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+2,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
+        <f>IF(B4="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+2,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(B4="Weekly",CHOOSE(2,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 2"))</f>
         <v/>
       </c>
       <c r="B92">
@@ -18750,7 +18750,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <f>IF(B4="Weekly","Wednesday",IF(B4="Monthly","Week 3",IF(B4="Quarterly",IF(3&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+3,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
+        <f>IF(B4="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+3,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(B4="Weekly",CHOOSE(3,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 3"))</f>
         <v/>
       </c>
       <c r="B93">
@@ -18780,7 +18780,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <f>IF(B4="Weekly","Thursday",IF(B4="Monthly","Week 4",IF(B4="Quarterly",IF(4&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+4,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
+        <f>IF(B4="Quarterly","",IF(B4="Weekly",CHOOSE(4,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 4"))</f>
         <v/>
       </c>
       <c r="B94">
@@ -18810,7 +18810,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <f>IF(B4="Weekly","Friday",IF(B4="Monthly","Week 5",IF(B4="Quarterly",IF(5&gt;3,"",CHOOSE(VALUE(RIGHT(K4,1))*3-3+5,"January","February","March","April","May","June","July","August","September","October","November","December")),"")))</f>
+        <f>IF(B4="Quarterly","",IF(B4="Weekly",CHOOSE(5,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 5"))</f>
         <v/>
       </c>
       <c r="B95">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -18690,7 +18690,7 @@
     </row>
     <row r="91">
       <c r="A91">
-        <f>IF(B4="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+1,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(B4="Weekly",CHOOSE(1,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 1"))</f>
+        <f>IF(TRIM(B4)="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+1,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(TRIM(B4)="Weekly",CHOOSE(1,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 1"))</f>
         <v/>
       </c>
       <c r="B91">
@@ -18720,7 +18720,7 @@
     </row>
     <row r="92">
       <c r="A92">
-        <f>IF(B4="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+2,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(B4="Weekly",CHOOSE(2,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 2"))</f>
+        <f>IF(TRIM(B4)="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+2,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(TRIM(B4)="Weekly",CHOOSE(2,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 2"))</f>
         <v/>
       </c>
       <c r="B92">
@@ -18750,7 +18750,7 @@
     </row>
     <row r="93">
       <c r="A93">
-        <f>IF(B4="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+3,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(B4="Weekly",CHOOSE(3,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 3"))</f>
+        <f>IF(TRIM(B4)="Quarterly",CHOOSE((VALUE(RIGHT(K4,1))-1)*3+3,"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"),IF(TRIM(B4)="Weekly",CHOOSE(3,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 3"))</f>
         <v/>
       </c>
       <c r="B93">
@@ -18780,7 +18780,7 @@
     </row>
     <row r="94">
       <c r="A94">
-        <f>IF(B4="Quarterly","",IF(B4="Weekly",CHOOSE(4,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 4"))</f>
+        <f>IF(TRIM(B4)="Quarterly","",IF(TRIM(B4)="Weekly",CHOOSE(4,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 4"))</f>
         <v/>
       </c>
       <c r="B94">
@@ -18810,7 +18810,7 @@
     </row>
     <row r="95">
       <c r="A95">
-        <f>IF(B4="Quarterly","",IF(B4="Weekly",CHOOSE(5,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 5"))</f>
+        <f>IF(TRIM(B4)="Quarterly","",IF(TRIM(B4)="Weekly",CHOOSE(5,"Monday","Tuesday","Wednesday","Thursday","Friday"),"Week 5"))</f>
         <v/>
       </c>
       <c r="B95">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -18896,44 +18896,44 @@
     <row r="103">
       <c r="A103" s="42" t="inlineStr">
         <is>
-          <t>Q1</t>
+          <t>Q1 (Jan-Mar)</t>
         </is>
       </c>
       <c r="B103" s="42">
-        <f>COUNTIF(MedicalData[Quarter],A103)</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=1)*(MONTH('Data Entry'!A2:A356)&lt;=3)*1)</f>
         <v/>
       </c>
       <c r="C103" s="42">
-        <f>COUNTIFS(MedicalData[Quarter],A103,MedicalData[Hospital Transportation],"Yes")</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=1)*(MONTH('Data Entry'!A2:A356)&lt;=3)*('Data Entry'!J2:J356="Yes")*1)</f>
         <v/>
       </c>
       <c r="D103" s="42">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A103,MedicalData[Age]),0),"-")</f>
-        <v/>
-      </c>
-      <c r="E103" s="42" t="n"/>
+        <f>IFERROR(ROUND(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),1,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),3,31)),0),"-")</f>
+        <v/>
+      </c>
+      <c r="E103" s="42" t="inlineStr"/>
       <c r="F103" s="42" t="n"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Q2</t>
+          <t>Q2 (Apr-Jun)</t>
         </is>
       </c>
       <c r="B104">
-        <f>COUNTIF(MedicalData[Quarter],A104)</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=4)*(MONTH('Data Entry'!A2:A356)&lt;=6)*1)</f>
         <v/>
       </c>
       <c r="C104">
-        <f>COUNTIFS(MedicalData[Quarter],A104,MedicalData[Hospital Transportation],"Yes")</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=4)*(MONTH('Data Entry'!A2:A356)&lt;=6)*('Data Entry'!J2:J356="Yes")*1)</f>
         <v/>
       </c>
       <c r="D104">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A104,MedicalData[Age]),0),"-")</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),4,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),6,30)),0),"-")</f>
         <v/>
       </c>
       <c r="E104">
-        <f>IF(B103=0,"-",TEXT((B104-B103)/B103,"+0%;-0%"))</f>
+        <f>IF(B103=0,"-",IF(B104=0,"-",TEXT((B104-B103)/B103,"+0%;-0%")))</f>
         <v/>
       </c>
       <c r="F104" s="30" t="n"/>
@@ -18941,23 +18941,23 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Q3</t>
+          <t>Q3 (Jul-Sep)</t>
         </is>
       </c>
       <c r="B105">
-        <f>COUNTIF(MedicalData[Quarter],A105)</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=7)*(MONTH('Data Entry'!A2:A356)&lt;=9)*1)</f>
         <v/>
       </c>
       <c r="C105">
-        <f>COUNTIFS(MedicalData[Quarter],A105,MedicalData[Hospital Transportation],"Yes")</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=7)*(MONTH('Data Entry'!A2:A356)&lt;=9)*('Data Entry'!J2:J356="Yes")*1)</f>
         <v/>
       </c>
       <c r="D105">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A105,MedicalData[Age]),0),"-")</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),7,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),9,30)),0),"-")</f>
         <v/>
       </c>
       <c r="E105">
-        <f>IF(B104=0,"-",TEXT((B105-B104)/B104,"+0%;-0%"))</f>
+        <f>IF(B104=0,"-",IF(B105=0,"-",TEXT((B105-B104)/B104,"+0%;-0%")))</f>
         <v/>
       </c>
       <c r="F105" s="30" t="n"/>
@@ -18965,23 +18965,23 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Q4</t>
+          <t>Q4 (Oct-Dec)</t>
         </is>
       </c>
       <c r="B106">
-        <f>COUNTIF(MedicalData[Quarter],A106)</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=10)*(MONTH('Data Entry'!A2:A356)&lt;=12)*1)</f>
         <v/>
       </c>
       <c r="C106">
-        <f>COUNTIFS(MedicalData[Quarter],A106,MedicalData[Hospital Transportation],"Yes")</f>
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=10)*(MONTH('Data Entry'!A2:A356)&lt;=12)*('Data Entry'!J2:J356="Yes")*1)</f>
         <v/>
       </c>
       <c r="D106">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Quarter],A106,MedicalData[Age]),0),"-")</f>
+        <f>IFERROR(ROUND(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),10,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),12,31)),0),"-")</f>
         <v/>
       </c>
       <c r="E106">
-        <f>IF(B105=0,"-",TEXT((B106-B105)/B105,"+0%;-0%"))</f>
+        <f>IF(B105=0,"-",IF(B106=0,"-",TEXT((B106-B105)/B105,"+0%;-0%")))</f>
         <v/>
       </c>
       <c r="F106" s="30" t="n"/>
@@ -19001,7 +19001,7 @@
         <v/>
       </c>
       <c r="D107">
-        <f>IFERROR(ROUND(AVERAGE(MedicalData[Age]),0),"-")</f>
+        <f>IFERROR(ROUND(AVERAGE('Data Entry'!C2:C356),0),"-")</f>
         <v/>
       </c>
       <c r="F107" s="30" t="n"/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -29,7 +29,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -192,6 +192,18 @@
     </font>
     <font>
       <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -364,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -473,6 +485,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1162,6 +1179,68 @@
       <a:round/>
     </a:ln>
   </spPr>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hospital Transport Required</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!Q43</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$P$44:$P$45</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$Q$44:$Q$45</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+          <showCatName val="1"/>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
 </chartSpace>
 </file>
 
@@ -4931,6 +5010,285 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Priority Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!H31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$G$32:$G$35</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$H$32:$H$35</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+          <showCatName val="0"/>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Program Type</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!K31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$J$32:$J$36</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$K$32:$K$36</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Program</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Incidents</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Day of Week</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!N31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$M$32:$M$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$N$32:$N$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Incidents</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -5060,6 +5418,94 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -17693,7 +18139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18046,7 +18492,261 @@
         <v/>
       </c>
     </row>
+    <row r="30">
+      <c r="G30" s="33" t="inlineStr">
+        <is>
+          <t>SEVERITY DATA</t>
+        </is>
+      </c>
+      <c r="J30" s="33" t="inlineStr">
+        <is>
+          <t>PROGRAM DATA</t>
+        </is>
+      </c>
+      <c r="M30" s="33" t="inlineStr">
+        <is>
+          <t>DAY OF WEEK DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" s="62" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="H31" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="J31" s="62" t="inlineStr">
+        <is>
+          <t>Program</t>
+        </is>
+      </c>
+      <c r="K31" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="M31" s="62" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="N31" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" s="63" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H32" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
+        <v/>
+      </c>
+      <c r="J32" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="K32" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
+        <v/>
+      </c>
+      <c r="M32" s="63" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="N32" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" s="63" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H33" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
+        <v/>
+      </c>
+      <c r="J33" s="63" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="K33" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
+        <v/>
+      </c>
+      <c r="M33" s="63" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N33" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H34" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
+        <v/>
+      </c>
+      <c r="J34" s="63" t="inlineStr">
+        <is>
+          <t>Afternoon Program</t>
+        </is>
+      </c>
+      <c r="K34" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
+        <v/>
+      </c>
+      <c r="M34" s="63" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N34" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" s="63" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="H35" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
+        <v/>
+      </c>
+      <c r="J35" s="63" t="inlineStr">
+        <is>
+          <t>Girl Skate</t>
+        </is>
+      </c>
+      <c r="K35" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
+        <v/>
+      </c>
+      <c r="M35" s="63" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N35" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="J36" s="63" t="inlineStr">
+        <is>
+          <t>NONE SPORTS CENTER</t>
+        </is>
+      </c>
+      <c r="K36" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
+        <v/>
+      </c>
+      <c r="M36" s="63" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="N36" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="M37" s="63" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N37" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="M38" s="63" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N38" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="P42" s="33" t="inlineStr">
+        <is>
+          <t>HOSPITAL TRANSPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="P43" s="62" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="Q43" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="P44" s="63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q44" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="P45" s="63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q45" s="63">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="P42:Q42"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -18492,6 +19192,13 @@
     <row r="46">
       <c r="A46" s="43" t="n"/>
     </row>
+    <row r="58">
+      <c r="A58" s="64" t="inlineStr">
+        <is>
+          <t>ADDITIONAL ANALYSIS</t>
+        </is>
+      </c>
+    </row>
     <row r="61" ht="23.25" customHeight="1" s="21">
       <c r="A61" s="20" t="inlineStr">
         <is>
@@ -19010,9 +19717,10 @@
       <c r="A109" s="43" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A76:N76"/>
     <mergeCell ref="A61:N61"/>
+    <mergeCell ref="A58:D58"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Selection" error="Select: Monthly, Weekly, or Quarterly" type="list">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -19,7 +19,9 @@
     <sheet name="Severity Analysis" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="Chart Data" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Dashboard'!$A$1:$O$76</definedName>
+  </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -29,7 +31,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="47">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -205,8 +207,87 @@
       <sz val="14"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00F05A28"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00333333"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00333333"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="0017A2B8"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00DC3545"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFC107"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="0028A745"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00333333"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill/>
     </fill>
@@ -273,8 +354,32 @@
         <bgColor rgb="00DCE6F1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A1A2E"/>
+        <bgColor rgb="001A1A2E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F5F5F5"/>
+        <bgColor rgb="00F5F5F5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAFAFA"/>
+        <bgColor rgb="00FAFAFA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -372,11 +477,111 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00E0E0E0"/>
+      </left>
+      <right style="thin">
+        <color rgb="00E0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00E0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00E0E0E0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="001A1A2E"/>
+      </left>
+      <right style="medium">
+        <color rgb="001A1A2E"/>
+      </right>
+      <top style="medium">
+        <color rgb="001A1A2E"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="001A1A2E"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00E0E0E0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00E0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00E0E0E0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00E0E0E0"/>
+      </right>
+      <top style="thin">
+        <color rgb="00E0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00E0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00E0E0E0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00E0E0E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -490,6 +695,72 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="16" fontId="33" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="15" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="15" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,619 +843,593 @@
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-ZA"/>
               <a:t>Incidents by Venue</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
     </title>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </floor>
-    <sideWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </sideWall>
-    <backWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </backWall>
     <plotArea>
-      <layout/>
-      <bar3DChart>
+      <barChart>
         <barDir val="col"/>
         <grouping val="clustered"/>
-        <varyColors val="0"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Venue Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
+              <f>'Chart Data'!B5</f>
             </strRef>
           </tx>
           <spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="50000"/>
-                    <a:satMod val="300000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="35000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="37000"/>
-                    <a:satMod val="300000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:tint val="15000"/>
-                    <a:satMod val="350000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="16200000" scaled="1"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
+            <a:ln>
               <a:prstDash val="solid"/>
-              <a:round/>
             </a:ln>
-            <a:sp3d contourW="9525">
-              <contourClr rgb="00000000"/>
-            </a:sp3d>
           </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
           <cat>
-            <strRef>
-              <f>'Venue Analysis'!$A$4:$A$19</f>
-              <strCache>
-                <ptCount val="16"/>
-                <pt idx="0">
-                  <v>Skate Park</v>
-                </pt>
-                <pt idx="1">
-                  <v xml:space="preserve">5 A side </v>
-                </pt>
-                <pt idx="2">
-                  <v>Basketball</v>
-                </pt>
-                <pt idx="3">
-                  <v>Outdoor gym</v>
-                </pt>
-                <pt idx="4">
-                  <v xml:space="preserve">JDI Studio </v>
-                </pt>
-                <pt idx="5">
-                  <v>PHINDA Studio</v>
-                </pt>
-                <pt idx="6">
-                  <v>PHAMBILI Studio</v>
-                </pt>
-                <pt idx="7">
-                  <v xml:space="preserve">11- A side </v>
-                </pt>
-                <pt idx="8">
-                  <v>Athletics track</v>
-                </pt>
-                <pt idx="9">
-                  <v>Registration area</v>
-                </pt>
-                <pt idx="10">
-                  <v xml:space="preserve">Car parking </v>
-                </pt>
-                <pt idx="11">
-                  <v>Change Rooms</v>
-                </pt>
-                <pt idx="12">
-                  <v>Equipment Rooms</v>
-                </pt>
-                <pt idx="13">
-                  <v>1KM RUN/WALK PATH</v>
-                </pt>
-                <pt idx="14">
-                  <v>Bleachers</v>
-                </pt>
-                <pt idx="15">
-                  <v>P GATE</v>
-                </pt>
-              </strCache>
-            </strRef>
+            <numRef>
+              <f>'Chart Data'!$A$6:$A$14</f>
+            </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Venue Analysis'!$B$4:$B$19</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="16"/>
-                <pt idx="0">
-                  <v>2</v>
-                </pt>
-                <pt idx="1">
-                  <v>5</v>
-                </pt>
-                <pt idx="2">
-                  <v>1</v>
-                </pt>
-                <pt idx="3">
-                  <v>1</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-                <pt idx="5">
-                  <v>0</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
-                </pt>
-                <pt idx="7">
-                  <v>15</v>
-                </pt>
-                <pt idx="8">
-                  <v>1</v>
-                </pt>
-                <pt idx="9">
-                  <v>0</v>
-                </pt>
-                <pt idx="10">
-                  <v>0</v>
-                </pt>
-                <pt idx="11">
-                  <v>1</v>
-                </pt>
-                <pt idx="12">
-                  <v>0</v>
-                </pt>
-                <pt idx="13">
-                  <v>1</v>
-                </pt>
-                <pt idx="14">
-                  <v>0</v>
-                </pt>
-                <pt idx="15">
-                  <v>0</v>
-                </pt>
-              </numCache>
+              <f>'Chart Data'!$B$6:$B$14</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
         <gapWidth val="150"/>
-        <gapDepth val="150"/>
-        <shape val="box"/>
         <axId val="10"/>
         <axId val="100"/>
-        <axId val="1000"/>
-      </bar3DChart>
+      </barChart>
       <catAx>
         <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-ZA"/>
-                  <a:t>Venue</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-          <overlay val="0"/>
-          <spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </txPr>
-        </title>
-        <numFmt formatCode="General" sourceLinked="1"/>
+        <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
         <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
         <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
       </catAx>
       <valAx>
         <axId val="100"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
-        <delete val="0"/>
         <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
+        <majorGridlines/>
         <title>
           <tx>
             <rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
+              <a:bodyPr/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
+                  <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-ZA"/>
-                  <a:t>Incidents</a:t>
+                  <a:t>Count</a:t>
                 </a:r>
               </a:p>
             </rich>
           </tx>
-          <overlay val="0"/>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Age Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!E5</f>
+            </strRef>
+          </tx>
           <spPr>
-            <a:noFill/>
             <a:ln>
-              <a:noFill/>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:r>
-                <a:t>None</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </txPr>
-        </title>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$D$6:$D$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$E$6:$E$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showCatName val="1"/>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t>Injury Mechanisms</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
-        </txPr>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <serAx>
-        <axId val="1000"/>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!B19</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$A$20:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$B$20:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
         <scaling>
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
-      </serAx>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Time of Day</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!E19</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$D$20:$D$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$E$20:$E$23</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Priority Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!H31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$G$32:$G$35</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$H$32:$H$35</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showCatName val="1"/>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
     </plotArea>
     <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
+      <legendPos val="r"/>
     </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
-  <spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Program Type</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!K31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$J$32:$J$36</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$K$32:$K$36</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Day of Week</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!N31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$M$32:$M$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$N$32:$N$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
@@ -1244,4061 +1489,16 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Age Distribution</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" strike="noStrike" kern="1200" cap="all" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </title>
-    <plotArea>
-      <layout/>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Age Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dPt>
-            <idx val="0"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <scene3d>
-                <camera prst="orthographicFront"/>
-                <lightRig rig="threePt" dir="t"/>
-              </scene3d>
-              <a:sp3d>
-                <bevelB w="127000" h="127000"/>
-                <bevelT w="127000" h="127000"/>
-              </a:sp3d>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="1"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <scene3d>
-                <camera prst="orthographicFront"/>
-                <lightRig rig="threePt" dir="t"/>
-              </scene3d>
-              <a:sp3d>
-                <bevelB w="127000" h="127000"/>
-                <bevelT w="127000" h="127000"/>
-              </a:sp3d>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="2"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <scene3d>
-                <camera prst="orthographicFront"/>
-                <lightRig rig="threePt" dir="t"/>
-              </scene3d>
-              <a:sp3d>
-                <bevelB w="127000" h="127000"/>
-                <bevelT w="127000" h="127000"/>
-              </a:sp3d>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="3"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <scene3d>
-                <camera prst="orthographicFront"/>
-                <lightRig rig="threePt" dir="t"/>
-              </scene3d>
-              <a:sp3d>
-                <bevelB w="127000" h="127000"/>
-                <bevelT w="127000" h="127000"/>
-              </a:sp3d>
-            </spPr>
-          </dPt>
-          <dPt>
-            <idx val="4"/>
-            <bubble3D val="0"/>
-            <spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <scene3d>
-                <camera prst="orthographicFront"/>
-                <lightRig rig="threePt" dir="t"/>
-              </scene3d>
-              <a:sp3d>
-                <bevelB w="127000" h="127000"/>
-                <bevelT w="127000" h="127000"/>
-              </a:sp3d>
-            </spPr>
-          </dPt>
-          <dLbls>
-            <dLbl>
-              <idx val="0"/>
-              <spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </spPr>
-              <txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:t>None</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </txPr>
-              <dLblPos val="outEnd"/>
-              <showLegendKey val="0"/>
-              <showVal val="0"/>
-              <showCatName val="1"/>
-              <showSerName val="0"/>
-              <showPercent val="1"/>
-              <showBubbleSize val="0"/>
-            </dLbl>
-            <dLbl>
-              <idx val="1"/>
-              <spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </spPr>
-              <txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:t>None</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </txPr>
-              <dLblPos val="outEnd"/>
-              <showLegendKey val="0"/>
-              <showVal val="0"/>
-              <showCatName val="1"/>
-              <showSerName val="0"/>
-              <showPercent val="1"/>
-              <showBubbleSize val="0"/>
-            </dLbl>
-            <dLbl>
-              <idx val="2"/>
-              <spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </spPr>
-              <txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent3"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:t>None</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </txPr>
-              <dLblPos val="outEnd"/>
-              <showLegendKey val="0"/>
-              <showVal val="0"/>
-              <showCatName val="1"/>
-              <showSerName val="0"/>
-              <showPercent val="1"/>
-              <showBubbleSize val="0"/>
-            </dLbl>
-            <dLbl>
-              <idx val="3"/>
-              <spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </spPr>
-              <txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent4"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:t>None</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </txPr>
-              <dLblPos val="outEnd"/>
-              <showLegendKey val="0"/>
-              <showVal val="0"/>
-              <showCatName val="1"/>
-              <showSerName val="0"/>
-              <showPercent val="1"/>
-              <showBubbleSize val="0"/>
-            </dLbl>
-            <dLbl>
-              <idx val="4"/>
-              <spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                  <a:prstDash val="solid"/>
-                </a:ln>
-              </spPr>
-              <txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="1" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="accent5"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:r>
-                    <a:t>None</a:t>
-                  </a:r>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </txPr>
-              <dLblPos val="outEnd"/>
-              <showLegendKey val="0"/>
-              <showVal val="0"/>
-              <showCatName val="1"/>
-              <showSerName val="0"/>
-              <showPercent val="1"/>
-              <showBubbleSize val="0"/>
-            </dLbl>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <dLblPos val="outEnd"/>
-            <showLegendKey val="0"/>
-            <showVal val="0"/>
-            <showCatName val="1"/>
-            <showSerName val="0"/>
-            <showPercent val="1"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Age Analysis'!$A$4:$A$8</f>
-              <strCache>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>0-12 years</v>
-                </pt>
-                <pt idx="1">
-                  <v>13-17 years</v>
-                </pt>
-                <pt idx="2">
-                  <v>18-25 years</v>
-                </pt>
-                <pt idx="3">
-                  <v>26-35 years</v>
-                </pt>
-                <pt idx="4">
-                  <v>36+ years</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Age Analysis'!$B$4:$B$8</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="5"/>
-                <pt idx="0">
-                  <v>4</v>
-                </pt>
-                <pt idx="1">
-                  <v>11</v>
-                </pt>
-                <pt idx="2">
-                  <v>11</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <dLblPos val="outEnd"/>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="1"/>
-          <showBubbleSize val="0"/>
-          <showLeaderLines val="0"/>
-        </dLbls>
-      </pie3DChart>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-  <spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Most Common Injuries</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </title>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </floor>
-    <sideWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </sideWall>
-    <backWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </backWall>
-    <plotArea>
-      <layout/>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$4</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Head Injury </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$4</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$5</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Neck Injury </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$5</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="2"/>
-          <order val="2"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$6</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Facial Injury </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$6</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>3</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="3"/>
-          <order val="3"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$7</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">spinal injury </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="4"/>
-          <order val="4"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$8</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Shoulder </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$8</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="5"/>
-          <order val="5"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$9</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Elbow </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$9</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="6"/>
-          <order val="6"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$10</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Wrist </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$10</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="7"/>
-          <order val="7"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$11</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Hand </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$11</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="8"/>
-          <order val="8"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$12</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Arm </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$12</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="9"/>
-          <order val="9"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$13</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Upper limb Muscle </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$13</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="10"/>
-          <order val="10"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$14</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Chest </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$14</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="11"/>
-          <order val="11"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$15</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Abdominal </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$15</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="12"/>
-          <order val="12"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$16</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Back </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$16</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="13"/>
-          <order val="13"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$17</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Hip </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$17</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="14"/>
-          <order val="14"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$18</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Knee </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$18</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>5</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="15"/>
-          <order val="15"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$19</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Ankle </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$19</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>4</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="16"/>
-          <order val="16"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$20</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Foot </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$20</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="17"/>
-          <order val="17"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$21</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Lower limb </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$21</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>2</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="18"/>
-          <order val="18"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$22</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">General </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$22</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="19"/>
-          <order val="19"/>
-          <tx>
-            <strRef>
-              <f>'Injury Analysis'!$A$23</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v xml:space="preserve">Medical </v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Injury Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Injury Analysis'!$B$23</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <gapDepth val="150"/>
-        <shape val="box"/>
-        <axId val="10"/>
-        <axId val="100"/>
-        <axId val="1000"/>
-      </bar3DChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <serAx>
-        <axId val="1000"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-  <spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="1" i="0" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Injury Mechanisms</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="1" i="0" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </title>
-    <view3D>
-      <rotX val="15"/>
-      <rotY val="20"/>
-      <rAngAx val="1"/>
-    </view3D>
-    <floor>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </floor>
-    <sideWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </sideWall>
-    <backWall>
-      <thickness val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:sp3d/>
-      </spPr>
-    </backWall>
-    <plotArea>
-      <layout/>
-      <bar3DChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Mechanism Analysis'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:alpha val="0"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1"/>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-              <a:prstDash val="solid"/>
-            </a:ln>
-            <a:sp3d/>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Mechanism Analysis'!$A$4:$A$24</f>
-              <strCache>
-                <ptCount val="21"/>
-                <pt idx="0">
-                  <v>Player-to-Player</v>
-                </pt>
-                <pt idx="1">
-                  <v>Player-to-Object</v>
-                </pt>
-                <pt idx="2">
-                  <v>Struck by Equipment</v>
-                </pt>
-                <pt idx="3">
-                  <v>Slips, Trips and falls</v>
-                </pt>
-                <pt idx="4">
-                  <v>Falls from Height</v>
-                </pt>
-                <pt idx="5">
-                  <v>Muscle Strains</v>
-                </pt>
-                <pt idx="6">
-                  <v>Heat-Related</v>
-                </pt>
-                <pt idx="7">
-                  <v>Stress Fractures</v>
-                </pt>
-                <pt idx="8">
-                  <v>Tendonitis</v>
-                </pt>
-                <pt idx="9">
-                  <v>Incorrect Use</v>
-                </pt>
-                <pt idx="10">
-                  <v>Malfunction</v>
-                </pt>
-                <pt idx="11">
-                  <v>Poor Lighting</v>
-                </pt>
-                <pt idx="12">
-                  <v>Inadequate Signage</v>
-                </pt>
-                <pt idx="13">
-                  <v>Cleaning Agents</v>
-                </pt>
-                <pt idx="14">
-                  <v>Infections</v>
-                </pt>
-                <pt idx="15">
-                  <v>Allergies</v>
-                </pt>
-                <pt idx="16">
-                  <v>Harassment or Bullying</v>
-                </pt>
-                <pt idx="17">
-                  <v>Performance Pressure</v>
-                </pt>
-                <pt idx="18">
-                  <v>Assault</v>
-                </pt>
-                <pt idx="19">
-                  <v>Theft</v>
-                </pt>
-                <pt idx="20">
-                  <v>Medical</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Mechanism Analysis'!$B$4:$B$24</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="21"/>
-                <pt idx="0">
-                  <v>12</v>
-                </pt>
-                <pt idx="1">
-                  <v>2</v>
-                </pt>
-                <pt idx="2">
-                  <v>2</v>
-                </pt>
-                <pt idx="3">
-                  <v>6</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-                <pt idx="5">
-                  <v>4</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
-                </pt>
-                <pt idx="7">
-                  <v>0</v>
-                </pt>
-                <pt idx="8">
-                  <v>0</v>
-                </pt>
-                <pt idx="9">
-                  <v>0</v>
-                </pt>
-                <pt idx="10">
-                  <v>0</v>
-                </pt>
-                <pt idx="11">
-                  <v>0</v>
-                </pt>
-                <pt idx="12">
-                  <v>0</v>
-                </pt>
-                <pt idx="13">
-                  <v>0</v>
-                </pt>
-                <pt idx="14">
-                  <v>0</v>
-                </pt>
-                <pt idx="15">
-                  <v>0</v>
-                </pt>
-                <pt idx="16">
-                  <v>0</v>
-                </pt>
-                <pt idx="17">
-                  <v>0</v>
-                </pt>
-                <pt idx="18">
-                  <v>0</v>
-                </pt>
-                <pt idx="19">
-                  <v>0</v>
-                </pt>
-                <pt idx="20">
-                  <v>1</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <gapDepth val="0"/>
-        <shape val="box"/>
-        <axId val="10"/>
-        <axId val="100"/>
-        <axId val="1000"/>
-      </bar3DChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-      <serAx>
-        <axId val="1000"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </serAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-  <spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Incidents by Time of Day</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Time Analysis'!$C$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Count</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <invertIfNegative val="0"/>
-          <cat>
-            <multiLvlStrRef>
-              <multiLvlStrCache>
-                <lvl>
-                  <pt idx="0">
-                    <v>6:00 - 11:59</v>
-                  </pt>
-                  <pt idx="1">
-                    <v>12:00 - 17:59</v>
-                  </pt>
-                  <pt idx="2">
-                    <v>18:00 - 21:59</v>
-                  </pt>
-                  <pt idx="3">
-                    <v>22:00 - 5:59</v>
-                  </pt>
-                </lvl>
-                <lvl>
-                  <pt idx="0">
-                    <v>Morning</v>
-                  </pt>
-                  <pt idx="1">
-                    <v>Afternoon</v>
-                  </pt>
-                  <pt idx="2">
-                    <v>Evening</v>
-                  </pt>
-                  <pt idx="3">
-                    <v>Night</v>
-                  </pt>
-                </lvl>
-              </multiLvlStrCache>
-              <f>'Time Analysis'!$A$4:$B$7</f>
-            </multiLvlStrRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Time Analysis'!$C$4:$C$7</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="4"/>
-                <pt idx="0">
-                  <v>4</v>
-                </pt>
-                <pt idx="1">
-                  <v>12</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-      <overlay val="0"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-ZA"/>
-              <a:t>Monthly Incident Trend</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </title>
-    <plotArea>
-      <layout/>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="0"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Monthly Stats'!$B$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Total Cases</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <dLbls>
-            <spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-            <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:t>None</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </txPr>
-            <showLegendKey val="0"/>
-            <showVal val="1"/>
-            <showCatName val="0"/>
-            <showSerName val="0"/>
-            <showPercent val="0"/>
-            <showBubbleSize val="0"/>
-            <showLeaderLines val="0"/>
-          </dLbls>
-          <cat>
-            <strRef>
-              <f>'Monthly Stats'!$A$4:$A$27</f>
-              <strCache>
-                <ptCount val="24"/>
-                <pt idx="0">
-                  <v>Jan-24</v>
-                </pt>
-                <pt idx="1">
-                  <v>Feb-24</v>
-                </pt>
-                <pt idx="2">
-                  <v>Mar-24</v>
-                </pt>
-                <pt idx="3">
-                  <v>Apr-24</v>
-                </pt>
-                <pt idx="4">
-                  <v>May-24</v>
-                </pt>
-                <pt idx="5">
-                  <v>Jun-24</v>
-                </pt>
-                <pt idx="6">
-                  <v>Jul-24</v>
-                </pt>
-                <pt idx="7">
-                  <v>Aug-24</v>
-                </pt>
-                <pt idx="8">
-                  <v>Sep-24</v>
-                </pt>
-                <pt idx="9">
-                  <v>Oct-24</v>
-                </pt>
-                <pt idx="10">
-                  <v>Nov-24</v>
-                </pt>
-                <pt idx="11">
-                  <v>Dec-24</v>
-                </pt>
-                <pt idx="12">
-                  <v>Jan-25</v>
-                </pt>
-                <pt idx="13">
-                  <v>Feb-25</v>
-                </pt>
-                <pt idx="14">
-                  <v>Mar-25</v>
-                </pt>
-                <pt idx="15">
-                  <v>Apr-25</v>
-                </pt>
-                <pt idx="16">
-                  <v>May-25</v>
-                </pt>
-                <pt idx="17">
-                  <v>Jun-25</v>
-                </pt>
-                <pt idx="18">
-                  <v>Jul-25</v>
-                </pt>
-                <pt idx="19">
-                  <v>Aug-25</v>
-                </pt>
-                <pt idx="20">
-                  <v>Sep-25</v>
-                </pt>
-                <pt idx="21">
-                  <v>Oct-25</v>
-                </pt>
-                <pt idx="22">
-                  <v>Nov-25</v>
-                </pt>
-                <pt idx="23">
-                  <v>Dec-25</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Monthly Stats'!$B$4:$B$27</f>
-              <numCache>
-                <formatCode>General</formatCode>
-                <ptCount val="24"/>
-                <pt idx="0">
-                  <v>0</v>
-                </pt>
-                <pt idx="1">
-                  <v>0</v>
-                </pt>
-                <pt idx="2">
-                  <v>0</v>
-                </pt>
-                <pt idx="3">
-                  <v>0</v>
-                </pt>
-                <pt idx="4">
-                  <v>0</v>
-                </pt>
-                <pt idx="5">
-                  <v>0</v>
-                </pt>
-                <pt idx="6">
-                  <v>0</v>
-                </pt>
-                <pt idx="7">
-                  <v>0</v>
-                </pt>
-                <pt idx="8">
-                  <v>0</v>
-                </pt>
-                <pt idx="9">
-                  <v>0</v>
-                </pt>
-                <pt idx="10">
-                  <v>0</v>
-                </pt>
-                <pt idx="11">
-                  <v>0</v>
-                </pt>
-                <pt idx="12">
-                  <v>0</v>
-                </pt>
-                <pt idx="13">
-                  <v>0</v>
-                </pt>
-                <pt idx="14">
-                  <v>0</v>
-                </pt>
-                <pt idx="15">
-                  <v>0</v>
-                </pt>
-                <pt idx="16">
-                  <v>0</v>
-                </pt>
-                <pt idx="17">
-                  <v>0</v>
-                </pt>
-                <pt idx="18">
-                  <v>0</v>
-                </pt>
-                <pt idx="19">
-                  <v>0</v>
-                </pt>
-                <pt idx="20">
-                  <v>16</v>
-                </pt>
-                <pt idx="21">
-                  <v>11</v>
-                </pt>
-                <pt idx="22">
-                  <v>0</v>
-                </pt>
-                <pt idx="23">
-                  <v>0</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="0"/>
-        </ser>
-        <dLbls>
-          <dLblPos val="t"/>
-          <showLegendKey val="0"/>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <smooth val="0"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="b"/>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="0"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="0"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="0"/>
-        <axPos val="l"/>
-        <majorGridlines>
-          <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </spPr>
-        </majorGridlines>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </spPr>
-        <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:t>None</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </txPr>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-      <overlay val="0"/>
-      <spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-      <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:t>None</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </txPr>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-  <spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </spPr>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Priority Distribution</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pie3DChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Chart Data'!H31</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Chart Data'!$G$32:$G$35</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Chart Data'!$H$32:$H$35</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="1"/>
-          <showCatName val="0"/>
-          <showPercent val="1"/>
-        </dLbls>
-      </pie3DChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Incidents by Program Type</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Chart Data'!K31</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Chart Data'!$J$32:$J$36</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Chart Data'!$K$32:$K$36</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Program</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Incidents</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Incidents by Day of Week</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Chart Data'!N31</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Chart Data'!$M$32:$M$38</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Chart Data'!$N$32:$N$38</f>
-            </numRef>
-          </val>
-        </ser>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Day</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Incidents</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>28575</rowOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="6480000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -5315,12 +1515,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="5040000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -5337,12 +1537,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>1</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>27</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="6480000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -5359,12 +1559,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>8</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>27</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="5040000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -5381,12 +1581,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>43</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="5040000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -5403,12 +1603,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>7</col>
+      <col>8</col>
       <colOff>0</colOff>
       <row>43</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="5040000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="6" name="Chart 6"/>
@@ -5425,12 +1625,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>0</col>
+      <col>1</col>
       <colOff>0</colOff>
       <row>59</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="3600000"/>
+    <ext cx="6480000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="7" name="Chart 7"/>
@@ -5452,7 +1652,7 @@
       <row>59</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="3600000"/>
+    <ext cx="5040000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="8" name="Chart 8"/>
@@ -5462,50 +1662,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId8"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>76</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="3600000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="9" name="Chart 9"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>8</col>
-      <colOff>0</colOff>
-      <row>76</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="3600000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="10" name="Chart 10"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -18208,7 +14364,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A6)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A6,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A6,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A6))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6))))</f>
         <v/>
       </c>
       <c r="D6" t="inlineStr">
@@ -18217,7 +14373,7 @@
         </is>
       </c>
       <c r="E6">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=0",MedicalData[Age],"&lt;=12")))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1)))</f>
         <v/>
       </c>
     </row>
@@ -18228,7 +14384,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A7)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A7,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A7,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A7))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7))))</f>
         <v/>
       </c>
       <c r="D7" t="inlineStr">
@@ -18237,7 +14393,7 @@
         </is>
       </c>
       <c r="E7">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=13",MedicalData[Age],"&lt;=17")))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1)))</f>
         <v/>
       </c>
     </row>
@@ -18248,7 +14404,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A8)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A8,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A8,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A8))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8))))</f>
         <v/>
       </c>
       <c r="D8" t="inlineStr">
@@ -18257,7 +14413,7 @@
         </is>
       </c>
       <c r="E8">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=18",MedicalData[Age],"&lt;=25")))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1)))</f>
         <v/>
       </c>
     </row>
@@ -18268,7 +14424,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A9)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A9,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A9,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A9))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9))))</f>
         <v/>
       </c>
       <c r="D9" t="inlineStr">
@@ -18277,7 +14433,7 @@
         </is>
       </c>
       <c r="E9">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=26",MedicalData[Age],"&lt;=35")))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1)))</f>
         <v/>
       </c>
     </row>
@@ -18288,7 +14444,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A10)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A10,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A10,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A10))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10))))</f>
         <v/>
       </c>
       <c r="D10" t="inlineStr">
@@ -18297,7 +14453,7 @@
         </is>
       </c>
       <c r="E10">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Age],"&gt;=36",MedicalData[Quarter],Dashboard!K4),COUNTIFS(MedicalData[Age],"&gt;=36")))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=36)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=36)*1)))</f>
         <v/>
       </c>
     </row>
@@ -18308,7 +14464,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A11)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A11,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A11,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A11))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
         <v/>
       </c>
     </row>
@@ -18319,7 +14475,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A12)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A12,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A12,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A12))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
         <v/>
       </c>
     </row>
@@ -18330,7 +14486,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A13)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A13,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A13,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A13))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
         <v/>
       </c>
     </row>
@@ -18341,7 +14497,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((TEXT(MedicalData[Date],"MMM-YY")=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=VALUE(RIGHT(Dashboard!H4,1)))*(MedicalData[Site]=A14)*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Site],A14,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Site],A14,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Site],A14))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
         <v/>
       </c>
     </row>
@@ -18386,7 +14542,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A20)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20))))</f>
         <v/>
       </c>
       <c r="D20" t="inlineStr">
@@ -18395,7 +14551,7 @@
         </is>
       </c>
       <c r="E20">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D20,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D20,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D20)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D20)*1),COUNTIF('Data Entry'!M2:M356,D20))))</f>
         <v/>
       </c>
     </row>
@@ -18406,7 +14562,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A21)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21))))</f>
         <v/>
       </c>
       <c r="D21" t="inlineStr">
@@ -18415,7 +14571,7 @@
         </is>
       </c>
       <c r="E21">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D21,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D21,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D21)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D21)*1),COUNTIF('Data Entry'!M2:M356,D21))))</f>
         <v/>
       </c>
     </row>
@@ -18426,7 +14582,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A22)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22))))</f>
         <v/>
       </c>
       <c r="D22" t="inlineStr">
@@ -18435,7 +14591,7 @@
         </is>
       </c>
       <c r="E22">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D22,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D22,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D22)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D22)*1),COUNTIF('Data Entry'!M2:M356,D22))))</f>
         <v/>
       </c>
     </row>
@@ -18446,7 +14602,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A23)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23))))</f>
         <v/>
       </c>
       <c r="D23" t="inlineStr">
@@ -18455,7 +14611,7 @@
         </is>
       </c>
       <c r="E23">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Time Period],D23,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Time Period],D23,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Time Period],D23)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D23)*1),COUNTIF('Data Entry'!M2:M356,D23))))</f>
         <v/>
       </c>
     </row>
@@ -18466,7 +14622,7 @@
         </is>
       </c>
       <c r="B24">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A24,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A24)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24))))</f>
         <v/>
       </c>
     </row>
@@ -18477,7 +14633,7 @@
         </is>
       </c>
       <c r="B25">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A25,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A25,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A25)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A25)*1),COUNTIF('Data Entry'!D2:D356,A25))))</f>
         <v/>
       </c>
     </row>
@@ -18488,7 +14644,7 @@
         </is>
       </c>
       <c r="B26">
-        <f>IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[History/Mechanism of injury],A26,MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[History/Mechanism of injury],A26,MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[History/Mechanism of injury],A26)))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A26)*1),COUNTIF('Data Entry'!D2:D356,A26))))</f>
         <v/>
       </c>
     </row>
@@ -18548,7 +14704,7 @@
         </is>
       </c>
       <c r="H32" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
         <v/>
       </c>
       <c r="J32" s="63" t="inlineStr">
@@ -18557,7 +14713,7 @@
         </is>
       </c>
       <c r="K32" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
         <v/>
       </c>
       <c r="M32" s="63" t="inlineStr">
@@ -18566,7 +14722,7 @@
         </is>
       </c>
       <c r="N32" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
         <v/>
       </c>
     </row>
@@ -18577,7 +14733,7 @@
         </is>
       </c>
       <c r="H33" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
         <v/>
       </c>
       <c r="J33" s="63" t="inlineStr">
@@ -18586,7 +14742,7 @@
         </is>
       </c>
       <c r="K33" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
         <v/>
       </c>
       <c r="M33" s="63" t="inlineStr">
@@ -18595,7 +14751,7 @@
         </is>
       </c>
       <c r="N33" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
         <v/>
       </c>
     </row>
@@ -18606,7 +14762,7 @@
         </is>
       </c>
       <c r="H34" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
         <v/>
       </c>
       <c r="J34" s="63" t="inlineStr">
@@ -18615,7 +14771,7 @@
         </is>
       </c>
       <c r="K34" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
         <v/>
       </c>
       <c r="M34" s="63" t="inlineStr">
@@ -18624,7 +14780,7 @@
         </is>
       </c>
       <c r="N34" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
         <v/>
       </c>
     </row>
@@ -18635,7 +14791,7 @@
         </is>
       </c>
       <c r="H35" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
         <v/>
       </c>
       <c r="J35" s="63" t="inlineStr">
@@ -18644,7 +14800,7 @@
         </is>
       </c>
       <c r="K35" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
         <v/>
       </c>
       <c r="M35" s="63" t="inlineStr">
@@ -18653,7 +14809,7 @@
         </is>
       </c>
       <c r="N35" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
         <v/>
       </c>
     </row>
@@ -18664,7 +14820,7 @@
         </is>
       </c>
       <c r="K36" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
         <v/>
       </c>
       <c r="M36" s="63" t="inlineStr">
@@ -18673,7 +14829,7 @@
         </is>
       </c>
       <c r="N36" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
         <v/>
       </c>
     </row>
@@ -18684,7 +14840,7 @@
         </is>
       </c>
       <c r="N37" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
         <v/>
       </c>
     </row>
@@ -18695,7 +14851,7 @@
         </is>
       </c>
       <c r="N38" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
         <v/>
       </c>
     </row>
@@ -18725,7 +14881,7 @@
         </is>
       </c>
       <c r="Q44" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
         <v/>
       </c>
     </row>
@@ -18736,7 +14892,7 @@
         </is>
       </c>
       <c r="Q45" s="63">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!B4="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K4)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
         <v/>
       </c>
     </row>
@@ -18755,7 +14911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S109"/>
   <sheetViews>
@@ -18765,16 +14921,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" style="21" min="1" max="19"/>
-    <col width="12" customWidth="1" style="21" min="2" max="2"/>
+    <col width="3" customWidth="1" style="21" min="1" max="19"/>
+    <col width="15" customWidth="1" style="21" min="2" max="2"/>
     <col width="12" customWidth="1" style="21" min="3" max="3"/>
-    <col width="10" customWidth="1" style="21" min="4" max="4"/>
-    <col width="14" customWidth="1" style="21" min="5" max="5"/>
-    <col width="14" customWidth="1" style="21" min="6" max="6"/>
-    <col width="16" customWidth="1" style="21" min="7" max="7"/>
+    <col width="12" customWidth="1" style="21" min="4" max="4"/>
+    <col width="12" customWidth="1" style="21" min="5" max="5"/>
+    <col width="12" customWidth="1" style="21" min="6" max="6"/>
+    <col width="12" customWidth="1" style="21" min="7" max="7"/>
+    <col width="3" customWidth="1" style="21" min="8" max="8"/>
+    <col width="15" customWidth="1" style="21" min="9" max="9"/>
+    <col width="12" customWidth="1" style="21" min="10" max="10"/>
+    <col width="12" customWidth="1" style="21" min="11" max="11"/>
+    <col width="12" customWidth="1" style="21" min="12" max="12"/>
+    <col width="12" customWidth="1" style="21" min="13" max="13"/>
+    <col width="12" customWidth="1" style="21" min="14" max="14"/>
+    <col width="3" customWidth="1" style="21" min="15" max="15"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="16" max="16"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="17" max="17"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="18" max="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36.75" customHeight="1" s="21">
+    <row r="1" ht="10" customHeight="1" s="21">
       <c r="A1" s="44" t="inlineStr">
         <is>
           <t>SHAPA NIKE SOWETO MEDICAL DASHBOARD</t>
@@ -18794,26 +14961,21 @@
       <c r="M1" s="45" t="n"/>
       <c r="N1" s="45" t="n"/>
     </row>
-    <row r="2">
-      <c r="A2" s="45" t="n"/>
-      <c r="B2" s="46">
-        <f>E4</f>
-        <v/>
-      </c>
-      <c r="C2" s="45" t="n"/>
-      <c r="D2" s="45" t="n"/>
-      <c r="E2" s="45" t="n"/>
-      <c r="F2" s="45" t="n"/>
-      <c r="G2" s="45" t="n"/>
-      <c r="H2" s="45" t="n"/>
-      <c r="I2" s="45" t="n"/>
-      <c r="J2" s="45" t="n"/>
-      <c r="K2" s="45" t="n"/>
-      <c r="L2" s="45" t="n"/>
-      <c r="M2" s="45" t="n"/>
-      <c r="N2" s="45" t="n"/>
-    </row>
-    <row r="3">
+    <row r="2" ht="45" customHeight="1" s="21">
+      <c r="A2" s="65" t="n"/>
+      <c r="B2" s="66" t="inlineStr">
+        <is>
+          <t>NIKE SOWETO - MEDICAL INCIDENTS DASHBOARD</t>
+        </is>
+      </c>
+      <c r="H2" s="65" t="n"/>
+      <c r="I2" s="67">
+        <f>IF(B5="Weekly","Weekly Report: "&amp;E5&amp;" - "&amp;H5,IF(B5="Monthly","Monthly Report: "&amp;E5,IF(B5="Quarterly","Quarterly Report: "&amp;K5,"All Time Report")))</f>
+        <v/>
+      </c>
+      <c r="O2" s="68" t="n"/>
+    </row>
+    <row r="3" ht="8" customHeight="1" s="21">
       <c r="A3" s="47" t="inlineStr">
         <is>
           <t>REPORT CONTROLS</t>
@@ -18833,59 +14995,29 @@
       <c r="M3" s="45" t="n"/>
       <c r="N3" s="45" t="n"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="21">
+    <row r="4" ht="30" customHeight="1" s="21">
       <c r="A4" s="48" t="inlineStr">
         <is>
           <t>1. Report Type:</t>
         </is>
       </c>
-      <c r="B4" s="49" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="C4" s="45" t="n"/>
-      <c r="D4" s="50" t="inlineStr">
-        <is>
-          <t>2. Select Month:</t>
-        </is>
-      </c>
-      <c r="E4" s="57" t="inlineStr">
-        <is>
-          <t>Oct-25</t>
-        </is>
-      </c>
-      <c r="F4" s="52" t="n"/>
-      <c r="G4" s="50" t="inlineStr">
-        <is>
-          <t>3. Select Week:</t>
-        </is>
-      </c>
-      <c r="H4" s="57" t="inlineStr">
-        <is>
-          <t>Week 1</t>
-        </is>
-      </c>
-      <c r="I4" s="45" t="n"/>
-      <c r="J4" s="50" t="inlineStr">
-        <is>
-          <t>4. Select Quarter:</t>
-        </is>
-      </c>
-      <c r="K4" s="58" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-      <c r="L4" s="45" t="n"/>
-      <c r="M4" s="60">
-        <f>VALUE(SUBSTITUTE(H4,"Week ",""))</f>
-        <v/>
-      </c>
-      <c r="N4" s="60">
-        <f>MATCH(LEFT(E4,3),{"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},0)</f>
-        <v/>
-      </c>
+      <c r="B4" s="69" t="inlineStr">
+        <is>
+          <t>REPORT FILTERS</t>
+        </is>
+      </c>
+      <c r="C4" s="83" t="n"/>
+      <c r="D4" s="83" t="n"/>
+      <c r="E4" s="83" t="n"/>
+      <c r="F4" s="83" t="n"/>
+      <c r="G4" s="83" t="n"/>
+      <c r="H4" s="83" t="n"/>
+      <c r="I4" s="83" t="n"/>
+      <c r="J4" s="83" t="n"/>
+      <c r="K4" s="83" t="n"/>
+      <c r="L4" s="83" t="n"/>
+      <c r="M4" s="83" t="n"/>
+      <c r="N4" s="84" t="n"/>
       <c r="O4" s="61">
         <f>2000+VALUE(RIGHT(E4,2))</f>
         <v/>
@@ -18896,39 +15028,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="35" customHeight="1" s="21">
       <c r="A5" s="59" t="inlineStr">
         <is>
           <t>→ Monthly: Select Report Type + Month</t>
         </is>
       </c>
-      <c r="B5" s="45" t="n"/>
-      <c r="C5" s="45" t="n"/>
-      <c r="D5" s="45" t="n"/>
-      <c r="E5" s="59" t="inlineStr">
-        <is>
-          <t>→ Weekly: Select Month + Week</t>
-        </is>
-      </c>
-      <c r="F5" s="45" t="n"/>
-      <c r="G5" s="45" t="n"/>
-      <c r="H5" s="45" t="n"/>
-      <c r="I5" s="59" t="inlineStr">
-        <is>
-          <t>→ Quarterly: Select Quarter</t>
-        </is>
-      </c>
-      <c r="J5" s="45" t="n"/>
-      <c r="K5" s="45" t="n"/>
-      <c r="L5" s="45" t="n"/>
-      <c r="M5" s="45" t="n"/>
-      <c r="N5" s="45" t="n"/>
-      <c r="P5" s="5" t="n"/>
-      <c r="Q5" s="5" t="n"/>
-      <c r="R5" s="5" t="n"/>
+      <c r="B5" s="87" t="inlineStr">
+        <is>
+          <t>Report:</t>
+        </is>
+      </c>
+      <c r="C5" s="88" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="D5" s="87" t="inlineStr">
+        <is>
+          <t>Month:</t>
+        </is>
+      </c>
+      <c r="E5" s="88" t="inlineStr">
+        <is>
+          <t>Oct-25</t>
+        </is>
+      </c>
+      <c r="F5" s="87" t="inlineStr">
+        <is>
+          <t>Week:</t>
+        </is>
+      </c>
+      <c r="G5" s="88" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="H5" s="89" t="inlineStr"/>
+      <c r="I5" s="90" t="inlineStr"/>
+      <c r="J5" s="87" t="inlineStr">
+        <is>
+          <t>Quarter:</t>
+        </is>
+      </c>
+      <c r="K5" s="88" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="L5" s="91" t="inlineStr"/>
+      <c r="M5" s="91" t="inlineStr"/>
+      <c r="N5" s="91" t="inlineStr"/>
+      <c r="P5" s="5">
+        <f>VALUE(SUBSTITUTE(G5,"Week ",""))</f>
+        <v/>
+      </c>
+      <c r="Q5" s="5">
+        <f>MATCH(LEFT(E5,3),{"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},0)</f>
+        <v/>
+      </c>
+      <c r="R5" s="5">
+        <f>2000+VALUE(RIGHT(E5,2))</f>
+        <v/>
+      </c>
       <c r="S5" s="5" t="n"/>
     </row>
-    <row r="6" ht="46.5" customHeight="1" s="21">
+    <row r="6" ht="8" customHeight="1" s="21">
       <c r="A6" s="47" t="inlineStr">
         <is>
           <t>SUMMARY</t>
@@ -18955,49 +15120,17 @@
       <c r="R6" s="5" t="n"/>
       <c r="S6" s="5" t="n"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" s="21">
+    <row r="7" ht="25" customHeight="1" s="21">
       <c r="A7" s="54" t="inlineStr">
         <is>
           <t>Period:</t>
         </is>
       </c>
-      <c r="B7" s="55">
-        <f>IF(B4="Weekly",E4&amp;" - "&amp;H4,IF(B4="Monthly",E4,IF(B4="Quarterly",K4&amp;" "&amp;RIGHT(E4,2),"All Time")))</f>
-        <v/>
-      </c>
-      <c r="C7" s="45" t="n"/>
-      <c r="D7" s="54" t="inlineStr">
-        <is>
-          <t>Total Incidents</t>
-        </is>
-      </c>
-      <c r="E7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*1),COUNTA('Data Entry'!A2:A356)))</f>
-        <v/>
-      </c>
-      <c r="F7" s="45" t="n"/>
-      <c r="G7" s="54" t="inlineStr">
-        <is>
-          <t>Ambulance</t>
-        </is>
-      </c>
-      <c r="H7" s="56">
-        <f>IF(B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=M4)*('Data Entry'!J2:J356="Yes")*1),IF(B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=N4)*(YEAR('Data Entry'!A2:A356)=O4)*('Data Entry'!J2:J356="Yes")*1),COUNTIF('Data Entry'!J2:J356,"Yes")))</f>
-        <v/>
-      </c>
-      <c r="I7" s="45" t="n"/>
-      <c r="J7" s="54" t="inlineStr">
-        <is>
-          <t>Avg Age</t>
-        </is>
-      </c>
-      <c r="K7" s="56">
-        <f>IFERROR(ROUND(IF(B4="Monthly",AVERAGEIF(MedicalData[Month],E4,MedicalData[Age]),IF(B4="Quarterly",AVERAGEIF(MedicalData[Quarter],K4,MedicalData[Age]),AVERAGE(MedicalData[Age]))),0),"-")</f>
-        <v/>
-      </c>
-      <c r="L7" s="45" t="n"/>
-      <c r="M7" s="45" t="n"/>
-      <c r="N7" s="45" t="n"/>
+      <c r="B7" s="76" t="inlineStr">
+        <is>
+          <t>KEY PERFORMANCE INDICATORS</t>
+        </is>
+      </c>
       <c r="P7" s="5" t="n"/>
       <c r="Q7" s="5" t="n"/>
       <c r="R7" s="10">
@@ -19006,72 +15139,167 @@
       </c>
       <c r="S7" s="5" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="50" customHeight="1" s="21">
       <c r="A8" s="45" t="n"/>
-      <c r="B8" s="45" t="n"/>
-      <c r="C8" s="45" t="n"/>
-      <c r="D8" s="45" t="n"/>
-      <c r="E8" s="45" t="n"/>
-      <c r="F8" s="45" t="n"/>
-      <c r="G8" s="45" t="n"/>
-      <c r="H8" s="45" t="n"/>
-      <c r="I8" s="45" t="n"/>
-      <c r="J8" s="45" t="n"/>
-      <c r="K8" s="45" t="n"/>
-      <c r="L8" s="45" t="n"/>
-      <c r="M8" s="45" t="n"/>
+      <c r="B8" s="77" t="inlineStr">
+        <is>
+          <t>Total Incidents</t>
+        </is>
+      </c>
+      <c r="C8" s="84" t="n"/>
+      <c r="D8" s="77" t="inlineStr">
+        <is>
+          <t>Hospital Transports</t>
+        </is>
+      </c>
+      <c r="E8" s="84" t="n"/>
+      <c r="F8" s="77" t="inlineStr">
+        <is>
+          <t>P1 Critical</t>
+        </is>
+      </c>
+      <c r="G8" s="84" t="n"/>
+      <c r="H8" s="77" t="inlineStr">
+        <is>
+          <t>P2 Urgent</t>
+        </is>
+      </c>
+      <c r="I8" s="84" t="n"/>
+      <c r="J8" s="77" t="inlineStr">
+        <is>
+          <t>P3 Standard</t>
+        </is>
+      </c>
+      <c r="K8" s="84" t="n"/>
+      <c r="L8" s="77" t="inlineStr">
+        <is>
+          <t>Avg Daily Rate</t>
+        </is>
+      </c>
+      <c r="M8" s="84" t="n"/>
       <c r="N8" s="45" t="n"/>
       <c r="P8" s="5" t="n"/>
       <c r="Q8" s="5" t="n"/>
       <c r="R8" s="5" t="n"/>
       <c r="S8" s="5" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="50" customHeight="1" s="21">
       <c r="A9" s="31" t="inlineStr">
         <is>
           <t>TOP INJURY</t>
         </is>
       </c>
-      <c r="F9" s="31" t="inlineStr">
-        <is>
-          <t>TOP MECHANISM</t>
-        </is>
-      </c>
-      <c r="K9" s="31" t="inlineStr">
-        <is>
-          <t>PEAK TIME</t>
-        </is>
-      </c>
+      <c r="B9" s="79">
+        <f>IF(C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P5)*1),IF(C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*1),COUNTA('Data Entry'!A2:A356)))</f>
+        <v/>
+      </c>
+      <c r="C9" s="84" t="n"/>
+      <c r="D9" s="80">
+        <f>IF(C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P5)*('Data Entry'!J2:J356="Yes")*1),IF(C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*('Data Entry'!J2:J356="Yes")*1),COUNTIF('Data Entry'!J2:J356,"Yes")))</f>
+        <v/>
+      </c>
+      <c r="E9" s="84" t="n"/>
+      <c r="F9" s="80">
+        <f>IF(C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P5)*('Data Entry'!I2:I356="P1")*1),IF(C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*('Data Entry'!I2:I356="P1")*1),COUNTIF('Data Entry'!I2:I356,"P1")))</f>
+        <v/>
+      </c>
+      <c r="G9" s="84" t="n"/>
+      <c r="H9" s="81">
+        <f>IF(C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P5)*('Data Entry'!I2:I356="P2")*1),IF(C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*('Data Entry'!I2:I356="P2")*1),COUNTIF('Data Entry'!I2:I356,"P2")))</f>
+        <v/>
+      </c>
+      <c r="I9" s="84" t="n"/>
+      <c r="J9" s="82">
+        <f>IF(C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P5)*('Data Entry'!I2:I356="P3")*1),IF(C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*('Data Entry'!I2:I356="P3")*1),COUNTIF('Data Entry'!I2:I356,"P3")))</f>
+        <v/>
+      </c>
+      <c r="K9" s="84" t="n"/>
+      <c r="L9" s="79">
+        <f>ROUND(IF(C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P5)*1)/7,IF(C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q5)*(YEAR('Data Entry'!A2:A356)=R5)*1)/30,COUNTA('Data Entry'!A2:A356)/365)),1)</f>
+        <v/>
+      </c>
+      <c r="M9" s="84" t="n"/>
       <c r="P9" s="31" t="inlineStr">
         <is>
           <t>P3 RATE</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="32">
-        <f>IFERROR(INDEX(MedicalData[Specific injuries treated],MODE(MATCH(MedicalData[Specific injuries treated],MedicalData[Specific injuries treated],0))),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="32">
-        <f>IFERROR(INDEX(MedicalData[History/Mechanism of injury],MODE(MATCH(MedicalData[History/Mechanism of injury],MedicalData[History/Mechanism of injury],0))),"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="32">
-        <f>IFERROR(INDEX(MedicalData[Time Period],MODE(MATCH(MedicalData[Time Period],MedicalData[Time Period],0))),"")</f>
-        <v/>
+    <row r="11" ht="25" customHeight="1" s="21">
+      <c r="B11" s="85" t="inlineStr">
+        <is>
+          <t>INCIDENT DISTRIBUTION ANALYSIS</t>
+        </is>
       </c>
       <c r="Q11" s="32">
         <f>IFERROR(TEXT(IF($B$2="All Time",COUNTIF(MedicalData[Priority Of Pt],"P3")/COUNTA(MedicalData[Date]),COUNTIFS(MedicalData[Priority Of Pt],"P3",MedicalData[Month],$B$2)/COUNTIF(MedicalData[Month],$B$2)),"0%"),"")</f>
         <v/>
       </c>
     </row>
+    <row r="12">
+      <c r="B12" s="92" t="n"/>
+      <c r="C12" s="92" t="n"/>
+      <c r="D12" s="92" t="n"/>
+      <c r="E12" s="92" t="n"/>
+      <c r="F12" s="92" t="n"/>
+      <c r="G12" s="92" t="n"/>
+      <c r="H12" s="92" t="n"/>
+      <c r="I12" s="92" t="n"/>
+      <c r="J12" s="92" t="n"/>
+      <c r="K12" s="92" t="n"/>
+      <c r="L12" s="92" t="n"/>
+      <c r="M12" s="92" t="n"/>
+      <c r="N12" s="92" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" s="92" t="n"/>
+      <c r="C13" s="92" t="n"/>
+      <c r="D13" s="92" t="n"/>
+      <c r="E13" s="92" t="n"/>
+      <c r="F13" s="92" t="n"/>
+      <c r="G13" s="92" t="n"/>
+      <c r="H13" s="92" t="n"/>
+      <c r="I13" s="92" t="n"/>
+      <c r="J13" s="92" t="n"/>
+      <c r="K13" s="92" t="n"/>
+      <c r="L13" s="92" t="n"/>
+      <c r="M13" s="92" t="n"/>
+      <c r="N13" s="92" t="n"/>
+    </row>
     <row r="14">
       <c r="A14" s="33" t="inlineStr">
         <is>
           <t>PRIORITY BREAKDOWN</t>
         </is>
       </c>
+      <c r="B14" s="92" t="n"/>
+      <c r="C14" s="92" t="n"/>
+      <c r="D14" s="92" t="n"/>
+      <c r="E14" s="92" t="n"/>
+      <c r="F14" s="92" t="n"/>
+      <c r="G14" s="92" t="n"/>
+      <c r="H14" s="92" t="n"/>
+      <c r="I14" s="92" t="n"/>
+      <c r="J14" s="92" t="n"/>
+      <c r="K14" s="92" t="n"/>
+      <c r="L14" s="92" t="n"/>
+      <c r="M14" s="92" t="n"/>
+      <c r="N14" s="92" t="n"/>
+    </row>
+    <row r="15">
+      <c r="B15" s="92" t="n"/>
+      <c r="C15" s="92" t="n"/>
+      <c r="D15" s="92" t="n"/>
+      <c r="E15" s="92" t="n"/>
+      <c r="F15" s="92" t="n"/>
+      <c r="G15" s="92" t="n"/>
+      <c r="H15" s="92" t="n"/>
+      <c r="I15" s="92" t="n"/>
+      <c r="J15" s="92" t="n"/>
+      <c r="K15" s="92" t="n"/>
+      <c r="L15" s="92" t="n"/>
+      <c r="M15" s="92" t="n"/>
+      <c r="N15" s="92" t="n"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -19079,37 +15307,73 @@
           <t>P1 (Critical)</t>
         </is>
       </c>
-      <c r="B16">
+      <c r="B16" s="92">
         <f>IF($B$2="All Time",COUNTIF(MedicalData[Priority Of Pt],"P1"),COUNTIFS(MedicalData[Priority Of Pt],"P1",MedicalData[Month],$B$2))</f>
         <v/>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="C16" s="92" t="n"/>
+      <c r="D16" s="92" t="inlineStr">
         <is>
           <t>P2 (Urgent)</t>
         </is>
       </c>
-      <c r="E16">
+      <c r="E16" s="92">
         <f>IF($B$2="All Time",COUNTIF(MedicalData[Priority Of Pt],"P2"),COUNTIFS(MedicalData[Priority Of Pt],"P2",MedicalData[Month],$B$2))</f>
         <v/>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="F16" s="92" t="n"/>
+      <c r="G16" s="92" t="inlineStr">
         <is>
           <t>P3 (Standard)</t>
         </is>
       </c>
-      <c r="H16">
+      <c r="H16" s="92">
         <f>IF($B$2="All Time",COUNTIF(MedicalData[Priority Of Pt],"P3"),COUNTIFS(MedicalData[Priority Of Pt],"P3",MedicalData[Month],$B$2))</f>
         <v/>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="I16" s="92" t="n"/>
+      <c r="J16" s="92" t="inlineStr">
         <is>
           <t>P4 (Minor)</t>
         </is>
       </c>
-      <c r="K16">
+      <c r="K16" s="92">
         <f>IF($B$2="All Time",COUNTIF(MedicalData[Priority Of Pt],"P4"),COUNTIFS(MedicalData[Priority Of Pt],"P4",MedicalData[Month],$B$2))</f>
         <v/>
       </c>
+      <c r="L16" s="92" t="n"/>
+      <c r="M16" s="92" t="n"/>
+      <c r="N16" s="92" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" s="92" t="n"/>
+      <c r="C17" s="92" t="n"/>
+      <c r="D17" s="92" t="n"/>
+      <c r="E17" s="92" t="n"/>
+      <c r="F17" s="92" t="n"/>
+      <c r="G17" s="92" t="n"/>
+      <c r="H17" s="92" t="n"/>
+      <c r="I17" s="92" t="n"/>
+      <c r="J17" s="92" t="n"/>
+      <c r="K17" s="92" t="n"/>
+      <c r="L17" s="92" t="n"/>
+      <c r="M17" s="92" t="n"/>
+      <c r="N17" s="92" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="92" t="n"/>
+      <c r="C18" s="92" t="n"/>
+      <c r="D18" s="92" t="n"/>
+      <c r="E18" s="92" t="n"/>
+      <c r="F18" s="92" t="n"/>
+      <c r="G18" s="92" t="n"/>
+      <c r="H18" s="92" t="n"/>
+      <c r="I18" s="92" t="n"/>
+      <c r="J18" s="92" t="n"/>
+      <c r="K18" s="92" t="n"/>
+      <c r="L18" s="92" t="n"/>
+      <c r="M18" s="92" t="n"/>
+      <c r="N18" s="92" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="33" t="inlineStr">
@@ -19117,6 +15381,34 @@
           <t>QUICK INSIGHTS</t>
         </is>
       </c>
+      <c r="B19" s="92" t="n"/>
+      <c r="C19" s="92" t="n"/>
+      <c r="D19" s="92" t="n"/>
+      <c r="E19" s="92" t="n"/>
+      <c r="F19" s="92" t="n"/>
+      <c r="G19" s="92" t="n"/>
+      <c r="H19" s="92" t="n"/>
+      <c r="I19" s="92" t="n"/>
+      <c r="J19" s="92" t="n"/>
+      <c r="K19" s="92" t="n"/>
+      <c r="L19" s="92" t="n"/>
+      <c r="M19" s="92" t="n"/>
+      <c r="N19" s="92" t="n"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="92" t="n"/>
+      <c r="C20" s="92" t="n"/>
+      <c r="D20" s="92" t="n"/>
+      <c r="E20" s="92" t="n"/>
+      <c r="F20" s="92" t="n"/>
+      <c r="G20" s="92" t="n"/>
+      <c r="H20" s="92" t="n"/>
+      <c r="I20" s="92" t="n"/>
+      <c r="J20" s="92" t="n"/>
+      <c r="K20" s="92" t="n"/>
+      <c r="L20" s="92" t="n"/>
+      <c r="M20" s="92" t="n"/>
+      <c r="N20" s="92" t="n"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -19124,34 +15416,132 @@
           <t>Busiest Day:</t>
         </is>
       </c>
-      <c r="B21">
+      <c r="B21" s="92">
         <f>IFERROR(INDEX(MedicalData[Day of Week],MODE(MATCH(MedicalData[Day of Week],MedicalData[Day of Week],0))),"")</f>
         <v/>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="C21" s="92" t="n"/>
+      <c r="D21" s="92" t="n"/>
+      <c r="E21" s="92" t="inlineStr">
         <is>
           <t>Top Program:</t>
         </is>
       </c>
-      <c r="F21">
+      <c r="F21" s="92">
         <f>IFERROR(INDEX(MedicalData[Type of program],MODE(MATCH(MedicalData[Type of program],MedicalData[Type of program],0))),"")</f>
         <v/>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="G21" s="92" t="n"/>
+      <c r="H21" s="92" t="n"/>
+      <c r="I21" s="92" t="n"/>
+      <c r="J21" s="92" t="inlineStr">
         <is>
           <t>Main Cause:</t>
         </is>
       </c>
-      <c r="K21">
+      <c r="K21" s="92">
         <f>IFERROR(INDEX(MedicalData[Cause of injury],MODE(MATCH(MedicalData[Cause of injury],MedicalData[Cause of injury],0))),"")</f>
         <v/>
       </c>
+      <c r="L21" s="92" t="n"/>
+      <c r="M21" s="92" t="n"/>
+      <c r="N21" s="92" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="92" t="n"/>
+      <c r="C22" s="92" t="n"/>
+      <c r="D22" s="92" t="n"/>
+      <c r="E22" s="92" t="n"/>
+      <c r="F22" s="92" t="n"/>
+      <c r="G22" s="92" t="n"/>
+      <c r="H22" s="92" t="n"/>
+      <c r="I22" s="92" t="n"/>
+      <c r="J22" s="92" t="n"/>
+      <c r="K22" s="92" t="n"/>
+      <c r="L22" s="92" t="n"/>
+      <c r="M22" s="92" t="n"/>
+      <c r="N22" s="92" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="92" t="n"/>
+      <c r="C23" s="92" t="n"/>
+      <c r="D23" s="92" t="n"/>
+      <c r="E23" s="92" t="n"/>
+      <c r="F23" s="92" t="n"/>
+      <c r="G23" s="92" t="n"/>
+      <c r="H23" s="92" t="n"/>
+      <c r="I23" s="92" t="n"/>
+      <c r="J23" s="92" t="n"/>
+      <c r="K23" s="92" t="n"/>
+      <c r="L23" s="92" t="n"/>
+      <c r="M23" s="92" t="n"/>
+      <c r="N23" s="92" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="92" t="n"/>
+      <c r="C24" s="92" t="n"/>
+      <c r="D24" s="92" t="n"/>
+      <c r="E24" s="92" t="n"/>
+      <c r="F24" s="92" t="n"/>
+      <c r="G24" s="92" t="n"/>
+      <c r="H24" s="92" t="n"/>
+      <c r="I24" s="92" t="n"/>
+      <c r="J24" s="92" t="n"/>
+      <c r="K24" s="92" t="n"/>
+      <c r="L24" s="92" t="n"/>
+      <c r="M24" s="92" t="n"/>
+      <c r="N24" s="92" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="40" t="n"/>
+      <c r="B25" s="92" t="n"/>
+      <c r="C25" s="92" t="n"/>
+      <c r="D25" s="92" t="n"/>
+      <c r="E25" s="92" t="n"/>
+      <c r="F25" s="92" t="n"/>
+      <c r="G25" s="92" t="n"/>
+      <c r="H25" s="92" t="n"/>
+      <c r="I25" s="92" t="n"/>
+      <c r="J25" s="92" t="n"/>
+      <c r="K25" s="92" t="n"/>
+      <c r="L25" s="92" t="n"/>
+      <c r="M25" s="92" t="n"/>
+      <c r="N25" s="92" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="41" t="n"/>
+      <c r="B26" s="92" t="n"/>
+      <c r="C26" s="92" t="n"/>
+      <c r="D26" s="92" t="n"/>
+      <c r="E26" s="92" t="n"/>
+      <c r="F26" s="92" t="n"/>
+      <c r="G26" s="92" t="n"/>
+      <c r="H26" s="92" t="n"/>
+      <c r="I26" s="92" t="n"/>
+      <c r="J26" s="92" t="n"/>
+      <c r="K26" s="92" t="n"/>
+      <c r="L26" s="92" t="n"/>
+      <c r="M26" s="92" t="n"/>
+      <c r="N26" s="92" t="n"/>
+    </row>
+    <row r="27" ht="25" customHeight="1" s="21">
+      <c r="B27" s="85" t="inlineStr">
+        <is>
+          <t>INJURY PATTERNS</t>
+        </is>
+      </c>
+      <c r="C27" s="92" t="n"/>
+      <c r="D27" s="92" t="n"/>
+      <c r="E27" s="92" t="n"/>
+      <c r="F27" s="92" t="n"/>
+      <c r="G27" s="92" t="n"/>
+      <c r="H27" s="92" t="n"/>
+      <c r="I27" s="92" t="n"/>
+      <c r="J27" s="92" t="n"/>
+      <c r="K27" s="92" t="n"/>
+      <c r="L27" s="92" t="n"/>
+      <c r="M27" s="92" t="n"/>
+      <c r="N27" s="92" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="42" t="n"/>
@@ -19160,17 +15550,181 @@
       <c r="D28" s="42" t="n"/>
       <c r="E28" s="42" t="n"/>
       <c r="F28" s="42" t="n"/>
+      <c r="G28" s="92" t="n"/>
+      <c r="H28" s="92" t="n"/>
+      <c r="I28" s="92" t="n"/>
+      <c r="J28" s="92" t="n"/>
+      <c r="K28" s="92" t="n"/>
+      <c r="L28" s="92" t="n"/>
+      <c r="M28" s="92" t="n"/>
+      <c r="N28" s="92" t="n"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="92" t="n"/>
+      <c r="C29" s="92" t="n"/>
+      <c r="D29" s="92" t="n"/>
+      <c r="E29" s="92" t="n"/>
+      <c r="F29" s="92" t="n"/>
+      <c r="G29" s="92" t="n"/>
+      <c r="H29" s="92" t="n"/>
+      <c r="I29" s="92" t="n"/>
+      <c r="J29" s="92" t="n"/>
+      <c r="K29" s="92" t="n"/>
+      <c r="L29" s="92" t="n"/>
+      <c r="M29" s="92" t="n"/>
+      <c r="N29" s="92" t="n"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="92" t="n"/>
+      <c r="C30" s="92" t="n"/>
+      <c r="D30" s="92" t="n"/>
+      <c r="E30" s="92" t="n"/>
+      <c r="F30" s="92" t="n"/>
+      <c r="G30" s="92" t="n"/>
+      <c r="H30" s="92" t="n"/>
+      <c r="I30" s="92" t="n"/>
+      <c r="J30" s="92" t="n"/>
+      <c r="K30" s="92" t="n"/>
+      <c r="L30" s="92" t="n"/>
+      <c r="M30" s="92" t="n"/>
+      <c r="N30" s="92" t="n"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="92" t="n"/>
+      <c r="C31" s="92" t="n"/>
+      <c r="D31" s="92" t="n"/>
+      <c r="E31" s="92" t="n"/>
+      <c r="F31" s="92" t="n"/>
+      <c r="G31" s="92" t="n"/>
+      <c r="H31" s="92" t="n"/>
+      <c r="I31" s="92" t="n"/>
+      <c r="J31" s="92" t="n"/>
+      <c r="K31" s="92" t="n"/>
+      <c r="L31" s="92" t="n"/>
+      <c r="M31" s="92" t="n"/>
+      <c r="N31" s="92" t="n"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="92" t="n"/>
+      <c r="C32" s="92" t="n"/>
+      <c r="D32" s="92" t="n"/>
+      <c r="E32" s="92" t="n"/>
+      <c r="F32" s="92" t="n"/>
+      <c r="G32" s="92" t="n"/>
+      <c r="H32" s="92" t="n"/>
+      <c r="I32" s="92" t="n"/>
+      <c r="J32" s="92" t="n"/>
+      <c r="K32" s="92" t="n"/>
+      <c r="L32" s="92" t="n"/>
+      <c r="M32" s="92" t="n"/>
+      <c r="N32" s="92" t="n"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="92" t="n"/>
+      <c r="C33" s="92" t="n"/>
+      <c r="D33" s="92" t="n"/>
+      <c r="E33" s="92" t="n"/>
+      <c r="F33" s="92" t="n"/>
+      <c r="G33" s="92" t="n"/>
+      <c r="H33" s="92" t="n"/>
+      <c r="I33" s="92" t="n"/>
+      <c r="J33" s="92" t="n"/>
+      <c r="K33" s="92" t="n"/>
+      <c r="L33" s="92" t="n"/>
+      <c r="M33" s="92" t="n"/>
+      <c r="N33" s="92" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="30" t="n"/>
-      <c r="B34" s="30" t="n"/>
-      <c r="C34" s="30" t="n"/>
+      <c r="B34" s="93" t="n"/>
+      <c r="C34" s="93" t="n"/>
+      <c r="D34" s="92" t="n"/>
+      <c r="E34" s="92" t="n"/>
+      <c r="F34" s="92" t="n"/>
+      <c r="G34" s="92" t="n"/>
+      <c r="H34" s="92" t="n"/>
+      <c r="I34" s="92" t="n"/>
+      <c r="J34" s="92" t="n"/>
+      <c r="K34" s="92" t="n"/>
+      <c r="L34" s="92" t="n"/>
+      <c r="M34" s="92" t="n"/>
+      <c r="N34" s="92" t="n"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="92" t="n"/>
+      <c r="C35" s="92" t="n"/>
+      <c r="D35" s="92" t="n"/>
+      <c r="E35" s="92" t="n"/>
+      <c r="F35" s="92" t="n"/>
+      <c r="G35" s="92" t="n"/>
+      <c r="H35" s="92" t="n"/>
+      <c r="I35" s="92" t="n"/>
+      <c r="J35" s="92" t="n"/>
+      <c r="K35" s="92" t="n"/>
+      <c r="L35" s="92" t="n"/>
+      <c r="M35" s="92" t="n"/>
+      <c r="N35" s="92" t="n"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="92" t="n"/>
+      <c r="C36" s="92" t="n"/>
+      <c r="D36" s="92" t="n"/>
+      <c r="E36" s="92" t="n"/>
+      <c r="F36" s="92" t="n"/>
+      <c r="G36" s="92" t="n"/>
+      <c r="H36" s="92" t="n"/>
+      <c r="I36" s="92" t="n"/>
+      <c r="J36" s="92" t="n"/>
+      <c r="K36" s="92" t="n"/>
+      <c r="L36" s="92" t="n"/>
+      <c r="M36" s="92" t="n"/>
+      <c r="N36" s="92" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="40" t="n"/>
+      <c r="B37" s="92" t="n"/>
+      <c r="C37" s="92" t="n"/>
+      <c r="D37" s="92" t="n"/>
+      <c r="E37" s="92" t="n"/>
+      <c r="F37" s="92" t="n"/>
+      <c r="G37" s="92" t="n"/>
+      <c r="H37" s="92" t="n"/>
+      <c r="I37" s="92" t="n"/>
+      <c r="J37" s="92" t="n"/>
+      <c r="K37" s="92" t="n"/>
+      <c r="L37" s="92" t="n"/>
+      <c r="M37" s="92" t="n"/>
+      <c r="N37" s="92" t="n"/>
     </row>
     <row r="38">
-      <c r="B38" s="33" t="n"/>
+      <c r="B38" s="94" t="n"/>
+      <c r="C38" s="92" t="n"/>
+      <c r="D38" s="92" t="n"/>
+      <c r="E38" s="92" t="n"/>
+      <c r="F38" s="92" t="n"/>
+      <c r="G38" s="92" t="n"/>
+      <c r="H38" s="92" t="n"/>
+      <c r="I38" s="92" t="n"/>
+      <c r="J38" s="92" t="n"/>
+      <c r="K38" s="92" t="n"/>
+      <c r="L38" s="92" t="n"/>
+      <c r="M38" s="92" t="n"/>
+      <c r="N38" s="92" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="92" t="n"/>
+      <c r="C39" s="92" t="n"/>
+      <c r="D39" s="92" t="n"/>
+      <c r="E39" s="92" t="n"/>
+      <c r="F39" s="92" t="n"/>
+      <c r="G39" s="92" t="n"/>
+      <c r="H39" s="92" t="n"/>
+      <c r="I39" s="92" t="n"/>
+      <c r="J39" s="92" t="n"/>
+      <c r="K39" s="92" t="n"/>
+      <c r="L39" s="92" t="n"/>
+      <c r="M39" s="92" t="n"/>
+      <c r="N39" s="92" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="42" t="n"/>
@@ -19179,18 +15733,274 @@
       <c r="D40" s="42" t="n"/>
       <c r="E40" s="42" t="n"/>
       <c r="F40" s="42" t="n"/>
+      <c r="G40" s="92" t="n"/>
+      <c r="H40" s="92" t="n"/>
+      <c r="I40" s="92" t="n"/>
+      <c r="J40" s="92" t="n"/>
+      <c r="K40" s="92" t="n"/>
+      <c r="L40" s="92" t="n"/>
+      <c r="M40" s="92" t="n"/>
+      <c r="N40" s="92" t="n"/>
     </row>
     <row r="41">
-      <c r="F41" s="30" t="n"/>
+      <c r="B41" s="92" t="n"/>
+      <c r="C41" s="92" t="n"/>
+      <c r="D41" s="92" t="n"/>
+      <c r="E41" s="92" t="n"/>
+      <c r="F41" s="93" t="n"/>
+      <c r="G41" s="92" t="n"/>
+      <c r="H41" s="92" t="n"/>
+      <c r="I41" s="92" t="n"/>
+      <c r="J41" s="92" t="n"/>
+      <c r="K41" s="92" t="n"/>
+      <c r="L41" s="92" t="n"/>
+      <c r="M41" s="92" t="n"/>
+      <c r="N41" s="92" t="n"/>
     </row>
     <row r="42">
-      <c r="F42" s="30" t="n"/>
+      <c r="B42" s="92" t="n"/>
+      <c r="C42" s="92" t="n"/>
+      <c r="D42" s="92" t="n"/>
+      <c r="E42" s="92" t="n"/>
+      <c r="F42" s="93" t="n"/>
+      <c r="G42" s="92" t="n"/>
+      <c r="H42" s="92" t="n"/>
+      <c r="I42" s="92" t="n"/>
+      <c r="J42" s="92" t="n"/>
+      <c r="K42" s="92" t="n"/>
+      <c r="L42" s="92" t="n"/>
+      <c r="M42" s="92" t="n"/>
+      <c r="N42" s="92" t="n"/>
+    </row>
+    <row r="43" ht="25" customHeight="1" s="21">
+      <c r="B43" s="85" t="inlineStr">
+        <is>
+          <t>SEVERITY &amp; PROGRAM ANALYSIS</t>
+        </is>
+      </c>
+      <c r="C43" s="92" t="n"/>
+      <c r="D43" s="92" t="n"/>
+      <c r="E43" s="92" t="n"/>
+      <c r="F43" s="92" t="n"/>
+      <c r="G43" s="92" t="n"/>
+      <c r="H43" s="92" t="n"/>
+      <c r="I43" s="92" t="n"/>
+      <c r="J43" s="92" t="n"/>
+      <c r="K43" s="92" t="n"/>
+      <c r="L43" s="92" t="n"/>
+      <c r="M43" s="92" t="n"/>
+      <c r="N43" s="92" t="n"/>
     </row>
     <row r="44">
-      <c r="F44" s="30" t="n"/>
+      <c r="B44" s="92" t="n"/>
+      <c r="C44" s="92" t="n"/>
+      <c r="D44" s="92" t="n"/>
+      <c r="E44" s="92" t="n"/>
+      <c r="F44" s="93" t="n"/>
+      <c r="G44" s="92" t="n"/>
+      <c r="H44" s="92" t="n"/>
+      <c r="I44" s="92" t="n"/>
+      <c r="J44" s="92" t="n"/>
+      <c r="K44" s="92" t="n"/>
+      <c r="L44" s="92" t="n"/>
+      <c r="M44" s="92" t="n"/>
+      <c r="N44" s="92" t="n"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="92" t="n"/>
+      <c r="C45" s="92" t="n"/>
+      <c r="D45" s="92" t="n"/>
+      <c r="E45" s="92" t="n"/>
+      <c r="F45" s="92" t="n"/>
+      <c r="G45" s="92" t="n"/>
+      <c r="H45" s="92" t="n"/>
+      <c r="I45" s="92" t="n"/>
+      <c r="J45" s="92" t="n"/>
+      <c r="K45" s="92" t="n"/>
+      <c r="L45" s="92" t="n"/>
+      <c r="M45" s="92" t="n"/>
+      <c r="N45" s="92" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="43" t="n"/>
+      <c r="B46" s="92" t="n"/>
+      <c r="C46" s="92" t="n"/>
+      <c r="D46" s="92" t="n"/>
+      <c r="E46" s="92" t="n"/>
+      <c r="F46" s="92" t="n"/>
+      <c r="G46" s="92" t="n"/>
+      <c r="H46" s="92" t="n"/>
+      <c r="I46" s="92" t="n"/>
+      <c r="J46" s="92" t="n"/>
+      <c r="K46" s="92" t="n"/>
+      <c r="L46" s="92" t="n"/>
+      <c r="M46" s="92" t="n"/>
+      <c r="N46" s="92" t="n"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="92" t="n"/>
+      <c r="C47" s="92" t="n"/>
+      <c r="D47" s="92" t="n"/>
+      <c r="E47" s="92" t="n"/>
+      <c r="F47" s="92" t="n"/>
+      <c r="G47" s="92" t="n"/>
+      <c r="H47" s="92" t="n"/>
+      <c r="I47" s="92" t="n"/>
+      <c r="J47" s="92" t="n"/>
+      <c r="K47" s="92" t="n"/>
+      <c r="L47" s="92" t="n"/>
+      <c r="M47" s="92" t="n"/>
+      <c r="N47" s="92" t="n"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="92" t="n"/>
+      <c r="C48" s="92" t="n"/>
+      <c r="D48" s="92" t="n"/>
+      <c r="E48" s="92" t="n"/>
+      <c r="F48" s="92" t="n"/>
+      <c r="G48" s="92" t="n"/>
+      <c r="H48" s="92" t="n"/>
+      <c r="I48" s="92" t="n"/>
+      <c r="J48" s="92" t="n"/>
+      <c r="K48" s="92" t="n"/>
+      <c r="L48" s="92" t="n"/>
+      <c r="M48" s="92" t="n"/>
+      <c r="N48" s="92" t="n"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="92" t="n"/>
+      <c r="C49" s="92" t="n"/>
+      <c r="D49" s="92" t="n"/>
+      <c r="E49" s="92" t="n"/>
+      <c r="F49" s="92" t="n"/>
+      <c r="G49" s="92" t="n"/>
+      <c r="H49" s="92" t="n"/>
+      <c r="I49" s="92" t="n"/>
+      <c r="J49" s="92" t="n"/>
+      <c r="K49" s="92" t="n"/>
+      <c r="L49" s="92" t="n"/>
+      <c r="M49" s="92" t="n"/>
+      <c r="N49" s="92" t="n"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="92" t="n"/>
+      <c r="C50" s="92" t="n"/>
+      <c r="D50" s="92" t="n"/>
+      <c r="E50" s="92" t="n"/>
+      <c r="F50" s="92" t="n"/>
+      <c r="G50" s="92" t="n"/>
+      <c r="H50" s="92" t="n"/>
+      <c r="I50" s="92" t="n"/>
+      <c r="J50" s="92" t="n"/>
+      <c r="K50" s="92" t="n"/>
+      <c r="L50" s="92" t="n"/>
+      <c r="M50" s="92" t="n"/>
+      <c r="N50" s="92" t="n"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="92" t="n"/>
+      <c r="C51" s="92" t="n"/>
+      <c r="D51" s="92" t="n"/>
+      <c r="E51" s="92" t="n"/>
+      <c r="F51" s="92" t="n"/>
+      <c r="G51" s="92" t="n"/>
+      <c r="H51" s="92" t="n"/>
+      <c r="I51" s="92" t="n"/>
+      <c r="J51" s="92" t="n"/>
+      <c r="K51" s="92" t="n"/>
+      <c r="L51" s="92" t="n"/>
+      <c r="M51" s="92" t="n"/>
+      <c r="N51" s="92" t="n"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="92" t="n"/>
+      <c r="C52" s="92" t="n"/>
+      <c r="D52" s="92" t="n"/>
+      <c r="E52" s="92" t="n"/>
+      <c r="F52" s="92" t="n"/>
+      <c r="G52" s="92" t="n"/>
+      <c r="H52" s="92" t="n"/>
+      <c r="I52" s="92" t="n"/>
+      <c r="J52" s="92" t="n"/>
+      <c r="K52" s="92" t="n"/>
+      <c r="L52" s="92" t="n"/>
+      <c r="M52" s="92" t="n"/>
+      <c r="N52" s="92" t="n"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="92" t="n"/>
+      <c r="C53" s="92" t="n"/>
+      <c r="D53" s="92" t="n"/>
+      <c r="E53" s="92" t="n"/>
+      <c r="F53" s="92" t="n"/>
+      <c r="G53" s="92" t="n"/>
+      <c r="H53" s="92" t="n"/>
+      <c r="I53" s="92" t="n"/>
+      <c r="J53" s="92" t="n"/>
+      <c r="K53" s="92" t="n"/>
+      <c r="L53" s="92" t="n"/>
+      <c r="M53" s="92" t="n"/>
+      <c r="N53" s="92" t="n"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="92" t="n"/>
+      <c r="C54" s="92" t="n"/>
+      <c r="D54" s="92" t="n"/>
+      <c r="E54" s="92" t="n"/>
+      <c r="F54" s="92" t="n"/>
+      <c r="G54" s="92" t="n"/>
+      <c r="H54" s="92" t="n"/>
+      <c r="I54" s="92" t="n"/>
+      <c r="J54" s="92" t="n"/>
+      <c r="K54" s="92" t="n"/>
+      <c r="L54" s="92" t="n"/>
+      <c r="M54" s="92" t="n"/>
+      <c r="N54" s="92" t="n"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="92" t="n"/>
+      <c r="C55" s="92" t="n"/>
+      <c r="D55" s="92" t="n"/>
+      <c r="E55" s="92" t="n"/>
+      <c r="F55" s="92" t="n"/>
+      <c r="G55" s="92" t="n"/>
+      <c r="H55" s="92" t="n"/>
+      <c r="I55" s="92" t="n"/>
+      <c r="J55" s="92" t="n"/>
+      <c r="K55" s="92" t="n"/>
+      <c r="L55" s="92" t="n"/>
+      <c r="M55" s="92" t="n"/>
+      <c r="N55" s="92" t="n"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="92" t="n"/>
+      <c r="C56" s="92" t="n"/>
+      <c r="D56" s="92" t="n"/>
+      <c r="E56" s="92" t="n"/>
+      <c r="F56" s="92" t="n"/>
+      <c r="G56" s="92" t="n"/>
+      <c r="H56" s="92" t="n"/>
+      <c r="I56" s="92" t="n"/>
+      <c r="J56" s="92" t="n"/>
+      <c r="K56" s="92" t="n"/>
+      <c r="L56" s="92" t="n"/>
+      <c r="M56" s="92" t="n"/>
+      <c r="N56" s="92" t="n"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="92" t="n"/>
+      <c r="C57" s="92" t="n"/>
+      <c r="D57" s="92" t="n"/>
+      <c r="E57" s="92" t="n"/>
+      <c r="F57" s="92" t="n"/>
+      <c r="G57" s="92" t="n"/>
+      <c r="H57" s="92" t="n"/>
+      <c r="I57" s="92" t="n"/>
+      <c r="J57" s="92" t="n"/>
+      <c r="K57" s="92" t="n"/>
+      <c r="L57" s="92" t="n"/>
+      <c r="M57" s="92" t="n"/>
+      <c r="N57" s="92" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="64" t="inlineStr">
@@ -19198,6 +16008,53 @@
           <t>ADDITIONAL ANALYSIS</t>
         </is>
       </c>
+      <c r="B58" s="92" t="n"/>
+      <c r="C58" s="92" t="n"/>
+      <c r="D58" s="92" t="n"/>
+      <c r="E58" s="92" t="n"/>
+      <c r="F58" s="92" t="n"/>
+      <c r="G58" s="92" t="n"/>
+      <c r="H58" s="92" t="n"/>
+      <c r="I58" s="92" t="n"/>
+      <c r="J58" s="92" t="n"/>
+      <c r="K58" s="92" t="n"/>
+      <c r="L58" s="92" t="n"/>
+      <c r="M58" s="92" t="n"/>
+      <c r="N58" s="92" t="n"/>
+    </row>
+    <row r="59" ht="25" customHeight="1" s="21">
+      <c r="B59" s="85" t="inlineStr">
+        <is>
+          <t>OPERATIONAL INSIGHTS</t>
+        </is>
+      </c>
+      <c r="C59" s="92" t="n"/>
+      <c r="D59" s="92" t="n"/>
+      <c r="E59" s="92" t="n"/>
+      <c r="F59" s="92" t="n"/>
+      <c r="G59" s="92" t="n"/>
+      <c r="H59" s="92" t="n"/>
+      <c r="I59" s="92" t="n"/>
+      <c r="J59" s="92" t="n"/>
+      <c r="K59" s="92" t="n"/>
+      <c r="L59" s="92" t="n"/>
+      <c r="M59" s="92" t="n"/>
+      <c r="N59" s="92" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="92" t="n"/>
+      <c r="C60" s="92" t="n"/>
+      <c r="D60" s="92" t="n"/>
+      <c r="E60" s="92" t="n"/>
+      <c r="F60" s="92" t="n"/>
+      <c r="G60" s="92" t="n"/>
+      <c r="H60" s="92" t="n"/>
+      <c r="I60" s="92" t="n"/>
+      <c r="J60" s="92" t="n"/>
+      <c r="K60" s="92" t="n"/>
+      <c r="L60" s="92" t="n"/>
+      <c r="M60" s="92" t="n"/>
+      <c r="N60" s="92" t="n"/>
     </row>
     <row r="61" ht="23.25" customHeight="1" s="21">
       <c r="A61" s="20" t="inlineStr">
@@ -19205,6 +16062,34 @@
           <t>🚨 AUTOMATED SAFETY ALERTS</t>
         </is>
       </c>
+      <c r="B61" s="92" t="n"/>
+      <c r="C61" s="92" t="n"/>
+      <c r="D61" s="92" t="n"/>
+      <c r="E61" s="92" t="n"/>
+      <c r="F61" s="92" t="n"/>
+      <c r="G61" s="92" t="n"/>
+      <c r="H61" s="92" t="n"/>
+      <c r="I61" s="92" t="n"/>
+      <c r="J61" s="92" t="n"/>
+      <c r="K61" s="92" t="n"/>
+      <c r="L61" s="92" t="n"/>
+      <c r="M61" s="92" t="n"/>
+      <c r="N61" s="92" t="n"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="92" t="n"/>
+      <c r="C62" s="92" t="n"/>
+      <c r="D62" s="92" t="n"/>
+      <c r="E62" s="92" t="n"/>
+      <c r="F62" s="92" t="n"/>
+      <c r="G62" s="92" t="n"/>
+      <c r="H62" s="92" t="n"/>
+      <c r="I62" s="92" t="n"/>
+      <c r="J62" s="92" t="n"/>
+      <c r="K62" s="92" t="n"/>
+      <c r="L62" s="92" t="n"/>
+      <c r="M62" s="92" t="n"/>
+      <c r="N62" s="92" t="n"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -19212,12 +16097,52 @@
           <t>Alert 1: High-Risk Venue</t>
         </is>
       </c>
+      <c r="B63" s="92" t="n"/>
+      <c r="C63" s="92" t="n"/>
+      <c r="D63" s="92" t="n"/>
+      <c r="E63" s="92" t="n"/>
+      <c r="F63" s="92" t="n"/>
+      <c r="G63" s="92" t="n"/>
+      <c r="H63" s="92" t="n"/>
+      <c r="I63" s="92" t="n"/>
+      <c r="J63" s="92" t="n"/>
+      <c r="K63" s="92" t="n"/>
+      <c r="L63" s="92" t="n"/>
+      <c r="M63" s="92" t="n"/>
+      <c r="N63" s="92" t="n"/>
     </row>
     <row r="64">
-      <c r="B64">
+      <c r="B64" s="92">
         <f>"WARNING: "&amp;INDEX(MedicalData[Site],MODE(MATCH(MedicalData[Site],MedicalData[Site],0)))&amp;" has "&amp;COUNTIF(MedicalData[Site],INDEX(MedicalData[Site],MODE(MATCH(MedicalData[Site],MedicalData[Site],0))))&amp;" incidents ("&amp;TEXT(COUNTIF(MedicalData[Site],INDEX(MedicalData[Site],MODE(MATCH(MedicalData[Site],MedicalData[Site],0))))/COUNTA(MedicalData[Date]),"0%")&amp;" of total)"</f>
         <v/>
       </c>
+      <c r="C64" s="92" t="n"/>
+      <c r="D64" s="92" t="n"/>
+      <c r="E64" s="92" t="n"/>
+      <c r="F64" s="92" t="n"/>
+      <c r="G64" s="92" t="n"/>
+      <c r="H64" s="92" t="n"/>
+      <c r="I64" s="92" t="n"/>
+      <c r="J64" s="92" t="n"/>
+      <c r="K64" s="92" t="n"/>
+      <c r="L64" s="92" t="n"/>
+      <c r="M64" s="92" t="n"/>
+      <c r="N64" s="92" t="n"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="92" t="n"/>
+      <c r="C65" s="92" t="n"/>
+      <c r="D65" s="92" t="n"/>
+      <c r="E65" s="92" t="n"/>
+      <c r="F65" s="92" t="n"/>
+      <c r="G65" s="92" t="n"/>
+      <c r="H65" s="92" t="n"/>
+      <c r="I65" s="92" t="n"/>
+      <c r="J65" s="92" t="n"/>
+      <c r="K65" s="92" t="n"/>
+      <c r="L65" s="92" t="n"/>
+      <c r="M65" s="92" t="n"/>
+      <c r="N65" s="92" t="n"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -19225,12 +16150,52 @@
           <t>Alert 2: Ankle Injuries</t>
         </is>
       </c>
+      <c r="B66" s="92" t="n"/>
+      <c r="C66" s="92" t="n"/>
+      <c r="D66" s="92" t="n"/>
+      <c r="E66" s="92" t="n"/>
+      <c r="F66" s="92" t="n"/>
+      <c r="G66" s="92" t="n"/>
+      <c r="H66" s="92" t="n"/>
+      <c r="I66" s="92" t="n"/>
+      <c r="J66" s="92" t="n"/>
+      <c r="K66" s="92" t="n"/>
+      <c r="L66" s="92" t="n"/>
+      <c r="M66" s="92" t="n"/>
+      <c r="N66" s="92" t="n"/>
     </row>
     <row r="67">
-      <c r="B67">
+      <c r="B67" s="92">
         <f>IF(COUNTIF(MedicalData[Specific injuries treated],"*Ankle*")&gt;=5,"⚠ HIGH: "&amp;COUNTIF(MedicalData[Specific injuries treated],"*Ankle*")&amp;" ankle injuries detected. Implement preventive measures.","✓ Ankle injury rate acceptable")</f>
         <v/>
       </c>
+      <c r="C67" s="92" t="n"/>
+      <c r="D67" s="92" t="n"/>
+      <c r="E67" s="92" t="n"/>
+      <c r="F67" s="92" t="n"/>
+      <c r="G67" s="92" t="n"/>
+      <c r="H67" s="92" t="n"/>
+      <c r="I67" s="92" t="n"/>
+      <c r="J67" s="92" t="n"/>
+      <c r="K67" s="92" t="n"/>
+      <c r="L67" s="92" t="n"/>
+      <c r="M67" s="92" t="n"/>
+      <c r="N67" s="92" t="n"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="92" t="n"/>
+      <c r="C68" s="92" t="n"/>
+      <c r="D68" s="92" t="n"/>
+      <c r="E68" s="92" t="n"/>
+      <c r="F68" s="92" t="n"/>
+      <c r="G68" s="92" t="n"/>
+      <c r="H68" s="92" t="n"/>
+      <c r="I68" s="92" t="n"/>
+      <c r="J68" s="92" t="n"/>
+      <c r="K68" s="92" t="n"/>
+      <c r="L68" s="92" t="n"/>
+      <c r="M68" s="92" t="n"/>
+      <c r="N68" s="92" t="n"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -19238,12 +16203,52 @@
           <t>Alert 3: Player Contact</t>
         </is>
       </c>
+      <c r="B69" s="92" t="n"/>
+      <c r="C69" s="92" t="n"/>
+      <c r="D69" s="92" t="n"/>
+      <c r="E69" s="92" t="n"/>
+      <c r="F69" s="92" t="n"/>
+      <c r="G69" s="92" t="n"/>
+      <c r="H69" s="92" t="n"/>
+      <c r="I69" s="92" t="n"/>
+      <c r="J69" s="92" t="n"/>
+      <c r="K69" s="92" t="n"/>
+      <c r="L69" s="92" t="n"/>
+      <c r="M69" s="92" t="n"/>
+      <c r="N69" s="92" t="n"/>
     </row>
     <row r="70">
-      <c r="B70">
+      <c r="B70" s="92">
         <f>IF(COUNTIF(MedicalData[History/Mechanism of injury],"Player-to-Player")&gt;=5,"⚠ ALERT: "&amp;COUNTIF(MedicalData[History/Mechanism of injury],"Player-to-Player")&amp;" player-to-player incidents. Review supervision.","✓ Player contact incidents within normal range")</f>
         <v/>
       </c>
+      <c r="C70" s="92" t="n"/>
+      <c r="D70" s="92" t="n"/>
+      <c r="E70" s="92" t="n"/>
+      <c r="F70" s="92" t="n"/>
+      <c r="G70" s="92" t="n"/>
+      <c r="H70" s="92" t="n"/>
+      <c r="I70" s="92" t="n"/>
+      <c r="J70" s="92" t="n"/>
+      <c r="K70" s="92" t="n"/>
+      <c r="L70" s="92" t="n"/>
+      <c r="M70" s="92" t="n"/>
+      <c r="N70" s="92" t="n"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="92" t="n"/>
+      <c r="C71" s="92" t="n"/>
+      <c r="D71" s="92" t="n"/>
+      <c r="E71" s="92" t="n"/>
+      <c r="F71" s="92" t="n"/>
+      <c r="G71" s="92" t="n"/>
+      <c r="H71" s="92" t="n"/>
+      <c r="I71" s="92" t="n"/>
+      <c r="J71" s="92" t="n"/>
+      <c r="K71" s="92" t="n"/>
+      <c r="L71" s="92" t="n"/>
+      <c r="M71" s="92" t="n"/>
+      <c r="N71" s="92" t="n"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -19251,17 +16256,77 @@
           <t>Alert 4: Minor Involvement</t>
         </is>
       </c>
+      <c r="B72" s="92" t="n"/>
+      <c r="C72" s="92" t="n"/>
+      <c r="D72" s="92" t="n"/>
+      <c r="E72" s="92" t="n"/>
+      <c r="F72" s="92" t="n"/>
+      <c r="G72" s="92" t="n"/>
+      <c r="H72" s="92" t="n"/>
+      <c r="I72" s="92" t="n"/>
+      <c r="J72" s="92" t="n"/>
+      <c r="K72" s="92" t="n"/>
+      <c r="L72" s="92" t="n"/>
+      <c r="M72" s="92" t="n"/>
+      <c r="N72" s="92" t="n"/>
     </row>
     <row r="73">
-      <c r="B73">
+      <c r="B73" s="92">
         <f>IF(COUNTIFS(MedicalData[Age],"&lt;18")&gt;=4,"ℹ INFO: "&amp;COUNTIFS(MedicalData[Age],"&lt;18")&amp;" incidents involved minors. Ensure age-appropriate safety.","✓ Minor involvement acceptable")</f>
         <v/>
       </c>
+      <c r="C73" s="92" t="n"/>
+      <c r="D73" s="92" t="n"/>
+      <c r="E73" s="92" t="n"/>
+      <c r="F73" s="92" t="n"/>
+      <c r="G73" s="92" t="n"/>
+      <c r="H73" s="92" t="n"/>
+      <c r="I73" s="92" t="n"/>
+      <c r="J73" s="92" t="n"/>
+      <c r="K73" s="92" t="n"/>
+      <c r="L73" s="92" t="n"/>
+      <c r="M73" s="92" t="n"/>
+      <c r="N73" s="92" t="n"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="92" t="n"/>
+      <c r="C74" s="92" t="n"/>
+      <c r="D74" s="92" t="n"/>
+      <c r="E74" s="92" t="n"/>
+      <c r="F74" s="92" t="n"/>
+      <c r="G74" s="92" t="n"/>
+      <c r="H74" s="92" t="n"/>
+      <c r="I74" s="92" t="n"/>
+      <c r="J74" s="92" t="n"/>
+      <c r="K74" s="92" t="n"/>
+      <c r="L74" s="92" t="n"/>
+      <c r="M74" s="92" t="n"/>
+      <c r="N74" s="92" t="n"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="92" t="n"/>
+      <c r="C75" s="92" t="n"/>
+      <c r="D75" s="92" t="n"/>
+      <c r="E75" s="92" t="n"/>
+      <c r="F75" s="92" t="n"/>
+      <c r="G75" s="92" t="n"/>
+      <c r="H75" s="92" t="n"/>
+      <c r="I75" s="92" t="n"/>
+      <c r="J75" s="92" t="n"/>
+      <c r="K75" s="92" t="n"/>
+      <c r="L75" s="92" t="n"/>
+      <c r="M75" s="92" t="n"/>
+      <c r="N75" s="92" t="n"/>
     </row>
     <row r="76" ht="21" customHeight="1" s="21">
       <c r="A76" s="22" t="inlineStr">
         <is>
           <t>📋 SAFETY RECOMMENDATIONS</t>
+        </is>
+      </c>
+      <c r="B76" s="86" t="inlineStr">
+        <is>
+          <t>Generated by Medical Incidents Dashboard System | Data refreshes automatically based on filter selections</t>
         </is>
       </c>
     </row>
@@ -19717,12 +16782,30 @@
       <c r="A109" s="43" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A76:N76"/>
-    <mergeCell ref="A61:N61"/>
-    <mergeCell ref="A58:D58"/>
+  <mergeCells count="21">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B76:N76"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B59:N59"/>
+    <mergeCell ref="B27:N27"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B11:N11"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="8">
     <dataValidation sqref="B4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Selection" error="Select: Monthly, Weekly, or Quarterly" type="list">
       <formula1>=Lists!$G$2:$G$4</formula1>
     </dataValidation>
@@ -19735,8 +16818,21 @@
     <dataValidation sqref="K4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" error="Select Q1, Q2, Q3, or Q4" type="list">
       <formula1>=Lists!$I$2:$I$5</formula1>
     </dataValidation>
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" errorTitle="Invalid Selection" error="Please select a valid report type" type="list">
+      <formula1>"Monthly,Weekly,Quarterly"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Lists!$E$2:$E$25</formula1>
+    </dataValidation>
+    <dataValidation sqref="G5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Week 1,Week 2,Week 3,Week 4,Week 5"</formula1>
+    </dataValidation>
+    <dataValidation sqref="K5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Q1,Q2,Q3,Q4"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -6,21 +6,23 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1245" yWindow="240" windowWidth="26430" windowHeight="15060" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Data Entry" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Monthly Stats" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Venue Analysis" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Age Analysis" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Injury Analysis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Mechanism Analysis" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Program Analysis" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Time Analysis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Lists" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Severity Analysis" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Chart Data" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Dashboard Pro" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data Entry" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Monthly Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Venue Analysis" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Age Analysis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Injury Analysis" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mechanism Analysis" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Program Analysis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Time Analysis" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Lists" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Severity Analysis" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Dashboard'!$A$1:$O$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Dashboard'!$A$1:$O$76</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -31,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="47">
+  <fonts count="59">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -286,8 +288,77 @@
       <color rgb="00333333"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Arial Black"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="22"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00778DA9"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="000D6EFD"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00666666"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="000D6EFD"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00DC3545"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFC107"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00198754"/>
+      <sz val="28"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <i val="1"/>
+      <color rgb="00888888"/>
+      <sz val="8"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
@@ -378,8 +449,26 @@
         <bgColor rgb="00FAFAFA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000D1B2A"/>
+        <bgColor rgb="000D1B2A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00415A77"/>
+        <bgColor rgb="00415A77"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F8F9FA"/>
+        <bgColor rgb="00F8F9FA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -577,11 +666,486 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="medium">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="001B263B"/>
+      </left>
+      <right style="medium">
+        <color rgb="001B263B"/>
+      </right>
+      <top style="medium">
+        <color rgb="001B263B"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="001B263B"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00415A77"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00415A77"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="000D1B2A"/>
+      </left>
+      <right style="medium">
+        <color rgb="000D1B2A"/>
+      </right>
+      <top style="medium">
+        <color rgb="000D1B2A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="000D1B2A"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top>
+        <color rgb="00415A77"/>
+      </top>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top>
+        <color rgb="00415A77"/>
+      </top>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top>
+        <color rgb="00415A77"/>
+      </top>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top>
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <top>
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top>
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="000D1B2A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="000D1B2A"/>
+      </right>
+      <top style="medium">
+        <color rgb="000D1B2A"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="000D1B2A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="000D1B2A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="000D1B2A"/>
+      </right>
+      <top style="medium">
+        <color rgb="000D1B2A"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="000D1B2A"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -761,6 +1325,93 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="15" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="15" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="55" fillId="15" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="15" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="17" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="45" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="46" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="48" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="50" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="53" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -931,6 +1582,564 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Age Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!E5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$D$6:$D$10</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$E$6:$E$10</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+          <showCatName val="1"/>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Injury Mechanisms</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!B19</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$A$20:$A$26</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$B$20:$B$26</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Time of Day</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!E19</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$D$20:$D$23</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$E$20:$E$23</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Priority Distribution</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!H31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$G$32:$G$35</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$H$32:$H$35</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showCatName val="1"/>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Program Type</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!K31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$J$32:$J$36</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$K$32:$K$36</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Day of Week</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!N31</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$M$32:$M$38</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$N$32:$N$38</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hospital Transport Required</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pie3DChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!Q43</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$P$44:$P$45</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$Q$44:$Q$45</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="1"/>
+          <showCatName val="1"/>
+          <showPercent val="1"/>
+        </dLbls>
+      </pie3DChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -977,7 +2186,6 @@
           </val>
         </ser>
         <dLbls>
-          <showVal val="0"/>
           <showCatName val="1"/>
           <showPercent val="1"/>
         </dLbls>
@@ -1182,6 +2390,7 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1242,6 +2451,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="11"/>
   <chart>
     <title>
       <tx>
@@ -1336,6 +2546,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="14"/>
   <chart>
     <title>
       <tx>
@@ -1430,6 +2641,7 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1489,7 +2701,282 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Incidents by Venue</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Chart Data'!B5</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Chart Data'!$A$6:$A$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Chart Data'!$B$6:$B$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Count</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="6" name="Chart 6"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>68</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5760000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>68</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1994,6 +3481,2852 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:R86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="2" customWidth="1" style="21" min="1" max="1"/>
+    <col width="14" customWidth="1" style="21" min="2" max="2"/>
+    <col width="14" customWidth="1" style="21" min="3" max="3"/>
+    <col width="14" customWidth="1" style="21" min="4" max="4"/>
+    <col width="14" customWidth="1" style="21" min="5" max="5"/>
+    <col width="14" customWidth="1" style="21" min="6" max="6"/>
+    <col width="14" customWidth="1" style="21" min="7" max="7"/>
+    <col width="2" customWidth="1" style="21" min="8" max="8"/>
+    <col width="14" customWidth="1" style="21" min="9" max="9"/>
+    <col width="14" customWidth="1" style="21" min="10" max="10"/>
+    <col width="14" customWidth="1" style="21" min="11" max="11"/>
+    <col width="14" customWidth="1" style="21" min="12" max="12"/>
+    <col width="14" customWidth="1" style="21" min="13" max="13"/>
+    <col width="14" customWidth="1" style="21" min="14" max="14"/>
+    <col width="2" customWidth="1" style="21" min="15" max="15"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="16" max="16"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="17" max="17"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="18" max="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="8" customHeight="1" s="21"/>
+    <row r="2" ht="40" customHeight="1" s="21">
+      <c r="A2" s="95" t="n"/>
+      <c r="B2" s="96" t="inlineStr">
+        <is>
+          <t>NIKE SOWETO</t>
+        </is>
+      </c>
+      <c r="H2" s="95" t="n"/>
+      <c r="I2" s="97">
+        <f>IF(C6="Weekly","Weekly Report: "&amp;E6&amp;" - "&amp;G6,IF(C6="Monthly","Monthly Report: "&amp;E6,IF(C6="Quarterly","Quarterly Report: "&amp;I6,"All Time Report")))</f>
+        <v/>
+      </c>
+      <c r="O2" s="95" t="n"/>
+    </row>
+    <row r="3" ht="25" customHeight="1" s="21">
+      <c r="A3" s="95" t="n"/>
+      <c r="B3" s="98" t="inlineStr">
+        <is>
+          <t>Medical Incidents Dashboard</t>
+        </is>
+      </c>
+      <c r="H3" s="95" t="n"/>
+      <c r="O3" s="95" t="n"/>
+    </row>
+    <row r="4" ht="10" customHeight="1" s="21"/>
+    <row r="5" ht="25" customHeight="1" s="21">
+      <c r="B5" s="117" t="inlineStr">
+        <is>
+          <t>REPORT FILTERS</t>
+        </is>
+      </c>
+      <c r="C5" s="107" t="n"/>
+      <c r="D5" s="107" t="n"/>
+      <c r="E5" s="107" t="n"/>
+      <c r="F5" s="107" t="n"/>
+      <c r="G5" s="107" t="n"/>
+      <c r="H5" s="107" t="n"/>
+      <c r="I5" s="107" t="n"/>
+      <c r="J5" s="107" t="n"/>
+      <c r="K5" s="107" t="n"/>
+      <c r="L5" s="107" t="n"/>
+      <c r="M5" s="107" t="n"/>
+      <c r="N5" s="108" t="n"/>
+    </row>
+    <row r="6" ht="35" customHeight="1" s="21">
+      <c r="B6" s="102" t="inlineStr">
+        <is>
+          <t>Report Type:</t>
+        </is>
+      </c>
+      <c r="C6" s="103" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="D6" s="104" t="inlineStr">
+        <is>
+          <t>Month:</t>
+        </is>
+      </c>
+      <c r="E6" s="103" t="inlineStr">
+        <is>
+          <t>Oct-25</t>
+        </is>
+      </c>
+      <c r="F6" s="104" t="inlineStr">
+        <is>
+          <t>Week:</t>
+        </is>
+      </c>
+      <c r="G6" s="103" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="H6" s="104" t="inlineStr">
+        <is>
+          <t>Quarter:</t>
+        </is>
+      </c>
+      <c r="I6" s="103" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="J6" s="105" t="n"/>
+      <c r="K6" s="105" t="n"/>
+      <c r="L6" s="105" t="n"/>
+      <c r="M6" s="105" t="n"/>
+      <c r="N6" s="106" t="n"/>
+      <c r="P6">
+        <f>VALUE(SUBSTITUTE(G6,"Week ",""))</f>
+        <v/>
+      </c>
+      <c r="Q6">
+        <f>MATCH(LEFT(E6,3),{"Jan","Feb","Mar","Apr","May","Jun","Jul","Aug","Sep","Oct","Nov","Dec"},0)</f>
+        <v/>
+      </c>
+      <c r="R6">
+        <f>2000+VALUE(RIGHT(E6,2))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="8" customHeight="1" s="21"/>
+    <row r="8" ht="15" customHeight="1" s="21"/>
+    <row r="9" ht="22" customHeight="1" s="21">
+      <c r="B9" s="109" t="inlineStr">
+        <is>
+          <t>KEY PERFORMANCE INDICATORS</t>
+        </is>
+      </c>
+      <c r="C9" s="118" t="n"/>
+      <c r="D9" s="118" t="n"/>
+      <c r="E9" s="118" t="n"/>
+      <c r="F9" s="118" t="n"/>
+      <c r="G9" s="118" t="n"/>
+      <c r="H9" s="118" t="n"/>
+      <c r="I9" s="118" t="n"/>
+      <c r="J9" s="118" t="n"/>
+      <c r="K9" s="118" t="n"/>
+      <c r="L9" s="118" t="n"/>
+      <c r="M9" s="118" t="n"/>
+      <c r="N9" s="119" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="21">
+      <c r="B10" s="120" t="inlineStr">
+        <is>
+          <t>Total Incidents</t>
+        </is>
+      </c>
+      <c r="C10" s="121" t="n"/>
+      <c r="D10" s="120" t="inlineStr">
+        <is>
+          <t>Hospital Transport</t>
+        </is>
+      </c>
+      <c r="E10" s="121" t="n"/>
+      <c r="F10" s="120" t="inlineStr">
+        <is>
+          <t>P1 Critical</t>
+        </is>
+      </c>
+      <c r="G10" s="121" t="n"/>
+      <c r="H10" s="120" t="inlineStr">
+        <is>
+          <t>P2 Urgent</t>
+        </is>
+      </c>
+      <c r="I10" s="121" t="n"/>
+      <c r="J10" s="120" t="inlineStr">
+        <is>
+          <t>P3 Standard</t>
+        </is>
+      </c>
+      <c r="K10" s="121" t="n"/>
+      <c r="L10" s="120" t="inlineStr">
+        <is>
+          <t>Avg Daily Rate</t>
+        </is>
+      </c>
+      <c r="M10" s="121" t="n"/>
+    </row>
+    <row r="11" ht="45" customHeight="1" s="21">
+      <c r="B11" s="122">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*1),COUNTA('Data Entry'!A2:A356)))</f>
+        <v/>
+      </c>
+      <c r="C11" s="123" t="n"/>
+      <c r="D11" s="124">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="Yes")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="Yes")*1),COUNTIF('Data Entry'!J2:J356,"Yes")))</f>
+        <v/>
+      </c>
+      <c r="E11" s="123" t="n"/>
+      <c r="F11" s="124">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P1")*1),COUNTIF('Data Entry'!I2:I356,"P1")))</f>
+        <v/>
+      </c>
+      <c r="G11" s="123" t="n"/>
+      <c r="H11" s="125">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P2")*1),COUNTIF('Data Entry'!I2:I356,"P2")))</f>
+        <v/>
+      </c>
+      <c r="I11" s="123" t="n"/>
+      <c r="J11" s="126">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P3")*1),COUNTIF('Data Entry'!I2:I356,"P3")))</f>
+        <v/>
+      </c>
+      <c r="K11" s="123" t="n"/>
+      <c r="L11" s="122">
+        <f>ROUND(IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*1)/7,IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*1)/30,COUNTA('Data Entry'!A2:A356)/365)),1)</f>
+        <v/>
+      </c>
+      <c r="M11" s="123" t="n"/>
+    </row>
+    <row r="12" ht="8" customHeight="1" s="21"/>
+    <row r="13" ht="8" customHeight="1" s="21"/>
+    <row r="14" ht="22" customHeight="1" s="21">
+      <c r="B14" s="127" t="inlineStr">
+        <is>
+          <t>INCIDENT DISTRIBUTION ANALYSIS</t>
+        </is>
+      </c>
+      <c r="C14" s="137" t="n"/>
+      <c r="D14" s="137" t="n"/>
+      <c r="E14" s="137" t="n"/>
+      <c r="F14" s="137" t="n"/>
+      <c r="G14" s="137" t="n"/>
+      <c r="H14" s="137" t="n"/>
+      <c r="I14" s="137" t="n"/>
+      <c r="J14" s="137" t="n"/>
+      <c r="K14" s="137" t="n"/>
+      <c r="L14" s="137" t="n"/>
+      <c r="M14" s="137" t="n"/>
+      <c r="N14" s="138" t="n"/>
+    </row>
+    <row r="15" ht="18" customHeight="1" s="21">
+      <c r="B15" s="128" t="n"/>
+      <c r="C15" s="129" t="n"/>
+      <c r="D15" s="129" t="n"/>
+      <c r="E15" s="129" t="n"/>
+      <c r="F15" s="129" t="n"/>
+      <c r="G15" s="130" t="n"/>
+      <c r="I15" s="128" t="n"/>
+      <c r="J15" s="129" t="n"/>
+      <c r="K15" s="129" t="n"/>
+      <c r="L15" s="129" t="n"/>
+      <c r="M15" s="129" t="n"/>
+      <c r="N15" s="130" t="n"/>
+    </row>
+    <row r="16" ht="18" customHeight="1" s="21">
+      <c r="B16" s="131" t="n"/>
+      <c r="C16" s="132" t="n"/>
+      <c r="D16" s="132" t="n"/>
+      <c r="E16" s="132" t="n"/>
+      <c r="F16" s="132" t="n"/>
+      <c r="G16" s="133" t="n"/>
+      <c r="I16" s="131" t="n"/>
+      <c r="J16" s="132" t="n"/>
+      <c r="K16" s="132" t="n"/>
+      <c r="L16" s="132" t="n"/>
+      <c r="M16" s="132" t="n"/>
+      <c r="N16" s="133" t="n"/>
+    </row>
+    <row r="17" ht="18" customHeight="1" s="21">
+      <c r="B17" s="131" t="n"/>
+      <c r="C17" s="132" t="n"/>
+      <c r="D17" s="132" t="n"/>
+      <c r="E17" s="132" t="n"/>
+      <c r="F17" s="132" t="n"/>
+      <c r="G17" s="133" t="n"/>
+      <c r="I17" s="131" t="n"/>
+      <c r="J17" s="132" t="n"/>
+      <c r="K17" s="132" t="n"/>
+      <c r="L17" s="132" t="n"/>
+      <c r="M17" s="132" t="n"/>
+      <c r="N17" s="133" t="n"/>
+    </row>
+    <row r="18" ht="18" customHeight="1" s="21">
+      <c r="B18" s="131" t="n"/>
+      <c r="C18" s="132" t="n"/>
+      <c r="D18" s="132" t="n"/>
+      <c r="E18" s="132" t="n"/>
+      <c r="F18" s="132" t="n"/>
+      <c r="G18" s="133" t="n"/>
+      <c r="I18" s="131" t="n"/>
+      <c r="J18" s="132" t="n"/>
+      <c r="K18" s="132" t="n"/>
+      <c r="L18" s="132" t="n"/>
+      <c r="M18" s="132" t="n"/>
+      <c r="N18" s="133" t="n"/>
+    </row>
+    <row r="19" ht="18" customHeight="1" s="21">
+      <c r="B19" s="131" t="n"/>
+      <c r="C19" s="132" t="n"/>
+      <c r="D19" s="132" t="n"/>
+      <c r="E19" s="132" t="n"/>
+      <c r="F19" s="132" t="n"/>
+      <c r="G19" s="133" t="n"/>
+      <c r="I19" s="131" t="n"/>
+      <c r="J19" s="132" t="n"/>
+      <c r="K19" s="132" t="n"/>
+      <c r="L19" s="132" t="n"/>
+      <c r="M19" s="132" t="n"/>
+      <c r="N19" s="133" t="n"/>
+    </row>
+    <row r="20" ht="18" customHeight="1" s="21">
+      <c r="B20" s="131" t="n"/>
+      <c r="C20" s="132" t="n"/>
+      <c r="D20" s="132" t="n"/>
+      <c r="E20" s="132" t="n"/>
+      <c r="F20" s="132" t="n"/>
+      <c r="G20" s="133" t="n"/>
+      <c r="I20" s="131" t="n"/>
+      <c r="J20" s="132" t="n"/>
+      <c r="K20" s="132" t="n"/>
+      <c r="L20" s="132" t="n"/>
+      <c r="M20" s="132" t="n"/>
+      <c r="N20" s="133" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" s="21">
+      <c r="B21" s="131" t="n"/>
+      <c r="C21" s="132" t="n"/>
+      <c r="D21" s="132" t="n"/>
+      <c r="E21" s="132" t="n"/>
+      <c r="F21" s="132" t="n"/>
+      <c r="G21" s="133" t="n"/>
+      <c r="I21" s="131" t="n"/>
+      <c r="J21" s="132" t="n"/>
+      <c r="K21" s="132" t="n"/>
+      <c r="L21" s="132" t="n"/>
+      <c r="M21" s="132" t="n"/>
+      <c r="N21" s="133" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" s="21">
+      <c r="B22" s="131" t="n"/>
+      <c r="C22" s="132" t="n"/>
+      <c r="D22" s="132" t="n"/>
+      <c r="E22" s="132" t="n"/>
+      <c r="F22" s="132" t="n"/>
+      <c r="G22" s="133" t="n"/>
+      <c r="I22" s="131" t="n"/>
+      <c r="J22" s="132" t="n"/>
+      <c r="K22" s="132" t="n"/>
+      <c r="L22" s="132" t="n"/>
+      <c r="M22" s="132" t="n"/>
+      <c r="N22" s="133" t="n"/>
+    </row>
+    <row r="23" ht="18" customHeight="1" s="21">
+      <c r="B23" s="131" t="n"/>
+      <c r="C23" s="132" t="n"/>
+      <c r="D23" s="132" t="n"/>
+      <c r="E23" s="132" t="n"/>
+      <c r="F23" s="132" t="n"/>
+      <c r="G23" s="133" t="n"/>
+      <c r="I23" s="131" t="n"/>
+      <c r="J23" s="132" t="n"/>
+      <c r="K23" s="132" t="n"/>
+      <c r="L23" s="132" t="n"/>
+      <c r="M23" s="132" t="n"/>
+      <c r="N23" s="133" t="n"/>
+    </row>
+    <row r="24" ht="18" customHeight="1" s="21">
+      <c r="B24" s="131" t="n"/>
+      <c r="C24" s="132" t="n"/>
+      <c r="D24" s="132" t="n"/>
+      <c r="E24" s="132" t="n"/>
+      <c r="F24" s="132" t="n"/>
+      <c r="G24" s="133" t="n"/>
+      <c r="I24" s="131" t="n"/>
+      <c r="J24" s="132" t="n"/>
+      <c r="K24" s="132" t="n"/>
+      <c r="L24" s="132" t="n"/>
+      <c r="M24" s="132" t="n"/>
+      <c r="N24" s="133" t="n"/>
+    </row>
+    <row r="25" ht="18" customHeight="1" s="21">
+      <c r="B25" s="131" t="n"/>
+      <c r="C25" s="132" t="n"/>
+      <c r="D25" s="132" t="n"/>
+      <c r="E25" s="132" t="n"/>
+      <c r="F25" s="132" t="n"/>
+      <c r="G25" s="133" t="n"/>
+      <c r="I25" s="131" t="n"/>
+      <c r="J25" s="132" t="n"/>
+      <c r="K25" s="132" t="n"/>
+      <c r="L25" s="132" t="n"/>
+      <c r="M25" s="132" t="n"/>
+      <c r="N25" s="133" t="n"/>
+    </row>
+    <row r="26" ht="18" customHeight="1" s="21">
+      <c r="B26" s="131" t="n"/>
+      <c r="C26" s="132" t="n"/>
+      <c r="D26" s="132" t="n"/>
+      <c r="E26" s="132" t="n"/>
+      <c r="F26" s="132" t="n"/>
+      <c r="G26" s="133" t="n"/>
+      <c r="I26" s="131" t="n"/>
+      <c r="J26" s="132" t="n"/>
+      <c r="K26" s="132" t="n"/>
+      <c r="L26" s="132" t="n"/>
+      <c r="M26" s="132" t="n"/>
+      <c r="N26" s="133" t="n"/>
+    </row>
+    <row r="27" ht="18" customHeight="1" s="21">
+      <c r="B27" s="131" t="n"/>
+      <c r="C27" s="132" t="n"/>
+      <c r="D27" s="132" t="n"/>
+      <c r="E27" s="132" t="n"/>
+      <c r="F27" s="132" t="n"/>
+      <c r="G27" s="133" t="n"/>
+      <c r="I27" s="131" t="n"/>
+      <c r="J27" s="132" t="n"/>
+      <c r="K27" s="132" t="n"/>
+      <c r="L27" s="132" t="n"/>
+      <c r="M27" s="132" t="n"/>
+      <c r="N27" s="133" t="n"/>
+    </row>
+    <row r="28" ht="18" customHeight="1" s="21">
+      <c r="B28" s="131" t="n"/>
+      <c r="C28" s="132" t="n"/>
+      <c r="D28" s="132" t="n"/>
+      <c r="E28" s="132" t="n"/>
+      <c r="F28" s="132" t="n"/>
+      <c r="G28" s="133" t="n"/>
+      <c r="I28" s="131" t="n"/>
+      <c r="J28" s="132" t="n"/>
+      <c r="K28" s="132" t="n"/>
+      <c r="L28" s="132" t="n"/>
+      <c r="M28" s="132" t="n"/>
+      <c r="N28" s="133" t="n"/>
+    </row>
+    <row r="29" ht="18" customHeight="1" s="21">
+      <c r="B29" s="131" t="n"/>
+      <c r="C29" s="132" t="n"/>
+      <c r="D29" s="132" t="n"/>
+      <c r="E29" s="132" t="n"/>
+      <c r="F29" s="132" t="n"/>
+      <c r="G29" s="133" t="n"/>
+      <c r="I29" s="131" t="n"/>
+      <c r="J29" s="132" t="n"/>
+      <c r="K29" s="132" t="n"/>
+      <c r="L29" s="132" t="n"/>
+      <c r="M29" s="132" t="n"/>
+      <c r="N29" s="133" t="n"/>
+    </row>
+    <row r="30" ht="18" customHeight="1" s="21">
+      <c r="B30" s="134" t="n"/>
+      <c r="C30" s="135" t="n"/>
+      <c r="D30" s="135" t="n"/>
+      <c r="E30" s="135" t="n"/>
+      <c r="F30" s="135" t="n"/>
+      <c r="G30" s="136" t="n"/>
+      <c r="I30" s="134" t="n"/>
+      <c r="J30" s="135" t="n"/>
+      <c r="K30" s="135" t="n"/>
+      <c r="L30" s="135" t="n"/>
+      <c r="M30" s="135" t="n"/>
+      <c r="N30" s="136" t="n"/>
+    </row>
+    <row r="31" ht="8" customHeight="1" s="21"/>
+    <row r="32" ht="22" customHeight="1" s="21">
+      <c r="B32" s="127" t="inlineStr">
+        <is>
+          <t>INJURY PATTERNS</t>
+        </is>
+      </c>
+      <c r="C32" s="137" t="n"/>
+      <c r="D32" s="137" t="n"/>
+      <c r="E32" s="137" t="n"/>
+      <c r="F32" s="137" t="n"/>
+      <c r="G32" s="137" t="n"/>
+      <c r="H32" s="137" t="n"/>
+      <c r="I32" s="137" t="n"/>
+      <c r="J32" s="137" t="n"/>
+      <c r="K32" s="137" t="n"/>
+      <c r="L32" s="137" t="n"/>
+      <c r="M32" s="137" t="n"/>
+      <c r="N32" s="138" t="n"/>
+    </row>
+    <row r="33" ht="18" customHeight="1" s="21">
+      <c r="B33" s="128" t="n"/>
+      <c r="C33" s="129" t="n"/>
+      <c r="D33" s="129" t="n"/>
+      <c r="E33" s="129" t="n"/>
+      <c r="F33" s="129" t="n"/>
+      <c r="G33" s="130" t="n"/>
+      <c r="I33" s="128" t="n"/>
+      <c r="J33" s="129" t="n"/>
+      <c r="K33" s="129" t="n"/>
+      <c r="L33" s="129" t="n"/>
+      <c r="M33" s="129" t="n"/>
+      <c r="N33" s="130" t="n"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" s="21">
+      <c r="B34" s="131" t="n"/>
+      <c r="C34" s="132" t="n"/>
+      <c r="D34" s="132" t="n"/>
+      <c r="E34" s="132" t="n"/>
+      <c r="F34" s="132" t="n"/>
+      <c r="G34" s="133" t="n"/>
+      <c r="I34" s="131" t="n"/>
+      <c r="J34" s="132" t="n"/>
+      <c r="K34" s="132" t="n"/>
+      <c r="L34" s="132" t="n"/>
+      <c r="M34" s="132" t="n"/>
+      <c r="N34" s="133" t="n"/>
+    </row>
+    <row r="35" ht="18" customHeight="1" s="21">
+      <c r="B35" s="131" t="n"/>
+      <c r="C35" s="132" t="n"/>
+      <c r="D35" s="132" t="n"/>
+      <c r="E35" s="132" t="n"/>
+      <c r="F35" s="132" t="n"/>
+      <c r="G35" s="133" t="n"/>
+      <c r="I35" s="131" t="n"/>
+      <c r="J35" s="132" t="n"/>
+      <c r="K35" s="132" t="n"/>
+      <c r="L35" s="132" t="n"/>
+      <c r="M35" s="132" t="n"/>
+      <c r="N35" s="133" t="n"/>
+    </row>
+    <row r="36" ht="18" customHeight="1" s="21">
+      <c r="B36" s="131" t="n"/>
+      <c r="C36" s="132" t="n"/>
+      <c r="D36" s="132" t="n"/>
+      <c r="E36" s="132" t="n"/>
+      <c r="F36" s="132" t="n"/>
+      <c r="G36" s="133" t="n"/>
+      <c r="I36" s="131" t="n"/>
+      <c r="J36" s="132" t="n"/>
+      <c r="K36" s="132" t="n"/>
+      <c r="L36" s="132" t="n"/>
+      <c r="M36" s="132" t="n"/>
+      <c r="N36" s="133" t="n"/>
+    </row>
+    <row r="37" ht="18" customHeight="1" s="21">
+      <c r="B37" s="131" t="n"/>
+      <c r="C37" s="132" t="n"/>
+      <c r="D37" s="132" t="n"/>
+      <c r="E37" s="132" t="n"/>
+      <c r="F37" s="132" t="n"/>
+      <c r="G37" s="133" t="n"/>
+      <c r="I37" s="131" t="n"/>
+      <c r="J37" s="132" t="n"/>
+      <c r="K37" s="132" t="n"/>
+      <c r="L37" s="132" t="n"/>
+      <c r="M37" s="132" t="n"/>
+      <c r="N37" s="133" t="n"/>
+    </row>
+    <row r="38" ht="18" customHeight="1" s="21">
+      <c r="B38" s="131" t="n"/>
+      <c r="C38" s="132" t="n"/>
+      <c r="D38" s="132" t="n"/>
+      <c r="E38" s="132" t="n"/>
+      <c r="F38" s="132" t="n"/>
+      <c r="G38" s="133" t="n"/>
+      <c r="I38" s="131" t="n"/>
+      <c r="J38" s="132" t="n"/>
+      <c r="K38" s="132" t="n"/>
+      <c r="L38" s="132" t="n"/>
+      <c r="M38" s="132" t="n"/>
+      <c r="N38" s="133" t="n"/>
+    </row>
+    <row r="39" ht="18" customHeight="1" s="21">
+      <c r="B39" s="131" t="n"/>
+      <c r="C39" s="132" t="n"/>
+      <c r="D39" s="132" t="n"/>
+      <c r="E39" s="132" t="n"/>
+      <c r="F39" s="132" t="n"/>
+      <c r="G39" s="133" t="n"/>
+      <c r="I39" s="131" t="n"/>
+      <c r="J39" s="132" t="n"/>
+      <c r="K39" s="132" t="n"/>
+      <c r="L39" s="132" t="n"/>
+      <c r="M39" s="132" t="n"/>
+      <c r="N39" s="133" t="n"/>
+    </row>
+    <row r="40" ht="18" customHeight="1" s="21">
+      <c r="B40" s="131" t="n"/>
+      <c r="C40" s="132" t="n"/>
+      <c r="D40" s="132" t="n"/>
+      <c r="E40" s="132" t="n"/>
+      <c r="F40" s="132" t="n"/>
+      <c r="G40" s="133" t="n"/>
+      <c r="I40" s="131" t="n"/>
+      <c r="J40" s="132" t="n"/>
+      <c r="K40" s="132" t="n"/>
+      <c r="L40" s="132" t="n"/>
+      <c r="M40" s="132" t="n"/>
+      <c r="N40" s="133" t="n"/>
+    </row>
+    <row r="41" ht="18" customHeight="1" s="21">
+      <c r="B41" s="131" t="n"/>
+      <c r="C41" s="132" t="n"/>
+      <c r="D41" s="132" t="n"/>
+      <c r="E41" s="132" t="n"/>
+      <c r="F41" s="132" t="n"/>
+      <c r="G41" s="133" t="n"/>
+      <c r="I41" s="131" t="n"/>
+      <c r="J41" s="132" t="n"/>
+      <c r="K41" s="132" t="n"/>
+      <c r="L41" s="132" t="n"/>
+      <c r="M41" s="132" t="n"/>
+      <c r="N41" s="133" t="n"/>
+    </row>
+    <row r="42" ht="18" customHeight="1" s="21">
+      <c r="B42" s="131" t="n"/>
+      <c r="C42" s="132" t="n"/>
+      <c r="D42" s="132" t="n"/>
+      <c r="E42" s="132" t="n"/>
+      <c r="F42" s="132" t="n"/>
+      <c r="G42" s="133" t="n"/>
+      <c r="I42" s="131" t="n"/>
+      <c r="J42" s="132" t="n"/>
+      <c r="K42" s="132" t="n"/>
+      <c r="L42" s="132" t="n"/>
+      <c r="M42" s="132" t="n"/>
+      <c r="N42" s="133" t="n"/>
+    </row>
+    <row r="43" ht="18" customHeight="1" s="21">
+      <c r="B43" s="131" t="n"/>
+      <c r="C43" s="132" t="n"/>
+      <c r="D43" s="132" t="n"/>
+      <c r="E43" s="132" t="n"/>
+      <c r="F43" s="132" t="n"/>
+      <c r="G43" s="133" t="n"/>
+      <c r="I43" s="131" t="n"/>
+      <c r="J43" s="132" t="n"/>
+      <c r="K43" s="132" t="n"/>
+      <c r="L43" s="132" t="n"/>
+      <c r="M43" s="132" t="n"/>
+      <c r="N43" s="133" t="n"/>
+    </row>
+    <row r="44" ht="18" customHeight="1" s="21">
+      <c r="B44" s="131" t="n"/>
+      <c r="C44" s="132" t="n"/>
+      <c r="D44" s="132" t="n"/>
+      <c r="E44" s="132" t="n"/>
+      <c r="F44" s="132" t="n"/>
+      <c r="G44" s="133" t="n"/>
+      <c r="I44" s="131" t="n"/>
+      <c r="J44" s="132" t="n"/>
+      <c r="K44" s="132" t="n"/>
+      <c r="L44" s="132" t="n"/>
+      <c r="M44" s="132" t="n"/>
+      <c r="N44" s="133" t="n"/>
+    </row>
+    <row r="45" ht="18" customHeight="1" s="21">
+      <c r="B45" s="131" t="n"/>
+      <c r="C45" s="132" t="n"/>
+      <c r="D45" s="132" t="n"/>
+      <c r="E45" s="132" t="n"/>
+      <c r="F45" s="132" t="n"/>
+      <c r="G45" s="133" t="n"/>
+      <c r="I45" s="131" t="n"/>
+      <c r="J45" s="132" t="n"/>
+      <c r="K45" s="132" t="n"/>
+      <c r="L45" s="132" t="n"/>
+      <c r="M45" s="132" t="n"/>
+      <c r="N45" s="133" t="n"/>
+    </row>
+    <row r="46" ht="18" customHeight="1" s="21">
+      <c r="B46" s="131" t="n"/>
+      <c r="C46" s="132" t="n"/>
+      <c r="D46" s="132" t="n"/>
+      <c r="E46" s="132" t="n"/>
+      <c r="F46" s="132" t="n"/>
+      <c r="G46" s="133" t="n"/>
+      <c r="I46" s="131" t="n"/>
+      <c r="J46" s="132" t="n"/>
+      <c r="K46" s="132" t="n"/>
+      <c r="L46" s="132" t="n"/>
+      <c r="M46" s="132" t="n"/>
+      <c r="N46" s="133" t="n"/>
+    </row>
+    <row r="47" ht="18" customHeight="1" s="21">
+      <c r="B47" s="131" t="n"/>
+      <c r="C47" s="132" t="n"/>
+      <c r="D47" s="132" t="n"/>
+      <c r="E47" s="132" t="n"/>
+      <c r="F47" s="132" t="n"/>
+      <c r="G47" s="133" t="n"/>
+      <c r="I47" s="131" t="n"/>
+      <c r="J47" s="132" t="n"/>
+      <c r="K47" s="132" t="n"/>
+      <c r="L47" s="132" t="n"/>
+      <c r="M47" s="132" t="n"/>
+      <c r="N47" s="133" t="n"/>
+    </row>
+    <row r="48" ht="18" customHeight="1" s="21">
+      <c r="B48" s="134" t="n"/>
+      <c r="C48" s="135" t="n"/>
+      <c r="D48" s="135" t="n"/>
+      <c r="E48" s="135" t="n"/>
+      <c r="F48" s="135" t="n"/>
+      <c r="G48" s="136" t="n"/>
+      <c r="I48" s="134" t="n"/>
+      <c r="J48" s="135" t="n"/>
+      <c r="K48" s="135" t="n"/>
+      <c r="L48" s="135" t="n"/>
+      <c r="M48" s="135" t="n"/>
+      <c r="N48" s="136" t="n"/>
+    </row>
+    <row r="49" ht="8" customHeight="1" s="21"/>
+    <row r="50" ht="22" customHeight="1" s="21">
+      <c r="B50" s="127" t="inlineStr">
+        <is>
+          <t>SEVERITY &amp; PROGRAM ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="18" customHeight="1" s="21">
+      <c r="B51" s="128" t="n"/>
+      <c r="C51" s="129" t="n"/>
+      <c r="D51" s="129" t="n"/>
+      <c r="E51" s="129" t="n"/>
+      <c r="F51" s="129" t="n"/>
+      <c r="G51" s="130" t="n"/>
+      <c r="I51" s="128" t="n"/>
+      <c r="J51" s="129" t="n"/>
+      <c r="K51" s="129" t="n"/>
+      <c r="L51" s="129" t="n"/>
+      <c r="M51" s="129" t="n"/>
+      <c r="N51" s="130" t="n"/>
+    </row>
+    <row r="52" ht="18" customHeight="1" s="21">
+      <c r="B52" s="131" t="n"/>
+      <c r="C52" s="132" t="n"/>
+      <c r="D52" s="132" t="n"/>
+      <c r="E52" s="132" t="n"/>
+      <c r="F52" s="132" t="n"/>
+      <c r="G52" s="133" t="n"/>
+      <c r="I52" s="131" t="n"/>
+      <c r="J52" s="132" t="n"/>
+      <c r="K52" s="132" t="n"/>
+      <c r="L52" s="132" t="n"/>
+      <c r="M52" s="132" t="n"/>
+      <c r="N52" s="133" t="n"/>
+    </row>
+    <row r="53" ht="18" customHeight="1" s="21">
+      <c r="B53" s="131" t="n"/>
+      <c r="C53" s="132" t="n"/>
+      <c r="D53" s="132" t="n"/>
+      <c r="E53" s="132" t="n"/>
+      <c r="F53" s="132" t="n"/>
+      <c r="G53" s="133" t="n"/>
+      <c r="I53" s="131" t="n"/>
+      <c r="J53" s="132" t="n"/>
+      <c r="K53" s="132" t="n"/>
+      <c r="L53" s="132" t="n"/>
+      <c r="M53" s="132" t="n"/>
+      <c r="N53" s="133" t="n"/>
+    </row>
+    <row r="54" ht="18" customHeight="1" s="21">
+      <c r="B54" s="131" t="n"/>
+      <c r="C54" s="132" t="n"/>
+      <c r="D54" s="132" t="n"/>
+      <c r="E54" s="132" t="n"/>
+      <c r="F54" s="132" t="n"/>
+      <c r="G54" s="133" t="n"/>
+      <c r="I54" s="131" t="n"/>
+      <c r="J54" s="132" t="n"/>
+      <c r="K54" s="132" t="n"/>
+      <c r="L54" s="132" t="n"/>
+      <c r="M54" s="132" t="n"/>
+      <c r="N54" s="133" t="n"/>
+    </row>
+    <row r="55" ht="18" customHeight="1" s="21">
+      <c r="B55" s="131" t="n"/>
+      <c r="C55" s="132" t="n"/>
+      <c r="D55" s="132" t="n"/>
+      <c r="E55" s="132" t="n"/>
+      <c r="F55" s="132" t="n"/>
+      <c r="G55" s="133" t="n"/>
+      <c r="I55" s="131" t="n"/>
+      <c r="J55" s="132" t="n"/>
+      <c r="K55" s="132" t="n"/>
+      <c r="L55" s="132" t="n"/>
+      <c r="M55" s="132" t="n"/>
+      <c r="N55" s="133" t="n"/>
+    </row>
+    <row r="56" ht="18" customHeight="1" s="21">
+      <c r="B56" s="131" t="n"/>
+      <c r="C56" s="132" t="n"/>
+      <c r="D56" s="132" t="n"/>
+      <c r="E56" s="132" t="n"/>
+      <c r="F56" s="132" t="n"/>
+      <c r="G56" s="133" t="n"/>
+      <c r="I56" s="131" t="n"/>
+      <c r="J56" s="132" t="n"/>
+      <c r="K56" s="132" t="n"/>
+      <c r="L56" s="132" t="n"/>
+      <c r="M56" s="132" t="n"/>
+      <c r="N56" s="133" t="n"/>
+    </row>
+    <row r="57" ht="18" customHeight="1" s="21">
+      <c r="B57" s="131" t="n"/>
+      <c r="C57" s="132" t="n"/>
+      <c r="D57" s="132" t="n"/>
+      <c r="E57" s="132" t="n"/>
+      <c r="F57" s="132" t="n"/>
+      <c r="G57" s="133" t="n"/>
+      <c r="I57" s="131" t="n"/>
+      <c r="J57" s="132" t="n"/>
+      <c r="K57" s="132" t="n"/>
+      <c r="L57" s="132" t="n"/>
+      <c r="M57" s="132" t="n"/>
+      <c r="N57" s="133" t="n"/>
+    </row>
+    <row r="58" ht="18" customHeight="1" s="21">
+      <c r="B58" s="131" t="n"/>
+      <c r="C58" s="132" t="n"/>
+      <c r="D58" s="132" t="n"/>
+      <c r="E58" s="132" t="n"/>
+      <c r="F58" s="132" t="n"/>
+      <c r="G58" s="133" t="n"/>
+      <c r="I58" s="131" t="n"/>
+      <c r="J58" s="132" t="n"/>
+      <c r="K58" s="132" t="n"/>
+      <c r="L58" s="132" t="n"/>
+      <c r="M58" s="132" t="n"/>
+      <c r="N58" s="133" t="n"/>
+    </row>
+    <row r="59" ht="18" customHeight="1" s="21">
+      <c r="B59" s="131" t="n"/>
+      <c r="C59" s="132" t="n"/>
+      <c r="D59" s="132" t="n"/>
+      <c r="E59" s="132" t="n"/>
+      <c r="F59" s="132" t="n"/>
+      <c r="G59" s="133" t="n"/>
+      <c r="I59" s="131" t="n"/>
+      <c r="J59" s="132" t="n"/>
+      <c r="K59" s="132" t="n"/>
+      <c r="L59" s="132" t="n"/>
+      <c r="M59" s="132" t="n"/>
+      <c r="N59" s="133" t="n"/>
+    </row>
+    <row r="60" ht="18" customHeight="1" s="21">
+      <c r="B60" s="131" t="n"/>
+      <c r="C60" s="132" t="n"/>
+      <c r="D60" s="132" t="n"/>
+      <c r="E60" s="132" t="n"/>
+      <c r="F60" s="132" t="n"/>
+      <c r="G60" s="133" t="n"/>
+      <c r="I60" s="131" t="n"/>
+      <c r="J60" s="132" t="n"/>
+      <c r="K60" s="132" t="n"/>
+      <c r="L60" s="132" t="n"/>
+      <c r="M60" s="132" t="n"/>
+      <c r="N60" s="133" t="n"/>
+    </row>
+    <row r="61" ht="18" customHeight="1" s="21">
+      <c r="B61" s="131" t="n"/>
+      <c r="C61" s="132" t="n"/>
+      <c r="D61" s="132" t="n"/>
+      <c r="E61" s="132" t="n"/>
+      <c r="F61" s="132" t="n"/>
+      <c r="G61" s="133" t="n"/>
+      <c r="I61" s="131" t="n"/>
+      <c r="J61" s="132" t="n"/>
+      <c r="K61" s="132" t="n"/>
+      <c r="L61" s="132" t="n"/>
+      <c r="M61" s="132" t="n"/>
+      <c r="N61" s="133" t="n"/>
+    </row>
+    <row r="62" ht="18" customHeight="1" s="21">
+      <c r="B62" s="131" t="n"/>
+      <c r="C62" s="132" t="n"/>
+      <c r="D62" s="132" t="n"/>
+      <c r="E62" s="132" t="n"/>
+      <c r="F62" s="132" t="n"/>
+      <c r="G62" s="133" t="n"/>
+      <c r="I62" s="131" t="n"/>
+      <c r="J62" s="132" t="n"/>
+      <c r="K62" s="132" t="n"/>
+      <c r="L62" s="132" t="n"/>
+      <c r="M62" s="132" t="n"/>
+      <c r="N62" s="133" t="n"/>
+    </row>
+    <row r="63" ht="18" customHeight="1" s="21">
+      <c r="B63" s="131" t="n"/>
+      <c r="C63" s="132" t="n"/>
+      <c r="D63" s="132" t="n"/>
+      <c r="E63" s="132" t="n"/>
+      <c r="F63" s="132" t="n"/>
+      <c r="G63" s="133" t="n"/>
+      <c r="I63" s="131" t="n"/>
+      <c r="J63" s="132" t="n"/>
+      <c r="K63" s="132" t="n"/>
+      <c r="L63" s="132" t="n"/>
+      <c r="M63" s="132" t="n"/>
+      <c r="N63" s="133" t="n"/>
+    </row>
+    <row r="64" ht="18" customHeight="1" s="21">
+      <c r="B64" s="131" t="n"/>
+      <c r="C64" s="132" t="n"/>
+      <c r="D64" s="132" t="n"/>
+      <c r="E64" s="132" t="n"/>
+      <c r="F64" s="132" t="n"/>
+      <c r="G64" s="133" t="n"/>
+      <c r="I64" s="131" t="n"/>
+      <c r="J64" s="132" t="n"/>
+      <c r="K64" s="132" t="n"/>
+      <c r="L64" s="132" t="n"/>
+      <c r="M64" s="132" t="n"/>
+      <c r="N64" s="133" t="n"/>
+    </row>
+    <row r="65" ht="18" customHeight="1" s="21">
+      <c r="B65" s="131" t="n"/>
+      <c r="C65" s="132" t="n"/>
+      <c r="D65" s="132" t="n"/>
+      <c r="E65" s="132" t="n"/>
+      <c r="F65" s="132" t="n"/>
+      <c r="G65" s="133" t="n"/>
+      <c r="I65" s="131" t="n"/>
+      <c r="J65" s="132" t="n"/>
+      <c r="K65" s="132" t="n"/>
+      <c r="L65" s="132" t="n"/>
+      <c r="M65" s="132" t="n"/>
+      <c r="N65" s="133" t="n"/>
+    </row>
+    <row r="66" ht="18" customHeight="1" s="21">
+      <c r="B66" s="134" t="n"/>
+      <c r="C66" s="135" t="n"/>
+      <c r="D66" s="135" t="n"/>
+      <c r="E66" s="135" t="n"/>
+      <c r="F66" s="135" t="n"/>
+      <c r="G66" s="136" t="n"/>
+      <c r="I66" s="134" t="n"/>
+      <c r="J66" s="135" t="n"/>
+      <c r="K66" s="135" t="n"/>
+      <c r="L66" s="135" t="n"/>
+      <c r="M66" s="135" t="n"/>
+      <c r="N66" s="136" t="n"/>
+    </row>
+    <row r="67" ht="8" customHeight="1" s="21"/>
+    <row r="68" ht="22" customHeight="1" s="21">
+      <c r="B68" s="127" t="inlineStr">
+        <is>
+          <t>OPERATIONAL INSIGHTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="18" customHeight="1" s="21">
+      <c r="B69" s="128" t="n"/>
+      <c r="C69" s="129" t="n"/>
+      <c r="D69" s="129" t="n"/>
+      <c r="E69" s="129" t="n"/>
+      <c r="F69" s="129" t="n"/>
+      <c r="G69" s="130" t="n"/>
+      <c r="I69" s="128" t="n"/>
+      <c r="J69" s="129" t="n"/>
+      <c r="K69" s="129" t="n"/>
+      <c r="L69" s="129" t="n"/>
+      <c r="M69" s="129" t="n"/>
+      <c r="N69" s="130" t="n"/>
+    </row>
+    <row r="70" ht="18" customHeight="1" s="21">
+      <c r="B70" s="131" t="n"/>
+      <c r="C70" s="132" t="n"/>
+      <c r="D70" s="132" t="n"/>
+      <c r="E70" s="132" t="n"/>
+      <c r="F70" s="132" t="n"/>
+      <c r="G70" s="133" t="n"/>
+      <c r="I70" s="131" t="n"/>
+      <c r="J70" s="132" t="n"/>
+      <c r="K70" s="132" t="n"/>
+      <c r="L70" s="132" t="n"/>
+      <c r="M70" s="132" t="n"/>
+      <c r="N70" s="133" t="n"/>
+    </row>
+    <row r="71" ht="18" customHeight="1" s="21">
+      <c r="B71" s="131" t="n"/>
+      <c r="C71" s="132" t="n"/>
+      <c r="D71" s="132" t="n"/>
+      <c r="E71" s="132" t="n"/>
+      <c r="F71" s="132" t="n"/>
+      <c r="G71" s="133" t="n"/>
+      <c r="I71" s="131" t="n"/>
+      <c r="J71" s="132" t="n"/>
+      <c r="K71" s="132" t="n"/>
+      <c r="L71" s="132" t="n"/>
+      <c r="M71" s="132" t="n"/>
+      <c r="N71" s="133" t="n"/>
+    </row>
+    <row r="72" ht="18" customHeight="1" s="21">
+      <c r="B72" s="131" t="n"/>
+      <c r="C72" s="132" t="n"/>
+      <c r="D72" s="132" t="n"/>
+      <c r="E72" s="132" t="n"/>
+      <c r="F72" s="132" t="n"/>
+      <c r="G72" s="133" t="n"/>
+      <c r="I72" s="131" t="n"/>
+      <c r="J72" s="132" t="n"/>
+      <c r="K72" s="132" t="n"/>
+      <c r="L72" s="132" t="n"/>
+      <c r="M72" s="132" t="n"/>
+      <c r="N72" s="133" t="n"/>
+    </row>
+    <row r="73" ht="18" customHeight="1" s="21">
+      <c r="B73" s="131" t="n"/>
+      <c r="C73" s="132" t="n"/>
+      <c r="D73" s="132" t="n"/>
+      <c r="E73" s="132" t="n"/>
+      <c r="F73" s="132" t="n"/>
+      <c r="G73" s="133" t="n"/>
+      <c r="I73" s="131" t="n"/>
+      <c r="J73" s="132" t="n"/>
+      <c r="K73" s="132" t="n"/>
+      <c r="L73" s="132" t="n"/>
+      <c r="M73" s="132" t="n"/>
+      <c r="N73" s="133" t="n"/>
+    </row>
+    <row r="74" ht="18" customHeight="1" s="21">
+      <c r="B74" s="131" t="n"/>
+      <c r="C74" s="132" t="n"/>
+      <c r="D74" s="132" t="n"/>
+      <c r="E74" s="132" t="n"/>
+      <c r="F74" s="132" t="n"/>
+      <c r="G74" s="133" t="n"/>
+      <c r="I74" s="131" t="n"/>
+      <c r="J74" s="132" t="n"/>
+      <c r="K74" s="132" t="n"/>
+      <c r="L74" s="132" t="n"/>
+      <c r="M74" s="132" t="n"/>
+      <c r="N74" s="133" t="n"/>
+    </row>
+    <row r="75" ht="18" customHeight="1" s="21">
+      <c r="B75" s="131" t="n"/>
+      <c r="C75" s="132" t="n"/>
+      <c r="D75" s="132" t="n"/>
+      <c r="E75" s="132" t="n"/>
+      <c r="F75" s="132" t="n"/>
+      <c r="G75" s="133" t="n"/>
+      <c r="I75" s="131" t="n"/>
+      <c r="J75" s="132" t="n"/>
+      <c r="K75" s="132" t="n"/>
+      <c r="L75" s="132" t="n"/>
+      <c r="M75" s="132" t="n"/>
+      <c r="N75" s="133" t="n"/>
+    </row>
+    <row r="76" ht="18" customHeight="1" s="21">
+      <c r="B76" s="131" t="n"/>
+      <c r="C76" s="132" t="n"/>
+      <c r="D76" s="132" t="n"/>
+      <c r="E76" s="132" t="n"/>
+      <c r="F76" s="132" t="n"/>
+      <c r="G76" s="133" t="n"/>
+      <c r="I76" s="131" t="n"/>
+      <c r="J76" s="132" t="n"/>
+      <c r="K76" s="132" t="n"/>
+      <c r="L76" s="132" t="n"/>
+      <c r="M76" s="132" t="n"/>
+      <c r="N76" s="133" t="n"/>
+    </row>
+    <row r="77" ht="18" customHeight="1" s="21">
+      <c r="B77" s="131" t="n"/>
+      <c r="C77" s="132" t="n"/>
+      <c r="D77" s="132" t="n"/>
+      <c r="E77" s="132" t="n"/>
+      <c r="F77" s="132" t="n"/>
+      <c r="G77" s="133" t="n"/>
+      <c r="I77" s="131" t="n"/>
+      <c r="J77" s="132" t="n"/>
+      <c r="K77" s="132" t="n"/>
+      <c r="L77" s="132" t="n"/>
+      <c r="M77" s="132" t="n"/>
+      <c r="N77" s="133" t="n"/>
+    </row>
+    <row r="78" ht="18" customHeight="1" s="21">
+      <c r="B78" s="131" t="n"/>
+      <c r="C78" s="132" t="n"/>
+      <c r="D78" s="132" t="n"/>
+      <c r="E78" s="132" t="n"/>
+      <c r="F78" s="132" t="n"/>
+      <c r="G78" s="133" t="n"/>
+      <c r="I78" s="131" t="n"/>
+      <c r="J78" s="132" t="n"/>
+      <c r="K78" s="132" t="n"/>
+      <c r="L78" s="132" t="n"/>
+      <c r="M78" s="132" t="n"/>
+      <c r="N78" s="133" t="n"/>
+    </row>
+    <row r="79" ht="18" customHeight="1" s="21">
+      <c r="B79" s="131" t="n"/>
+      <c r="C79" s="132" t="n"/>
+      <c r="D79" s="132" t="n"/>
+      <c r="E79" s="132" t="n"/>
+      <c r="F79" s="132" t="n"/>
+      <c r="G79" s="133" t="n"/>
+      <c r="I79" s="131" t="n"/>
+      <c r="J79" s="132" t="n"/>
+      <c r="K79" s="132" t="n"/>
+      <c r="L79" s="132" t="n"/>
+      <c r="M79" s="132" t="n"/>
+      <c r="N79" s="133" t="n"/>
+    </row>
+    <row r="80" ht="18" customHeight="1" s="21">
+      <c r="B80" s="131" t="n"/>
+      <c r="C80" s="132" t="n"/>
+      <c r="D80" s="132" t="n"/>
+      <c r="E80" s="132" t="n"/>
+      <c r="F80" s="132" t="n"/>
+      <c r="G80" s="133" t="n"/>
+      <c r="I80" s="131" t="n"/>
+      <c r="J80" s="132" t="n"/>
+      <c r="K80" s="132" t="n"/>
+      <c r="L80" s="132" t="n"/>
+      <c r="M80" s="132" t="n"/>
+      <c r="N80" s="133" t="n"/>
+    </row>
+    <row r="81" ht="18" customHeight="1" s="21">
+      <c r="B81" s="131" t="n"/>
+      <c r="C81" s="132" t="n"/>
+      <c r="D81" s="132" t="n"/>
+      <c r="E81" s="132" t="n"/>
+      <c r="F81" s="132" t="n"/>
+      <c r="G81" s="133" t="n"/>
+      <c r="I81" s="131" t="n"/>
+      <c r="J81" s="132" t="n"/>
+      <c r="K81" s="132" t="n"/>
+      <c r="L81" s="132" t="n"/>
+      <c r="M81" s="132" t="n"/>
+      <c r="N81" s="133" t="n"/>
+    </row>
+    <row r="82" ht="18" customHeight="1" s="21">
+      <c r="B82" s="131" t="n"/>
+      <c r="C82" s="132" t="n"/>
+      <c r="D82" s="132" t="n"/>
+      <c r="E82" s="132" t="n"/>
+      <c r="F82" s="132" t="n"/>
+      <c r="G82" s="133" t="n"/>
+      <c r="I82" s="131" t="n"/>
+      <c r="J82" s="132" t="n"/>
+      <c r="K82" s="132" t="n"/>
+      <c r="L82" s="132" t="n"/>
+      <c r="M82" s="132" t="n"/>
+      <c r="N82" s="133" t="n"/>
+    </row>
+    <row r="83" ht="18" customHeight="1" s="21">
+      <c r="B83" s="131" t="n"/>
+      <c r="C83" s="132" t="n"/>
+      <c r="D83" s="132" t="n"/>
+      <c r="E83" s="132" t="n"/>
+      <c r="F83" s="132" t="n"/>
+      <c r="G83" s="133" t="n"/>
+      <c r="I83" s="131" t="n"/>
+      <c r="J83" s="132" t="n"/>
+      <c r="K83" s="132" t="n"/>
+      <c r="L83" s="132" t="n"/>
+      <c r="M83" s="132" t="n"/>
+      <c r="N83" s="133" t="n"/>
+    </row>
+    <row r="84" ht="18" customHeight="1" s="21">
+      <c r="B84" s="134" t="n"/>
+      <c r="C84" s="135" t="n"/>
+      <c r="D84" s="135" t="n"/>
+      <c r="E84" s="135" t="n"/>
+      <c r="F84" s="135" t="n"/>
+      <c r="G84" s="136" t="n"/>
+      <c r="I84" s="134" t="n"/>
+      <c r="J84" s="135" t="n"/>
+      <c r="K84" s="135" t="n"/>
+      <c r="L84" s="135" t="n"/>
+      <c r="M84" s="135" t="n"/>
+      <c r="N84" s="136" t="n"/>
+    </row>
+    <row r="85" ht="8" customHeight="1" s="21"/>
+    <row r="86" ht="20" customHeight="1" s="21">
+      <c r="B86" s="139" t="inlineStr">
+        <is>
+          <t>Dashboard updates automatically based on filter selections | Nike Soweto Medical Incidents Reporting System</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B9:N9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B68:N68"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I2:N3"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B50:N50"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B86:N86"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B14:N14"/>
+    <mergeCell ref="L11:M11"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Monthly,Weekly,Quarterly"</formula1>
+    </dataValidation>
+    <dataValidation sqref="E6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>Lists!$E$2:$E$25</formula1>
+    </dataValidation>
+    <dataValidation sqref="G6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Week 1,Week 2,Week 3,Week 4,Week 5"</formula1>
+    </dataValidation>
+    <dataValidation sqref="I6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
+      <formula1>"Q1,Q2,Q3,Q4"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" fitToHeight="0" fitToWidth="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" style="21" min="1" max="2"/>
+    <col width="14" customWidth="1" style="21" min="2" max="2"/>
+    <col width="10" customWidth="1" style="21" min="3" max="3"/>
+    <col width="12" customWidth="1" style="21" min="4" max="4"/>
+    <col width="12" customWidth="1" style="21" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" s="21">
+      <c r="A1" s="37" t="inlineStr">
+        <is>
+          <t>TIME OF DAY ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Period:</t>
+        </is>
+      </c>
+      <c r="B2" s="30">
+        <f>Dashboard!B7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="38" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="B3" s="38" t="inlineStr">
+        <is>
+          <t>Hour Range</t>
+        </is>
+      </c>
+      <c r="C3" s="38" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D3" s="38" t="inlineStr">
+        <is>
+          <t>Risk Level</t>
+        </is>
+      </c>
+      <c r="E3" s="38" t="inlineStr">
+        <is>
+          <t>% of Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6:00 - 11:59</t>
+        </is>
+      </c>
+      <c r="C4">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A4)*1),COUNTIF('Data Entry'!M2:M356,A4)))</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>IF(C4&gt;=10,"🔴 HIGH",IF(C4&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
+        <v/>
+      </c>
+      <c r="E4" s="35">
+        <f>IF(SUM($C$4:$C$7)=0,0,C4/SUM($C$4:$C$7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>12:00 - 17:59</t>
+        </is>
+      </c>
+      <c r="C5">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A5)*1),COUNTIF('Data Entry'!M2:M356,A5)))</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>IF(C5&gt;=10,"🔴 HIGH",IF(C5&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
+        <v/>
+      </c>
+      <c r="E5" s="35">
+        <f>IF(SUM($C$4:$C$7)=0,0,C5/SUM($C$4:$C$7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18:00 - 21:59</t>
+        </is>
+      </c>
+      <c r="C6">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A6)*1),COUNTIF('Data Entry'!M2:M356,A6)))</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>IF(C6&gt;=10,"🔴 HIGH",IF(C6&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
+        <v/>
+      </c>
+      <c r="E6" s="35">
+        <f>IF(SUM($C$4:$C$7)=0,0,C6/SUM($C$4:$C$7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>22:00 - 5:59</t>
+        </is>
+      </c>
+      <c r="C7">
+        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A7)*1),COUNTIF('Data Entry'!M2:M356,A7)))</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>IF(C7&gt;=10,"🔴 HIGH",IF(C7&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
+        <v/>
+      </c>
+      <c r="E7" s="35">
+        <f>IF(SUM($C$4:$C$7)=0,0,C7/SUM($C$4:$C$7))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C8">
+        <f>SUM(C4:C7)</f>
+        <v/>
+      </c>
+      <c r="E8" s="35">
+        <f>SUM(E4:E7)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Type of program</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Priority Of Pt</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>All Time</t>
+        </is>
+      </c>
+      <c r="G1" s="30" t="inlineStr">
+        <is>
+          <t>Report Type</t>
+        </is>
+      </c>
+      <c r="H1" s="30" t="inlineStr">
+        <is>
+          <t>Week</t>
+        </is>
+      </c>
+      <c r="I1" s="30" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bystander</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Priority 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Jan-24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Priority 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Feb-24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Priority 3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Mar-24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Girl Skate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Priority 4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Apr-24</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Kicking Boxing</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>May-24</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Running with the pack</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Jun-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dancing</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Jul-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LFA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aug-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Morning Show</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sep-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Her Game</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Oct-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FNB Tournament</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Nov-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>OR Tambo Soncini Games</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Dec-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Clinic Stix Morewa Challenge</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Jan-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Discovery  Challenge</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Feb-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Afternoon Program</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Mar-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Apr-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Cause  of injury</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>May-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jun-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Jul-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Enviroment</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Aug-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NONE SPORTS CENTER</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sep-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Oct-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nov-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Dec-25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" style="21" min="1" max="1"/>
+    <col width="25" customWidth="1" style="21" min="2" max="2"/>
+    <col width="12" customWidth="1" style="21" min="3" max="3"/>
+    <col width="14" customWidth="1" style="21" min="4" max="4"/>
+    <col width="12" customWidth="1" style="21" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="37" t="inlineStr">
+        <is>
+          <t>INCIDENT SEVERITY ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="39" t="inlineStr">
+        <is>
+          <t>PRIORITY DISTRIBUTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="38" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="C5" s="38" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D5" s="38" t="inlineStr">
+        <is>
+          <t>% of Total</t>
+        </is>
+      </c>
+      <c r="E5" s="38" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Critical - Life threatening</t>
+        </is>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(MedicalData[Priority Of Pt],A6)</f>
+        <v/>
+      </c>
+      <c r="D6" s="35">
+        <f>IF(SUM($C$6:$C$9)=0,0,C6/SUM($C$6:$C$9))</f>
+        <v/>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CRITICAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Urgent - Serious injury</t>
+        </is>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(MedicalData[Priority Of Pt],A7)</f>
+        <v/>
+      </c>
+      <c r="D7" s="35">
+        <f>IF(SUM($C$6:$C$9)=0,0,C7/SUM($C$6:$C$9))</f>
+        <v/>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>URGENT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Standard - Moderate injury</t>
+        </is>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(MedicalData[Priority Of Pt],A8)</f>
+        <v/>
+      </c>
+      <c r="D8" s="35">
+        <f>IF(SUM($C$6:$C$9)=0,0,C8/SUM($C$6:$C$9))</f>
+        <v/>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>STANDARD</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Minor - First aid only</t>
+        </is>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(MedicalData[Priority Of Pt],A9)</f>
+        <v/>
+      </c>
+      <c r="D9" s="35">
+        <f>IF(SUM($C$6:$C$9)=0,0,C9/SUM($C$6:$C$9))</f>
+        <v/>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>MINOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="30" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C10" s="30">
+        <f>SUM(C6:C9)</f>
+        <v/>
+      </c>
+      <c r="D10" s="35">
+        <f>SUM(D6:D9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="inlineStr">
+        <is>
+          <t>HOSPITAL TRANSPORTATION ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="38" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="B15" s="38" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="C15" s="38" t="inlineStr">
+        <is>
+          <t>% of Total</t>
+        </is>
+      </c>
+      <c r="D15" s="38" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Required Transport</t>
+        </is>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(MedicalData[Hospital Transportation],"Yes")</f>
+        <v/>
+      </c>
+      <c r="C16" s="35">
+        <f>IF(SUM($B$16:$B$17)=0,0,B16/SUM($B$16:$B$17))</f>
+        <v/>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Cases requiring ambulance</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Treated On-Site</t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(MedicalData[Hospital Transportation],"NO")</f>
+        <v/>
+      </c>
+      <c r="C17" s="35">
+        <f>IF(SUM($B$16:$B$17)=0,0,B17/SUM($B$16:$B$17))</f>
+        <v/>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Resolved without transport</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="30" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B18" s="30">
+        <f>SUM(B16:B17)</f>
+        <v/>
+      </c>
+      <c r="C18" s="35" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="39" t="inlineStr">
+        <is>
+          <t>HIGH PRIORITY INCIDENTS BY VENUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="38" t="inlineStr">
+        <is>
+          <t>Venue</t>
+        </is>
+      </c>
+      <c r="B23" s="38" t="inlineStr">
+        <is>
+          <t>P1+P2 Cases</t>
+        </is>
+      </c>
+      <c r="C23" s="38" t="inlineStr">
+        <is>
+          <t>All Cases</t>
+        </is>
+      </c>
+      <c r="D23" s="38" t="inlineStr">
+        <is>
+          <t>Severity Rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>COUNTIFS(MedicalData[Site],A24,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A24,MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(MedicalData[Site],A24)</f>
+        <v/>
+      </c>
+      <c r="D24" s="35">
+        <f>IF(C24=0,0,B24/C24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>COUNTIFS(MedicalData[Site],A25,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A25,MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(MedicalData[Site],A25)</f>
+        <v/>
+      </c>
+      <c r="D25" s="35">
+        <f>IF(C25=0,0,B25/C25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Skate Park</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>COUNTIFS(MedicalData[Site],A26,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A26,MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(MedicalData[Site],A26)</f>
+        <v/>
+      </c>
+      <c r="D26" s="35">
+        <f>IF(C26=0,0,B26/C26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B27">
+        <f>COUNTIFS(MedicalData[Site],A27,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A27,MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(MedicalData[Site],A27)</f>
+        <v/>
+      </c>
+      <c r="D27" s="35">
+        <f>IF(C27=0,0,B27/C27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Outdoor gym</t>
+        </is>
+      </c>
+      <c r="B28">
+        <f>COUNTIFS(MedicalData[Site],A28,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A28,MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(MedicalData[Site],A28)</f>
+        <v/>
+      </c>
+      <c r="D28" s="35">
+        <f>IF(C28=0,0,B28/C28)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Athletics track</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>COUNTIFS(MedicalData[Site],A29,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A29,MedicalData[Priority Of Pt],"P2")</f>
+        <v/>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(MedicalData[Site],A29)</f>
+        <v/>
+      </c>
+      <c r="D29" s="35">
+        <f>IF(C29=0,0,B29/C29)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" style="21" min="1" max="1"/>
+    <col width="10" customWidth="1" style="21" min="2" max="2"/>
+    <col width="15" customWidth="1" style="21" min="4" max="4"/>
+    <col width="10" customWidth="1" style="21" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="32" t="inlineStr">
+        <is>
+          <t>FILTERED CHART DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="43" t="inlineStr">
+        <is>
+          <t>(Updates based on Dashboard selections)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="30" t="inlineStr">
+        <is>
+          <t>VENUE DATA</t>
+        </is>
+      </c>
+      <c r="D4" s="30" t="inlineStr">
+        <is>
+          <t>AGE DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="30" t="inlineStr">
+        <is>
+          <t>Venue</t>
+        </is>
+      </c>
+      <c r="B5" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D5" s="30" t="inlineStr">
+        <is>
+          <t>Age Group</t>
+        </is>
+      </c>
+      <c r="E5" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Skate Park</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6))))</f>
+        <v/>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0-12 years</t>
+        </is>
+      </c>
+      <c r="E6">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7))))</f>
+        <v/>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13-17 years</t>
+        </is>
+      </c>
+      <c r="E7">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="B8">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8))))</f>
+        <v/>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18-25 years</t>
+        </is>
+      </c>
+      <c r="E8">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Outdoor gym</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9))))</f>
+        <v/>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26-35 years</t>
+        </is>
+      </c>
+      <c r="E9">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JDI Studio </t>
+        </is>
+      </c>
+      <c r="B10">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10))))</f>
+        <v/>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36+ years</t>
+        </is>
+      </c>
+      <c r="E10">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=36)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=36)*1)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="B11">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Athletics track</t>
+        </is>
+      </c>
+      <c r="B12">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Change Rooms</t>
+        </is>
+      </c>
+      <c r="B13">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1KM RUN/WALK PATH</t>
+        </is>
+      </c>
+      <c r="B14">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="30" t="inlineStr">
+        <is>
+          <t>MECHANISM DATA</t>
+        </is>
+      </c>
+      <c r="D18" s="30" t="inlineStr">
+        <is>
+          <t>TIME DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="30" t="inlineStr">
+        <is>
+          <t>Mechanism</t>
+        </is>
+      </c>
+      <c r="B19" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D19" s="30" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="E19" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="B20">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20))))</f>
+        <v/>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="E20">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D20)*1),COUNTIF('Data Entry'!M2:M356,D20))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21))))</f>
+        <v/>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="E21">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D21)*1),COUNTIF('Data Entry'!M2:M356,D21))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="B22">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22))))</f>
+        <v/>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E22">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D22)*1),COUNTIF('Data Entry'!M2:M356,D22))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Struck by Equipment</t>
+        </is>
+      </c>
+      <c r="B23">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23))))</f>
+        <v/>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="E23">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D23)*1),COUNTIF('Data Entry'!M2:M356,D23))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Player-to-Object</t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A25)*1),COUNTIF('Data Entry'!D2:D356,A25))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Heat-Related</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A26)*1),COUNTIF('Data Entry'!D2:D356,A26))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="G30" s="33" t="inlineStr">
+        <is>
+          <t>SEVERITY DATA</t>
+        </is>
+      </c>
+      <c r="J30" s="33" t="inlineStr">
+        <is>
+          <t>PROGRAM DATA</t>
+        </is>
+      </c>
+      <c r="M30" s="33" t="inlineStr">
+        <is>
+          <t>DAY OF WEEK DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="G31" s="62" t="inlineStr">
+        <is>
+          <t>Priority</t>
+        </is>
+      </c>
+      <c r="H31" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="J31" s="62" t="inlineStr">
+        <is>
+          <t>Program</t>
+        </is>
+      </c>
+      <c r="K31" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="M31" s="62" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="N31" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="G32" s="63" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H32" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
+        <v/>
+      </c>
+      <c r="J32" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="K32" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
+        <v/>
+      </c>
+      <c r="M32" s="63" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="N32" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="G33" s="63" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H33" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
+        <v/>
+      </c>
+      <c r="J33" s="63" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="K33" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
+        <v/>
+      </c>
+      <c r="M33" s="63" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="N33" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="G34" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H34" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
+        <v/>
+      </c>
+      <c r="J34" s="63" t="inlineStr">
+        <is>
+          <t>Afternoon Program</t>
+        </is>
+      </c>
+      <c r="K34" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
+        <v/>
+      </c>
+      <c r="M34" s="63" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="N34" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="G35" s="63" t="inlineStr">
+        <is>
+          <t>P4</t>
+        </is>
+      </c>
+      <c r="H35" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
+        <v/>
+      </c>
+      <c r="J35" s="63" t="inlineStr">
+        <is>
+          <t>Girl Skate</t>
+        </is>
+      </c>
+      <c r="K35" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
+        <v/>
+      </c>
+      <c r="M35" s="63" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="N35" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="J36" s="63" t="inlineStr">
+        <is>
+          <t>NONE SPORTS CENTER</t>
+        </is>
+      </c>
+      <c r="K36" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
+        <v/>
+      </c>
+      <c r="M36" s="63" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="N36" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="M37" s="63" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N37" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="M38" s="63" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N38" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="P42" s="33" t="inlineStr">
+        <is>
+          <t>HOSPITAL TRANSPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="P43" s="62" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="Q43" s="62" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="P44" s="63" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q44" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="P45" s="63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q45" s="63">
+        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="P42:Q42"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:Z356"/>
@@ -13479,1435 +17812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Type of program</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Priority Of Pt</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>All Time</t>
-        </is>
-      </c>
-      <c r="G1" s="30" t="inlineStr">
-        <is>
-          <t>Report Type</t>
-        </is>
-      </c>
-      <c r="H1" s="30" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="I1" s="30" t="inlineStr">
-        <is>
-          <t>Quarter</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bystander</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Priority 1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Jan-24</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Week 1</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Q1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Priority 2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Feb-24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Week 2</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Q2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yoga</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Priority 3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mar-24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Week 3</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Q3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Girl Skate</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Priority 4</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Apr-24</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Week 4</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Q4</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Kicking Boxing</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>May-24</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Week 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Running with the pack</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Jun-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dancing</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Jul-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LFA</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Aug-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Morning Show</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Sep-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Her Game</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Oct-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FNB Tournament</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Nov-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OR Tambo Soncini Games</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Dec-24</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Clinic Stix Morewa Challenge</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Jan-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Discovery  Challenge</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Feb-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Afternoon Program</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Mar-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Open Play</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Apr-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Cause  of injury</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>May-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Jun-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Equipment</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Jul-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Enviroment</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Aug-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NONE SPORTS CENTER</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Sep-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Oct-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Nov-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Dec-25</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" style="21" min="1" max="1"/>
-    <col width="25" customWidth="1" style="21" min="2" max="2"/>
-    <col width="12" customWidth="1" style="21" min="3" max="3"/>
-    <col width="14" customWidth="1" style="21" min="4" max="4"/>
-    <col width="12" customWidth="1" style="21" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>INCIDENT SEVERITY ANALYSIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="39" t="inlineStr">
-        <is>
-          <t>PRIORITY DISTRIBUTION</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="38" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="B5" s="38" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C5" s="38" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="D5" s="38" t="inlineStr">
-        <is>
-          <t>% of Total</t>
-        </is>
-      </c>
-      <c r="E5" s="38" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Critical - Life threatening</t>
-        </is>
-      </c>
-      <c r="C6">
-        <f>COUNTIF(MedicalData[Priority Of Pt],A6)</f>
-        <v/>
-      </c>
-      <c r="D6" s="35">
-        <f>IF(SUM($C$6:$C$9)=0,0,C6/SUM($C$6:$C$9))</f>
-        <v/>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>CRITICAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Urgent - Serious injury</t>
-        </is>
-      </c>
-      <c r="C7">
-        <f>COUNTIF(MedicalData[Priority Of Pt],A7)</f>
-        <v/>
-      </c>
-      <c r="D7" s="35">
-        <f>IF(SUM($C$6:$C$9)=0,0,C7/SUM($C$6:$C$9))</f>
-        <v/>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>URGENT</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Standard - Moderate injury</t>
-        </is>
-      </c>
-      <c r="C8">
-        <f>COUNTIF(MedicalData[Priority Of Pt],A8)</f>
-        <v/>
-      </c>
-      <c r="D8" s="35">
-        <f>IF(SUM($C$6:$C$9)=0,0,C8/SUM($C$6:$C$9))</f>
-        <v/>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>STANDARD</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Minor - First aid only</t>
-        </is>
-      </c>
-      <c r="C9">
-        <f>COUNTIF(MedicalData[Priority Of Pt],A9)</f>
-        <v/>
-      </c>
-      <c r="D9" s="35">
-        <f>IF(SUM($C$6:$C$9)=0,0,C9/SUM($C$6:$C$9))</f>
-        <v/>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MINOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="30" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C10" s="30">
-        <f>SUM(C6:C9)</f>
-        <v/>
-      </c>
-      <c r="D10" s="35">
-        <f>SUM(D6:D9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="39" t="inlineStr">
-        <is>
-          <t>HOSPITAL TRANSPORTATION ANALYSIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="B15" s="38" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="C15" s="38" t="inlineStr">
-        <is>
-          <t>% of Total</t>
-        </is>
-      </c>
-      <c r="D15" s="38" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Required Transport</t>
-        </is>
-      </c>
-      <c r="B16">
-        <f>COUNTIF(MedicalData[Hospital Transportation],"Yes")</f>
-        <v/>
-      </c>
-      <c r="C16" s="35">
-        <f>IF(SUM($B$16:$B$17)=0,0,B16/SUM($B$16:$B$17))</f>
-        <v/>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Cases requiring ambulance</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Treated On-Site</t>
-        </is>
-      </c>
-      <c r="B17">
-        <f>COUNTIF(MedicalData[Hospital Transportation],"NO")</f>
-        <v/>
-      </c>
-      <c r="C17" s="35">
-        <f>IF(SUM($B$16:$B$17)=0,0,B17/SUM($B$16:$B$17))</f>
-        <v/>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Resolved without transport</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="30" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="B18" s="30">
-        <f>SUM(B16:B17)</f>
-        <v/>
-      </c>
-      <c r="C18" s="35" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="39" t="inlineStr">
-        <is>
-          <t>HIGH PRIORITY INCIDENTS BY VENUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="38" t="inlineStr">
-        <is>
-          <t>Venue</t>
-        </is>
-      </c>
-      <c r="B23" s="38" t="inlineStr">
-        <is>
-          <t>P1+P2 Cases</t>
-        </is>
-      </c>
-      <c r="C23" s="38" t="inlineStr">
-        <is>
-          <t>All Cases</t>
-        </is>
-      </c>
-      <c r="D23" s="38" t="inlineStr">
-        <is>
-          <t>Severity Rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11- A side </t>
-        </is>
-      </c>
-      <c r="B24">
-        <f>COUNTIFS(MedicalData[Site],A24,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A24,MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C24">
-        <f>COUNTIF(MedicalData[Site],A24)</f>
-        <v/>
-      </c>
-      <c r="D24" s="35">
-        <f>IF(C24=0,0,B24/C24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 A side </t>
-        </is>
-      </c>
-      <c r="B25">
-        <f>COUNTIFS(MedicalData[Site],A25,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A25,MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C25">
-        <f>COUNTIF(MedicalData[Site],A25)</f>
-        <v/>
-      </c>
-      <c r="D25" s="35">
-        <f>IF(C25=0,0,B25/C25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Skate Park</t>
-        </is>
-      </c>
-      <c r="B26">
-        <f>COUNTIFS(MedicalData[Site],A26,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A26,MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C26">
-        <f>COUNTIF(MedicalData[Site],A26)</f>
-        <v/>
-      </c>
-      <c r="D26" s="35">
-        <f>IF(C26=0,0,B26/C26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B27">
-        <f>COUNTIFS(MedicalData[Site],A27,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A27,MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C27">
-        <f>COUNTIF(MedicalData[Site],A27)</f>
-        <v/>
-      </c>
-      <c r="D27" s="35">
-        <f>IF(C27=0,0,B27/C27)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Outdoor gym</t>
-        </is>
-      </c>
-      <c r="B28">
-        <f>COUNTIFS(MedicalData[Site],A28,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A28,MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C28">
-        <f>COUNTIF(MedicalData[Site],A28)</f>
-        <v/>
-      </c>
-      <c r="D28" s="35">
-        <f>IF(C28=0,0,B28/C28)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Athletics track</t>
-        </is>
-      </c>
-      <c r="B29">
-        <f>COUNTIFS(MedicalData[Site],A29,MedicalData[Priority Of Pt],"P1")+COUNTIFS(MedicalData[Site],A29,MedicalData[Priority Of Pt],"P2")</f>
-        <v/>
-      </c>
-      <c r="C29">
-        <f>COUNTIF(MedicalData[Site],A29)</f>
-        <v/>
-      </c>
-      <c r="D29" s="35">
-        <f>IF(C29=0,0,B29/C29)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" style="21" min="1" max="1"/>
-    <col width="10" customWidth="1" style="21" min="2" max="2"/>
-    <col width="15" customWidth="1" style="21" min="4" max="4"/>
-    <col width="10" customWidth="1" style="21" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="32" t="inlineStr">
-        <is>
-          <t>FILTERED CHART DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="43" t="inlineStr">
-        <is>
-          <t>(Updates based on Dashboard selections)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>VENUE DATA</t>
-        </is>
-      </c>
-      <c r="D4" s="30" t="inlineStr">
-        <is>
-          <t>AGE DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Venue</t>
-        </is>
-      </c>
-      <c r="B5" s="30" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="D5" s="30" t="inlineStr">
-        <is>
-          <t>Age Group</t>
-        </is>
-      </c>
-      <c r="E5" s="30" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Skate Park</t>
-        </is>
-      </c>
-      <c r="B6">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6))))</f>
-        <v/>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0-12 years</t>
-        </is>
-      </c>
-      <c r="E6">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5 A side </t>
-        </is>
-      </c>
-      <c r="B7">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7))))</f>
-        <v/>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13-17 years</t>
-        </is>
-      </c>
-      <c r="E7">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Basketball</t>
-        </is>
-      </c>
-      <c r="B8">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8))))</f>
-        <v/>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18-25 years</t>
-        </is>
-      </c>
-      <c r="E8">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Outdoor gym</t>
-        </is>
-      </c>
-      <c r="B9">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9))))</f>
-        <v/>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>26-35 years</t>
-        </is>
-      </c>
-      <c r="E9">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">JDI Studio </t>
-        </is>
-      </c>
-      <c r="B10">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10))))</f>
-        <v/>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>36+ years</t>
-        </is>
-      </c>
-      <c r="E10">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=36)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=36)*1)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11- A side </t>
-        </is>
-      </c>
-      <c r="B11">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Athletics track</t>
-        </is>
-      </c>
-      <c r="B12">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Change Rooms</t>
-        </is>
-      </c>
-      <c r="B13">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1KM RUN/WALK PATH</t>
-        </is>
-      </c>
-      <c r="B14">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="30" t="inlineStr">
-        <is>
-          <t>MECHANISM DATA</t>
-        </is>
-      </c>
-      <c r="D18" s="30" t="inlineStr">
-        <is>
-          <t>TIME DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="30" t="inlineStr">
-        <is>
-          <t>Mechanism</t>
-        </is>
-      </c>
-      <c r="B19" s="30" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="D19" s="30" t="inlineStr">
-        <is>
-          <t>Time Period</t>
-        </is>
-      </c>
-      <c r="E19" s="30" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Player-to-Player</t>
-        </is>
-      </c>
-      <c r="B20">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20))))</f>
-        <v/>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="E20">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D20)*1),COUNTIF('Data Entry'!M2:M356,D20))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Slips, Trips and falls</t>
-        </is>
-      </c>
-      <c r="B21">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21))))</f>
-        <v/>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="E21">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D21)*1),COUNTIF('Data Entry'!M2:M356,D21))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Muscle Strains</t>
-        </is>
-      </c>
-      <c r="B22">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22))))</f>
-        <v/>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Evening</t>
-        </is>
-      </c>
-      <c r="E22">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D22)*1),COUNTIF('Data Entry'!M2:M356,D22))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Struck by Equipment</t>
-        </is>
-      </c>
-      <c r="B23">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23))))</f>
-        <v/>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="E23">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D23)*1),COUNTIF('Data Entry'!M2:M356,D23))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Player-to-Object</t>
-        </is>
-      </c>
-      <c r="B24">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Medical</t>
-        </is>
-      </c>
-      <c r="B25">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A25)*1),COUNTIF('Data Entry'!D2:D356,A25))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Heat-Related</t>
-        </is>
-      </c>
-      <c r="B26">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A26)*1),COUNTIF('Data Entry'!D2:D356,A26))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="G30" s="33" t="inlineStr">
-        <is>
-          <t>SEVERITY DATA</t>
-        </is>
-      </c>
-      <c r="J30" s="33" t="inlineStr">
-        <is>
-          <t>PROGRAM DATA</t>
-        </is>
-      </c>
-      <c r="M30" s="33" t="inlineStr">
-        <is>
-          <t>DAY OF WEEK DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="G31" s="62" t="inlineStr">
-        <is>
-          <t>Priority</t>
-        </is>
-      </c>
-      <c r="H31" s="62" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="J31" s="62" t="inlineStr">
-        <is>
-          <t>Program</t>
-        </is>
-      </c>
-      <c r="K31" s="62" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="M31" s="62" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="N31" s="62" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="G32" s="63" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="H32" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
-        <v/>
-      </c>
-      <c r="J32" s="63" t="inlineStr">
-        <is>
-          <t>Open Play</t>
-        </is>
-      </c>
-      <c r="K32" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
-        <v/>
-      </c>
-      <c r="M32" s="63" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="N32" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="G33" s="63" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H33" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
-        <v/>
-      </c>
-      <c r="J33" s="63" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="K33" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
-        <v/>
-      </c>
-      <c r="M33" s="63" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="N33" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="G34" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
-      </c>
-      <c r="H34" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
-        <v/>
-      </c>
-      <c r="J34" s="63" t="inlineStr">
-        <is>
-          <t>Afternoon Program</t>
-        </is>
-      </c>
-      <c r="K34" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
-        <v/>
-      </c>
-      <c r="M34" s="63" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="N34" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="G35" s="63" t="inlineStr">
-        <is>
-          <t>P4</t>
-        </is>
-      </c>
-      <c r="H35" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
-        <v/>
-      </c>
-      <c r="J35" s="63" t="inlineStr">
-        <is>
-          <t>Girl Skate</t>
-        </is>
-      </c>
-      <c r="K35" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
-        <v/>
-      </c>
-      <c r="M35" s="63" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="N35" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="J36" s="63" t="inlineStr">
-        <is>
-          <t>NONE SPORTS CENTER</t>
-        </is>
-      </c>
-      <c r="K36" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
-        <v/>
-      </c>
-      <c r="M36" s="63" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="N36" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="M37" s="63" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="N37" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="M38" s="63" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="N38" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="P42" s="33" t="inlineStr">
-        <is>
-          <t>HOSPITAL TRANSPORT</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="P43" s="62" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="Q43" s="62" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="P44" s="63" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="Q44" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="P45" s="63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="Q45" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="P42:Q42"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15530,18 +18435,6 @@
           <t>INJURY PATTERNS</t>
         </is>
       </c>
-      <c r="C27" s="92" t="n"/>
-      <c r="D27" s="92" t="n"/>
-      <c r="E27" s="92" t="n"/>
-      <c r="F27" s="92" t="n"/>
-      <c r="G27" s="92" t="n"/>
-      <c r="H27" s="92" t="n"/>
-      <c r="I27" s="92" t="n"/>
-      <c r="J27" s="92" t="n"/>
-      <c r="K27" s="92" t="n"/>
-      <c r="L27" s="92" t="n"/>
-      <c r="M27" s="92" t="n"/>
-      <c r="N27" s="92" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="42" t="n"/>
@@ -15778,18 +18671,6 @@
           <t>SEVERITY &amp; PROGRAM ANALYSIS</t>
         </is>
       </c>
-      <c r="C43" s="92" t="n"/>
-      <c r="D43" s="92" t="n"/>
-      <c r="E43" s="92" t="n"/>
-      <c r="F43" s="92" t="n"/>
-      <c r="G43" s="92" t="n"/>
-      <c r="H43" s="92" t="n"/>
-      <c r="I43" s="92" t="n"/>
-      <c r="J43" s="92" t="n"/>
-      <c r="K43" s="92" t="n"/>
-      <c r="L43" s="92" t="n"/>
-      <c r="M43" s="92" t="n"/>
-      <c r="N43" s="92" t="n"/>
     </row>
     <row r="44">
       <c r="B44" s="92" t="n"/>
@@ -16028,18 +18909,6 @@
           <t>OPERATIONAL INSIGHTS</t>
         </is>
       </c>
-      <c r="C59" s="92" t="n"/>
-      <c r="D59" s="92" t="n"/>
-      <c r="E59" s="92" t="n"/>
-      <c r="F59" s="92" t="n"/>
-      <c r="G59" s="92" t="n"/>
-      <c r="H59" s="92" t="n"/>
-      <c r="I59" s="92" t="n"/>
-      <c r="J59" s="92" t="n"/>
-      <c r="K59" s="92" t="n"/>
-      <c r="L59" s="92" t="n"/>
-      <c r="M59" s="92" t="n"/>
-      <c r="N59" s="92" t="n"/>
     </row>
     <row r="60">
       <c r="B60" s="92" t="n"/>
@@ -16837,7 +19706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17464,7 +20333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17903,7 +20772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18037,7 +20906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18399,7 +21268,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18863,7 +21732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19327,186 +22196,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14" customWidth="1" style="21" min="1" max="2"/>
-    <col width="14" customWidth="1" style="21" min="2" max="2"/>
-    <col width="10" customWidth="1" style="21" min="3" max="3"/>
-    <col width="12" customWidth="1" style="21" min="4" max="4"/>
-    <col width="12" customWidth="1" style="21" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="21">
-      <c r="A1" s="37" t="inlineStr">
-        <is>
-          <t>TIME OF DAY ANALYSIS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Period:</t>
-        </is>
-      </c>
-      <c r="B2" s="30">
-        <f>Dashboard!B7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="38" t="inlineStr">
-        <is>
-          <t>Time Period</t>
-        </is>
-      </c>
-      <c r="B3" s="38" t="inlineStr">
-        <is>
-          <t>Hour Range</t>
-        </is>
-      </c>
-      <c r="C3" s="38" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="D3" s="38" t="inlineStr">
-        <is>
-          <t>Risk Level</t>
-        </is>
-      </c>
-      <c r="E3" s="38" t="inlineStr">
-        <is>
-          <t>% of Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>6:00 - 11:59</t>
-        </is>
-      </c>
-      <c r="C4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A4)*1),COUNTIF('Data Entry'!M2:M356,A4)))</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>IF(C4&gt;=10,"🔴 HIGH",IF(C4&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
-        <v/>
-      </c>
-      <c r="E4" s="35">
-        <f>IF(SUM($C$4:$C$7)=0,0,C4/SUM($C$4:$C$7))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>12:00 - 17:59</t>
-        </is>
-      </c>
-      <c r="C5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A5)*1),COUNTIF('Data Entry'!M2:M356,A5)))</f>
-        <v/>
-      </c>
-      <c r="D5">
-        <f>IF(C5&gt;=10,"🔴 HIGH",IF(C5&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
-        <v/>
-      </c>
-      <c r="E5" s="35">
-        <f>IF(SUM($C$4:$C$7)=0,0,C5/SUM($C$4:$C$7))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Evening</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>18:00 - 21:59</t>
-        </is>
-      </c>
-      <c r="C6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A6)*1),COUNTIF('Data Entry'!M2:M356,A6)))</f>
-        <v/>
-      </c>
-      <c r="D6">
-        <f>IF(C6&gt;=10,"🔴 HIGH",IF(C6&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
-        <v/>
-      </c>
-      <c r="E6" s="35">
-        <f>IF(SUM($C$4:$C$7)=0,0,C6/SUM($C$4:$C$7))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>22:00 - 5:59</t>
-        </is>
-      </c>
-      <c r="C7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!M2:M356=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!M2:M356=A7)*1),COUNTIF('Data Entry'!M2:M356,A7)))</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>IF(C7&gt;=10,"🔴 HIGH",IF(C7&gt;=5,"🟡 MEDIUM","🟢 LOW"))</f>
-        <v/>
-      </c>
-      <c r="E7" s="35">
-        <f>IF(SUM($C$4:$C$7)=0,0,C7/SUM($C$4:$C$7))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C8">
-        <f>SUM(C4:C7)</f>
-        <v/>
-      </c>
-      <c r="E8" s="35">
-        <f>SUM(E4:E7)</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -2390,7 +2390,6 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2451,7 +2450,6 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="11"/>
   <chart>
     <title>
       <tx>
@@ -2546,7 +2544,6 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="14"/>
   <chart>
     <title>
       <tx>
@@ -2641,7 +2638,6 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -4203,6 +4199,18 @@
           <t>SEVERITY &amp; PROGRAM ANALYSIS</t>
         </is>
       </c>
+      <c r="C50" s="137" t="n"/>
+      <c r="D50" s="137" t="n"/>
+      <c r="E50" s="137" t="n"/>
+      <c r="F50" s="137" t="n"/>
+      <c r="G50" s="137" t="n"/>
+      <c r="H50" s="137" t="n"/>
+      <c r="I50" s="137" t="n"/>
+      <c r="J50" s="137" t="n"/>
+      <c r="K50" s="137" t="n"/>
+      <c r="L50" s="137" t="n"/>
+      <c r="M50" s="137" t="n"/>
+      <c r="N50" s="138" t="n"/>
     </row>
     <row r="51" ht="18" customHeight="1" s="21">
       <c r="B51" s="128" t="n"/>
@@ -4435,6 +4443,18 @@
           <t>OPERATIONAL INSIGHTS</t>
         </is>
       </c>
+      <c r="C68" s="137" t="n"/>
+      <c r="D68" s="137" t="n"/>
+      <c r="E68" s="137" t="n"/>
+      <c r="F68" s="137" t="n"/>
+      <c r="G68" s="137" t="n"/>
+      <c r="H68" s="137" t="n"/>
+      <c r="I68" s="137" t="n"/>
+      <c r="J68" s="137" t="n"/>
+      <c r="K68" s="137" t="n"/>
+      <c r="L68" s="137" t="n"/>
+      <c r="M68" s="137" t="n"/>
+      <c r="N68" s="138" t="n"/>
     </row>
     <row r="69" ht="18" customHeight="1" s="21">
       <c r="B69" s="128" t="n"/>
@@ -5780,7 +5800,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6))))</f>
         <v/>
       </c>
       <c r="D6" t="inlineStr">
@@ -5789,7 +5809,7 @@
         </is>
       </c>
       <c r="E6">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=0)*('Data Entry'!C2:C356&lt;=12)*1)))</f>
         <v/>
       </c>
     </row>
@@ -5800,7 +5820,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7))))</f>
         <v/>
       </c>
       <c r="D7" t="inlineStr">
@@ -5809,7 +5829,7 @@
         </is>
       </c>
       <c r="E7">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=13)*('Data Entry'!C2:C356&lt;=17)*1)))</f>
         <v/>
       </c>
     </row>
@@ -5820,7 +5840,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A8)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A8)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8))))</f>
         <v/>
       </c>
       <c r="D8" t="inlineStr">
@@ -5829,7 +5849,7 @@
         </is>
       </c>
       <c r="E8">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=18)*('Data Entry'!C2:C356&lt;=25)*1)))</f>
         <v/>
       </c>
     </row>
@@ -5840,7 +5860,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A9)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A9)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9))))</f>
         <v/>
       </c>
       <c r="D9" t="inlineStr">
@@ -5849,7 +5869,7 @@
         </is>
       </c>
       <c r="E9">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=26)*('Data Entry'!C2:C356&lt;=35)*1)))</f>
         <v/>
       </c>
     </row>
@@ -5860,7 +5880,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A10)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A10)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10))))</f>
         <v/>
       </c>
       <c r="D10" t="inlineStr">
@@ -5869,7 +5889,7 @@
         </is>
       </c>
       <c r="E10">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!C2:C356&gt;=36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!C2:C356&gt;=36)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=36)*1)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!C2:C356&gt;=36)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!C2:C356&gt;=36)*1),SUMPRODUCT(('Data Entry'!C2:C356&gt;=36)*1)))</f>
         <v/>
       </c>
     </row>
@@ -5880,7 +5900,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
         <v/>
       </c>
     </row>
@@ -5891,7 +5911,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
         <v/>
       </c>
     </row>
@@ -5902,7 +5922,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
         <v/>
       </c>
     </row>
@@ -5913,7 +5933,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
         <v/>
       </c>
     </row>
@@ -5958,7 +5978,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A20)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A20)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20))))</f>
         <v/>
       </c>
       <c r="D20" t="inlineStr">
@@ -5967,7 +5987,7 @@
         </is>
       </c>
       <c r="E20">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D20)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D20)*1),COUNTIF('Data Entry'!M2:M356,D20))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D20)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D20)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D20)*1),COUNTIF('Data Entry'!M2:M356,D20))))</f>
         <v/>
       </c>
     </row>
@@ -5978,7 +5998,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A21)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A21)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21))))</f>
         <v/>
       </c>
       <c r="D21" t="inlineStr">
@@ -5987,7 +6007,7 @@
         </is>
       </c>
       <c r="E21">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D21)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D21)*1),COUNTIF('Data Entry'!M2:M356,D21))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D21)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D21)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D21)*1),COUNTIF('Data Entry'!M2:M356,D21))))</f>
         <v/>
       </c>
     </row>
@@ -5998,7 +6018,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A22)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A22)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22))))</f>
         <v/>
       </c>
       <c r="D22" t="inlineStr">
@@ -6007,7 +6027,7 @@
         </is>
       </c>
       <c r="E22">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D22)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D22)*1),COUNTIF('Data Entry'!M2:M356,D22))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D22)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D22)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D22)*1),COUNTIF('Data Entry'!M2:M356,D22))))</f>
         <v/>
       </c>
     </row>
@@ -6018,7 +6038,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A23)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A23)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23))))</f>
         <v/>
       </c>
       <c r="D23" t="inlineStr">
@@ -6027,7 +6047,7 @@
         </is>
       </c>
       <c r="E23">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!M2:M356=D23)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!M2:M356=D23)*1),COUNTIF('Data Entry'!M2:M356,D23))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D23)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D23)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D23)*1),COUNTIF('Data Entry'!M2:M356,D23))))</f>
         <v/>
       </c>
     </row>
@@ -6038,7 +6058,7 @@
         </is>
       </c>
       <c r="B24">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A24)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A24)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24))))</f>
         <v/>
       </c>
     </row>
@@ -6049,7 +6069,7 @@
         </is>
       </c>
       <c r="B25">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A25)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A25)*1),COUNTIF('Data Entry'!D2:D356,A25))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A25)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A25)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A25)*1),COUNTIF('Data Entry'!D2:D356,A25))))</f>
         <v/>
       </c>
     </row>
@@ -6060,7 +6080,7 @@
         </is>
       </c>
       <c r="B26">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!D2:D356=A26)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!D2:D356=A26)*1),COUNTIF('Data Entry'!D2:D356,A26))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A26)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A26)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A26)*1),COUNTIF('Data Entry'!D2:D356,A26))))</f>
         <v/>
       </c>
     </row>
@@ -6120,7 +6140,7 @@
         </is>
       </c>
       <c r="H32" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G32)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G32)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
         <v/>
       </c>
       <c r="J32" s="63" t="inlineStr">
@@ -6129,7 +6149,7 @@
         </is>
       </c>
       <c r="K32" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
         <v/>
       </c>
       <c r="M32" s="63" t="inlineStr">
@@ -6138,7 +6158,7 @@
         </is>
       </c>
       <c r="N32" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
         <v/>
       </c>
     </row>
@@ -6149,7 +6169,7 @@
         </is>
       </c>
       <c r="H33" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G33)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G33)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
         <v/>
       </c>
       <c r="J33" s="63" t="inlineStr">
@@ -6158,7 +6178,7 @@
         </is>
       </c>
       <c r="K33" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
         <v/>
       </c>
       <c r="M33" s="63" t="inlineStr">
@@ -6167,7 +6187,7 @@
         </is>
       </c>
       <c r="N33" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
         <v/>
       </c>
     </row>
@@ -6178,7 +6198,7 @@
         </is>
       </c>
       <c r="H34" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G34)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G34)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
         <v/>
       </c>
       <c r="J34" s="63" t="inlineStr">
@@ -6187,7 +6207,7 @@
         </is>
       </c>
       <c r="K34" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
         <v/>
       </c>
       <c r="M34" s="63" t="inlineStr">
@@ -6196,7 +6216,7 @@
         </is>
       </c>
       <c r="N34" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
         <v/>
       </c>
     </row>
@@ -6207,7 +6227,7 @@
         </is>
       </c>
       <c r="H35" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!I2:I356=G35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G35)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G35)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
         <v/>
       </c>
       <c r="J35" s="63" t="inlineStr">
@@ -6216,7 +6236,7 @@
         </is>
       </c>
       <c r="K35" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
         <v/>
       </c>
       <c r="M35" s="63" t="inlineStr">
@@ -6225,7 +6245,7 @@
         </is>
       </c>
       <c r="N35" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
         <v/>
       </c>
     </row>
@@ -6236,7 +6256,7 @@
         </is>
       </c>
       <c r="K36" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
         <v/>
       </c>
       <c r="M36" s="63" t="inlineStr">
@@ -6245,7 +6265,7 @@
         </is>
       </c>
       <c r="N36" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
         <v/>
       </c>
     </row>
@@ -6256,7 +6276,7 @@
         </is>
       </c>
       <c r="N37" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
         <v/>
       </c>
     </row>
@@ -6267,7 +6287,7 @@
         </is>
       </c>
       <c r="N38" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
         <v/>
       </c>
     </row>
@@ -6297,7 +6317,7 @@
         </is>
       </c>
       <c r="Q44" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P44)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!J2:J356=P44)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!J2:J356=P44)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
         <v/>
       </c>
     </row>
@@ -6308,7 +6328,7 @@
         </is>
       </c>
       <c r="Q45" s="63">
-        <f>IF(Dashboard!C5="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!P5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!Q5)*(YEAR('Data Entry'!A2:A356)=Dashboard!R5)*('Data Entry'!J2:J356=P45)*1),IF(Dashboard!C5="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=Dashboard!K5)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!J2:J356=P45)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!J2:J356=P45)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
         <v/>
       </c>
     </row>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$114</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Dashboard'!$A$1:$O$76</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -33,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="59">
+  <fonts count="67">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -357,8 +357,50 @@
       <color rgb="00888888"/>
       <sz val="8"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00DC3545"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00198754"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="00FFC107"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="000D6EFD"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="000D1B2A"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="000D1B2A"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="9"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill/>
     </fill>
@@ -467,8 +509,14 @@
         <bgColor rgb="00F8F9FA"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DC3545"/>
+        <bgColor rgb="00DC3545"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1141,11 +1189,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00DC3545"/>
+      </left>
+      <right style="medium">
+        <color rgb="00DC3545"/>
+      </right>
+      <top style="medium">
+        <color rgb="00DC3545"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00DC3545"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <bottom>
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right>
+        <color rgb="00415A77"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left>
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00DC3545"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00DC3545"/>
+      </right>
+      <top style="medium">
+        <color rgb="00DC3545"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00DC3545"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00DC3545"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00DC3545"/>
+      </right>
+      <top style="medium">
+        <color rgb="00DC3545"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00DC3545"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00DEE2E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1410,6 +1610,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="57" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="61" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="59" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="63" fillId="15" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="59" fillId="15" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="15" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="61" fillId="15" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="60" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="18" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="19" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3479,7 +3711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R86"/>
+  <dimension ref="A2:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -4688,8 +4920,665 @@
         </is>
       </c>
     </row>
+    <row r="87" ht="15" customHeight="1" s="21"/>
+    <row r="88" ht="28" customHeight="1" s="21">
+      <c r="B88" s="140" t="inlineStr">
+        <is>
+          <t>AUTOMATED SAFETY ALERTS</t>
+        </is>
+      </c>
+      <c r="C88" s="154" t="n"/>
+      <c r="D88" s="154" t="n"/>
+      <c r="E88" s="154" t="n"/>
+      <c r="F88" s="154" t="n"/>
+      <c r="G88" s="154" t="n"/>
+      <c r="H88" s="154" t="n"/>
+      <c r="I88" s="154" t="n"/>
+      <c r="J88" s="154" t="n"/>
+      <c r="K88" s="154" t="n"/>
+      <c r="L88" s="154" t="n"/>
+      <c r="M88" s="154" t="n"/>
+      <c r="N88" s="155" t="n"/>
+    </row>
+    <row r="89" ht="20" customHeight="1" s="21">
+      <c r="B89" s="141" t="n"/>
+      <c r="C89" s="142" t="n"/>
+      <c r="D89" s="142" t="n"/>
+      <c r="E89" s="142" t="n"/>
+      <c r="F89" s="142" t="n"/>
+      <c r="G89" s="142" t="n"/>
+      <c r="H89" s="142" t="n"/>
+      <c r="I89" s="142" t="n"/>
+      <c r="J89" s="142" t="n"/>
+      <c r="K89" s="142" t="n"/>
+      <c r="L89" s="142" t="n"/>
+      <c r="M89" s="142" t="n"/>
+      <c r="N89" s="143" t="n"/>
+    </row>
+    <row r="90" ht="20" customHeight="1" s="21">
+      <c r="B90" s="144" t="inlineStr">
+        <is>
+          <t>Alert 1: High-Risk Venue</t>
+        </is>
+      </c>
+      <c r="C90" s="142" t="n"/>
+      <c r="D90" s="142" t="n"/>
+      <c r="E90" s="142" t="n"/>
+      <c r="F90" s="142" t="n"/>
+      <c r="G90" s="142" t="n"/>
+      <c r="H90" s="142" t="n"/>
+      <c r="I90" s="145" t="inlineStr">
+        <is>
+          <t>IMMEDIATE ACTIONS</t>
+        </is>
+      </c>
+      <c r="J90" s="142" t="n"/>
+      <c r="K90" s="142" t="n"/>
+      <c r="L90" s="145" t="inlineStr">
+        <is>
+          <t>PREVENTIVE MEASURES</t>
+        </is>
+      </c>
+      <c r="M90" s="142" t="n"/>
+      <c r="N90" s="143" t="n"/>
+    </row>
+    <row r="91" ht="20" customHeight="1" s="21">
+      <c r="B91" s="141" t="n"/>
+      <c r="C91" s="146">
+        <f>IFERROR(INDEX('Data Entry'!F2:F356,MATCH(MAX(COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356)),COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356),0)),"No data")</f>
+        <v/>
+      </c>
+      <c r="H91" s="142" t="n"/>
+      <c r="I91" s="147" t="inlineStr">
+        <is>
+          <t>• Increase supervision at highest-risk venue</t>
+        </is>
+      </c>
+      <c r="J91" s="142" t="n"/>
+      <c r="K91" s="142" t="n"/>
+      <c r="L91" s="147" t="inlineStr">
+        <is>
+          <t>• Mandatory warm-up demonstrations</t>
+        </is>
+      </c>
+      <c r="M91" s="142" t="n"/>
+      <c r="N91" s="143" t="n"/>
+    </row>
+    <row r="92" ht="20" customHeight="1" s="21">
+      <c r="B92" s="141" t="n"/>
+      <c r="C92" s="142" t="n"/>
+      <c r="D92" s="142" t="n"/>
+      <c r="E92" s="142" t="n"/>
+      <c r="F92" s="142" t="n"/>
+      <c r="G92" s="142" t="n"/>
+      <c r="H92" s="142" t="n"/>
+      <c r="I92" s="147" t="inlineStr">
+        <is>
+          <t>• Review ankle support equipment</t>
+        </is>
+      </c>
+      <c r="J92" s="142" t="n"/>
+      <c r="K92" s="142" t="n"/>
+      <c r="L92" s="147" t="inlineStr">
+        <is>
+          <t>• Pre-activity equipment checks</t>
+        </is>
+      </c>
+      <c r="M92" s="142" t="n"/>
+      <c r="N92" s="143" t="n"/>
+    </row>
+    <row r="93" ht="20" customHeight="1" s="21">
+      <c r="B93" s="144" t="inlineStr">
+        <is>
+          <t>Alert 2: Ankle Injuries</t>
+        </is>
+      </c>
+      <c r="C93" s="142" t="n"/>
+      <c r="D93" s="142" t="n"/>
+      <c r="E93" s="142" t="n"/>
+      <c r="F93" s="142" t="n"/>
+      <c r="G93" s="142" t="n"/>
+      <c r="H93" s="142" t="n"/>
+      <c r="I93" s="147" t="inlineStr">
+        <is>
+          <t>• Enhanced safety briefings</t>
+        </is>
+      </c>
+      <c r="J93" s="142" t="n"/>
+      <c r="K93" s="142" t="n"/>
+      <c r="L93" s="147" t="inlineStr">
+        <is>
+          <t>• Surface inspection protocols</t>
+        </is>
+      </c>
+      <c r="M93" s="142" t="n"/>
+      <c r="N93" s="143" t="n"/>
+    </row>
+    <row r="94" ht="20" customHeight="1" s="21">
+      <c r="B94" s="141" t="n"/>
+      <c r="C94" s="148">
+        <f>IF(COUNTIF('Data Entry'!H2:H356,"*ankle*")&gt;5,"WARNING: "&amp;COUNTIF('Data Entry'!H2:H356,"*ankle*")&amp;" ankle injuries recorded","Ankle injury rate acceptable")</f>
+        <v/>
+      </c>
+      <c r="H94" s="142" t="n"/>
+      <c r="I94" s="147" t="inlineStr">
+        <is>
+          <t>• Install additional signage</t>
+        </is>
+      </c>
+      <c r="J94" s="142" t="n"/>
+      <c r="K94" s="142" t="n"/>
+      <c r="L94" s="147" t="inlineStr">
+        <is>
+          <t>• Age-appropriate activity segregation</t>
+        </is>
+      </c>
+      <c r="M94" s="142" t="n"/>
+      <c r="N94" s="143" t="n"/>
+    </row>
+    <row r="95" ht="20" customHeight="1" s="21">
+      <c r="B95" s="141" t="n"/>
+      <c r="C95" s="142" t="n"/>
+      <c r="D95" s="142" t="n"/>
+      <c r="E95" s="142" t="n"/>
+      <c r="F95" s="142" t="n"/>
+      <c r="G95" s="142" t="n"/>
+      <c r="H95" s="142" t="n"/>
+      <c r="I95" s="147" t="inlineStr">
+        <is>
+          <t>• Conduct facility safety audit</t>
+        </is>
+      </c>
+      <c r="J95" s="142" t="n"/>
+      <c r="K95" s="142" t="n"/>
+      <c r="L95" s="147" t="inlineStr">
+        <is>
+          <t>• Monthly safety training</t>
+        </is>
+      </c>
+      <c r="M95" s="142" t="n"/>
+      <c r="N95" s="143" t="n"/>
+    </row>
+    <row r="96" ht="20" customHeight="1" s="21">
+      <c r="B96" s="144" t="inlineStr">
+        <is>
+          <t>Alert 3: Player Contact</t>
+        </is>
+      </c>
+      <c r="C96" s="142" t="n"/>
+      <c r="D96" s="142" t="n"/>
+      <c r="E96" s="142" t="n"/>
+      <c r="F96" s="142" t="n"/>
+      <c r="G96" s="142" t="n"/>
+      <c r="H96" s="142" t="n"/>
+      <c r="I96" s="147" t="inlineStr">
+        <is>
+          <t>• Review incident response times</t>
+        </is>
+      </c>
+      <c r="J96" s="142" t="n"/>
+      <c r="K96" s="142" t="n"/>
+      <c r="L96" s="147" t="inlineStr">
+        <is>
+          <t>• Update emergency procedures</t>
+        </is>
+      </c>
+      <c r="M96" s="142" t="n"/>
+      <c r="N96" s="143" t="n"/>
+    </row>
+    <row r="97" ht="20" customHeight="1" s="21">
+      <c r="B97" s="141" t="n"/>
+      <c r="C97" s="149">
+        <f>IF(COUNTIF('Data Entry'!D2:D356,"Player-to-Player")&gt;10,"ALERT: "&amp;COUNTIF('Data Entry'!D2:D356,"Player-to-Player")&amp;" player-to-player incidents. Review supervision.","Player contact within normal range")</f>
+        <v/>
+      </c>
+      <c r="H97" s="142" t="n"/>
+      <c r="I97" s="142" t="n"/>
+      <c r="J97" s="142" t="n"/>
+      <c r="K97" s="142" t="n"/>
+      <c r="L97" s="142" t="n"/>
+      <c r="M97" s="142" t="n"/>
+      <c r="N97" s="143" t="n"/>
+    </row>
+    <row r="98" ht="20" customHeight="1" s="21">
+      <c r="B98" s="141" t="n"/>
+      <c r="C98" s="142" t="n"/>
+      <c r="D98" s="142" t="n"/>
+      <c r="E98" s="142" t="n"/>
+      <c r="F98" s="142" t="n"/>
+      <c r="G98" s="142" t="n"/>
+      <c r="H98" s="142" t="n"/>
+      <c r="I98" s="142" t="n"/>
+      <c r="J98" s="142" t="n"/>
+      <c r="K98" s="142" t="n"/>
+      <c r="L98" s="142" t="n"/>
+      <c r="M98" s="142" t="n"/>
+      <c r="N98" s="143" t="n"/>
+    </row>
+    <row r="99" ht="20" customHeight="1" s="21">
+      <c r="B99" s="144" t="inlineStr">
+        <is>
+          <t>Alert 4: Minor Involvement</t>
+        </is>
+      </c>
+      <c r="C99" s="142" t="n"/>
+      <c r="D99" s="142" t="n"/>
+      <c r="E99" s="142" t="n"/>
+      <c r="F99" s="142" t="n"/>
+      <c r="G99" s="142" t="n"/>
+      <c r="H99" s="142" t="n"/>
+      <c r="I99" s="142" t="n"/>
+      <c r="J99" s="142" t="n"/>
+      <c r="K99" s="142" t="n"/>
+      <c r="L99" s="142" t="n"/>
+      <c r="M99" s="142" t="n"/>
+      <c r="N99" s="143" t="n"/>
+    </row>
+    <row r="100" ht="20" customHeight="1" s="21">
+      <c r="B100" s="141" t="n"/>
+      <c r="C100" s="150">
+        <f>IF(COUNTIF('Data Entry'!C2:C356,"&lt;18")&gt;10,"INFO: "&amp;SUMPRODUCT(('Data Entry'!C2:C356&lt;18)*1)&amp;" incidents involved minors. Ensure age-appropriate safety.","Minor involvement acceptable")</f>
+        <v/>
+      </c>
+      <c r="H100" s="142" t="n"/>
+      <c r="I100" s="142" t="n"/>
+      <c r="J100" s="142" t="n"/>
+      <c r="K100" s="142" t="n"/>
+      <c r="L100" s="142" t="n"/>
+      <c r="M100" s="142" t="n"/>
+      <c r="N100" s="143" t="n"/>
+    </row>
+    <row r="101" ht="20" customHeight="1" s="21">
+      <c r="B101" s="141" t="n"/>
+      <c r="C101" s="142" t="n"/>
+      <c r="D101" s="142" t="n"/>
+      <c r="E101" s="142" t="n"/>
+      <c r="F101" s="142" t="n"/>
+      <c r="G101" s="142" t="n"/>
+      <c r="H101" s="142" t="n"/>
+      <c r="I101" s="142" t="n"/>
+      <c r="J101" s="142" t="n"/>
+      <c r="K101" s="142" t="n"/>
+      <c r="L101" s="142" t="n"/>
+      <c r="M101" s="142" t="n"/>
+      <c r="N101" s="143" t="n"/>
+    </row>
+    <row r="102" ht="20" customHeight="1" s="21">
+      <c r="B102" s="151" t="n"/>
+      <c r="C102" s="152" t="n"/>
+      <c r="D102" s="152" t="n"/>
+      <c r="E102" s="152" t="n"/>
+      <c r="F102" s="152" t="n"/>
+      <c r="G102" s="152" t="n"/>
+      <c r="H102" s="152" t="n"/>
+      <c r="I102" s="152" t="n"/>
+      <c r="J102" s="152" t="n"/>
+      <c r="K102" s="152" t="n"/>
+      <c r="L102" s="152" t="n"/>
+      <c r="M102" s="152" t="n"/>
+      <c r="N102" s="153" t="n"/>
+    </row>
+    <row r="103" ht="15" customHeight="1" s="21"/>
+    <row r="104" ht="25" customHeight="1" s="21">
+      <c r="B104" s="156" t="inlineStr">
+        <is>
+          <t>QUARTERLY BREAKDOWN</t>
+        </is>
+      </c>
+      <c r="I104" s="156" t="inlineStr">
+        <is>
+          <t>PERIOD ANALYSIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="105" ht="22" customHeight="1" s="21">
+      <c r="B105" s="157" t="inlineStr">
+        <is>
+          <t>Day/Week</t>
+        </is>
+      </c>
+      <c r="C105" s="157" t="inlineStr">
+        <is>
+          <t>Incidents</t>
+        </is>
+      </c>
+      <c r="D105" s="157" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="E105" s="157" t="inlineStr">
+        <is>
+          <t>Avg Age</t>
+        </is>
+      </c>
+      <c r="F105" s="157" t="inlineStr">
+        <is>
+          <t>Top Injury</t>
+        </is>
+      </c>
+      <c r="G105" s="157" t="inlineStr">
+        <is>
+          <t>Top Venue</t>
+        </is>
+      </c>
+      <c r="I105" s="157" t="inlineStr">
+        <is>
+          <t>Period</t>
+        </is>
+      </c>
+      <c r="J105" s="157" t="inlineStr">
+        <is>
+          <t>Incidents</t>
+        </is>
+      </c>
+      <c r="K105" s="157" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="L105" s="157" t="inlineStr">
+        <is>
+          <t>Avg Age</t>
+        </is>
+      </c>
+      <c r="M105" s="157" t="inlineStr">
+        <is>
+          <t>vs Previous</t>
+        </is>
+      </c>
+    </row>
+    <row r="106" ht="20" customHeight="1" s="21">
+      <c r="B106" s="158" t="inlineStr">
+        <is>
+          <t>Week 1</t>
+        </is>
+      </c>
+      <c r="C106" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*1)</f>
+        <v/>
+      </c>
+      <c r="D106" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="E106" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <v/>
+      </c>
+      <c r="F106" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G106" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I106" s="158" t="inlineStr">
+        <is>
+          <t>Q1 (Jan-Mar)</t>
+        </is>
+      </c>
+      <c r="J106" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=1)*(MONTH('Data Entry'!A2:A356)&lt;=3)*1)</f>
+        <v/>
+      </c>
+      <c r="K106" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=1)*(MONTH('Data Entry'!A2:A356)&lt;=3)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="L106" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),1,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),3,28)),"-")</f>
+        <v/>
+      </c>
+      <c r="M106" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="107" ht="20" customHeight="1" s="21">
+      <c r="B107" s="158" t="inlineStr">
+        <is>
+          <t>Week 2</t>
+        </is>
+      </c>
+      <c r="C107" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*1)</f>
+        <v/>
+      </c>
+      <c r="D107" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="E107" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <v/>
+      </c>
+      <c r="F107" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G107" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I107" s="158" t="inlineStr">
+        <is>
+          <t>Q2 (Apr-Jun)</t>
+        </is>
+      </c>
+      <c r="J107" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=4)*(MONTH('Data Entry'!A2:A356)&lt;=6)*1)</f>
+        <v/>
+      </c>
+      <c r="K107" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=4)*(MONTH('Data Entry'!A2:A356)&lt;=6)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="L107" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),4,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),6,28)),"-")</f>
+        <v/>
+      </c>
+      <c r="M107" s="159">
+        <f>IFERROR(TEXT((J107-J106)/J106,"+0%;-0%"),"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" ht="20" customHeight="1" s="21">
+      <c r="B108" s="158" t="inlineStr">
+        <is>
+          <t>Week 3</t>
+        </is>
+      </c>
+      <c r="C108" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*1)</f>
+        <v/>
+      </c>
+      <c r="D108" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="E108" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <v/>
+      </c>
+      <c r="F108" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G108" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I108" s="158" t="inlineStr">
+        <is>
+          <t>Q3 (Jul-Sep)</t>
+        </is>
+      </c>
+      <c r="J108" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=7)*(MONTH('Data Entry'!A2:A356)&lt;=9)*1)</f>
+        <v/>
+      </c>
+      <c r="K108" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=7)*(MONTH('Data Entry'!A2:A356)&lt;=9)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="L108" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),7,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),9,28)),"-")</f>
+        <v/>
+      </c>
+      <c r="M108" s="159">
+        <f>IFERROR(TEXT((J108-J107)/J107,"+0%;-0%"),"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" ht="20" customHeight="1" s="21">
+      <c r="B109" s="158" t="inlineStr">
+        <is>
+          <t>Week 4</t>
+        </is>
+      </c>
+      <c r="C109" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*1)</f>
+        <v/>
+      </c>
+      <c r="D109" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="E109" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <v/>
+      </c>
+      <c r="F109" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G109" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I109" s="158" t="inlineStr">
+        <is>
+          <t>Q4 (Oct-Dec)</t>
+        </is>
+      </c>
+      <c r="J109" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=10)*(MONTH('Data Entry'!A2:A356)&lt;=12)*1)</f>
+        <v/>
+      </c>
+      <c r="K109" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=10)*(MONTH('Data Entry'!A2:A356)&lt;=12)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="L109" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),10,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),12,28)),"-")</f>
+        <v/>
+      </c>
+      <c r="M109" s="159">
+        <f>IFERROR(TEXT((J109-J108)/J108,"+0%;-0%"),"-")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" ht="20" customHeight="1" s="21">
+      <c r="B110" s="158" t="inlineStr">
+        <is>
+          <t>Week 5</t>
+        </is>
+      </c>
+      <c r="C110" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1)</f>
+        <v/>
+      </c>
+      <c r="D110" s="159">
+        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <v/>
+      </c>
+      <c r="E110" s="159">
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <v/>
+      </c>
+      <c r="F110" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G110" s="159" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I110" s="160" t="inlineStr">
+        <is>
+          <t>YTD TOTAL</t>
+        </is>
+      </c>
+      <c r="J110" s="161">
+        <f>SUM(J106:J109)</f>
+        <v/>
+      </c>
+      <c r="K110" s="161">
+        <f>SUM(K106:K109)</f>
+        <v/>
+      </c>
+      <c r="L110" s="161">
+        <f>IFERROR(AVERAGE(L106:L109),"-")</f>
+        <v/>
+      </c>
+      <c r="M110" s="161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="111" ht="20" customHeight="1" s="21">
+      <c r="B111" s="160" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C111" s="161">
+        <f>SUM(C106:C110)</f>
+        <v/>
+      </c>
+      <c r="D111" s="161">
+        <f>SUM(D106:D110)</f>
+        <v/>
+      </c>
+      <c r="E111" s="161">
+        <f>IFERROR(AVERAGE(E106:E110),"-")</f>
+        <v/>
+      </c>
+      <c r="F111" s="161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G111" s="161" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="113" ht="15" customHeight="1" s="21"/>
+    <row r="114">
+      <c r="B114" s="139" t="inlineStr">
+        <is>
+          <t>Dashboard Pro | Nike Soweto Medical Incidents Reporting System | Data refreshes automatically</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="30">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D10:E10"/>
@@ -4698,12 +5587,17 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B68:N68"/>
+    <mergeCell ref="C97:G97"/>
     <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B114:N114"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="I2:N3"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B50:N50"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="B104:G104"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L10:M10"/>
@@ -4711,6 +5605,9 @@
     <mergeCell ref="B86:N86"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B14:N14"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="I104:N104"/>
+    <mergeCell ref="B88:N88"/>
     <mergeCell ref="L11:M11"/>
   </mergeCells>
   <dataValidations count="4">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -4985,7 +4985,11 @@
     <row r="91" ht="20" customHeight="1" s="21">
       <c r="B91" s="141" t="n"/>
       <c r="C91" s="146">
-        <f>IFERROR(INDEX('Data Entry'!F2:F356,MATCH(MAX(COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356)),COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356),0)),"No data")</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",
+IFERROR(INDEX('Data Entry'!F2:F356,MATCH(MAX(IF((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6),COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356),0)),IF((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6),COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356),0),0)),"No data"),
+IF('Dashboard Pro'!C6="Monthly",
+IFERROR(INDEX('Data Entry'!F2:F356,MATCH(MAX(IF((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6),COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356),0)),IF((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6),COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356),0),0)),"No data"),
+IFERROR(INDEX('Data Entry'!F2:F356,MATCH(MAX(COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356)),COUNTIF('Data Entry'!F2:F356,'Data Entry'!F2:F356),0)),"No data")))</f>
         <v/>
       </c>
       <c r="H91" s="142" t="n"/>
@@ -5057,7 +5061,11 @@
     <row r="94" ht="20" customHeight="1" s="21">
       <c r="B94" s="141" t="n"/>
       <c r="C94" s="148">
-        <f>IF(COUNTIF('Data Entry'!H2:H356,"*ankle*")&gt;5,"WARNING: "&amp;COUNTIF('Data Entry'!H2:H356,"*ankle*")&amp;" ankle injuries recorded","Ankle injury rate acceptable")</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",
+IF(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(ISNUMBER(SEARCH("ankle",'Data Entry'!H2:H356)))*1)&gt;2,"WARNING: "&amp;SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(ISNUMBER(SEARCH("ankle",'Data Entry'!H2:H356)))*1)&amp;" ankle injuries this week","Ankle injury rate acceptable"),
+IF('Dashboard Pro'!C6="Monthly",
+IF(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(ISNUMBER(SEARCH("ankle",'Data Entry'!H2:H356)))*1)&gt;5,"WARNING: "&amp;SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(ISNUMBER(SEARCH("ankle",'Data Entry'!H2:H356)))*1)&amp;" ankle injuries this month","Ankle injury rate acceptable"),
+IF(COUNTIF('Data Entry'!H2:H356,"*ankle*")&gt;10,"WARNING: "&amp;COUNTIF('Data Entry'!H2:H356,"*ankle*")&amp;" ankle injuries YTD","Ankle injury rate acceptable")))</f>
         <v/>
       </c>
       <c r="H94" s="142" t="n"/>
@@ -5129,7 +5137,11 @@
     <row r="97" ht="20" customHeight="1" s="21">
       <c r="B97" s="141" t="n"/>
       <c r="C97" s="149">
-        <f>IF(COUNTIF('Data Entry'!D2:D356,"Player-to-Player")&gt;10,"ALERT: "&amp;COUNTIF('Data Entry'!D2:D356,"Player-to-Player")&amp;" player-to-player incidents. Review supervision.","Player contact within normal range")</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",
+IF(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356="Player-to-Player")*1)&gt;3,"ALERT: "&amp;SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356="Player-to-Player")*1)&amp;" player-to-player incidents. Review supervision.","Player contact within normal range"),
+IF('Dashboard Pro'!C6="Monthly",
+IF(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356="Player-to-Player")*1)&gt;10,"ALERT: "&amp;SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356="Player-to-Player")*1)&amp;" player-to-player incidents. Review supervision.","Player contact within normal range"),
+IF(COUNTIF('Data Entry'!D2:D356,"Player-to-Player")&gt;20,"ALERT: "&amp;COUNTIF('Data Entry'!D2:D356,"Player-to-Player")&amp;" player-to-player incidents YTD. Review supervision.","Player contact within normal range")))</f>
         <v/>
       </c>
       <c r="H97" s="142" t="n"/>
@@ -5177,7 +5189,11 @@
     <row r="100" ht="20" customHeight="1" s="21">
       <c r="B100" s="141" t="n"/>
       <c r="C100" s="150">
-        <f>IF(COUNTIF('Data Entry'!C2:C356,"&lt;18")&gt;10,"INFO: "&amp;SUMPRODUCT(('Data Entry'!C2:C356&lt;18)*1)&amp;" incidents involved minors. Ensure age-appropriate safety.","Minor involvement acceptable")</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",
+"INFO: "&amp;SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!C2:C356&lt;18)*1)&amp;" incidents involved minors this week. Ensure age-appropriate safety.",
+IF('Dashboard Pro'!C6="Monthly",
+"INFO: "&amp;SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!C2:C356&lt;18)*1)&amp;" incidents involved minors this month. Ensure age-appropriate safety.",
+"INFO: "&amp;SUMPRODUCT(('Data Entry'!C2:C356&lt;18)*1)&amp;" incidents involved minors YTD. Ensure age-appropriate safety."))</f>
         <v/>
       </c>
       <c r="H100" s="142" t="n"/>
@@ -5303,7 +5319,7 @@
         <v/>
       </c>
       <c r="E106" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <f>IFERROR(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=1)*1),"-")</f>
         <v/>
       </c>
       <c r="F106" s="159" t="inlineStr">
@@ -5354,7 +5370,7 @@
         <v/>
       </c>
       <c r="E107" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <f>IFERROR(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=2)*1),"-")</f>
         <v/>
       </c>
       <c r="F107" s="159" t="inlineStr">
@@ -5404,7 +5420,7 @@
         <v/>
       </c>
       <c r="E108" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <f>IFERROR(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=3)*1),"-")</f>
         <v/>
       </c>
       <c r="F108" s="159" t="inlineStr">
@@ -5454,7 +5470,7 @@
         <v/>
       </c>
       <c r="E109" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <f>IFERROR(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=4)*1),"-")</f>
         <v/>
       </c>
       <c r="F109" s="159" t="inlineStr">
@@ -5504,7 +5520,7 @@
         <v/>
       </c>
       <c r="E110" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!K2:K356,'Dashboard Pro'!E6),"-")</f>
+        <f>IFERROR(SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1),"-")</f>
         <v/>
       </c>
       <c r="F110" s="159" t="inlineStr">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$134</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Dashboard'!$A$1:$O$76</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -33,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="67">
+  <fonts count="69">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -399,6 +399,18 @@
       <color rgb="00FFFFFF"/>
       <sz val="9"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00415A77"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00415A77"/>
+      <sz val="9"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -516,7 +528,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1341,11 +1353,73 @@
         <color rgb="00DEE2E6"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="00415A77"/>
+      </left>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00415A77"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00415A77"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="00DEE2E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1644,10 +1718,81 @@
     <xf numFmtId="0" fontId="51" fillId="19" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="18" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="72" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="68" fillId="19" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00155724"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00D4EDDA"/>
+          <bgColor rgb="00D4EDDA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00721C24"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00F8D7DA"/>
+          <bgColor rgb="00F8D7DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="00856404"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFF3CD"/>
+          <bgColor rgb="00FFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -3711,7 +3856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R114"/>
+  <dimension ref="A2:R134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -5593,39 +5738,457 @@
         </is>
       </c>
     </row>
+    <row r="115" ht="20" customHeight="1" s="21"/>
+    <row r="116" ht="28" customHeight="1" s="21">
+      <c r="B116" s="162" t="inlineStr">
+        <is>
+          <t>TREND COMPARISON ANALYSIS</t>
+        </is>
+      </c>
+      <c r="C116" s="165" t="n"/>
+      <c r="D116" s="165" t="n"/>
+      <c r="E116" s="165" t="n"/>
+      <c r="F116" s="165" t="n"/>
+      <c r="G116" s="165" t="n"/>
+      <c r="H116" s="165" t="n"/>
+      <c r="I116" s="165" t="n"/>
+      <c r="J116" s="165" t="n"/>
+      <c r="K116" s="165" t="n"/>
+      <c r="L116" s="165" t="n"/>
+      <c r="M116" s="165" t="n"/>
+      <c r="N116" s="166" t="n"/>
+    </row>
+    <row r="117" ht="25" customHeight="1" s="21">
+      <c r="B117" s="163">
+        <f>"CURRENT: "&amp;IF(C6="Weekly",E6&amp;" - "&amp;G6,IF(C6="Monthly",E6,IF(C6="Quarterly",I6,"All Time")))</f>
+        <v/>
+      </c>
+      <c r="H117" s="163">
+        <f>"vs PREVIOUS: "&amp;IF(C6="Weekly",IF(P6&gt;1,E6&amp;" - Week "&amp;(P6-1),TEXT(DATE(R6,Q6-1,1),"MMM-YY")&amp;" - Week 5"),IF(C6="Monthly",TEXT(DATE(R6,Q6-1,1),"MMM-YY"),IF(C6="Quarterly",IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))),"Previous Year")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" ht="22" customHeight="1" s="21">
+      <c r="B118" s="164" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="C118" s="166" t="n"/>
+      <c r="D118" s="164" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="E118" s="164" t="inlineStr">
+        <is>
+          <t>Previous</t>
+        </is>
+      </c>
+      <c r="F118" s="164" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="G118" s="164" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="119" ht="22" customHeight="1" s="21">
+      <c r="B119" s="167" t="inlineStr">
+        <is>
+          <t>Total Incidents</t>
+        </is>
+      </c>
+      <c r="C119" s="171" t="n"/>
+      <c r="D119" s="168">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*1),COUNTA('Data Entry'!A2:A356))))</f>
+        <v/>
+      </c>
+      <c r="E119" s="168">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F119" s="169">
+        <f>IFERROR(IF(E119=0,IF(D119=0,"0%","NEW"),TEXT((D119-E119)/E119,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G119" s="170">
+        <f>IF(D119&gt;E119,"↑ INCREASED",IF(D119&lt;E119,"↓ IMPROVED",IF(D119=E119,"→ STEADY","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" ht="22" customHeight="1" s="21">
+      <c r="B120" s="167" t="inlineStr">
+        <is>
+          <t>Hospital Transport</t>
+        </is>
+      </c>
+      <c r="C120" s="171" t="n"/>
+      <c r="D120" s="168">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="Yes")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="Yes")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="Yes")*1),COUNTIF('Data Entry'!J2:J356,"Yes"))))</f>
+        <v/>
+      </c>
+      <c r="E120" s="168">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!J2:J356="Yes")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!J2:J356="Yes")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!J2:J356="Yes")*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F120" s="169">
+        <f>IFERROR(IF(E120=0,IF(D120=0,"0%","NEW"),TEXT((D120-E120)/E120,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G120" s="170">
+        <f>IF(D120&gt;E120,"↑ INCREASED",IF(D120&lt;E120,"↓ IMPROVED",IF(D120=E120,"→ STEADY","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" ht="22" customHeight="1" s="21">
+      <c r="B121" s="167" t="inlineStr">
+        <is>
+          <t>P1 Critical</t>
+        </is>
+      </c>
+      <c r="C121" s="171" t="n"/>
+      <c r="D121" s="168">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P1")*1),COUNTIF('Data Entry'!I2:I356,"P1"))))</f>
+        <v/>
+      </c>
+      <c r="E121" s="168">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!I2:I356="P1")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!I2:I356="P1")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P1")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!I2:I356="P1")*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F121" s="169">
+        <f>IFERROR(IF(E121=0,IF(D121=0,"0%","NEW"),TEXT((D121-E121)/E121,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G121" s="170">
+        <f>IF(D121&gt;E121,"↑ INCREASED",IF(D121&lt;E121,"↓ IMPROVED",IF(D121=E121,"→ STEADY","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" ht="22" customHeight="1" s="21">
+      <c r="B122" s="167" t="inlineStr">
+        <is>
+          <t>P2 Urgent</t>
+        </is>
+      </c>
+      <c r="C122" s="171" t="n"/>
+      <c r="D122" s="168">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P2")*1),COUNTIF('Data Entry'!I2:I356,"P2"))))</f>
+        <v/>
+      </c>
+      <c r="E122" s="168">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!I2:I356="P2")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!I2:I356="P2")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P2")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!I2:I356="P2")*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F122" s="169">
+        <f>IFERROR(IF(E122=0,IF(D122=0,"0%","NEW"),TEXT((D122-E122)/E122,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G122" s="170">
+        <f>IF(D122&gt;E122,"↑ INCREASED",IF(D122&lt;E122,"↓ IMPROVED",IF(D122=E122,"→ STEADY","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" ht="22" customHeight="1" s="21">
+      <c r="B123" s="167" t="inlineStr">
+        <is>
+          <t>P3 Standard</t>
+        </is>
+      </c>
+      <c r="C123" s="171" t="n"/>
+      <c r="D123" s="168">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P3")*1),COUNTIF('Data Entry'!I2:I356,"P3"))))</f>
+        <v/>
+      </c>
+      <c r="E123" s="168">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!I2:I356="P3")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!I2:I356="P3")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P3")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!I2:I356="P3")*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F123" s="169">
+        <f>IFERROR(IF(E123=0,IF(D123=0,"0%","NEW"),TEXT((D123-E123)/E123,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G123" s="170">
+        <f>IF(D123&gt;E123,"↑ INCREASED",IF(D123&lt;E123,"↓ IMPROVED",IF(D123=E123,"→ STEADY","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" ht="22" customHeight="1" s="21">
+      <c r="B124" s="167" t="inlineStr">
+        <is>
+          <t>Minor Incidents</t>
+        </is>
+      </c>
+      <c r="C124" s="171" t="n"/>
+      <c r="D124" s="168">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!C2:C356&lt;18)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!C2:C356&lt;18)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!C2:C356&lt;18)*1),SUMPRODUCT(('Data Entry'!C2:C356&lt;18)*1))))</f>
+        <v/>
+      </c>
+      <c r="E124" s="168">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!C2:C356&lt;18)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!C2:C356&lt;18)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!C2:C356&lt;18)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!C2:C356&lt;18)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F124" s="169">
+        <f>IFERROR(IF(E124=0,IF(D124=0,"0%","NEW"),TEXT((D124-E124)/E124,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G124" s="170">
+        <f>IF(D124&gt;E124,"↑ INCREASED",IF(D124&lt;E124,"↓ IMPROVED",IF(D124=E124,"→ STEADY","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" ht="15" customHeight="1" s="21"/>
+    <row r="126" ht="22" customHeight="1" s="21">
+      <c r="B126" s="164" t="inlineStr">
+        <is>
+          <t>TOP VENUE COMPARISON</t>
+        </is>
+      </c>
+    </row>
+    <row r="127" ht="20" customHeight="1" s="21">
+      <c r="B127" s="172" t="inlineStr">
+        <is>
+          <t>Venue</t>
+        </is>
+      </c>
+      <c r="D127" s="172" t="inlineStr">
+        <is>
+          <t>Current</t>
+        </is>
+      </c>
+      <c r="E127" s="172" t="inlineStr">
+        <is>
+          <t>Previous</t>
+        </is>
+      </c>
+      <c r="F127" s="172" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+      <c r="G127" s="172" t="inlineStr">
+        <is>
+          <t>Trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="128" ht="20" customHeight="1" s="21">
+      <c r="B128" s="173" t="inlineStr">
+        <is>
+          <t>Skate Park</t>
+        </is>
+      </c>
+      <c r="D128" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B128)*1),COUNTIF('Data Entry'!F2:F356,B128))))</f>
+        <v/>
+      </c>
+      <c r="E128" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B128)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B128)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B128)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F128" s="170">
+        <f>IFERROR(IF(E128=0,IF(D128=0,"0%","NEW"),TEXT((D128-E128)/E128,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G128" s="170">
+        <f>IF(D128&gt;E128,"↑ UP",IF(D128&lt;E128,"↓ DOWN",IF(D128=E128,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" ht="20" customHeight="1" s="21">
+      <c r="B129" s="173" t="inlineStr">
+        <is>
+          <t>5 A side</t>
+        </is>
+      </c>
+      <c r="D129" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B129)*1),COUNTIF('Data Entry'!F2:F356,B129))))</f>
+        <v/>
+      </c>
+      <c r="E129" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B129)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B129)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B129)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F129" s="170">
+        <f>IFERROR(IF(E129=0,IF(D129=0,"0%","NEW"),TEXT((D129-E129)/E129,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G129" s="170">
+        <f>IF(D129&gt;E129,"↑ UP",IF(D129&lt;E129,"↓ DOWN",IF(D129=E129,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" ht="20" customHeight="1" s="21">
+      <c r="B130" s="173" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="D130" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B130)*1),COUNTIF('Data Entry'!F2:F356,B130))))</f>
+        <v/>
+      </c>
+      <c r="E130" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B130)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B130)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B130)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F130" s="170">
+        <f>IFERROR(IF(E130=0,IF(D130=0,"0%","NEW"),TEXT((D130-E130)/E130,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G130" s="170">
+        <f>IF(D130&gt;E130,"↑ UP",IF(D130&lt;E130,"↓ DOWN",IF(D130=E130,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" ht="20" customHeight="1" s="21">
+      <c r="B131" s="173" t="inlineStr">
+        <is>
+          <t>Outdoor gym</t>
+        </is>
+      </c>
+      <c r="D131" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B131)*1),COUNTIF('Data Entry'!F2:F356,B131))))</f>
+        <v/>
+      </c>
+      <c r="E131" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B131)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B131)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B131)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F131" s="170">
+        <f>IFERROR(IF(E131=0,IF(D131=0,"0%","NEW"),TEXT((D131-E131)/E131,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G131" s="170">
+        <f>IF(D131&gt;E131,"↑ UP",IF(D131&lt;E131,"↓ DOWN",IF(D131=E131,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" ht="20" customHeight="1" s="21">
+      <c r="B132" s="173" t="inlineStr">
+        <is>
+          <t>JDI Studio</t>
+        </is>
+      </c>
+      <c r="D132" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B132)*1),COUNTIF('Data Entry'!F2:F356,B132))))</f>
+        <v/>
+      </c>
+      <c r="E132" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B132)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B132)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B132)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F132" s="170">
+        <f>IFERROR(IF(E132=0,IF(D132=0,"0%","NEW"),TEXT((D132-E132)/E132,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G132" s="170">
+        <f>IF(D132&gt;E132,"↑ UP",IF(D132&lt;E132,"↓ DOWN",IF(D132=E132,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" ht="15" customHeight="1" s="21"/>
+    <row r="134">
+      <c r="B134" s="139" t="inlineStr">
+        <is>
+          <t>Dashboard Pro | Nike Soweto Medical Incidents Reporting System | Trend analysis updates automatically</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="48">
+    <mergeCell ref="B129:C129"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B117:G117"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B121:C121"/>
     <mergeCell ref="B68:N68"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="C97:G97"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B114:N114"/>
+    <mergeCell ref="B130:C130"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B120:C120"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="I2:N3"/>
     <mergeCell ref="B32:N32"/>
     <mergeCell ref="B50:N50"/>
     <mergeCell ref="C94:G94"/>
     <mergeCell ref="C100:G100"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B134:N134"/>
     <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B119:C119"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B126:G126"/>
     <mergeCell ref="B86:N86"/>
+    <mergeCell ref="H117:N117"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B118:C118"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B14:N14"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="I104:N104"/>
+    <mergeCell ref="B124:C124"/>
     <mergeCell ref="B88:N88"/>
+    <mergeCell ref="B123:C123"/>
     <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B116:N116"/>
   </mergeCells>
+  <conditionalFormatting sqref="G119:G124">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>ISNUMBER(SEARCH("IMPROVED",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="0">
+      <formula>ISNUMBER(SEARCH("DOWN",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="1">
+      <formula>ISNUMBER(SEARCH("INCREASED",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>ISNUMBER(SEARCH("UP",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" dxfId="2">
+      <formula>ISNUMBER(SEARCH("STEADY",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="2">
+      <formula>ISNUMBER(SEARCH("SAME",G119))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G132">
+    <cfRule type="expression" priority="7" dxfId="0">
+      <formula>ISNUMBER(SEARCH("IMPROVED",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="8" dxfId="0">
+      <formula>ISNUMBER(SEARCH("DOWN",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="9" dxfId="1">
+      <formula>ISNUMBER(SEARCH("INCREASED",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>ISNUMBER(SEARCH("UP",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="11" dxfId="2">
+      <formula>ISNUMBER(SEARCH("STEADY",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="12" dxfId="2">
+      <formula>ISNUMBER(SEARCH("SAME",G128))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation sqref="C6" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>"Monthly,Weekly,Quarterly"</formula1>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$138</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Dashboard'!$A$1:$O$76</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1419,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1751,6 +1751,7 @@
     <xf numFmtId="0" fontId="64" fillId="15" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3856,7 +3857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R134"/>
+  <dimension ref="A2:R138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -5947,6 +5948,11 @@
           <t>TOP VENUE COMPARISON</t>
         </is>
       </c>
+      <c r="C126" s="165" t="n"/>
+      <c r="D126" s="165" t="n"/>
+      <c r="E126" s="165" t="n"/>
+      <c r="F126" s="165" t="n"/>
+      <c r="G126" s="166" t="n"/>
     </row>
     <row r="127" ht="20" customHeight="1" s="21">
       <c r="B127" s="172" t="inlineStr">
@@ -5954,6 +5960,7 @@
           <t>Venue</t>
         </is>
       </c>
+      <c r="C127" s="171" t="n"/>
       <c r="D127" s="172" t="inlineStr">
         <is>
           <t>Current</t>
@@ -5981,12 +5988,13 @@
           <t>Skate Park</t>
         </is>
       </c>
+      <c r="C128" s="175" t="n"/>
       <c r="D128" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B128)*1),COUNTIF('Data Entry'!F2:F356,B128))))</f>
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B128)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B128)*1),COUNTIF('Data Entry'!F2:F356,$B128))))</f>
         <v/>
       </c>
       <c r="E128" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B128)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B128)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B128)*1),0)))</f>
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B128)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B128)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B128)*1),0)))</f>
         <v/>
       </c>
       <c r="F128" s="170">
@@ -6004,12 +6012,13 @@
           <t>5 A side</t>
         </is>
       </c>
+      <c r="C129" s="175" t="n"/>
       <c r="D129" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B129)*1),COUNTIF('Data Entry'!F2:F356,B129))))</f>
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B129)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B129)*1),COUNTIF('Data Entry'!F2:F356,$B129))))</f>
         <v/>
       </c>
       <c r="E129" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B129)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B129)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B129)*1),0)))</f>
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B129)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B129)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B129)*1),0)))</f>
         <v/>
       </c>
       <c r="F129" s="170">
@@ -6027,12 +6036,13 @@
           <t>Basketball</t>
         </is>
       </c>
+      <c r="C130" s="175" t="n"/>
       <c r="D130" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B130)*1),COUNTIF('Data Entry'!F2:F356,B130))))</f>
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B130)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B130)*1),COUNTIF('Data Entry'!F2:F356,$B130))))</f>
         <v/>
       </c>
       <c r="E130" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B130)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B130)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B130)*1),0)))</f>
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B130)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B130)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B130)*1),0)))</f>
         <v/>
       </c>
       <c r="F130" s="170">
@@ -6050,12 +6060,13 @@
           <t>Outdoor gym</t>
         </is>
       </c>
+      <c r="C131" s="175" t="n"/>
       <c r="D131" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B131)*1),COUNTIF('Data Entry'!F2:F356,B131))))</f>
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B131)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B131)*1),COUNTIF('Data Entry'!F2:F356,$B131))))</f>
         <v/>
       </c>
       <c r="E131" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B131)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B131)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B131)*1),0)))</f>
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B131)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B131)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B131)*1),0)))</f>
         <v/>
       </c>
       <c r="F131" s="170">
@@ -6073,12 +6084,13 @@
           <t>JDI Studio</t>
         </is>
       </c>
+      <c r="C132" s="175" t="n"/>
       <c r="D132" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B132)*1),COUNTIF('Data Entry'!F2:F356,B132))))</f>
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B132)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B132)*1),COUNTIF('Data Entry'!F2:F356,$B132))))</f>
         <v/>
       </c>
       <c r="E132" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=B132)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B132)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=B132)*1),0)))</f>
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B132)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B132)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B132)*1),0)))</f>
         <v/>
       </c>
       <c r="F132" s="170">
@@ -6090,17 +6102,112 @@
         <v/>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1" s="21"/>
-    <row r="134">
-      <c r="B134" s="139" t="inlineStr">
+    <row r="133" ht="20" customHeight="1" s="21">
+      <c r="B133" s="173" t="inlineStr">
+        <is>
+          <t>11- A side</t>
+        </is>
+      </c>
+      <c r="C133" s="175" t="n"/>
+      <c r="D133" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B133)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B133)*1),COUNTIF('Data Entry'!F2:F356,$B133))))</f>
+        <v/>
+      </c>
+      <c r="E133" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B133)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B133)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B133)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F133" s="170">
+        <f>IFERROR(IF(E133=0,IF(D133=0,"0%","NEW"),TEXT((D133-E133)/E133,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G133" s="170">
+        <f>IF(D133&gt;E133,"↑ UP",IF(D133&lt;E133,"↓ DOWN",IF(D133=E133,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" ht="20" customHeight="1" s="21">
+      <c r="B134" s="173" t="inlineStr">
+        <is>
+          <t>Athletics track</t>
+        </is>
+      </c>
+      <c r="C134" s="175" t="n"/>
+      <c r="D134" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B134)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B134)*1),COUNTIF('Data Entry'!F2:F356,$B134))))</f>
+        <v/>
+      </c>
+      <c r="E134" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B134)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B134)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B134)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F134" s="170">
+        <f>IFERROR(IF(E134=0,IF(D134=0,"0%","NEW"),TEXT((D134-E134)/E134,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G134" s="170">
+        <f>IF(D134&gt;E134,"↑ UP",IF(D134&lt;E134,"↓ DOWN",IF(D134=E134,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" ht="20" customHeight="1" s="21">
+      <c r="B135" s="173" t="inlineStr">
+        <is>
+          <t>Change Rooms</t>
+        </is>
+      </c>
+      <c r="C135" s="175" t="n"/>
+      <c r="D135" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B135)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B135)*1),COUNTIF('Data Entry'!F2:F356,$B135))))</f>
+        <v/>
+      </c>
+      <c r="E135" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B135)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B135)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B135)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F135" s="170">
+        <f>IFERROR(IF(E135=0,IF(D135=0,"0%","NEW"),TEXT((D135-E135)/E135,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G135" s="170">
+        <f>IF(D135&gt;E135,"↑ UP",IF(D135&lt;E135,"↓ DOWN",IF(D135=E135,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" ht="20" customHeight="1" s="21">
+      <c r="B136" s="173" t="inlineStr">
+        <is>
+          <t>1KM RUN/WALK PATH</t>
+        </is>
+      </c>
+      <c r="C136" s="175" t="n"/>
+      <c r="D136" s="174">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B136)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B136)*1),COUNTIF('Data Entry'!F2:F356,$B136))))</f>
+        <v/>
+      </c>
+      <c r="E136" s="174">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B136)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B136)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B136)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F136" s="170">
+        <f>IFERROR(IF(E136=0,IF(D136=0,"0%","NEW"),TEXT((D136-E136)/E136,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G136" s="170">
+        <f>IF(D136&gt;E136,"↑ UP",IF(D136&lt;E136,"↓ DOWN",IF(D136=E136,"→ SAME","-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" ht="15" customHeight="1" s="21"/>
+    <row r="138">
+      <c r="B138" s="139" t="inlineStr">
         <is>
           <t>Dashboard Pro | Nike Soweto Medical Incidents Reporting System | Trend analysis updates automatically</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="B129:C129"/>
+  <mergeCells count="43">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="F11:G11"/>
@@ -6111,12 +6218,10 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B68:N68"/>
-    <mergeCell ref="B131:C131"/>
     <mergeCell ref="B122:C122"/>
     <mergeCell ref="C97:G97"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B114:N114"/>
-    <mergeCell ref="B130:C130"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="D11:E11"/>
@@ -6125,15 +6230,13 @@
     <mergeCell ref="B50:N50"/>
     <mergeCell ref="C94:G94"/>
     <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B134:N134"/>
+    <mergeCell ref="B138:N138"/>
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B128:C128"/>
     <mergeCell ref="B126:G126"/>
     <mergeCell ref="B86:N86"/>
     <mergeCell ref="H117:N117"/>
@@ -6186,6 +6289,17 @@
       <formula>ISNUMBER(SEARCH("STEADY",G128))</formula>
     </cfRule>
     <cfRule type="expression" priority="12" dxfId="2">
+      <formula>ISNUMBER(SEARCH("SAME",G128))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G136">
+    <cfRule type="expression" priority="13" dxfId="0">
+      <formula>ISNUMBER(SEARCH("DOWN",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="14" dxfId="1">
+      <formula>ISNUMBER(SEARCH("UP",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="15" dxfId="2">
       <formula>ISNUMBER(SEARCH("SAME",G128))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -6009,7 +6009,7 @@
     <row r="129" ht="20" customHeight="1" s="21">
       <c r="B129" s="173" t="inlineStr">
         <is>
-          <t>5 A side</t>
+          <t xml:space="preserve">5 A side </t>
         </is>
       </c>
       <c r="C129" s="175" t="n"/>
@@ -6105,7 +6105,7 @@
     <row r="133" ht="20" customHeight="1" s="21">
       <c r="B133" s="173" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="C133" s="175" t="n"/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J34" s="63" t="inlineStr">
         <is>
-          <t>Afternoon Program</t>
+          <t xml:space="preserve">Afternoon Program </t>
         </is>
       </c>
       <c r="K34" s="63">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -7903,7 +7903,7 @@
     <row r="44">
       <c r="P44" s="63" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="Q44" s="63">
@@ -7914,7 +7914,7 @@
     <row r="45">
       <c r="P45" s="63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="Q45" s="63">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -7793,7 +7793,7 @@
       </c>
       <c r="J34" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afternoon Program </t>
+          <t>Afternoon Program</t>
         </is>
       </c>
       <c r="K34" s="63">
@@ -21978,7 +21978,7 @@
         </is>
       </c>
       <c r="B2" s="30">
-        <f>Dashboard!B7</f>
+        <f>'Dashboard Pro'!E6</f>
         <v/>
       </c>
     </row>
@@ -22016,7 +22016,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A4)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A4)*1),COUNTIF('Data Entry'!F2:F356,A4)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A4)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A4)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A4)*1),COUNTIF('Data Entry'!F2:F356,A4))))</f>
         <v/>
       </c>
       <c r="C4">
@@ -22039,7 +22039,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A5)*1),COUNTIF('Data Entry'!F2:F356,A5)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A5)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A5)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A5)*1),COUNTIF('Data Entry'!F2:F356,A5))))</f>
         <v/>
       </c>
       <c r="C5">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6))))</f>
         <v/>
       </c>
       <c r="C6">
@@ -22085,7 +22085,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7))))</f>
         <v/>
       </c>
       <c r="C7">
@@ -22108,7 +22108,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A8)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A8)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8))))</f>
         <v/>
       </c>
       <c r="C8">
@@ -22131,7 +22131,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A9)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A9)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9))))</f>
         <v/>
       </c>
       <c r="C9">
@@ -22154,7 +22154,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A10)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A10)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10))))</f>
         <v/>
       </c>
       <c r="C10">
@@ -22177,7 +22177,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
         <v/>
       </c>
       <c r="C11">
@@ -22200,7 +22200,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
         <v/>
       </c>
       <c r="C12">
@@ -22223,7 +22223,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
         <v/>
       </c>
       <c r="C13">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
         <v/>
       </c>
       <c r="C14">
@@ -22269,7 +22269,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A15)*1),COUNTIF('Data Entry'!F2:F356,A15)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A15)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A15)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A15)*1),COUNTIF('Data Entry'!F2:F356,A15))))</f>
         <v/>
       </c>
       <c r="C15">
@@ -22292,7 +22292,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A16)*1),COUNTIF('Data Entry'!F2:F356,A16)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A16)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A16)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A16)*1),COUNTIF('Data Entry'!F2:F356,A16))))</f>
         <v/>
       </c>
       <c r="C16">
@@ -22315,7 +22315,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A17)*1),COUNTIF('Data Entry'!F2:F356,A17)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A17)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A17)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A17)*1),COUNTIF('Data Entry'!F2:F356,A17))))</f>
         <v/>
       </c>
       <c r="C17">
@@ -22338,7 +22338,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A18)*1),COUNTIF('Data Entry'!F2:F356,A18)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A18)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A18)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A18)*1),COUNTIF('Data Entry'!F2:F356,A18))))</f>
         <v/>
       </c>
       <c r="C18">
@@ -22361,7 +22361,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!F2:F356=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!F2:F356=A19)*1),COUNTIF('Data Entry'!F2:F356,A19)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A19)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A19)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A19)*1),COUNTIF('Data Entry'!F2:F356,A19))))</f>
         <v/>
       </c>
       <c r="C19">
@@ -22522,7 +22522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -22592,7 +22592,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A5,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A5&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A5)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A5)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A5)*1),COUNTIF('Data Entry'!H2:H356,A5))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -22607,7 +22607,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A6,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A6&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A6)*1),COUNTIF('Data Entry'!H2:H356,A6))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -22622,7 +22622,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A7,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A7&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A7)*1),COUNTIF('Data Entry'!H2:H356,A7))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -22637,7 +22637,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A8,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A8&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A8)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A8)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A8)*1),COUNTIF('Data Entry'!H2:H356,A8))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A9,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A9&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A9)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A9)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A9)*1),COUNTIF('Data Entry'!H2:H356,A9))))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -22667,7 +22667,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A10,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A10&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A10)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A10)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A10)*1),COUNTIF('Data Entry'!H2:H356,A10))))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -22682,7 +22682,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A11,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A11&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A11)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A11)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A11)*1),COUNTIF('Data Entry'!H2:H356,A11))))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -22697,7 +22697,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A12,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A12&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A12)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A12)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A12)*1),COUNTIF('Data Entry'!H2:H356,A12))))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -22712,7 +22712,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A13,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A13&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A13)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A13)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A13)*1),COUNTIF('Data Entry'!H2:H356,A13))))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -22727,7 +22727,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A14,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A14&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A14)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A14)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A14)*1),COUNTIF('Data Entry'!H2:H356,A14))))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -22742,7 +22742,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A15,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A15&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A15)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A15)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A15)*1),COUNTIF('Data Entry'!H2:H356,A15))))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -22757,7 +22757,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A16,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A16&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A16)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A16)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A16)*1),COUNTIF('Data Entry'!H2:H356,A16))))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -22772,7 +22772,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A17,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A17&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A17)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A17)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A17)*1),COUNTIF('Data Entry'!H2:H356,A17))))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -22787,7 +22787,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A18,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A18&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A18)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A18)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A18)*1),COUNTIF('Data Entry'!H2:H356,A18))))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A19,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A19&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A19)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A19)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A19)*1),COUNTIF('Data Entry'!H2:H356,A19))))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -22817,7 +22817,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A20,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A20&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A20)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A20)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A20)*1),COUNTIF('Data Entry'!H2:H356,A20))))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -22832,7 +22832,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A21,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A21&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A21)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A21)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A21)*1),COUNTIF('Data Entry'!H2:H356,A21))))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -22847,7 +22847,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A22,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A22&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A22)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A22)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A22)*1),COUNTIF('Data Entry'!H2:H356,A22))))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MedicalData[Month]=Dashboard!E4)*(INT((DAY(MedicalData[Date])-1)/7)+1=Dashboard!$M$4)*(ISNUMBER(SEARCH(A23,MedicalData[Specific injuries treated])))*1),IF(Dashboard!B4="Monthly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Month],Dashboard!E4),IF(Dashboard!B4="Quarterly",COUNTIFS(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*",MedicalData[Quarter],Dashboard!K4),COUNTIF(MedicalData[Specific injuries treated],"*"&amp;A23&amp;"*"))))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!H2:H356=A23)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!H2:H356=A23)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!H2:H356=A23)*1),COUNTIF('Data Entry'!H2:H356,A23))))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -22873,6 +22873,9 @@
     <row r="24" ht="17.25" customHeight="1" s="21">
       <c r="A24" s="16" t="n"/>
     </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22884,7 +22887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -22964,7 +22967,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A5)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A5)*1),COUNTIF('Data Entry'!D2:D356,A5)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A5)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A5)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A5)*1),COUNTIF('Data Entry'!D2:D356,A5))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -22983,7 +22986,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A6)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A6)*1),COUNTIF('Data Entry'!D2:D356,A6)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A6)*1),COUNTIF('Data Entry'!D2:D356,A6))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -23002,7 +23005,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A7)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A7)*1),COUNTIF('Data Entry'!D2:D356,A7)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A7)*1),COUNTIF('Data Entry'!D2:D356,A7))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -23021,7 +23024,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A8)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A8)*1),COUNTIF('Data Entry'!D2:D356,A8)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A8)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A8)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A8)*1),COUNTIF('Data Entry'!D2:D356,A8))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -23040,7 +23043,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A9)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A9)*1),COUNTIF('Data Entry'!D2:D356,A9)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A9)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A9)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A9)*1),COUNTIF('Data Entry'!D2:D356,A9))))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -23059,7 +23062,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A10)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A10)*1),COUNTIF('Data Entry'!D2:D356,A10)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A10)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A10)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A10)*1),COUNTIF('Data Entry'!D2:D356,A10))))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -23078,7 +23081,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A11)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A11)*1),COUNTIF('Data Entry'!D2:D356,A11)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A11)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A11)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A11)*1),COUNTIF('Data Entry'!D2:D356,A11))))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -23097,7 +23100,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A12)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A12)*1),COUNTIF('Data Entry'!D2:D356,A12)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A12)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A12)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A12)*1),COUNTIF('Data Entry'!D2:D356,A12))))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -23116,7 +23119,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A13)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A13)*1),COUNTIF('Data Entry'!D2:D356,A13)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A13)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A13)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A13)*1),COUNTIF('Data Entry'!D2:D356,A13))))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -23135,7 +23138,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A14)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A14)*1),COUNTIF('Data Entry'!D2:D356,A14)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A14)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A14)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A14)*1),COUNTIF('Data Entry'!D2:D356,A14))))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -23154,7 +23157,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A15)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A15)*1),COUNTIF('Data Entry'!D2:D356,A15)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A15)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A15)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A15)*1),COUNTIF('Data Entry'!D2:D356,A15))))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -23173,7 +23176,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A16)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A16)*1),COUNTIF('Data Entry'!D2:D356,A16)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A16)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A16)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A16)*1),COUNTIF('Data Entry'!D2:D356,A16))))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -23192,7 +23195,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A17)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A17)*1),COUNTIF('Data Entry'!D2:D356,A17)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A17)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A17)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A17)*1),COUNTIF('Data Entry'!D2:D356,A17))))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -23211,7 +23214,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A18)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A18)*1),COUNTIF('Data Entry'!D2:D356,A18)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A18)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A18)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A18)*1),COUNTIF('Data Entry'!D2:D356,A18))))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -23230,7 +23233,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A19)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A19)*1),COUNTIF('Data Entry'!D2:D356,A19)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A19)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A19)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A19)*1),COUNTIF('Data Entry'!D2:D356,A19))))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -23249,7 +23252,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A20)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A20)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A20)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20))))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -23268,7 +23271,7 @@
         </is>
       </c>
       <c r="B21">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A21)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A21)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A21)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21))))</f>
         <v/>
       </c>
       <c r="C21" s="35">
@@ -23287,7 +23290,7 @@
         </is>
       </c>
       <c r="B22">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A22)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A22)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A22)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22))))</f>
         <v/>
       </c>
       <c r="C22" s="35">
@@ -23306,7 +23309,7 @@
         </is>
       </c>
       <c r="B23">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A23)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A23)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A23)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23))))</f>
         <v/>
       </c>
       <c r="C23" s="35">
@@ -23325,7 +23328,7 @@
         </is>
       </c>
       <c r="B24">
-        <f>IF(Dashboard!B4="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=Dashboard!M4)*('Data Entry'!D2:D356=A24)*1),IF(Dashboard!B4="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Dashboard!N4)*(YEAR('Data Entry'!A2:A356)=Dashboard!O4)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24)))</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A24)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A24)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A24)*1),COUNTIF('Data Entry'!D2:D356,A24))))</f>
         <v/>
       </c>
       <c r="C24" s="35">
@@ -23337,6 +23340,9 @@
         <v/>
       </c>
     </row>
+    <row r="25"/>
+    <row r="26"/>
+    <row r="27"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -23370,6 +23376,12 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="B2">
+        <f>'Dashboard Pro'!E6</f>
+        <v/>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="38" t="inlineStr">
         <is>
@@ -23404,7 +23416,7 @@
         </is>
       </c>
       <c r="B4">
-        <f>COUNTIF(MedicalData[Type of program],A4)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A4))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A4))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A4))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A4))*1))))</f>
         <v/>
       </c>
       <c r="C4" s="35">
@@ -23416,7 +23428,7 @@
         <v/>
       </c>
       <c r="E4">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A4,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A4))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A4))*1),AVERAGEIF('Data Entry'!G2:G356,A4,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23427,7 +23439,7 @@
         </is>
       </c>
       <c r="B5">
-        <f>COUNTIF(MedicalData[Type of program],A5)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A5))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A5))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A5))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A5))*1))))</f>
         <v/>
       </c>
       <c r="C5" s="35">
@@ -23439,7 +23451,7 @@
         <v/>
       </c>
       <c r="E5">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A5,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A5))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A5))*1),AVERAGEIF('Data Entry'!G2:G356,A5,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23450,7 +23462,7 @@
         </is>
       </c>
       <c r="B6">
-        <f>COUNTIF(MedicalData[Type of program],A6)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A6))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A6))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A6))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A6))*1))))</f>
         <v/>
       </c>
       <c r="C6" s="35">
@@ -23462,7 +23474,7 @@
         <v/>
       </c>
       <c r="E6">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A6,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A6))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A6))*1),AVERAGEIF('Data Entry'!G2:G356,A6,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23473,7 +23485,7 @@
         </is>
       </c>
       <c r="B7">
-        <f>COUNTIF(MedicalData[Type of program],A7)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A7))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A7))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A7))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A7))*1))))</f>
         <v/>
       </c>
       <c r="C7" s="35">
@@ -23485,7 +23497,7 @@
         <v/>
       </c>
       <c r="E7">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A7,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A7))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A7))*1),AVERAGEIF('Data Entry'!G2:G356,A7,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23496,7 +23508,7 @@
         </is>
       </c>
       <c r="B8">
-        <f>COUNTIF(MedicalData[Type of program],A8)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A8))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A8))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A8))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A8))*1))))</f>
         <v/>
       </c>
       <c r="C8" s="35">
@@ -23508,7 +23520,7 @@
         <v/>
       </c>
       <c r="E8">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A8,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A8))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A8))*1),AVERAGEIF('Data Entry'!G2:G356,A8,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23519,7 +23531,7 @@
         </is>
       </c>
       <c r="B9">
-        <f>COUNTIF(MedicalData[Type of program],A9)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A9))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A9))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A9))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A9))*1))))</f>
         <v/>
       </c>
       <c r="C9" s="35">
@@ -23531,7 +23543,7 @@
         <v/>
       </c>
       <c r="E9">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A9,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A9))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A9))*1),AVERAGEIF('Data Entry'!G2:G356,A9,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23542,7 +23554,7 @@
         </is>
       </c>
       <c r="B10">
-        <f>COUNTIF(MedicalData[Type of program],A10)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A10))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A10))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A10))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A10))*1))))</f>
         <v/>
       </c>
       <c r="C10" s="35">
@@ -23554,7 +23566,7 @@
         <v/>
       </c>
       <c r="E10">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A10,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A10))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A10))*1),AVERAGEIF('Data Entry'!G2:G356,A10,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23565,7 +23577,7 @@
         </is>
       </c>
       <c r="B11">
-        <f>COUNTIF(MedicalData[Type of program],A11)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A11))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A11))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A11))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A11))*1))))</f>
         <v/>
       </c>
       <c r="C11" s="35">
@@ -23577,7 +23589,7 @@
         <v/>
       </c>
       <c r="E11">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A11,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A11))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A11))*1),AVERAGEIF('Data Entry'!G2:G356,A11,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23588,7 +23600,7 @@
         </is>
       </c>
       <c r="B12">
-        <f>COUNTIF(MedicalData[Type of program],A12)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A12))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A12))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A12))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A12))*1))))</f>
         <v/>
       </c>
       <c r="C12" s="35">
@@ -23600,7 +23612,7 @@
         <v/>
       </c>
       <c r="E12">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A12,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A12))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A12))*1),AVERAGEIF('Data Entry'!G2:G356,A12,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23611,7 +23623,7 @@
         </is>
       </c>
       <c r="B13">
-        <f>COUNTIF(MedicalData[Type of program],A13)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A13))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A13))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A13))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A13))*1))))</f>
         <v/>
       </c>
       <c r="C13" s="35">
@@ -23623,7 +23635,7 @@
         <v/>
       </c>
       <c r="E13">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A13,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A13))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A13))*1),AVERAGEIF('Data Entry'!G2:G356,A13,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23634,7 +23646,7 @@
         </is>
       </c>
       <c r="B14">
-        <f>COUNTIF(MedicalData[Type of program],A14)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A14))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A14))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A14))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A14))*1))))</f>
         <v/>
       </c>
       <c r="C14" s="35">
@@ -23646,7 +23658,7 @@
         <v/>
       </c>
       <c r="E14">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A14,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A14))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A14))*1),AVERAGEIF('Data Entry'!G2:G356,A14,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23657,7 +23669,7 @@
         </is>
       </c>
       <c r="B15">
-        <f>COUNTIF(MedicalData[Type of program],A15)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A15))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A15))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A15))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A15))*1))))</f>
         <v/>
       </c>
       <c r="C15" s="35">
@@ -23669,7 +23681,7 @@
         <v/>
       </c>
       <c r="E15">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A15,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A15))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A15))*1),AVERAGEIF('Data Entry'!G2:G356,A15,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23680,7 +23692,7 @@
         </is>
       </c>
       <c r="B16">
-        <f>COUNTIF(MedicalData[Type of program],A16)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A16))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A16))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A16))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A16))*1))))</f>
         <v/>
       </c>
       <c r="C16" s="35">
@@ -23692,7 +23704,7 @@
         <v/>
       </c>
       <c r="E16">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A16,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A16))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A16))*1),AVERAGEIF('Data Entry'!G2:G356,A16,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23703,7 +23715,7 @@
         </is>
       </c>
       <c r="B17">
-        <f>COUNTIF(MedicalData[Type of program],A17)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A17))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A17))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A17))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A17))*1))))</f>
         <v/>
       </c>
       <c r="C17" s="35">
@@ -23715,7 +23727,7 @@
         <v/>
       </c>
       <c r="E17">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A17,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A17))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A17))*1),AVERAGEIF('Data Entry'!G2:G356,A17,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23726,7 +23738,7 @@
         </is>
       </c>
       <c r="B18">
-        <f>COUNTIF(MedicalData[Type of program],A18)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A18))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A18))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A18))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A18))*1))))</f>
         <v/>
       </c>
       <c r="C18" s="35">
@@ -23738,7 +23750,7 @@
         <v/>
       </c>
       <c r="E18">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A18,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A18))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A18))*1),AVERAGEIF('Data Entry'!G2:G356,A18,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23749,7 +23761,7 @@
         </is>
       </c>
       <c r="B19">
-        <f>COUNTIF(MedicalData[Type of program],A19)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A19))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A19))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A19))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A19))*1))))</f>
         <v/>
       </c>
       <c r="C19" s="35">
@@ -23761,7 +23773,7 @@
         <v/>
       </c>
       <c r="E19">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A19,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A19))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A19))*1),AVERAGEIF('Data Entry'!G2:G356,A19,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>
@@ -23772,7 +23784,7 @@
         </is>
       </c>
       <c r="B20">
-        <f>COUNTIF(MedicalData[Type of program],A20)</f>
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(A20))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A20))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(A20))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(A20))*1))))</f>
         <v/>
       </c>
       <c r="C20" s="35">
@@ -23784,7 +23796,7 @@
         <v/>
       </c>
       <c r="E20">
-        <f>IFERROR(ROUND(AVERAGEIF(MedicalData[Type of program],A20,MedicalData[Age]),0),"")</f>
+        <f>IFERROR(ROUND(IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A20))*('Data Entry'!C2:C356))/SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(A20))*1),AVERAGEIF('Data Entry'!G2:G356,A20,'Data Entry'!C2:C356)),0),0)</f>
         <v/>
       </c>
     </row>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -1419,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1752,6 +1752,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,6 +1870,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -1903,12 +1906,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Chart Data'!$A$6:$A$14</f>
+              <f>'Chart Data'!$A$6:$A$21</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart Data'!$B$6:$B$14</f>
+              <f>'Chart Data'!$B$6:$B$21</f>
             </numRef>
           </val>
         </ser>
@@ -1934,26 +1937,14 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -2563,10 +2554,6 @@
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showCatName val="1"/>
-          <showPercent val="1"/>
-        </dLbls>
       </pie3DChart>
     </plotArea>
     <legend>
@@ -2580,6 +2567,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2605,7 +2593,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Chart Data'!B19</f>
+              <f>'Chart Data'!B26</f>
             </strRef>
           </tx>
           <spPr>
@@ -2615,12 +2603,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Chart Data'!$A$20:$A$26</f>
+              <f>'Chart Data'!$A$27:$A$47</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart Data'!$B$20:$B$26</f>
+              <f>'Chart Data'!$B$27:$B$47</f>
             </numRef>
           </val>
         </ser>
@@ -2646,26 +2634,14 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -2674,6 +2650,7 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2699,7 +2676,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Chart Data'!E19</f>
+              <f>'Chart Data'!E26</f>
             </strRef>
           </tx>
           <spPr>
@@ -2709,12 +2686,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Chart Data'!$D$20:$D$23</f>
+              <f>'Chart Data'!$D$27:$D$30</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart Data'!$E$20:$E$23</f>
+              <f>'Chart Data'!$E$27:$E$30</f>
             </numRef>
           </val>
         </ser>
@@ -2740,26 +2717,14 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -2792,7 +2757,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Chart Data'!H31</f>
+              <f>'Chart Data'!H52</f>
             </strRef>
           </tx>
           <spPr>
@@ -2802,19 +2767,15 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Chart Data'!$G$32:$G$35</f>
+              <f>'Chart Data'!$G$53:$G$56</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart Data'!$H$32:$H$35</f>
+              <f>'Chart Data'!$H$53:$H$56</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showCatName val="1"/>
-          <showPercent val="1"/>
-        </dLbls>
       </pie3DChart>
     </plotArea>
     <legend>
@@ -2828,6 +2789,7 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2853,7 +2815,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Chart Data'!K31</f>
+              <f>'Chart Data'!K52</f>
             </strRef>
           </tx>
           <spPr>
@@ -2863,12 +2825,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Chart Data'!$J$32:$J$36</f>
+              <f>'Chart Data'!$J$53:$J$69</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart Data'!$K$32:$K$36</f>
+              <f>'Chart Data'!$K$53:$K$69</f>
             </numRef>
           </val>
         </ser>
@@ -2894,26 +2856,14 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -2922,6 +2872,7 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2947,7 +2898,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Chart Data'!N31</f>
+              <f>'Chart Data'!N52</f>
             </strRef>
           </tx>
           <spPr>
@@ -2957,12 +2908,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Chart Data'!$M$32:$M$38</f>
+              <f>'Chart Data'!$M$53:$M$59</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart Data'!$N$32:$N$38</f>
+              <f>'Chart Data'!$N$53:$N$59</f>
             </numRef>
           </val>
         </ser>
@@ -2988,26 +2939,14 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Count</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -3040,7 +2979,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Chart Data'!Q43</f>
+              <f>'Chart Data'!Q52</f>
             </strRef>
           </tx>
           <spPr>
@@ -3050,20 +2989,15 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Chart Data'!$P$44:$P$45</f>
+              <f>'Chart Data'!$P$53:$P$54</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Chart Data'!$Q$44:$Q$45</f>
+              <f>'Chart Data'!$Q$53:$Q$54</f>
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showVal val="1"/>
-          <showCatName val="1"/>
-          <showPercent val="1"/>
-        </dLbls>
       </pie3DChart>
     </plotArea>
     <legend>
@@ -3175,10 +3109,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5760000" cy="3960000"/>
+    <ext cx="6120000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -3195,12 +3129,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="2" name="Chart 2"/>
@@ -3219,10 +3153,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5760000" cy="3960000"/>
+    <ext cx="6120000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="3" name="Chart 3"/>
@@ -3239,12 +3173,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="4" name="Chart 4"/>
@@ -3263,10 +3197,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>50</row>
+      <row>49</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="5" name="Chart 5"/>
@@ -3283,12 +3217,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>50</row>
+      <row>49</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="6120000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="6" name="Chart 6"/>
@@ -3307,10 +3241,10 @@
     <from>
       <col>1</col>
       <colOff>0</colOff>
-      <row>68</row>
+      <row>67</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5760000" cy="3960000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="7" name="Chart 7"/>
@@ -3327,12 +3261,12 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>8</col>
+      <col>9</col>
       <colOff>0</colOff>
-      <row>68</row>
+      <row>67</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5040000" cy="3960000"/>
+    <ext cx="4320000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="8" name="Chart 8"/>
@@ -7321,7 +7255,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7384,12 +7318,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="63" t="inlineStr">
         <is>
           <t>Skate Park</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B6" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A6)*1),COUNTIF('Data Entry'!F2:F356,A6))))</f>
         <v/>
       </c>
@@ -7404,12 +7338,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">5 A side </t>
         </is>
       </c>
-      <c r="B7">
+      <c r="B7" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A7)*1),COUNTIF('Data Entry'!F2:F356,A7))))</f>
         <v/>
       </c>
@@ -7424,12 +7358,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="63" t="inlineStr">
         <is>
           <t>Basketball</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B8" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A8)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A8)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A8)*1),COUNTIF('Data Entry'!F2:F356,A8))))</f>
         <v/>
       </c>
@@ -7444,12 +7378,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="63" t="inlineStr">
         <is>
           <t>Outdoor gym</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="B9" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A9)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A9)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A9)*1),COUNTIF('Data Entry'!F2:F356,A9))))</f>
         <v/>
       </c>
@@ -7464,12 +7398,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">JDI Studio </t>
         </is>
       </c>
-      <c r="B10">
+      <c r="B10" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A10)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A10)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A10)*1),COUNTIF('Data Entry'!F2:F356,A10))))</f>
         <v/>
       </c>
@@ -7484,160 +7418,126 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="63" t="inlineStr">
+        <is>
+          <t>PHINDA Studio</t>
+        </is>
+      </c>
+      <c r="B11" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="63" t="inlineStr">
+        <is>
+          <t>PHAMBILI Studio</t>
+        </is>
+      </c>
+      <c r="B12" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="63" t="inlineStr">
         <is>
           <t xml:space="preserve">11- A side </t>
         </is>
       </c>
-      <c r="B11">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A11)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A11)*1),COUNTIF('Data Entry'!F2:F356,A11))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="B13" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="63" t="inlineStr">
         <is>
           <t>Athletics track</t>
         </is>
       </c>
-      <c r="B12">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A12)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A12)*1),COUNTIF('Data Entry'!F2:F356,A12))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B14" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="63" t="inlineStr">
+        <is>
+          <t>Registration area</t>
+        </is>
+      </c>
+      <c r="B15" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A15)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A15)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A15)*1),COUNTIF('Data Entry'!F2:F356,A15))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Car parking </t>
+        </is>
+      </c>
+      <c r="B16" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A16)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A16)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A16)*1),COUNTIF('Data Entry'!F2:F356,A16))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="63" t="inlineStr">
         <is>
           <t>Change Rooms</t>
         </is>
       </c>
-      <c r="B13">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A13)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A13)*1),COUNTIF('Data Entry'!F2:F356,A13))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="B17" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A17)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A17)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A17)*1),COUNTIF('Data Entry'!F2:F356,A17))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="176" t="inlineStr">
+        <is>
+          <t>Equipment Rooms</t>
+        </is>
+      </c>
+      <c r="B18" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A18)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A18)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A18)*1),COUNTIF('Data Entry'!F2:F356,A18))))</f>
+        <v/>
+      </c>
+      <c r="D18" s="30" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="176" t="inlineStr">
         <is>
           <t>1KM RUN/WALK PATH</t>
         </is>
       </c>
-      <c r="B14">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A14)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A14)*1),COUNTIF('Data Entry'!F2:F356,A14))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="30" t="inlineStr">
-        <is>
-          <t>MECHANISM DATA</t>
-        </is>
-      </c>
-      <c r="D18" s="30" t="inlineStr">
-        <is>
-          <t>TIME DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="30" t="inlineStr">
-        <is>
-          <t>Mechanism</t>
-        </is>
-      </c>
-      <c r="B19" s="30" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-      <c r="D19" s="30" t="inlineStr">
-        <is>
-          <t>Time Period</t>
-        </is>
-      </c>
-      <c r="E19" s="30" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
+      <c r="B19" s="176">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A19)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A19)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A19)*1),COUNTIF('Data Entry'!F2:F356,A19))))</f>
+        <v/>
+      </c>
+      <c r="D19" s="30" t="n"/>
+      <c r="E19" s="30" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Player-to-Player</t>
-        </is>
-      </c>
-      <c r="B20">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A20)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A20)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A20)*1),COUNTIF('Data Entry'!D2:D356,A20))))</f>
-        <v/>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Morning</t>
-        </is>
-      </c>
-      <c r="E20">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D20)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D20)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D20)*1),COUNTIF('Data Entry'!M2:M356,D20))))</f>
+      <c r="A20" s="63" t="inlineStr">
+        <is>
+          <t>Bleachers</t>
+        </is>
+      </c>
+      <c r="B20" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A20)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A20)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A20)*1),COUNTIF('Data Entry'!F2:F356,A20))))</f>
         <v/>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Slips, Trips and falls</t>
-        </is>
-      </c>
-      <c r="B21">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A21)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A21)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A21)*1),COUNTIF('Data Entry'!D2:D356,A21))))</f>
-        <v/>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Afternoon</t>
-        </is>
-      </c>
-      <c r="E21">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D21)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D21)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D21)*1),COUNTIF('Data Entry'!M2:M356,D21))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Muscle Strains</t>
-        </is>
-      </c>
-      <c r="B22">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A22)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A22)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A22)*1),COUNTIF('Data Entry'!D2:D356,A22))))</f>
-        <v/>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Evening</t>
-        </is>
-      </c>
-      <c r="E22">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D22)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D22)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D22)*1),COUNTIF('Data Entry'!M2:M356,D22))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Struck by Equipment</t>
-        </is>
-      </c>
-      <c r="B23">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A23)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A23)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A23)*1),COUNTIF('Data Entry'!D2:D356,A23))))</f>
-        <v/>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Night</t>
-        </is>
-      </c>
-      <c r="E23">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D23)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D23)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D23)*1),COUNTIF('Data Entry'!M2:M356,D23))))</f>
+      <c r="A21" s="63" t="inlineStr">
+        <is>
+          <t>P GATE</t>
+        </is>
+      </c>
+      <c r="B21" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!F2:F356=A21)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!F2:F356=A21)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!F2:F356=A21)*1),COUNTIF('Data Entry'!F2:F356,A21))))</f>
         <v/>
       </c>
     </row>
@@ -7653,282 +7553,727 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Medical</t>
+      <c r="A25" s="177" t="inlineStr">
+        <is>
+          <t>MECHANISM DATA</t>
         </is>
       </c>
       <c r="B25">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A25)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A25)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A25)*1),COUNTIF('Data Entry'!D2:D356,A25))))</f>
         <v/>
       </c>
+      <c r="D25" s="177" t="inlineStr">
+        <is>
+          <t>TIME DATA</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="30" t="inlineStr">
+        <is>
+          <t>Mechanism</t>
+        </is>
+      </c>
+      <c r="B26" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="D26" s="30" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="E26" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="B27" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A27)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A27)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A27)*1),COUNTIF('Data Entry'!D2:D356,A27))))</f>
+        <v/>
+      </c>
+      <c r="D27" s="63" t="inlineStr">
+        <is>
+          <t>Morning</t>
+        </is>
+      </c>
+      <c r="E27" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D27)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D27)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D27)*1),COUNTIF('Data Entry'!M2:M356,D27))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Object</t>
+        </is>
+      </c>
+      <c r="B28" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A28)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A28)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A28)*1),COUNTIF('Data Entry'!D2:D356,A28))))</f>
+        <v/>
+      </c>
+      <c r="D28" s="63" t="inlineStr">
+        <is>
+          <t>Afternoon</t>
+        </is>
+      </c>
+      <c r="E28" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D28)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D28)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D28)*1),COUNTIF('Data Entry'!M2:M356,D28))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="63" t="inlineStr">
+        <is>
+          <t>Struck by Equipment</t>
+        </is>
+      </c>
+      <c r="B29" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A29)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A29)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A29)*1),COUNTIF('Data Entry'!D2:D356,A29))))</f>
+        <v/>
+      </c>
+      <c r="D29" s="63" t="inlineStr">
+        <is>
+          <t>Evening</t>
+        </is>
+      </c>
+      <c r="E29" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D29)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D29)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D29)*1),COUNTIF('Data Entry'!M2:M356,D29))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="B30" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A30)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A30)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A30)*1),COUNTIF('Data Entry'!D2:D356,A30))))</f>
+        <v/>
+      </c>
+      <c r="D30" s="63" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="E30" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!M2:M356=D30)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!M2:M356=D30)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!M2:M356=D30)*1),COUNTIF('Data Entry'!M2:M356,D30))))</f>
+        <v/>
+      </c>
+      <c r="G30" s="33" t="n"/>
+      <c r="J30" s="33" t="n"/>
+      <c r="M30" s="33" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="63" t="inlineStr">
+        <is>
+          <t>Falls from Height</t>
+        </is>
+      </c>
+      <c r="B31" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A31)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A31)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A31)*1),COUNTIF('Data Entry'!D2:D356,A31))))</f>
+        <v/>
+      </c>
+      <c r="G31" s="62" t="n"/>
+      <c r="H31" s="62" t="n"/>
+      <c r="J31" s="62" t="n"/>
+      <c r="K31" s="62" t="n"/>
+      <c r="M31" s="62" t="n"/>
+      <c r="N31" s="62" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="63" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="B32" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A32)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A32)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A32)*1),COUNTIF('Data Entry'!D2:D356,A32))))</f>
+        <v/>
+      </c>
+      <c r="G32" s="63" t="n"/>
+      <c r="H32" s="63" t="n"/>
+      <c r="J32" s="63" t="n"/>
+      <c r="K32" s="63" t="n"/>
+      <c r="M32" s="63" t="n"/>
+      <c r="N32" s="63" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="63" t="inlineStr">
         <is>
           <t>Heat-Related</t>
         </is>
       </c>
-      <c r="B26">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A26)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A26)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A26)*1),COUNTIF('Data Entry'!D2:D356,A26))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="G30" s="33" t="inlineStr">
+      <c r="B33" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A33)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A33)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A33)*1),COUNTIF('Data Entry'!D2:D356,A33))))</f>
+        <v/>
+      </c>
+      <c r="G33" s="63" t="n"/>
+      <c r="H33" s="63" t="n"/>
+      <c r="J33" s="63" t="n"/>
+      <c r="K33" s="63" t="n"/>
+      <c r="M33" s="63" t="n"/>
+      <c r="N33" s="63" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="63" t="inlineStr">
+        <is>
+          <t>Stress Fractures</t>
+        </is>
+      </c>
+      <c r="B34" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A34)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A34)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A34)*1),COUNTIF('Data Entry'!D2:D356,A34))))</f>
+        <v/>
+      </c>
+      <c r="G34" s="63" t="n"/>
+      <c r="H34" s="63" t="n"/>
+      <c r="J34" s="63" t="n"/>
+      <c r="K34" s="63" t="n"/>
+      <c r="M34" s="63" t="n"/>
+      <c r="N34" s="63" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="63" t="inlineStr">
+        <is>
+          <t>Tendonitis</t>
+        </is>
+      </c>
+      <c r="B35" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A35)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A35)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A35)*1),COUNTIF('Data Entry'!D2:D356,A35))))</f>
+        <v/>
+      </c>
+      <c r="G35" s="63" t="n"/>
+      <c r="H35" s="63" t="n"/>
+      <c r="J35" s="63" t="n"/>
+      <c r="K35" s="63" t="n"/>
+      <c r="M35" s="63" t="n"/>
+      <c r="N35" s="63" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="63" t="inlineStr">
+        <is>
+          <t>Incorrect Use</t>
+        </is>
+      </c>
+      <c r="B36" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A36)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A36)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A36)*1),COUNTIF('Data Entry'!D2:D356,A36))))</f>
+        <v/>
+      </c>
+      <c r="J36" s="63" t="n"/>
+      <c r="K36" s="63" t="n"/>
+      <c r="M36" s="63" t="n"/>
+      <c r="N36" s="63" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="63" t="inlineStr">
+        <is>
+          <t>Malfunction</t>
+        </is>
+      </c>
+      <c r="B37" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A37)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A37)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A37)*1),COUNTIF('Data Entry'!D2:D356,A37))))</f>
+        <v/>
+      </c>
+      <c r="M37" s="63" t="n"/>
+      <c r="N37" s="63" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="63" t="inlineStr">
+        <is>
+          <t>Poor Lighting</t>
+        </is>
+      </c>
+      <c r="B38" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A38)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A38)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A38)*1),COUNTIF('Data Entry'!D2:D356,A38))))</f>
+        <v/>
+      </c>
+      <c r="M38" s="63" t="n"/>
+      <c r="N38" s="63" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="63" t="inlineStr">
+        <is>
+          <t>Inadequate Signage</t>
+        </is>
+      </c>
+      <c r="B39" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A39)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A39)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A39)*1),COUNTIF('Data Entry'!D2:D356,A39))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="63" t="inlineStr">
+        <is>
+          <t>Cleaning Agents</t>
+        </is>
+      </c>
+      <c r="B40" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A40)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A40)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A40)*1),COUNTIF('Data Entry'!D2:D356,A40))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="63" t="inlineStr">
+        <is>
+          <t>Infections</t>
+        </is>
+      </c>
+      <c r="B41" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A41)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A41)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A41)*1),COUNTIF('Data Entry'!D2:D356,A41))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="63" t="inlineStr">
+        <is>
+          <t>Allergies</t>
+        </is>
+      </c>
+      <c r="B42" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A42)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A42)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A42)*1),COUNTIF('Data Entry'!D2:D356,A42))))</f>
+        <v/>
+      </c>
+      <c r="P42" s="33" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="63" t="inlineStr">
+        <is>
+          <t>Harassment or Bullying</t>
+        </is>
+      </c>
+      <c r="B43" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A43)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A43)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A43)*1),COUNTIF('Data Entry'!D2:D356,A43))))</f>
+        <v/>
+      </c>
+      <c r="P43" s="62" t="n"/>
+      <c r="Q43" s="62" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="63" t="inlineStr">
+        <is>
+          <t>Performance Pressure</t>
+        </is>
+      </c>
+      <c r="B44" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A44)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A44)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A44)*1),COUNTIF('Data Entry'!D2:D356,A44))))</f>
+        <v/>
+      </c>
+      <c r="P44" s="63" t="n"/>
+      <c r="Q44" s="63" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="63" t="inlineStr">
+        <is>
+          <t>Assault</t>
+        </is>
+      </c>
+      <c r="B45" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A45)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A45)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A45)*1),COUNTIF('Data Entry'!D2:D356,A45))))</f>
+        <v/>
+      </c>
+      <c r="P45" s="63" t="n"/>
+      <c r="Q45" s="63" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="63" t="inlineStr">
+        <is>
+          <t>Theft</t>
+        </is>
+      </c>
+      <c r="B46" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A46)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A46)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A46)*1),COUNTIF('Data Entry'!D2:D356,A46))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="63" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="B47" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!D2:D356=A47)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!D2:D356=A47)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!D2:D356=A47)*1),COUNTIF('Data Entry'!D2:D356,A47))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="G51" s="177" t="inlineStr">
         <is>
           <t>SEVERITY DATA</t>
         </is>
       </c>
-      <c r="J30" s="33" t="inlineStr">
+      <c r="J51" s="177" t="inlineStr">
         <is>
           <t>PROGRAM DATA</t>
         </is>
       </c>
-      <c r="M30" s="33" t="inlineStr">
+      <c r="M51" s="177" t="inlineStr">
         <is>
           <t>DAY OF WEEK DATA</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="G31" s="62" t="inlineStr">
+      <c r="P51" s="177" t="inlineStr">
+        <is>
+          <t>HOSPITAL TRANSPORT</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="G52" s="30" t="inlineStr">
         <is>
           <t>Priority</t>
         </is>
       </c>
-      <c r="H31" s="62" t="inlineStr">
+      <c r="H52" s="30" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="J31" s="62" t="inlineStr">
+      <c r="J52" s="30" t="inlineStr">
         <is>
           <t>Program</t>
         </is>
       </c>
-      <c r="K31" s="62" t="inlineStr">
+      <c r="K52" s="30" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-      <c r="M31" s="62" t="inlineStr">
+      <c r="M52" s="30" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="N31" s="62" t="inlineStr">
+      <c r="N52" s="30" t="inlineStr">
         <is>
           <t>Count</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="G32" s="63" t="inlineStr">
+      <c r="P52" s="30" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="Q52" s="30" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="G53" s="63" t="inlineStr">
         <is>
           <t>P1</t>
         </is>
       </c>
-      <c r="H32" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G32)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G32)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G32)*1),COUNTIF('Data Entry'!I2:I356,G32))))</f>
-        <v/>
-      </c>
-      <c r="J32" s="63" t="inlineStr">
+      <c r="H53" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G53)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G53)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G53)*1),COUNTIF('Data Entry'!I2:I356,G53))))</f>
+        <v/>
+      </c>
+      <c r="J53" s="63" t="inlineStr">
         <is>
           <t>Open Play</t>
         </is>
       </c>
-      <c r="K32" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J32)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J32)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J32)*1))))</f>
-        <v/>
-      </c>
-      <c r="M32" s="63" t="inlineStr">
+      <c r="K53" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J53))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J53))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J53))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J53))*1))))</f>
+        <v/>
+      </c>
+      <c r="M53" s="63" t="inlineStr">
         <is>
           <t>Monday</t>
         </is>
       </c>
-      <c r="N32" s="63">
+      <c r="N53" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=2)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=2)*1))))</f>
         <v/>
       </c>
-    </row>
-    <row r="33">
-      <c r="G33" s="63" t="inlineStr">
+      <c r="P53" s="63" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="Q53" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!J2:J356=P53)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!J2:J356=P53)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!J2:J356=P53)*1),COUNTIF('Data Entry'!J2:J356,P53))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="G54" s="63" t="inlineStr">
         <is>
           <t>P2</t>
         </is>
       </c>
-      <c r="H33" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G33)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G33)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G33)*1),COUNTIF('Data Entry'!I2:I356,G33))))</f>
-        <v/>
-      </c>
-      <c r="J33" s="63" t="inlineStr">
+      <c r="H54" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G54)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G54)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G54)*1),COUNTIF('Data Entry'!I2:I356,G54))))</f>
+        <v/>
+      </c>
+      <c r="J54" s="63" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="K33" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J33)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J33)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J33)*1))))</f>
-        <v/>
-      </c>
-      <c r="M33" s="63" t="inlineStr">
+      <c r="K54" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J54))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J54))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J54))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J54))*1))))</f>
+        <v/>
+      </c>
+      <c r="M54" s="63" t="inlineStr">
         <is>
           <t>Tuesday</t>
         </is>
       </c>
-      <c r="N33" s="63">
+      <c r="N54" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=3)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=3)*1))))</f>
         <v/>
       </c>
-    </row>
-    <row r="34">
-      <c r="G34" s="63" t="inlineStr">
+      <c r="P54" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="Q54" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!J2:J356=P54)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!J2:J356=P54)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!J2:J356=P54)*1),COUNTIF('Data Entry'!J2:J356,P54))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="G55" s="63" t="inlineStr">
         <is>
           <t>P3</t>
         </is>
       </c>
-      <c r="H34" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G34)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G34)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G34)*1),COUNTIF('Data Entry'!I2:I356,G34))))</f>
-        <v/>
-      </c>
-      <c r="J34" s="63" t="inlineStr">
+      <c r="H55" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G55)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G55)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G55)*1),COUNTIF('Data Entry'!I2:I356,G55))))</f>
+        <v/>
+      </c>
+      <c r="J55" s="63" t="inlineStr">
         <is>
           <t>Afternoon Program</t>
         </is>
       </c>
-      <c r="K34" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J34)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J34)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J34)*1))))</f>
-        <v/>
-      </c>
-      <c r="M34" s="63" t="inlineStr">
+      <c r="K55" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J55))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J55))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J55))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J55))*1))))</f>
+        <v/>
+      </c>
+      <c r="M55" s="63" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="N34" s="63">
+      <c r="N55" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=4)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=4)*1))))</f>
         <v/>
       </c>
     </row>
-    <row r="35">
-      <c r="G35" s="63" t="inlineStr">
+    <row r="56">
+      <c r="G56" s="63" t="inlineStr">
         <is>
           <t>P4</t>
         </is>
       </c>
-      <c r="H35" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G35)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G35)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G35)*1),COUNTIF('Data Entry'!I2:I356,G35))))</f>
-        <v/>
-      </c>
-      <c r="J35" s="63" t="inlineStr">
+      <c r="H56" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!I2:I356=G56)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!I2:I356=G56)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!I2:I356=G56)*1),COUNTIF('Data Entry'!I2:I356,G56))))</f>
+        <v/>
+      </c>
+      <c r="J56" s="63" t="inlineStr">
         <is>
           <t>Girl Skate</t>
         </is>
       </c>
-      <c r="K35" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J35)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J35)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J35)*1))))</f>
-        <v/>
-      </c>
-      <c r="M35" s="63" t="inlineStr">
+      <c r="K56" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J56))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J56))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J56))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J56))*1))))</f>
+        <v/>
+      </c>
+      <c r="M56" s="63" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="N35" s="63">
+      <c r="N56" s="63">
         <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=5)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=5)*1))))</f>
         <v/>
       </c>
     </row>
-    <row r="36">
-      <c r="J36" s="63" t="inlineStr">
+    <row r="57">
+      <c r="J57" s="63" t="inlineStr">
+        <is>
+          <t>Bystander</t>
+        </is>
+      </c>
+      <c r="K57" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J57))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J57))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J57))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J57))*1))))</f>
+        <v/>
+      </c>
+      <c r="M57" s="63" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="N57" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="J58" s="63" t="inlineStr">
+        <is>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="K58" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J58))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J58))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J58))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J58))*1))))</f>
+        <v/>
+      </c>
+      <c r="M58" s="63" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="N58" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="J59" s="63" t="inlineStr">
+        <is>
+          <t>Kicking Boxing</t>
+        </is>
+      </c>
+      <c r="K59" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J59))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J59))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J59))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J59))*1))))</f>
+        <v/>
+      </c>
+      <c r="M59" s="63" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="N59" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="J60" s="63" t="inlineStr">
+        <is>
+          <t>Running with the pack</t>
+        </is>
+      </c>
+      <c r="K60" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J60))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J60))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J60))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J60))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="J61" s="63" t="inlineStr">
+        <is>
+          <t>Dancing</t>
+        </is>
+      </c>
+      <c r="K61" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J61))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J61))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J61))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J61))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="J62" s="63" t="inlineStr">
+        <is>
+          <t>LFA</t>
+        </is>
+      </c>
+      <c r="K62" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J62))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J62))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J62))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J62))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="J63" s="63" t="inlineStr">
+        <is>
+          <t>Morning Show</t>
+        </is>
+      </c>
+      <c r="K63" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J63))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J63))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J63))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J63))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="J64" s="63" t="inlineStr">
+        <is>
+          <t>Her Game</t>
+        </is>
+      </c>
+      <c r="K64" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J64))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J64))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J64))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J64))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="J65" s="63" t="inlineStr">
+        <is>
+          <t>FNB Tournament</t>
+        </is>
+      </c>
+      <c r="K65" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J65))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J65))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J65))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J65))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="J66" s="63" t="inlineStr">
+        <is>
+          <t>OR Tambo Soncini Games</t>
+        </is>
+      </c>
+      <c r="K66" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J66))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J66))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J66))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J66))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="J67" s="63" t="inlineStr">
+        <is>
+          <t>Clinic Stix Morewa Challenge</t>
+        </is>
+      </c>
+      <c r="K67" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J67))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J67))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J67))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J67))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="J68" s="63" t="inlineStr">
+        <is>
+          <t>Discovery  Challenge</t>
+        </is>
+      </c>
+      <c r="K68" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J68))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J68))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J68))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J68))*1))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="J69" s="63" t="inlineStr">
         <is>
           <t>NONE SPORTS CENTER</t>
         </is>
       </c>
-      <c r="K36" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=J36)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=J36)*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=J36)*1))))</f>
-        <v/>
-      </c>
-      <c r="M36" s="63" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="N36" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=6)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=6)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37">
-      <c r="M37" s="63" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="N37" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=7)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=7)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="M38" s="63" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="N38" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(WEEKDAY('Data Entry'!A2:A356)=1)*1),SUMPRODUCT((WEEKDAY('Data Entry'!A2:A356)=1)*1))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="P42" s="33" t="inlineStr">
-        <is>
-          <t>HOSPITAL TRANSPORT</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="P43" s="62" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="Q43" s="62" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="P44" s="63" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="Q44" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!J2:J356=P44)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!J2:J356=P44)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!J2:J356=P44)*1),COUNTIF('Data Entry'!J2:J356,P44))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="P45" s="63" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="Q45" s="63">
-        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*('Data Entry'!J2:J356=P45)*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*('Data Entry'!J2:J356=P45)*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*('Data Entry'!J2:J356=P45)*1),COUNTIF('Data Entry'!J2:J356,P45))))</f>
+      <c r="K69" s="63">
+        <f>IF('Dashboard Pro'!C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1='Dashboard Pro'!P6)*(TRIM('Data Entry'!G2:G356)=TRIM(J69))*1),IF('Dashboard Pro'!C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)='Dashboard Pro'!Q6)*(YEAR('Data Entry'!A2:A356)='Dashboard Pro'!R6)*(TRIM('Data Entry'!G2:G356)=TRIM(J69))*1),IF('Dashboard Pro'!C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356='Dashboard Pro'!I6)*(TRIM('Data Entry'!G2:G356)=TRIM(J69))*1),SUMPRODUCT((TRIM('Data Entry'!G2:G356)=TRIM(J69))*1))))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="P42:Q42"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -22522,7 +22867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -22873,9 +23218,6 @@
     <row r="24" ht="17.25" customHeight="1" s="21">
       <c r="A24" s="16" t="n"/>
     </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -22887,7 +23229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
@@ -23340,9 +23682,6 @@
         <v/>
       </c>
     </row>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -1419,7 +1419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1754,6 +1754,21 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="70" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="70" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1870,7 +1885,6 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2567,7 +2581,6 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2650,7 +2663,6 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2789,7 +2801,6 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -2872,7 +2883,6 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="10"/>
   <chart>
     <title>
       <tx>
@@ -3791,7 +3801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R138"/>
+  <dimension ref="A2:R149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -5882,266 +5892,419 @@
           <t>TOP VENUE COMPARISON</t>
         </is>
       </c>
-      <c r="C126" s="165" t="n"/>
-      <c r="D126" s="165" t="n"/>
-      <c r="E126" s="165" t="n"/>
-      <c r="F126" s="165" t="n"/>
-      <c r="G126" s="166" t="n"/>
     </row>
     <row r="127" ht="20" customHeight="1" s="21">
-      <c r="B127" s="172" t="inlineStr">
+      <c r="B127" s="178" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="C127" s="171" t="n"/>
-      <c r="D127" s="172" t="inlineStr">
+      <c r="D127" s="178" t="inlineStr">
         <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="E127" s="172" t="inlineStr">
+      <c r="E127" s="178" t="inlineStr">
         <is>
           <t>Previous</t>
         </is>
       </c>
-      <c r="F127" s="172" t="inlineStr">
+      <c r="F127" s="178" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="G127" s="172" t="inlineStr">
+      <c r="G127" s="178" t="inlineStr">
         <is>
           <t>Trend</t>
         </is>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1" s="21">
-      <c r="B128" s="173" t="inlineStr">
+      <c r="B128" s="179" t="inlineStr">
         <is>
           <t>Skate Park</t>
         </is>
       </c>
       <c r="C128" s="175" t="n"/>
-      <c r="D128" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B128)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B128)*1),COUNTIF('Data Entry'!F2:F356,$B128))))</f>
-        <v/>
-      </c>
-      <c r="E128" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B128)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B128)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B128)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F128" s="170">
+      <c r="D128" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B128)*1),COUNTIF('Data Entry'!F2:F356,B128))))</f>
+        <v/>
+      </c>
+      <c r="E128" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B128)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B128)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B128)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F128" s="181">
         <f>IFERROR(IF(E128=0,IF(D128=0,"0%","NEW"),TEXT((D128-E128)/E128,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G128" s="170">
-        <f>IF(D128&gt;E128,"↑ UP",IF(D128&lt;E128,"↓ DOWN",IF(D128=E128,"→ SAME","-")))</f>
+      <c r="G128" s="181">
+        <f>IF(D128&gt;E128,"↑ UP",IF(D128&lt;E128,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1" s="21">
-      <c r="B129" s="173" t="inlineStr">
+      <c r="B129" s="179" t="inlineStr">
         <is>
           <t xml:space="preserve">5 A side </t>
         </is>
       </c>
       <c r="C129" s="175" t="n"/>
-      <c r="D129" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B129)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B129)*1),COUNTIF('Data Entry'!F2:F356,$B129))))</f>
-        <v/>
-      </c>
-      <c r="E129" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B129)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B129)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B129)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F129" s="170">
+      <c r="D129" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B129)*1),COUNTIF('Data Entry'!F2:F356,B129))))</f>
+        <v/>
+      </c>
+      <c r="E129" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B129)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B129)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B129)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F129" s="181">
         <f>IFERROR(IF(E129=0,IF(D129=0,"0%","NEW"),TEXT((D129-E129)/E129,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G129" s="170">
-        <f>IF(D129&gt;E129,"↑ UP",IF(D129&lt;E129,"↓ DOWN",IF(D129=E129,"→ SAME","-")))</f>
+      <c r="G129" s="181">
+        <f>IF(D129&gt;E129,"↑ UP",IF(D129&lt;E129,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="130" ht="20" customHeight="1" s="21">
-      <c r="B130" s="173" t="inlineStr">
+      <c r="B130" s="179" t="inlineStr">
         <is>
           <t>Basketball</t>
         </is>
       </c>
       <c r="C130" s="175" t="n"/>
-      <c r="D130" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B130)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B130)*1),COUNTIF('Data Entry'!F2:F356,$B130))))</f>
-        <v/>
-      </c>
-      <c r="E130" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B130)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B130)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B130)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F130" s="170">
+      <c r="D130" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B130)*1),COUNTIF('Data Entry'!F2:F356,B130))))</f>
+        <v/>
+      </c>
+      <c r="E130" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B130)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B130)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B130)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F130" s="181">
         <f>IFERROR(IF(E130=0,IF(D130=0,"0%","NEW"),TEXT((D130-E130)/E130,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G130" s="170">
-        <f>IF(D130&gt;E130,"↑ UP",IF(D130&lt;E130,"↓ DOWN",IF(D130=E130,"→ SAME","-")))</f>
+      <c r="G130" s="181">
+        <f>IF(D130&gt;E130,"↑ UP",IF(D130&lt;E130,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="131" ht="20" customHeight="1" s="21">
-      <c r="B131" s="173" t="inlineStr">
+      <c r="B131" s="179" t="inlineStr">
         <is>
           <t>Outdoor gym</t>
         </is>
       </c>
       <c r="C131" s="175" t="n"/>
-      <c r="D131" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B131)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B131)*1),COUNTIF('Data Entry'!F2:F356,$B131))))</f>
-        <v/>
-      </c>
-      <c r="E131" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B131)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B131)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B131)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F131" s="170">
+      <c r="D131" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B131)*1),COUNTIF('Data Entry'!F2:F356,B131))))</f>
+        <v/>
+      </c>
+      <c r="E131" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B131)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B131)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B131)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F131" s="181">
         <f>IFERROR(IF(E131=0,IF(D131=0,"0%","NEW"),TEXT((D131-E131)/E131,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G131" s="170">
-        <f>IF(D131&gt;E131,"↑ UP",IF(D131&lt;E131,"↓ DOWN",IF(D131=E131,"→ SAME","-")))</f>
+      <c r="G131" s="181">
+        <f>IF(D131&gt;E131,"↑ UP",IF(D131&lt;E131,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="132" ht="20" customHeight="1" s="21">
-      <c r="B132" s="173" t="inlineStr">
-        <is>
-          <t>JDI Studio</t>
+      <c r="B132" s="179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JDI Studio </t>
         </is>
       </c>
       <c r="C132" s="175" t="n"/>
-      <c r="D132" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B132)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B132)*1),COUNTIF('Data Entry'!F2:F356,$B132))))</f>
-        <v/>
-      </c>
-      <c r="E132" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B132)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B132)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B132)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F132" s="170">
+      <c r="D132" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B132)*1),COUNTIF('Data Entry'!F2:F356,B132))))</f>
+        <v/>
+      </c>
+      <c r="E132" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B132)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B132)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B132)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F132" s="181">
         <f>IFERROR(IF(E132=0,IF(D132=0,"0%","NEW"),TEXT((D132-E132)/E132,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G132" s="170">
-        <f>IF(D132&gt;E132,"↑ UP",IF(D132&lt;E132,"↓ DOWN",IF(D132=E132,"→ SAME","-")))</f>
+      <c r="G132" s="181">
+        <f>IF(D132&gt;E132,"↑ UP",IF(D132&lt;E132,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="133" ht="20" customHeight="1" s="21">
-      <c r="B133" s="173" t="inlineStr">
+      <c r="B133" s="179" t="inlineStr">
+        <is>
+          <t>PHINDA Studio</t>
+        </is>
+      </c>
+      <c r="C133" s="175" t="n"/>
+      <c r="D133" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B133)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B133)*1),COUNTIF('Data Entry'!F2:F356,B133))))</f>
+        <v/>
+      </c>
+      <c r="E133" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B133)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B133)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B133)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F133" s="181">
+        <f>IFERROR(IF(E133=0,IF(D133=0,"0%","NEW"),TEXT((D133-E133)/E133,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G133" s="181">
+        <f>IF(D133&gt;E133,"↑ UP",IF(D133&lt;E133,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" ht="20" customHeight="1" s="21">
+      <c r="B134" s="179" t="inlineStr">
+        <is>
+          <t>PHAMBILI Studio</t>
+        </is>
+      </c>
+      <c r="C134" s="175" t="n"/>
+      <c r="D134" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B134)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B134)*1),COUNTIF('Data Entry'!F2:F356,B134))))</f>
+        <v/>
+      </c>
+      <c r="E134" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B134)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B134)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B134)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F134" s="181">
+        <f>IFERROR(IF(E134=0,IF(D134=0,"0%","NEW"),TEXT((D134-E134)/E134,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G134" s="181">
+        <f>IF(D134&gt;E134,"↑ UP",IF(D134&lt;E134,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" ht="20" customHeight="1" s="21">
+      <c r="B135" s="179" t="inlineStr">
         <is>
           <t xml:space="preserve">11- A side </t>
         </is>
       </c>
-      <c r="C133" s="175" t="n"/>
-      <c r="D133" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B133)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B133)*1),COUNTIF('Data Entry'!F2:F356,$B133))))</f>
-        <v/>
-      </c>
-      <c r="E133" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B133)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B133)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B133)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F133" s="170">
-        <f>IFERROR(IF(E133=0,IF(D133=0,"0%","NEW"),TEXT((D133-E133)/E133,"+0%;-0%")),"-")</f>
-        <v/>
-      </c>
-      <c r="G133" s="170">
-        <f>IF(D133&gt;E133,"↑ UP",IF(D133&lt;E133,"↓ DOWN",IF(D133=E133,"→ SAME","-")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134" ht="20" customHeight="1" s="21">
-      <c r="B134" s="173" t="inlineStr">
+      <c r="C135" s="175" t="n"/>
+      <c r="D135" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B135)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B135)*1),COUNTIF('Data Entry'!F2:F356,B135))))</f>
+        <v/>
+      </c>
+      <c r="E135" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B135)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B135)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B135)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F135" s="181">
+        <f>IFERROR(IF(E135=0,IF(D135=0,"0%","NEW"),TEXT((D135-E135)/E135,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G135" s="181">
+        <f>IF(D135&gt;E135,"↑ UP",IF(D135&lt;E135,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" ht="20" customHeight="1" s="21">
+      <c r="B136" s="179" t="inlineStr">
         <is>
           <t>Athletics track</t>
         </is>
       </c>
-      <c r="C134" s="175" t="n"/>
-      <c r="D134" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B134)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B134)*1),COUNTIF('Data Entry'!F2:F356,$B134))))</f>
-        <v/>
-      </c>
-      <c r="E134" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B134)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B134)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B134)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F134" s="170">
-        <f>IFERROR(IF(E134=0,IF(D134=0,"0%","NEW"),TEXT((D134-E134)/E134,"+0%;-0%")),"-")</f>
-        <v/>
-      </c>
-      <c r="G134" s="170">
-        <f>IF(D134&gt;E134,"↑ UP",IF(D134&lt;E134,"↓ DOWN",IF(D134=E134,"→ SAME","-")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135" ht="20" customHeight="1" s="21">
-      <c r="B135" s="173" t="inlineStr">
+      <c r="C136" s="175" t="n"/>
+      <c r="D136" s="180">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B136)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B136)*1),COUNTIF('Data Entry'!F2:F356,B136))))</f>
+        <v/>
+      </c>
+      <c r="E136" s="180">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B136)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B136)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B136)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F136" s="181">
+        <f>IFERROR(IF(E136=0,IF(D136=0,"0%","NEW"),TEXT((D136-E136)/E136,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G136" s="181">
+        <f>IF(D136&gt;E136,"↑ UP",IF(D136&lt;E136,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" ht="15" customHeight="1" s="21">
+      <c r="B137" s="63" t="inlineStr">
+        <is>
+          <t>Registration area</t>
+        </is>
+      </c>
+      <c r="D137" s="63">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B137)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B137)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B137)*1),COUNTIF('Data Entry'!F2:F356,B137))))</f>
+        <v/>
+      </c>
+      <c r="E137" s="63">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B137)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B137)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B137)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B137)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F137" s="63">
+        <f>IFERROR(IF(E137=0,IF(D137=0,"0%","NEW"),TEXT((D137-E137)/E137,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G137" s="63">
+        <f>IF(D137&gt;E137,"↑ UP",IF(D137&lt;E137,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138">
+      <c r="B138" s="182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Car parking </t>
+        </is>
+      </c>
+      <c r="D138" s="63">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B138)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B138)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B138)*1),COUNTIF('Data Entry'!F2:F356,B138))))</f>
+        <v/>
+      </c>
+      <c r="E138" s="63">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B138)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B138)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B138)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B138)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F138" s="63">
+        <f>IFERROR(IF(E138=0,IF(D138=0,"0%","NEW"),TEXT((D138-E138)/E138,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G138" s="63">
+        <f>IF(D138&gt;E138,"↑ UP",IF(D138&lt;E138,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139">
+      <c r="B139" s="63" t="inlineStr">
         <is>
           <t>Change Rooms</t>
         </is>
       </c>
-      <c r="C135" s="175" t="n"/>
-      <c r="D135" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B135)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B135)*1),COUNTIF('Data Entry'!F2:F356,$B135))))</f>
-        <v/>
-      </c>
-      <c r="E135" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B135)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B135)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B135)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F135" s="170">
-        <f>IFERROR(IF(E135=0,IF(D135=0,"0%","NEW"),TEXT((D135-E135)/E135,"+0%;-0%")),"-")</f>
-        <v/>
-      </c>
-      <c r="G135" s="170">
-        <f>IF(D135&gt;E135,"↑ UP",IF(D135&lt;E135,"↓ DOWN",IF(D135=E135,"→ SAME","-")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136" ht="20" customHeight="1" s="21">
-      <c r="B136" s="173" t="inlineStr">
+      <c r="D139" s="63">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B139)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B139)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B139)*1),COUNTIF('Data Entry'!F2:F356,B139))))</f>
+        <v/>
+      </c>
+      <c r="E139" s="63">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B139)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B139)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B139)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B139)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F139" s="63">
+        <f>IFERROR(IF(E139=0,IF(D139=0,"0%","NEW"),TEXT((D139-E139)/E139,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G139" s="63">
+        <f>IF(D139&gt;E139,"↑ UP",IF(D139&lt;E139,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" s="63" t="inlineStr">
+        <is>
+          <t>Equipment Rooms</t>
+        </is>
+      </c>
+      <c r="D140" s="63">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B140)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B140)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B140)*1),COUNTIF('Data Entry'!F2:F356,B140))))</f>
+        <v/>
+      </c>
+      <c r="E140" s="63">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B140)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B140)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B140)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B140)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F140" s="63">
+        <f>IFERROR(IF(E140=0,IF(D140=0,"0%","NEW"),TEXT((D140-E140)/E140,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G140" s="63">
+        <f>IF(D140&gt;E140,"↑ UP",IF(D140&lt;E140,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141">
+      <c r="B141" s="63" t="inlineStr">
         <is>
           <t>1KM RUN/WALK PATH</t>
         </is>
       </c>
-      <c r="C136" s="175" t="n"/>
-      <c r="D136" s="174">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=$B136)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=$B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=$B136)*1),COUNTIF('Data Entry'!F2:F356,$B136))))</f>
-        <v/>
-      </c>
-      <c r="E136" s="174">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!F2:F356=$B136)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=$B136)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=$B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!F2:F356=$B136)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F136" s="170">
-        <f>IFERROR(IF(E136=0,IF(D136=0,"0%","NEW"),TEXT((D136-E136)/E136,"+0%;-0%")),"-")</f>
-        <v/>
-      </c>
-      <c r="G136" s="170">
-        <f>IF(D136&gt;E136,"↑ UP",IF(D136&lt;E136,"↓ DOWN",IF(D136=E136,"→ SAME","-")))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="137" ht="15" customHeight="1" s="21"/>
-    <row r="138">
-      <c r="B138" s="139" t="inlineStr">
-        <is>
-          <t>Dashboard Pro | Nike Soweto Medical Incidents Reporting System | Trend analysis updates automatically</t>
-        </is>
-      </c>
-    </row>
+      <c r="D141" s="63">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B141)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B141)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B141)*1),COUNTIF('Data Entry'!F2:F356,B141))))</f>
+        <v/>
+      </c>
+      <c r="E141" s="63">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B141)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B141)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B141)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B141)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F141" s="63">
+        <f>IFERROR(IF(E141=0,IF(D141=0,"0%","NEW"),TEXT((D141-E141)/E141,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G141" s="63">
+        <f>IF(D141&gt;E141,"↑ UP",IF(D141&lt;E141,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142">
+      <c r="B142" s="63" t="inlineStr">
+        <is>
+          <t>Bleachers</t>
+        </is>
+      </c>
+      <c r="D142" s="63">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B142)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B142)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B142)*1),COUNTIF('Data Entry'!F2:F356,B142))))</f>
+        <v/>
+      </c>
+      <c r="E142" s="63">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B142)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B142)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B142)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B142)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F142" s="63">
+        <f>IFERROR(IF(E142=0,IF(D142=0,"0%","NEW"),TEXT((D142-E142)/E142,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G142" s="63">
+        <f>IF(D142&gt;E142,"↑ UP",IF(D142&lt;E142,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" s="63" t="inlineStr">
+        <is>
+          <t>P GATE</t>
+        </is>
+      </c>
+      <c r="D143" s="63">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B143)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B143)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B143)*1),COUNTIF('Data Entry'!F2:F356,B143))))</f>
+        <v/>
+      </c>
+      <c r="E143" s="63">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B143)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B143)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B143)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B143)*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F143" s="63">
+        <f>IFERROR(IF(E143=0,IF(D143=0,"0%","NEW"),TEXT((D143-E143)/E143,"+0%;-0%")),"-")</f>
+        <v/>
+      </c>
+      <c r="G143" s="63">
+        <f>IF(D143&gt;E143,"↑ UP",IF(D143&lt;E143,"↓ DOWN","→ SAME"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144"/>
+    <row r="145"/>
+    <row r="146"/>
+    <row r="147"/>
+    <row r="148"/>
+    <row r="149"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="40">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B117:G117"/>
     <mergeCell ref="F11:G11"/>
@@ -6164,17 +6327,14 @@
     <mergeCell ref="B50:N50"/>
     <mergeCell ref="C94:G94"/>
     <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B138:N138"/>
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B126:G126"/>
     <mergeCell ref="B86:N86"/>
     <mergeCell ref="H117:N117"/>
-    <mergeCell ref="B127:C127"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B14:N14"/>
@@ -8284,7 +8444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z356"/>
+  <dimension ref="A1:AC356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8397,12 +8557,27 @@
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Program type </t>
+          <t>Programs</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
           <t>Quarter</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Venues</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>Mechanisms</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>Injuries</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8660,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bystander </t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="Y2">
@@ -8495,6 +8670,21 @@
       <c r="Z2" t="inlineStr">
         <is>
           <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Skate Park</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Head Injury</t>
         </is>
       </c>
     </row>
@@ -8585,6 +8775,21 @@
           <t xml:space="preserve">Equipment </t>
         </is>
       </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Player-to-Object</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Neck Injury</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="n">
@@ -8665,12 +8870,27 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>Yoga</t>
+          <t xml:space="preserve">Afternoon Program </t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
           <t xml:space="preserve">Enviroment </t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Struck by Equipment</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Facial Injury</t>
         </is>
       </c>
     </row>
@@ -8761,6 +8981,21 @@
           <t>NONE SPORTS CENTER</t>
         </is>
       </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Outdoor gym</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>spinal injury</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="18" t="n">
@@ -8841,7 +9076,22 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kicking Boxing </t>
+          <t>Bystander</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JDI Studio </t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Falls from Height</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Shoulder</t>
         </is>
       </c>
     </row>
@@ -8924,7 +9174,22 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Running with the pack </t>
+          <t>Yoga</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>PHINDA Studio</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Elbow</t>
         </is>
       </c>
     </row>
@@ -9007,7 +9272,22 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dancing </t>
+          <t>Kicking Boxing</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>PHAMBILI Studio</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Heat-Related</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Wrist</t>
         </is>
       </c>
     </row>
@@ -9090,7 +9370,22 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t xml:space="preserve">LFA </t>
+          <t>Running with the pack</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Stress Fractures</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Hand</t>
         </is>
       </c>
     </row>
@@ -9168,7 +9463,22 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>Morning Show</t>
+          <t>Dancing</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Athletics track</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Tendonitis</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Arm</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9556,22 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Her Game </t>
+          <t>LFA</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Registration area</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Incorrect Use</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Upper limb Muscle</t>
         </is>
       </c>
     </row>
@@ -9324,7 +9649,22 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t xml:space="preserve">FNB Tournament </t>
+          <t>Morning Show</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Car parking </t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Malfunction</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Chest</t>
         </is>
       </c>
     </row>
@@ -9402,7 +9742,22 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>OR Tambo Soncini Games</t>
+          <t>Her Game</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Change Rooms</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Poor Lighting</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Abdominal</t>
         </is>
       </c>
     </row>
@@ -9480,7 +9835,22 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Clinic Stix Morewa Challenge</t>
+          <t>FNB Tournament</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Equipment Rooms</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Inadequate Signage</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Back</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9928,22 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Discovery  Challenge </t>
+          <t>OR Tambo Soncini Games</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>1KM RUN/WALK PATH</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Cleaning Agents</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Hip</t>
         </is>
       </c>
     </row>
@@ -9636,7 +10021,22 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afternoon Program </t>
+          <t>Clinic Stix Morewa Challenge</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Bleachers</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Infections</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Knee</t>
         </is>
       </c>
     </row>
@@ -9714,7 +10114,22 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Discovery  Challenge</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>P GATE</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Allergies</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ankle</t>
         </is>
       </c>
     </row>
@@ -9792,7 +10207,17 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cause  of injury </t>
+          <t>NONE SPORTS CENTER</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Harassment or Bullying</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Foot</t>
         </is>
       </c>
     </row>
@@ -9868,9 +10293,14 @@
       <c r="W19" s="19" t="n">
         <v>45948</v>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Activity </t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Performance Pressure</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Lower limb</t>
         </is>
       </c>
     </row>
@@ -9946,9 +10376,14 @@
       <c r="W20" s="19" t="n">
         <v>45949</v>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Equipment </t>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Assault</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>General</t>
         </is>
       </c>
     </row>
@@ -10024,9 +10459,14 @@
       <c r="W21" s="19" t="n">
         <v>45950</v>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enviroment </t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Theft</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Medical</t>
         </is>
       </c>
     </row>
@@ -10102,9 +10542,9 @@
       <c r="W22" s="19" t="n">
         <v>45951</v>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>NONE SPORTS CENTER</t>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Medical</t>
         </is>
       </c>
     </row>
@@ -19743,9 +20183,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="8">
     <dataValidation sqref="G2:G356" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
-      <formula1>$X$2:$X$22</formula1>
+      <formula1>$X$2:$X$18</formula1>
     </dataValidation>
     <dataValidation sqref="I2:I356" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>$U$3:$U$6</formula1>
@@ -19758,6 +20198,15 @@
     </dataValidation>
     <dataValidation sqref="E2:E356" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>$Z$2:$Z$5</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F356" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Venue" error="Please select from the list" promptTitle="Venue" prompt="Select a venue" type="list">
+      <formula1>$AA$2:$AA$17</formula1>
+    </dataValidation>
+    <dataValidation sqref="D2:D356" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Mechanism" error="Please select from the list" promptTitle="Mechanism" prompt="Select a mechanism" type="list">
+      <formula1>$AB$2:$AB$22</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H356" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Injury" error="Please select from the list" promptTitle="Injury Type" prompt="Select an injury type" type="list">
+      <formula1>$AC$2:$AC$21</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -33,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="71">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -411,8 +411,16 @@
       <color rgb="00415A77"/>
       <sz val="9"/>
     </font>
+    <font>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="14"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill/>
     </fill>
@@ -527,8 +535,14 @@
         <bgColor rgb="00DC3545"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002E75B6"/>
+        <bgColor rgb="002E75B6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="76">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1415,11 +1429,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00DEE2E6"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="00DEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1769,11 +1813,41 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="10" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="1"/>
@@ -1807,6 +1881,30 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FFF3CD"/>
           <bgColor rgb="00FFF3CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00C6EFCE"/>
+          <bgColor rgb="00C6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFC7CE"/>
+          <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFEB9C"/>
+          <bgColor rgb="00FFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3801,7 +3899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:R149"/>
+  <dimension ref="A2:R143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
@@ -3811,12 +3909,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="2" customWidth="1" style="21" min="1" max="1"/>
-    <col width="14" customWidth="1" style="21" min="2" max="2"/>
-    <col width="14" customWidth="1" style="21" min="3" max="3"/>
-    <col width="14" customWidth="1" style="21" min="4" max="4"/>
-    <col width="14" customWidth="1" style="21" min="5" max="5"/>
-    <col width="14" customWidth="1" style="21" min="6" max="6"/>
-    <col width="14" customWidth="1" style="21" min="7" max="7"/>
+    <col width="18" customWidth="1" style="21" min="2" max="2"/>
+    <col width="2" customWidth="1" style="21" min="3" max="3"/>
+    <col width="12" customWidth="1" style="21" min="4" max="4"/>
+    <col width="12" customWidth="1" style="21" min="5" max="5"/>
+    <col width="12" customWidth="1" style="21" min="6" max="6"/>
+    <col width="12" customWidth="1" style="21" min="7" max="7"/>
     <col width="2" customWidth="1" style="21" min="8" max="8"/>
     <col width="14" customWidth="1" style="21" min="9" max="9"/>
     <col width="14" customWidth="1" style="21" min="10" max="10"/>
@@ -5685,7 +5783,7 @@
     </row>
     <row r="115" ht="20" customHeight="1" s="21"/>
     <row r="116" ht="28" customHeight="1" s="21">
-      <c r="B116" s="162" t="inlineStr">
+      <c r="B116" s="189" t="inlineStr">
         <is>
           <t>TREND COMPARISON ANALYSIS</t>
         </is>
@@ -5704,621 +5802,636 @@
       <c r="N116" s="166" t="n"/>
     </row>
     <row r="117" ht="25" customHeight="1" s="21">
-      <c r="B117" s="163">
+      <c r="B117" s="190">
         <f>"CURRENT: "&amp;IF(C6="Weekly",E6&amp;" - "&amp;G6,IF(C6="Monthly",E6,IF(C6="Quarterly",I6,"All Time")))</f>
         <v/>
       </c>
-      <c r="H117" s="163">
-        <f>"vs PREVIOUS: "&amp;IF(C6="Weekly",IF(P6&gt;1,E6&amp;" - Week "&amp;(P6-1),TEXT(DATE(R6,Q6-1,1),"MMM-YY")&amp;" - Week 5"),IF(C6="Monthly",TEXT(DATE(R6,Q6-1,1),"MMM-YY"),IF(C6="Quarterly",IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))),"Previous Year")))</f>
+      <c r="H117" s="191">
+        <f>"vs PREVIOUS: "&amp;IF(C6="Weekly",IF(P6&gt;1,E6&amp;" - Week "&amp;(P6-1),TEXT(DATE(R6,IF(Q6=1,12,Q6-1),1),"MMM-YY")&amp;" - Week 5"),IF(C6="Monthly",TEXT(DATE(IF(Q6=1,R6-1,R6),IF(Q6=1,12,Q6-1),1),"MMM-YY"),IF(C6="Quarterly",INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)),"")))</f>
         <v/>
       </c>
     </row>
     <row r="118" ht="22" customHeight="1" s="21">
-      <c r="B118" s="164" t="inlineStr">
+      <c r="B118" s="184" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
       <c r="C118" s="166" t="n"/>
-      <c r="D118" s="164" t="inlineStr">
+      <c r="D118" s="184" t="inlineStr">
         <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="E118" s="164" t="inlineStr">
+      <c r="E118" s="184" t="inlineStr">
         <is>
           <t>Previous</t>
         </is>
       </c>
-      <c r="F118" s="164" t="inlineStr">
+      <c r="F118" s="184" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="G118" s="164" t="inlineStr">
+      <c r="G118" s="184" t="inlineStr">
         <is>
           <t>Trend</t>
         </is>
       </c>
     </row>
     <row r="119" ht="22" customHeight="1" s="21">
-      <c r="B119" s="167" t="inlineStr">
+      <c r="B119" s="192" t="inlineStr">
         <is>
           <t>Total Incidents</t>
         </is>
       </c>
-      <c r="C119" s="171" t="n"/>
-      <c r="D119" s="168">
+      <c r="C119" s="63" t="n"/>
+      <c r="D119" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*1),COUNTA('Data Entry'!A2:A356))))</f>
         <v/>
       </c>
-      <c r="E119" s="168">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F119" s="169">
+      <c r="E119" s="186">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*1),0)))</f>
+        <v/>
+      </c>
+      <c r="F119" s="186">
         <f>IFERROR(IF(E119=0,IF(D119=0,"0%","NEW"),TEXT((D119-E119)/E119,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G119" s="170">
-        <f>IF(D119&gt;E119,"↑ INCREASED",IF(D119&lt;E119,"↓ IMPROVED",IF(D119=E119,"→ STEADY","-")))</f>
+      <c r="G119" s="186">
+        <f>IF(D119&gt;E119,"↑ INCREASED",IF(D119&lt;E119,"↓ IMPROVED","→ STEADY"))</f>
         <v/>
       </c>
     </row>
     <row r="120" ht="22" customHeight="1" s="21">
-      <c r="B120" s="167" t="inlineStr">
+      <c r="B120" s="192" t="inlineStr">
         <is>
           <t>Hospital Transport</t>
         </is>
       </c>
-      <c r="C120" s="171" t="n"/>
-      <c r="D120" s="168">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="Yes")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="Yes")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="Yes")*1),COUNTIF('Data Entry'!J2:J356,"Yes"))))</f>
-        <v/>
-      </c>
-      <c r="E120" s="168">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!J2:J356="Yes")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!J2:J356="Yes")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!J2:J356="Yes")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!J2:J356="Yes")*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F120" s="169">
+      <c r="C120" s="63" t="n"/>
+      <c r="D120" s="186">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="YES")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="YES")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="YES")*1),COUNTIF('Data Entry'!J2:J356,"YES"))))</f>
+        <v/>
+      </c>
+      <c r="E120" s="186">
+        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!J2:J356="YES")*1),0),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!J2:J356="YES")*1),0))</f>
+        <v/>
+      </c>
+      <c r="F120" s="186">
         <f>IFERROR(IF(E120=0,IF(D120=0,"0%","NEW"),TEXT((D120-E120)/E120,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G120" s="170">
-        <f>IF(D120&gt;E120,"↑ INCREASED",IF(D120&lt;E120,"↓ IMPROVED",IF(D120=E120,"→ STEADY","-")))</f>
+      <c r="G120" s="186">
+        <f>IF(D120&gt;E120,"↑ INCREASED",IF(D120&lt;E120,"↓ IMPROVED","→ STEADY"))</f>
         <v/>
       </c>
     </row>
     <row r="121" ht="22" customHeight="1" s="21">
-      <c r="B121" s="167" t="inlineStr">
+      <c r="B121" s="192" t="inlineStr">
         <is>
           <t>P1 Critical</t>
         </is>
       </c>
-      <c r="C121" s="171" t="n"/>
-      <c r="D121" s="168">
+      <c r="C121" s="63" t="n"/>
+      <c r="D121" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P1")*1),COUNTIF('Data Entry'!I2:I356,"P1"))))</f>
         <v/>
       </c>
-      <c r="E121" s="168">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!I2:I356="P1")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!I2:I356="P1")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P1")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!I2:I356="P1")*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F121" s="169">
+      <c r="E121" s="186">
+        <f>IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P1")*1),0)</f>
+        <v/>
+      </c>
+      <c r="F121" s="186">
         <f>IFERROR(IF(E121=0,IF(D121=0,"0%","NEW"),TEXT((D121-E121)/E121,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G121" s="170">
-        <f>IF(D121&gt;E121,"↑ INCREASED",IF(D121&lt;E121,"↓ IMPROVED",IF(D121=E121,"→ STEADY","-")))</f>
+      <c r="G121" s="186">
+        <f>IF(D121&gt;E121,"↑ INCREASED",IF(D121&lt;E121,"↓ IMPROVED","→ STEADY"))</f>
         <v/>
       </c>
     </row>
     <row r="122" ht="22" customHeight="1" s="21">
-      <c r="B122" s="167" t="inlineStr">
+      <c r="B122" s="192" t="inlineStr">
         <is>
           <t>P2 Urgent</t>
         </is>
       </c>
-      <c r="C122" s="171" t="n"/>
-      <c r="D122" s="168">
+      <c r="C122" s="63" t="n"/>
+      <c r="D122" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P2")*1),COUNTIF('Data Entry'!I2:I356,"P2"))))</f>
         <v/>
       </c>
-      <c r="E122" s="168">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!I2:I356="P2")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!I2:I356="P2")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P2")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!I2:I356="P2")*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F122" s="169">
+      <c r="E122" s="186">
+        <f>IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P2")*1),0)</f>
+        <v/>
+      </c>
+      <c r="F122" s="186">
         <f>IFERROR(IF(E122=0,IF(D122=0,"0%","NEW"),TEXT((D122-E122)/E122,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G122" s="170">
-        <f>IF(D122&gt;E122,"↑ INCREASED",IF(D122&lt;E122,"↓ IMPROVED",IF(D122=E122,"→ STEADY","-")))</f>
+      <c r="G122" s="186">
+        <f>IF(D122&gt;E122,"↑ INCREASED",IF(D122&lt;E122,"↓ IMPROVED","→ STEADY"))</f>
         <v/>
       </c>
     </row>
     <row r="123" ht="22" customHeight="1" s="21">
-      <c r="B123" s="167" t="inlineStr">
+      <c r="B123" s="192" t="inlineStr">
         <is>
           <t>P3 Standard</t>
         </is>
       </c>
-      <c r="C123" s="171" t="n"/>
-      <c r="D123" s="168">
+      <c r="C123" s="63" t="n"/>
+      <c r="D123" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P3")*1),COUNTIF('Data Entry'!I2:I356,"P3"))))</f>
         <v/>
       </c>
-      <c r="E123" s="168">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!I2:I356="P3")*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!I2:I356="P3")*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P3")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!I2:I356="P3")*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F123" s="169">
+      <c r="E123" s="186">
+        <f>IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!I2:I356="P3")*1),0)</f>
+        <v/>
+      </c>
+      <c r="F123" s="186">
         <f>IFERROR(IF(E123=0,IF(D123=0,"0%","NEW"),TEXT((D123-E123)/E123,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G123" s="170">
-        <f>IF(D123&gt;E123,"↑ INCREASED",IF(D123&lt;E123,"↓ IMPROVED",IF(D123=E123,"→ STEADY","-")))</f>
+      <c r="G123" s="186">
+        <f>IF(D123&gt;E123,"↑ INCREASED",IF(D123&lt;E123,"↓ IMPROVED","→ STEADY"))</f>
         <v/>
       </c>
     </row>
     <row r="124" ht="22" customHeight="1" s="21">
-      <c r="B124" s="167" t="inlineStr">
+      <c r="B124" s="192" t="inlineStr">
         <is>
           <t>Minor Incidents</t>
         </is>
       </c>
-      <c r="C124" s="171" t="n"/>
-      <c r="D124" s="168">
-        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!C2:C356&lt;18)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!C2:C356&lt;18)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!C2:C356&lt;18)*1),SUMPRODUCT(('Data Entry'!C2:C356&lt;18)*1))))</f>
-        <v/>
-      </c>
-      <c r="E124" s="168">
-        <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=(P6-1))*('Data Entry'!C2:C356&lt;18)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!C2:C356&lt;18)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!C2:C356&lt;18)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=IF(I6="Q1","Q4",IF(I6="Q2","Q1",IF(I6="Q3","Q2","Q3"))))*('Data Entry'!C2:C356&lt;18)*1),0)))</f>
-        <v/>
-      </c>
-      <c r="F124" s="169">
+      <c r="C124" s="63" t="n"/>
+      <c r="D124" s="186">
+        <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="NO")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="NO")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="NO")*1),COUNTIF('Data Entry'!J2:J356,"NO"))))</f>
+        <v/>
+      </c>
+      <c r="E124" s="186">
+        <f>IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!J2:J356="NO")*1),0)</f>
+        <v/>
+      </c>
+      <c r="F124" s="186">
         <f>IFERROR(IF(E124=0,IF(D124=0,"0%","NEW"),TEXT((D124-E124)/E124,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G124" s="170">
-        <f>IF(D124&gt;E124,"↑ INCREASED",IF(D124&lt;E124,"↓ IMPROVED",IF(D124=E124,"→ STEADY","-")))</f>
+      <c r="G124" s="186">
+        <f>IF(D124&gt;E124,"↑ INCREASED",IF(D124&lt;E124,"↓ IMPROVED","→ STEADY"))</f>
         <v/>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1" s="21"/>
     <row r="126" ht="22" customHeight="1" s="21">
-      <c r="B126" s="164" t="inlineStr">
+      <c r="B126" s="183" t="inlineStr">
         <is>
           <t>TOP VENUE COMPARISON</t>
         </is>
       </c>
+      <c r="C126" s="165" t="n"/>
+      <c r="D126" s="165" t="n"/>
+      <c r="E126" s="165" t="n"/>
+      <c r="F126" s="165" t="n"/>
+      <c r="G126" s="166" t="n"/>
     </row>
     <row r="127" ht="20" customHeight="1" s="21">
-      <c r="B127" s="178" t="inlineStr">
+      <c r="B127" s="184" t="inlineStr">
         <is>
           <t>Venue</t>
         </is>
       </c>
-      <c r="D127" s="178" t="inlineStr">
+      <c r="C127" s="71" t="n"/>
+      <c r="D127" s="184" t="inlineStr">
         <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="E127" s="178" t="inlineStr">
+      <c r="E127" s="184" t="inlineStr">
         <is>
           <t>Previous</t>
         </is>
       </c>
-      <c r="F127" s="178" t="inlineStr">
+      <c r="F127" s="184" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="G127" s="178" t="inlineStr">
+      <c r="G127" s="184" t="inlineStr">
         <is>
           <t>Trend</t>
         </is>
       </c>
     </row>
     <row r="128" ht="20" customHeight="1" s="21">
-      <c r="B128" s="179" t="inlineStr">
+      <c r="B128" s="185" t="inlineStr">
         <is>
           <t>Skate Park</t>
         </is>
       </c>
-      <c r="C128" s="175" t="n"/>
-      <c r="D128" s="180">
+      <c r="C128" s="71" t="n"/>
+      <c r="D128" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B128)*1),COUNTIF('Data Entry'!F2:F356,B128))))</f>
         <v/>
       </c>
-      <c r="E128" s="180">
+      <c r="E128" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B128)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B128)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B128)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B128)*1),0)))</f>
         <v/>
       </c>
-      <c r="F128" s="181">
+      <c r="F128" s="186">
         <f>IFERROR(IF(E128=0,IF(D128=0,"0%","NEW"),TEXT((D128-E128)/E128,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G128" s="181">
+      <c r="G128" s="186">
         <f>IF(D128&gt;E128,"↑ UP",IF(D128&lt;E128,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="129" ht="20" customHeight="1" s="21">
-      <c r="B129" s="179" t="inlineStr">
+      <c r="B129" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">5 A side </t>
         </is>
       </c>
-      <c r="C129" s="175" t="n"/>
-      <c r="D129" s="180">
+      <c r="C129" s="71" t="n"/>
+      <c r="D129" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B129)*1),COUNTIF('Data Entry'!F2:F356,B129))))</f>
         <v/>
       </c>
-      <c r="E129" s="180">
+      <c r="E129" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B129)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B129)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B129)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B129)*1),0)))</f>
         <v/>
       </c>
-      <c r="F129" s="181">
+      <c r="F129" s="186">
         <f>IFERROR(IF(E129=0,IF(D129=0,"0%","NEW"),TEXT((D129-E129)/E129,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G129" s="181">
+      <c r="G129" s="186">
         <f>IF(D129&gt;E129,"↑ UP",IF(D129&lt;E129,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="130" ht="20" customHeight="1" s="21">
-      <c r="B130" s="179" t="inlineStr">
+      <c r="B130" s="185" t="inlineStr">
         <is>
           <t>Basketball</t>
         </is>
       </c>
-      <c r="C130" s="175" t="n"/>
-      <c r="D130" s="180">
+      <c r="C130" s="71" t="n"/>
+      <c r="D130" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B130)*1),COUNTIF('Data Entry'!F2:F356,B130))))</f>
         <v/>
       </c>
-      <c r="E130" s="180">
+      <c r="E130" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B130)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B130)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B130)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B130)*1),0)))</f>
         <v/>
       </c>
-      <c r="F130" s="181">
+      <c r="F130" s="186">
         <f>IFERROR(IF(E130=0,IF(D130=0,"0%","NEW"),TEXT((D130-E130)/E130,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G130" s="181">
+      <c r="G130" s="186">
         <f>IF(D130&gt;E130,"↑ UP",IF(D130&lt;E130,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="131" ht="20" customHeight="1" s="21">
-      <c r="B131" s="179" t="inlineStr">
+      <c r="B131" s="185" t="inlineStr">
         <is>
           <t>Outdoor gym</t>
         </is>
       </c>
-      <c r="C131" s="175" t="n"/>
-      <c r="D131" s="180">
+      <c r="C131" s="71" t="n"/>
+      <c r="D131" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B131)*1),COUNTIF('Data Entry'!F2:F356,B131))))</f>
         <v/>
       </c>
-      <c r="E131" s="180">
+      <c r="E131" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B131)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B131)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B131)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B131)*1),0)))</f>
         <v/>
       </c>
-      <c r="F131" s="181">
+      <c r="F131" s="186">
         <f>IFERROR(IF(E131=0,IF(D131=0,"0%","NEW"),TEXT((D131-E131)/E131,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G131" s="181">
+      <c r="G131" s="186">
         <f>IF(D131&gt;E131,"↑ UP",IF(D131&lt;E131,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="132" ht="20" customHeight="1" s="21">
-      <c r="B132" s="179" t="inlineStr">
+      <c r="B132" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">JDI Studio </t>
         </is>
       </c>
-      <c r="C132" s="175" t="n"/>
-      <c r="D132" s="180">
+      <c r="C132" s="71" t="n"/>
+      <c r="D132" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B132)*1),COUNTIF('Data Entry'!F2:F356,B132))))</f>
         <v/>
       </c>
-      <c r="E132" s="180">
+      <c r="E132" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B132)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B132)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B132)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B132)*1),0)))</f>
         <v/>
       </c>
-      <c r="F132" s="181">
+      <c r="F132" s="186">
         <f>IFERROR(IF(E132=0,IF(D132=0,"0%","NEW"),TEXT((D132-E132)/E132,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G132" s="181">
+      <c r="G132" s="186">
         <f>IF(D132&gt;E132,"↑ UP",IF(D132&lt;E132,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="133" ht="20" customHeight="1" s="21">
-      <c r="B133" s="179" t="inlineStr">
+      <c r="B133" s="185" t="inlineStr">
         <is>
           <t>PHINDA Studio</t>
         </is>
       </c>
-      <c r="C133" s="175" t="n"/>
-      <c r="D133" s="180">
+      <c r="C133" s="71" t="n"/>
+      <c r="D133" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B133)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B133)*1),COUNTIF('Data Entry'!F2:F356,B133))))</f>
         <v/>
       </c>
-      <c r="E133" s="180">
+      <c r="E133" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B133)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B133)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B133)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B133)*1),0)))</f>
         <v/>
       </c>
-      <c r="F133" s="181">
+      <c r="F133" s="186">
         <f>IFERROR(IF(E133=0,IF(D133=0,"0%","NEW"),TEXT((D133-E133)/E133,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G133" s="181">
+      <c r="G133" s="186">
         <f>IF(D133&gt;E133,"↑ UP",IF(D133&lt;E133,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="134" ht="20" customHeight="1" s="21">
-      <c r="B134" s="179" t="inlineStr">
+      <c r="B134" s="185" t="inlineStr">
         <is>
           <t>PHAMBILI Studio</t>
         </is>
       </c>
-      <c r="C134" s="175" t="n"/>
-      <c r="D134" s="180">
+      <c r="C134" s="71" t="n"/>
+      <c r="D134" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B134)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B134)*1),COUNTIF('Data Entry'!F2:F356,B134))))</f>
         <v/>
       </c>
-      <c r="E134" s="180">
+      <c r="E134" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B134)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B134)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B134)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B134)*1),0)))</f>
         <v/>
       </c>
-      <c r="F134" s="181">
+      <c r="F134" s="186">
         <f>IFERROR(IF(E134=0,IF(D134=0,"0%","NEW"),TEXT((D134-E134)/E134,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G134" s="181">
+      <c r="G134" s="186">
         <f>IF(D134&gt;E134,"↑ UP",IF(D134&lt;E134,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="135" ht="20" customHeight="1" s="21">
-      <c r="B135" s="179" t="inlineStr">
+      <c r="B135" s="185" t="inlineStr">
         <is>
           <t xml:space="preserve">11- A side </t>
         </is>
       </c>
-      <c r="C135" s="175" t="n"/>
-      <c r="D135" s="180">
+      <c r="C135" s="71" t="n"/>
+      <c r="D135" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B135)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B135)*1),COUNTIF('Data Entry'!F2:F356,B135))))</f>
         <v/>
       </c>
-      <c r="E135" s="180">
+      <c r="E135" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B135)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B135)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B135)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B135)*1),0)))</f>
         <v/>
       </c>
-      <c r="F135" s="181">
+      <c r="F135" s="186">
         <f>IFERROR(IF(E135=0,IF(D135=0,"0%","NEW"),TEXT((D135-E135)/E135,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G135" s="181">
+      <c r="G135" s="186">
         <f>IF(D135&gt;E135,"↑ UP",IF(D135&lt;E135,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="136" ht="20" customHeight="1" s="21">
-      <c r="B136" s="179" t="inlineStr">
+      <c r="B136" s="185" t="inlineStr">
         <is>
           <t>Athletics track</t>
         </is>
       </c>
-      <c r="C136" s="175" t="n"/>
-      <c r="D136" s="180">
+      <c r="C136" s="71" t="n"/>
+      <c r="D136" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B136)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B136)*1),COUNTIF('Data Entry'!F2:F356,B136))))</f>
         <v/>
       </c>
-      <c r="E136" s="180">
+      <c r="E136" s="186">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B136)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B136)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B136)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B136)*1),0)))</f>
         <v/>
       </c>
-      <c r="F136" s="181">
+      <c r="F136" s="186">
         <f>IFERROR(IF(E136=0,IF(D136=0,"0%","NEW"),TEXT((D136-E136)/E136,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G136" s="181">
+      <c r="G136" s="186">
         <f>IF(D136&gt;E136,"↑ UP",IF(D136&lt;E136,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1" s="21">
-      <c r="B137" s="63" t="inlineStr">
+      <c r="B137" s="187" t="inlineStr">
         <is>
           <t>Registration area</t>
         </is>
       </c>
-      <c r="D137" s="63">
+      <c r="C137" s="71" t="n"/>
+      <c r="D137" s="188">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B137)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B137)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B137)*1),COUNTIF('Data Entry'!F2:F356,B137))))</f>
         <v/>
       </c>
-      <c r="E137" s="63">
+      <c r="E137" s="188">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B137)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B137)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B137)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B137)*1),0)))</f>
         <v/>
       </c>
-      <c r="F137" s="63">
+      <c r="F137" s="188">
         <f>IFERROR(IF(E137=0,IF(D137=0,"0%","NEW"),TEXT((D137-E137)/E137,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G137" s="63">
+      <c r="G137" s="188">
         <f>IF(D137&gt;E137,"↑ UP",IF(D137&lt;E137,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="138">
-      <c r="B138" s="182" t="inlineStr">
+      <c r="B138" s="187" t="inlineStr">
         <is>
           <t xml:space="preserve">Car parking </t>
         </is>
       </c>
-      <c r="D138" s="63">
+      <c r="C138" s="71" t="n"/>
+      <c r="D138" s="188">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B138)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B138)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B138)*1),COUNTIF('Data Entry'!F2:F356,B138))))</f>
         <v/>
       </c>
-      <c r="E138" s="63">
+      <c r="E138" s="188">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B138)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B138)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B138)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B138)*1),0)))</f>
         <v/>
       </c>
-      <c r="F138" s="63">
+      <c r="F138" s="188">
         <f>IFERROR(IF(E138=0,IF(D138=0,"0%","NEW"),TEXT((D138-E138)/E138,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G138" s="63">
+      <c r="G138" s="188">
         <f>IF(D138&gt;E138,"↑ UP",IF(D138&lt;E138,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="139">
-      <c r="B139" s="63" t="inlineStr">
+      <c r="B139" s="187" t="inlineStr">
         <is>
           <t>Change Rooms</t>
         </is>
       </c>
-      <c r="D139" s="63">
+      <c r="C139" s="71" t="n"/>
+      <c r="D139" s="188">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B139)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B139)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B139)*1),COUNTIF('Data Entry'!F2:F356,B139))))</f>
         <v/>
       </c>
-      <c r="E139" s="63">
+      <c r="E139" s="188">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B139)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B139)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B139)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B139)*1),0)))</f>
         <v/>
       </c>
-      <c r="F139" s="63">
+      <c r="F139" s="188">
         <f>IFERROR(IF(E139=0,IF(D139=0,"0%","NEW"),TEXT((D139-E139)/E139,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G139" s="63">
+      <c r="G139" s="188">
         <f>IF(D139&gt;E139,"↑ UP",IF(D139&lt;E139,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="140">
-      <c r="B140" s="63" t="inlineStr">
+      <c r="B140" s="187" t="inlineStr">
         <is>
           <t>Equipment Rooms</t>
         </is>
       </c>
-      <c r="D140" s="63">
+      <c r="C140" s="71" t="n"/>
+      <c r="D140" s="188">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B140)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B140)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B140)*1),COUNTIF('Data Entry'!F2:F356,B140))))</f>
         <v/>
       </c>
-      <c r="E140" s="63">
+      <c r="E140" s="188">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B140)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B140)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B140)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B140)*1),0)))</f>
         <v/>
       </c>
-      <c r="F140" s="63">
+      <c r="F140" s="188">
         <f>IFERROR(IF(E140=0,IF(D140=0,"0%","NEW"),TEXT((D140-E140)/E140,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G140" s="63">
+      <c r="G140" s="188">
         <f>IF(D140&gt;E140,"↑ UP",IF(D140&lt;E140,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="141">
-      <c r="B141" s="63" t="inlineStr">
+      <c r="B141" s="187" t="inlineStr">
         <is>
           <t>1KM RUN/WALK PATH</t>
         </is>
       </c>
-      <c r="D141" s="63">
+      <c r="C141" s="71" t="n"/>
+      <c r="D141" s="188">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B141)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B141)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B141)*1),COUNTIF('Data Entry'!F2:F356,B141))))</f>
         <v/>
       </c>
-      <c r="E141" s="63">
+      <c r="E141" s="188">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B141)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B141)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B141)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B141)*1),0)))</f>
         <v/>
       </c>
-      <c r="F141" s="63">
+      <c r="F141" s="188">
         <f>IFERROR(IF(E141=0,IF(D141=0,"0%","NEW"),TEXT((D141-E141)/E141,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G141" s="63">
+      <c r="G141" s="188">
         <f>IF(D141&gt;E141,"↑ UP",IF(D141&lt;E141,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="63" t="inlineStr">
+      <c r="B142" s="187" t="inlineStr">
         <is>
           <t>Bleachers</t>
         </is>
       </c>
-      <c r="D142" s="63">
+      <c r="C142" s="71" t="n"/>
+      <c r="D142" s="188">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B142)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B142)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B142)*1),COUNTIF('Data Entry'!F2:F356,B142))))</f>
         <v/>
       </c>
-      <c r="E142" s="63">
+      <c r="E142" s="188">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B142)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B142)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B142)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B142)*1),0)))</f>
         <v/>
       </c>
-      <c r="F142" s="63">
+      <c r="F142" s="188">
         <f>IFERROR(IF(E142=0,IF(D142=0,"0%","NEW"),TEXT((D142-E142)/E142,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G142" s="63">
+      <c r="G142" s="188">
         <f>IF(D142&gt;E142,"↑ UP",IF(D142&lt;E142,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
     <row r="143">
-      <c r="B143" s="63" t="inlineStr">
+      <c r="B143" s="187" t="inlineStr">
         <is>
           <t>P GATE</t>
         </is>
       </c>
-      <c r="D143" s="63">
+      <c r="C143" s="71" t="n"/>
+      <c r="D143" s="188">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!F2:F356=B143)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!F2:F356=B143)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!F2:F356=B143)*1),COUNTIF('Data Entry'!F2:F356,B143))))</f>
         <v/>
       </c>
-      <c r="E143" s="63">
+      <c r="E143" s="188">
         <f>IF(C6="Weekly",IF(P6&gt;1,SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6-1)*('Data Entry'!F2:F356=B143)*1),SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=5)*('Data Entry'!F2:F356=B143)*1)),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=IF(Q6=1,12,Q6-1))*(YEAR('Data Entry'!A2:A356)=IF(Q6=1,R6-1,R6))*('Data Entry'!F2:F356=B143)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=INDEX({"Q4","Q1","Q2","Q3"},MATCH(I6,{"Q1","Q2","Q3","Q4"},0)))*('Data Entry'!F2:F356=B143)*1),0)))</f>
         <v/>
       </c>
-      <c r="F143" s="63">
+      <c r="F143" s="188">
         <f>IFERROR(IF(E143=0,IF(D143=0,"0%","NEW"),TEXT((D143-E143)/E143,"+0%;-0%")),"-")</f>
         <v/>
       </c>
-      <c r="G143" s="63">
+      <c r="G143" s="188">
         <f>IF(D143&gt;E143,"↑ UP",IF(D143&lt;E143,"↓ DOWN","→ SAME"))</f>
         <v/>
       </c>
     </row>
-    <row r="144"/>
-    <row r="145"/>
-    <row r="146"/>
-    <row r="147"/>
-    <row r="148"/>
-    <row r="149"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="58">
+    <mergeCell ref="B129:C129"/>
     <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B138:C138"/>
     <mergeCell ref="B117:G117"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="B9:N9"/>
     <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B134:C134"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B141:C141"/>
     <mergeCell ref="B121:C121"/>
     <mergeCell ref="B68:N68"/>
+    <mergeCell ref="B131:C131"/>
     <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B140:C140"/>
     <mergeCell ref="C97:G97"/>
     <mergeCell ref="B5:N5"/>
     <mergeCell ref="B114:N114"/>
+    <mergeCell ref="B130:C130"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="D11:E11"/>
@@ -6327,20 +6440,30 @@
     <mergeCell ref="B50:N50"/>
     <mergeCell ref="C94:G94"/>
     <mergeCell ref="C100:G100"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B132:C132"/>
     <mergeCell ref="B104:G104"/>
     <mergeCell ref="B119:C119"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B126:G126"/>
     <mergeCell ref="B86:N86"/>
     <mergeCell ref="H117:N117"/>
+    <mergeCell ref="B127:C127"/>
     <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B143:C143"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B14:N14"/>
     <mergeCell ref="C91:G91"/>
     <mergeCell ref="I104:N104"/>
+    <mergeCell ref="B139:C139"/>
     <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B133:C133"/>
     <mergeCell ref="B88:N88"/>
     <mergeCell ref="B123:C123"/>
     <mergeCell ref="L11:M11"/>
@@ -6364,6 +6487,15 @@
     </cfRule>
     <cfRule type="expression" priority="6" dxfId="2">
       <formula>ISNUMBER(SEARCH("SAME",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="19" dxfId="3">
+      <formula>ISNUMBER(SEARCH("IMPROVED",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="20" dxfId="4">
+      <formula>ISNUMBER(SEARCH("INCREASED",G119))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="21" dxfId="5">
+      <formula>ISNUMBER(SEARCH("STEADY",G119))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G128:G132">
@@ -6395,6 +6527,17 @@
     </cfRule>
     <cfRule type="expression" priority="15" dxfId="2">
       <formula>ISNUMBER(SEARCH("SAME",G128))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G128:G143">
+    <cfRule type="expression" priority="16" dxfId="3">
+      <formula>OR(ISNUMBER(SEARCH("UP",G128)),ISNUMBER(SEARCH("IMPROVED",G128)))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="17" dxfId="4">
+      <formula>ISNUMBER(SEARCH("DOWN",G128))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="18" dxfId="5">
+      <formula>OR(ISNUMBER(SEARCH("SAME",G128)),ISNUMBER(SEARCH("STEADY",G128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1245" yWindow="240" windowWidth="26430" windowHeight="15060" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1245" yWindow="240" windowWidth="26430" windowHeight="15060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard Pro" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Data Entry" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Monthly Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Venue Analysis" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Age Analysis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Injury Analysis" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mechanism Analysis" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Program Analysis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Time Analysis" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Lists" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Severity Analysis" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Data Entry" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Monthly Stats" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Venue Analysis" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Age Analysis" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Injury Analysis" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Mechanism Analysis" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Program Analysis" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Time Analysis" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Lists" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="Severity Analysis" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="Chart Data" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$138</definedName>
@@ -542,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1459,11 +1459,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="00415A77"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="00415A77"/>
+      </right>
+      <top style="thin"/>
+      <bottom style="thin">
+        <color rgb="00415A77"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1843,6 +1873,10 @@
     <xf numFmtId="0" fontId="69" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3901,8 +3935,8 @@
   </sheetPr>
   <dimension ref="A2:R143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5812,12 +5846,12 @@
       </c>
     </row>
     <row r="118" ht="22" customHeight="1" s="21">
-      <c r="B118" s="184" t="inlineStr">
+      <c r="B118" s="193" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="C118" s="166" t="n"/>
+      <c r="C118" s="194" t="n"/>
       <c r="D118" s="184" t="inlineStr">
         <is>
           <t>Current</t>
@@ -5845,7 +5879,7 @@
           <t>Total Incidents</t>
         </is>
       </c>
-      <c r="C119" s="63" t="n"/>
+      <c r="C119" s="71" t="n"/>
       <c r="D119" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*1),COUNTA('Data Entry'!A2:A356))))</f>
         <v/>
@@ -5869,7 +5903,7 @@
           <t>Hospital Transport</t>
         </is>
       </c>
-      <c r="C120" s="63" t="n"/>
+      <c r="C120" s="71" t="n"/>
       <c r="D120" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="YES")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="YES")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="YES")*1),COUNTIF('Data Entry'!J2:J356,"YES"))))</f>
         <v/>
@@ -5893,7 +5927,7 @@
           <t>P1 Critical</t>
         </is>
       </c>
-      <c r="C121" s="63" t="n"/>
+      <c r="C121" s="71" t="n"/>
       <c r="D121" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P1")*1),COUNTIF('Data Entry'!I2:I356,"P1"))))</f>
         <v/>
@@ -5917,7 +5951,7 @@
           <t>P2 Urgent</t>
         </is>
       </c>
-      <c r="C122" s="63" t="n"/>
+      <c r="C122" s="71" t="n"/>
       <c r="D122" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P2")*1),COUNTIF('Data Entry'!I2:I356,"P2"))))</f>
         <v/>
@@ -5941,7 +5975,7 @@
           <t>P3 Standard</t>
         </is>
       </c>
-      <c r="C123" s="63" t="n"/>
+      <c r="C123" s="71" t="n"/>
       <c r="D123" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P3")*1),COUNTIF('Data Entry'!I2:I356,"P3"))))</f>
         <v/>
@@ -5965,7 +5999,7 @@
           <t>Minor Incidents</t>
         </is>
       </c>
-      <c r="C124" s="63" t="n"/>
+      <c r="C124" s="71" t="n"/>
       <c r="D124" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="NO")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="NO")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="NO")*1),COUNTIF('Data Entry'!J2:J356,"NO"))))</f>
         <v/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -3936,7 +3936,6 @@
   <dimension ref="A2:R143"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3960,6 +3959,22 @@
     <col hidden="1" width="12" customWidth="1" style="21" min="16" max="16"/>
     <col hidden="1" width="12" customWidth="1" style="21" min="17" max="17"/>
     <col hidden="1" width="12" customWidth="1" style="21" min="18" max="18"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="19" max="19"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="20" max="20"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="21" max="21"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="22" max="22"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="23" max="23"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="24" max="24"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="25" max="25"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="26" max="26"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="27" max="27"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="28" max="28"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="29" max="29"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="30" max="30"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="31" max="31"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="32" max="32"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="33" max="33"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1" ht="8" customHeight="1" s="21"/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -3955,10 +3955,10 @@
     <col width="14" customWidth="1" style="21" min="12" max="12"/>
     <col width="14" customWidth="1" style="21" min="13" max="13"/>
     <col width="14" customWidth="1" style="21" min="14" max="14"/>
-    <col width="2" customWidth="1" style="21" min="15" max="15"/>
-    <col hidden="1" width="12" customWidth="1" style="21" min="16" max="16"/>
-    <col hidden="1" width="12" customWidth="1" style="21" min="17" max="17"/>
-    <col hidden="1" width="12" customWidth="1" style="21" min="18" max="18"/>
+    <col width="12" customWidth="1" style="21" min="15" max="15"/>
+    <col width="0.5" customWidth="1" style="21" min="16" max="16"/>
+    <col width="0.5" customWidth="1" style="21" min="17" max="17"/>
+    <col width="0.5" customWidth="1" style="21" min="18" max="18"/>
     <col hidden="1" width="13" customWidth="1" style="21" min="19" max="19"/>
     <col hidden="1" width="13" customWidth="1" style="21" min="20" max="20"/>
     <col hidden="1" width="13" customWidth="1" style="21" min="21" max="21"/>
@@ -3975,6 +3975,11 @@
     <col hidden="1" width="13" customWidth="1" style="21" min="32" max="32"/>
     <col hidden="1" width="13" customWidth="1" style="21" min="33" max="33"/>
     <col hidden="1" width="13" customWidth="1" style="21" min="34" max="34"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="35" max="35"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="36" max="36"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="37" max="37"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="38" max="38"/>
+    <col hidden="1" width="13" customWidth="1" style="21" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1" ht="8" customHeight="1" s="21"/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Dashboard Pro" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Data Entry" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Monthly Stats" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Venue Analysis" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Age Analysis" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Injury Analysis" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="Mechanism Analysis" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="Program Analysis" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="Time Analysis" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="Lists" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="Severity Analysis" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="Chart Data" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Data Entry" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Monthly Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Venue Analysis" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Age Analysis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Injury Analysis" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mechanism Analysis" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Program Analysis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Time Analysis" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Lists" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Severity Analysis" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$138</definedName>
@@ -3936,6 +3936,7 @@
   <dimension ref="A2:R143"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3955,31 +3956,10 @@
     <col width="14" customWidth="1" style="21" min="12" max="12"/>
     <col width="14" customWidth="1" style="21" min="13" max="13"/>
     <col width="14" customWidth="1" style="21" min="14" max="14"/>
-    <col width="12" customWidth="1" style="21" min="15" max="15"/>
-    <col width="0.5" customWidth="1" style="21" min="16" max="16"/>
-    <col width="0.5" customWidth="1" style="21" min="17" max="17"/>
-    <col width="0.5" customWidth="1" style="21" min="18" max="18"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="19" max="19"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="20" max="20"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="21" max="21"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="22" max="22"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="23" max="23"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="24" max="24"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="25" max="25"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="26" max="26"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="27" max="27"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="28" max="28"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="29" max="29"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="30" max="30"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="31" max="31"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="32" max="32"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="33" max="33"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="34" max="34"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="35" max="35"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="36" max="36"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="37" max="37"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="38" max="38"/>
-    <col hidden="1" width="13" customWidth="1" style="21" min="39" max="39"/>
+    <col width="2" customWidth="1" style="21" min="15" max="15"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="16" max="16"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="17" max="17"/>
+    <col hidden="1" width="12" customWidth="1" style="21" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1" ht="8" customHeight="1" s="21"/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Dashboard Pro" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Data Entry" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Monthly Stats" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Venue Analysis" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Age Analysis" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Injury Analysis" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Mechanism Analysis" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Program Analysis" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Time Analysis" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Lists" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Severity Analysis" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Data Entry" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="Monthly Stats" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="Venue Analysis" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="Age Analysis" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Injury Analysis" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="Mechanism Analysis" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Program Analysis" sheetId="9" state="hidden" r:id="rId9"/>
+    <sheet name="Time Analysis" sheetId="10" state="hidden" r:id="rId10"/>
+    <sheet name="Lists" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="Severity Analysis" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="Chart Data" sheetId="13" state="hidden" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$138</definedName>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -3936,7 +3936,6 @@
   <dimension ref="A2:R143"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="Dashboard Pro" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Data Entry" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="Dashboard" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="Monthly Stats" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Venue Analysis" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Age Analysis" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Injury Analysis" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="Mechanism Analysis" sheetId="8" state="hidden" r:id="rId8"/>
-    <sheet name="Program Analysis" sheetId="9" state="hidden" r:id="rId9"/>
-    <sheet name="Time Analysis" sheetId="10" state="hidden" r:id="rId10"/>
-    <sheet name="Lists" sheetId="11" state="hidden" r:id="rId11"/>
-    <sheet name="Severity Analysis" sheetId="12" state="hidden" r:id="rId12"/>
-    <sheet name="Chart Data" sheetId="13" state="hidden" r:id="rId13"/>
+    <sheet name="Data Entry" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Dashboard" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Monthly Stats" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Venue Analysis" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Age Analysis" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Injury Analysis" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mechanism Analysis" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Program Analysis" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Time Analysis" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Lists" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Severity Analysis" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Chart Data" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Dashboard Pro'!$A$1:$O$138</definedName>
@@ -3936,6 +3936,7 @@
   <dimension ref="A2:R143"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -3935,7 +3935,7 @@
   </sheetPr>
   <dimension ref="A2:R143"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1245" yWindow="240" windowWidth="26430" windowHeight="15060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1245" yWindow="240" windowWidth="26430" windowHeight="15060" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard Pro" sheetId="1" state="visible" r:id="rId1"/>
@@ -542,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="82">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1459,41 +1459,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin">
-        <color rgb="00415A77"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color rgb="00415A77"/>
-      </bottom>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00415A77"/>
-      </right>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="00415A77"/>
-      </right>
-      <top style="thin"/>
-      <bottom style="thin">
-        <color rgb="00415A77"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1873,10 +1843,6 @@
     <xf numFmtId="0" fontId="69" fillId="15" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3935,7 +3901,8 @@
   </sheetPr>
   <dimension ref="A2:R143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5845,12 +5812,12 @@
       </c>
     </row>
     <row r="118" ht="22" customHeight="1" s="21">
-      <c r="B118" s="193" t="inlineStr">
+      <c r="B118" s="184" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="C118" s="194" t="n"/>
+      <c r="C118" s="166" t="n"/>
       <c r="D118" s="184" t="inlineStr">
         <is>
           <t>Current</t>
@@ -5878,7 +5845,7 @@
           <t>Total Incidents</t>
         </is>
       </c>
-      <c r="C119" s="71" t="n"/>
+      <c r="C119" s="63" t="n"/>
       <c r="D119" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*1),COUNTA('Data Entry'!A2:A356))))</f>
         <v/>
@@ -5902,7 +5869,7 @@
           <t>Hospital Transport</t>
         </is>
       </c>
-      <c r="C120" s="71" t="n"/>
+      <c r="C120" s="63" t="n"/>
       <c r="D120" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="YES")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="YES")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="YES")*1),COUNTIF('Data Entry'!J2:J356,"YES"))))</f>
         <v/>
@@ -5926,7 +5893,7 @@
           <t>P1 Critical</t>
         </is>
       </c>
-      <c r="C121" s="71" t="n"/>
+      <c r="C121" s="63" t="n"/>
       <c r="D121" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P1")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P1")*1),COUNTIF('Data Entry'!I2:I356,"P1"))))</f>
         <v/>
@@ -5950,7 +5917,7 @@
           <t>P2 Urgent</t>
         </is>
       </c>
-      <c r="C122" s="71" t="n"/>
+      <c r="C122" s="63" t="n"/>
       <c r="D122" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P2")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P2")*1),COUNTIF('Data Entry'!I2:I356,"P2"))))</f>
         <v/>
@@ -5974,7 +5941,7 @@
           <t>P3 Standard</t>
         </is>
       </c>
-      <c r="C123" s="71" t="n"/>
+      <c r="C123" s="63" t="n"/>
       <c r="D123" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!I2:I356="P3")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!I2:I356="P3")*1),COUNTIF('Data Entry'!I2:I356,"P3"))))</f>
         <v/>
@@ -5998,7 +5965,7 @@
           <t>Minor Incidents</t>
         </is>
       </c>
-      <c r="C124" s="71" t="n"/>
+      <c r="C124" s="63" t="n"/>
       <c r="D124" s="186">
         <f>IF(C6="Weekly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*(INT((DAY('Data Entry'!A2:A356)-1)/7)+1=P6)*('Data Entry'!J2:J356="NO")*1),IF(C6="Monthly",SUMPRODUCT((MONTH('Data Entry'!A2:A356)=Q6)*(YEAR('Data Entry'!A2:A356)=R6)*('Data Entry'!J2:J356="NO")*1),IF(C6="Quarterly",SUMPRODUCT(('Data Entry'!P2:P356=I6)*('Data Entry'!J2:J356="NO")*1),COUNTIF('Data Entry'!J2:J356,"NO"))))</f>
         <v/>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -11289,27 +11289,27 @@
     </row>
     <row r="38">
       <c r="A38" s="199" t="n">
-        <v>45749</v>
+        <v>45717</v>
       </c>
       <c r="B38" s="200" t="n">
-        <v>0.4895833333333333</v>
+        <v>0.425</v>
       </c>
       <c r="C38" s="63" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D38" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E38" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F38" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G38" s="63" t="inlineStr">
@@ -11319,17 +11319,15 @@
       </c>
       <c r="H38" s="63" t="inlineStr">
         <is>
-          <t>Facial Injury</t>
-        </is>
-      </c>
-      <c r="I38" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I38" s="63" t="n">
+        <v>2</v>
       </c>
       <c r="J38" s="63" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>YES</t>
         </is>
       </c>
       <c r="K38" s="63">
@@ -11359,43 +11357,41 @@
     </row>
     <row r="39">
       <c r="A39" s="199" t="n">
-        <v>45758</v>
+        <v>45719</v>
       </c>
       <c r="B39" s="200" t="n">
-        <v>0.5513888888888889</v>
+        <v>0.4770833333333334</v>
       </c>
       <c r="C39" s="63" t="n">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D39" s="63" t="inlineStr">
         <is>
-          <t>Struck by Equipment</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="E39" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F39" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G39" s="63" t="inlineStr">
         <is>
-          <t>LFA</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="H39" s="63" t="inlineStr">
         <is>
-          <t>Head Injury</t>
-        </is>
-      </c>
-      <c r="I39" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="I39" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J39" s="63" t="inlineStr">
         <is>
@@ -11429,43 +11425,41 @@
     </row>
     <row r="40">
       <c r="A40" s="199" t="n">
-        <v>45758</v>
+        <v>45721</v>
       </c>
       <c r="B40" s="200" t="n">
-        <v>0.6958333333333333</v>
+        <v>0.4680555555555556</v>
       </c>
       <c r="C40" s="63" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D40" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E40" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F40" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G40" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Morning Show</t>
         </is>
       </c>
       <c r="H40" s="63" t="inlineStr">
         <is>
-          <t>Elbow</t>
-        </is>
-      </c>
-      <c r="I40" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Facial Injury</t>
+        </is>
+      </c>
+      <c r="I40" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J40" s="63" t="inlineStr">
         <is>
@@ -11499,43 +11493,41 @@
     </row>
     <row r="41">
       <c r="A41" s="199" t="n">
-        <v>45761</v>
+        <v>45721</v>
       </c>
       <c r="B41" s="200" t="n">
-        <v>0.4791666666666667</v>
+        <v>0.7236111111111111</v>
       </c>
       <c r="C41" s="63" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D41" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E41" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F41" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>5 A side</t>
         </is>
       </c>
       <c r="G41" s="63" t="inlineStr">
         <is>
-          <t>Morning Show</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H41" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
-        </is>
-      </c>
-      <c r="I41" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Facial Injury</t>
+        </is>
+      </c>
+      <c r="I41" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J41" s="63" t="inlineStr">
         <is>
@@ -11569,27 +11561,27 @@
     </row>
     <row r="42">
       <c r="A42" s="199" t="n">
-        <v>45762</v>
+        <v>45721</v>
       </c>
       <c r="B42" s="200" t="n">
-        <v>0.6236111111111111</v>
+        <v>0.7388888888888889</v>
       </c>
       <c r="C42" s="63" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D42" s="63" t="inlineStr">
         <is>
-          <t>Stress Fractures</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E42" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F42" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G42" s="63" t="inlineStr">
@@ -11599,13 +11591,11 @@
       </c>
       <c r="H42" s="63" t="inlineStr">
         <is>
-          <t>Knee</t>
-        </is>
-      </c>
-      <c r="I42" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Facial Injury</t>
+        </is>
+      </c>
+      <c r="I42" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J42" s="63" t="inlineStr">
         <is>
@@ -11639,43 +11629,41 @@
     </row>
     <row r="43">
       <c r="A43" s="199" t="n">
-        <v>45763</v>
+        <v>45722</v>
       </c>
       <c r="B43" s="200" t="n">
-        <v>0.5090277777777777</v>
+        <v>0.4972222222222222</v>
       </c>
       <c r="C43" s="63" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D43" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E43" s="63" t="inlineStr">
         <is>
-          <t>NONE SPORTS CENTER</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F43" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G43" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Morning Show</t>
         </is>
       </c>
       <c r="H43" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
-        </is>
-      </c>
-      <c r="I43" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Knee</t>
+        </is>
+      </c>
+      <c r="I43" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J43" s="63" t="inlineStr">
         <is>
@@ -11709,43 +11697,41 @@
     </row>
     <row r="44">
       <c r="A44" s="199" t="n">
-        <v>45763</v>
+        <v>45723</v>
       </c>
       <c r="B44" s="200" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="C44" s="63" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D44" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Object</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E44" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F44" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="G44" s="63" t="inlineStr">
         <is>
-          <t>LFA</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H44" s="63" t="inlineStr">
         <is>
-          <t>Chest</t>
-        </is>
-      </c>
-      <c r="I44" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I44" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J44" s="63" t="inlineStr">
         <is>
@@ -11779,43 +11765,41 @@
     </row>
     <row r="45">
       <c r="A45" s="199" t="n">
-        <v>45769</v>
+        <v>45726</v>
       </c>
       <c r="B45" s="200" t="n">
-        <v>0.4965277777777778</v>
+        <v>0.4645833333333333</v>
       </c>
       <c r="C45" s="63" t="n">
         <v>22</v>
       </c>
       <c r="D45" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="E45" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F45" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Outdoor gym</t>
         </is>
       </c>
       <c r="G45" s="63" t="inlineStr">
         <is>
-          <t>Morning Show</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H45" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
-        </is>
-      </c>
-      <c r="I45" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="I45" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J45" s="63" t="inlineStr">
         <is>
@@ -11849,43 +11833,41 @@
     </row>
     <row r="46">
       <c r="A46" s="199" t="n">
-        <v>45769</v>
+        <v>45731</v>
       </c>
       <c r="B46" s="200" t="n">
-        <v>0.6840277777777778</v>
+        <v>0.5</v>
       </c>
       <c r="C46" s="63" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Object</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E46" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F46" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="G46" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afternoon Program </t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H46" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
-        </is>
-      </c>
-      <c r="I46" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Wrist</t>
+        </is>
+      </c>
+      <c r="I46" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J46" s="63" t="inlineStr">
         <is>
@@ -11919,32 +11901,32 @@
     </row>
     <row r="47">
       <c r="A47" s="199" t="n">
-        <v>45776</v>
+        <v>45738</v>
       </c>
       <c r="B47" s="200" t="n">
-        <v>0.6326388888888889</v>
+        <v>0.5</v>
       </c>
       <c r="C47" s="63" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D47" s="63" t="inlineStr">
         <is>
-          <t>Struck by Equipment</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E47" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F47" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">JDI Studio </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G47" s="63" t="inlineStr">
         <is>
-          <t>Kicking Boxing</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H47" s="63" t="inlineStr">
@@ -11952,10 +11934,8 @@
           <t>Foot</t>
         </is>
       </c>
-      <c r="I47" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+      <c r="I47" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J47" s="63" t="inlineStr">
         <is>
@@ -11989,43 +11969,41 @@
     </row>
     <row r="48">
       <c r="A48" s="199" t="n">
-        <v>45777</v>
+        <v>45738</v>
       </c>
       <c r="B48" s="200" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C48" s="63" t="n">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="D48" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E48" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F48" s="63" t="inlineStr">
         <is>
-          <t>Athletics track</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G48" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H48" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
-        </is>
-      </c>
-      <c r="I48" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Hand</t>
+        </is>
+      </c>
+      <c r="I48" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J48" s="63" t="inlineStr">
         <is>
@@ -12059,13 +12037,13 @@
     </row>
     <row r="49">
       <c r="A49" s="199" t="n">
-        <v>45777</v>
+        <v>45739</v>
       </c>
       <c r="B49" s="200" t="n">
-        <v>0.4652777777777778</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="C49" s="63" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D49" s="63" t="inlineStr">
         <is>
@@ -12074,28 +12052,26 @@
       </c>
       <c r="E49" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F49" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G49" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H49" s="63" t="inlineStr">
         <is>
-          <t>Knee</t>
-        </is>
-      </c>
-      <c r="I49" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Head Injury</t>
+        </is>
+      </c>
+      <c r="I49" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J49" s="63" t="inlineStr">
         <is>
@@ -12129,22 +12105,22 @@
     </row>
     <row r="50">
       <c r="A50" s="199" t="n">
-        <v>45777</v>
+        <v>45740</v>
       </c>
       <c r="B50" s="200" t="n">
-        <v>0.7277777777777777</v>
+        <v>0.5993055555555555</v>
       </c>
       <c r="C50" s="63" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D50" s="63" t="inlineStr">
         <is>
-          <t>Stress Fractures</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E50" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F50" s="63" t="inlineStr">
@@ -12159,13 +12135,11 @@
       </c>
       <c r="H50" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
-        </is>
-      </c>
-      <c r="I50" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Hand</t>
+        </is>
+      </c>
+      <c r="I50" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J50" s="63" t="inlineStr">
         <is>
@@ -12199,17 +12173,17 @@
     </row>
     <row r="51">
       <c r="A51" s="199" t="n">
-        <v>45780</v>
+        <v>45740</v>
       </c>
       <c r="B51" s="200" t="n">
-        <v>0.6180555555555556</v>
+        <v>0.65625</v>
       </c>
       <c r="C51" s="63" t="n">
         <v>9</v>
       </c>
       <c r="D51" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Falls from Height</t>
         </is>
       </c>
       <c r="E51" s="63" t="inlineStr">
@@ -12219,21 +12193,21 @@
       </c>
       <c r="F51" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>Outdoor gym</t>
         </is>
       </c>
       <c r="G51" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Afternoon Program</t>
         </is>
       </c>
       <c r="H51" s="63" t="inlineStr">
         <is>
-          <t>Arm</t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I51" s="63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="63" t="inlineStr">
         <is>
@@ -12267,13 +12241,13 @@
     </row>
     <row r="52">
       <c r="A52" s="199" t="n">
-        <v>45781</v>
+        <v>45746</v>
       </c>
       <c r="B52" s="200" t="n">
-        <v>0.4173611111111111</v>
+        <v>0.40625</v>
       </c>
       <c r="C52" s="63" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D52" s="63" t="inlineStr">
         <is>
@@ -12297,7 +12271,7 @@
       </c>
       <c r="H52" s="63" t="inlineStr">
         <is>
-          <t>Facial Injury</t>
+          <t>Head Injury</t>
         </is>
       </c>
       <c r="I52" s="63" t="n">
@@ -12335,17 +12309,17 @@
     </row>
     <row r="53">
       <c r="A53" s="199" t="n">
-        <v>45810</v>
+        <v>45746</v>
       </c>
       <c r="B53" s="200" t="n">
-        <v>0.7152777777777778</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="C53" s="63" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D53" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E53" s="63" t="inlineStr">
@@ -12360,12 +12334,12 @@
       </c>
       <c r="G53" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H53" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
+          <t>Knee</t>
         </is>
       </c>
       <c r="I53" s="63" t="n">
@@ -12403,17 +12377,17 @@
     </row>
     <row r="54">
       <c r="A54" s="199" t="n">
-        <v>45814</v>
+        <v>45747</v>
       </c>
       <c r="B54" s="200" t="n">
-        <v>0.625</v>
+        <v>0.54375</v>
       </c>
       <c r="C54" s="63" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D54" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E54" s="63" t="inlineStr">
@@ -12433,7 +12407,7 @@
       </c>
       <c r="H54" s="63" t="inlineStr">
         <is>
-          <t>Facial Injury</t>
+          <t>Knee</t>
         </is>
       </c>
       <c r="I54" s="63" t="n">
@@ -12471,17 +12445,17 @@
     </row>
     <row r="55">
       <c r="A55" s="199" t="n">
-        <v>45816</v>
+        <v>45747</v>
       </c>
       <c r="B55" s="200" t="n">
-        <v>0.4375</v>
+        <v>0.5576388888888889</v>
       </c>
       <c r="C55" s="63" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D55" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Struck by Equipment</t>
         </is>
       </c>
       <c r="E55" s="63" t="inlineStr">
@@ -12491,7 +12465,7 @@
       </c>
       <c r="F55" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G55" s="63" t="inlineStr">
@@ -12501,7 +12475,7 @@
       </c>
       <c r="H55" s="63" t="inlineStr">
         <is>
-          <t>Facial Injury</t>
+          <t>Arm</t>
         </is>
       </c>
       <c r="I55" s="63" t="n">
@@ -12539,41 +12513,43 @@
     </row>
     <row r="56">
       <c r="A56" s="199" t="n">
-        <v>45821</v>
+        <v>45749</v>
       </c>
       <c r="B56" s="200" t="n">
-        <v>0.6972222222222222</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="C56" s="63" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D56" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E56" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F56" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t xml:space="preserve">5 A side </t>
         </is>
       </c>
       <c r="G56" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H56" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
-        </is>
-      </c>
-      <c r="I56" s="63" t="n">
-        <v>3</v>
+          <t>Facial Injury</t>
+        </is>
+      </c>
+      <c r="I56" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J56" s="63" t="inlineStr">
         <is>
@@ -12607,41 +12583,43 @@
     </row>
     <row r="57">
       <c r="A57" s="199" t="n">
-        <v>45823</v>
+        <v>45758</v>
       </c>
       <c r="B57" s="200" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.5513888888888889</v>
       </c>
       <c r="C57" s="63" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D57" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Struck by Equipment</t>
         </is>
       </c>
       <c r="E57" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F57" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="G57" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H57" s="63" t="inlineStr">
         <is>
-          <t>Wrist</t>
-        </is>
-      </c>
-      <c r="I57" s="63" t="n">
-        <v>3</v>
+          <t>Head Injury</t>
+        </is>
+      </c>
+      <c r="I57" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J57" s="63" t="inlineStr">
         <is>
@@ -12675,13 +12653,13 @@
     </row>
     <row r="58">
       <c r="A58" s="199" t="n">
-        <v>45823</v>
+        <v>45758</v>
       </c>
       <c r="B58" s="200" t="n">
-        <v>0.5347222222222222</v>
+        <v>0.6958333333333333</v>
       </c>
       <c r="C58" s="63" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D58" s="63" t="inlineStr">
         <is>
@@ -12690,26 +12668,28 @@
       </c>
       <c r="E58" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F58" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G58" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H58" s="63" t="inlineStr">
         <is>
-          <t>Knee</t>
-        </is>
-      </c>
-      <c r="I58" s="63" t="n">
-        <v>3</v>
+          <t>Elbow</t>
+        </is>
+      </c>
+      <c r="I58" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J58" s="63" t="inlineStr">
         <is>
@@ -12743,41 +12723,43 @@
     </row>
     <row r="59">
       <c r="A59" s="199" t="n">
-        <v>45823</v>
+        <v>45761</v>
       </c>
       <c r="B59" s="200" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.4791666666666667</v>
       </c>
       <c r="C59" s="63" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D59" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E59" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F59" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="G59" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Morning Show</t>
         </is>
       </c>
       <c r="H59" s="63" t="inlineStr">
         <is>
-          <t>Knee</t>
-        </is>
-      </c>
-      <c r="I59" s="63" t="n">
-        <v>3</v>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I59" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J59" s="63" t="inlineStr">
         <is>
@@ -12811,41 +12793,43 @@
     </row>
     <row r="60">
       <c r="A60" s="199" t="n">
-        <v>45824</v>
+        <v>45762</v>
       </c>
       <c r="B60" s="200" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.6236111111111111</v>
       </c>
       <c r="C60" s="63" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D60" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Stress Fractures</t>
         </is>
       </c>
       <c r="E60" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F60" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="G60" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="H60" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
-        </is>
-      </c>
-      <c r="I60" s="63" t="n">
-        <v>3</v>
+          <t>Knee</t>
+        </is>
+      </c>
+      <c r="I60" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J60" s="63" t="inlineStr">
         <is>
@@ -12916,41 +12900,43 @@
     </row>
     <row r="61">
       <c r="A61" s="199" t="n">
-        <v>45827</v>
+        <v>45763</v>
       </c>
       <c r="B61" s="200" t="n">
-        <v>0.6583333333333333</v>
+        <v>0.5090277777777777</v>
       </c>
       <c r="C61" s="63" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D61" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="E61" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>NONE SPORTS CENTER</t>
         </is>
       </c>
       <c r="F61" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="G61" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H61" s="63" t="inlineStr">
         <is>
-          <t>Spinal Injury</t>
-        </is>
-      </c>
-      <c r="I61" s="63" t="n">
-        <v>3</v>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="I61" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J61" s="63" t="inlineStr">
         <is>
@@ -13017,13 +13003,13 @@
     </row>
     <row r="62">
       <c r="A62" s="199" t="n">
-        <v>45828</v>
+        <v>45763</v>
       </c>
       <c r="B62" s="200" t="n">
-        <v>0.55625</v>
+        <v>0.5763888888888888</v>
       </c>
       <c r="C62" s="63" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D62" s="63" t="inlineStr">
         <is>
@@ -13032,26 +13018,28 @@
       </c>
       <c r="E62" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F62" s="63" t="inlineStr">
         <is>
-          <t>Equipment Rooms</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="G62" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H62" s="63" t="inlineStr">
         <is>
-          <t>Hand</t>
-        </is>
-      </c>
-      <c r="I62" s="63" t="n">
-        <v>3</v>
+          <t>Chest</t>
+        </is>
+      </c>
+      <c r="I62" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J62" s="63" t="inlineStr">
         <is>
@@ -13118,41 +13106,43 @@
     </row>
     <row r="63">
       <c r="A63" s="199" t="n">
-        <v>45828</v>
+        <v>45769</v>
       </c>
       <c r="B63" s="200" t="n">
-        <v>0.6770833333333334</v>
+        <v>0.4965277777777778</v>
       </c>
       <c r="C63" s="63" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D63" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E63" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F63" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="G63" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Morning Show</t>
         </is>
       </c>
       <c r="H63" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
-        </is>
-      </c>
-      <c r="I63" s="63" t="n">
-        <v>3</v>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I63" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J63" s="63" t="inlineStr">
         <is>
@@ -13219,32 +13209,32 @@
     </row>
     <row r="64">
       <c r="A64" s="199" t="n">
-        <v>45829</v>
+        <v>45769</v>
       </c>
       <c r="B64" s="200" t="n">
-        <v>0.4513888888888889</v>
+        <v>0.6840277777777778</v>
       </c>
       <c r="C64" s="63" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D64" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E64" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F64" s="63" t="inlineStr">
         <is>
-          <t>Athletics track</t>
+          <t xml:space="preserve">5 A side </t>
         </is>
       </c>
       <c r="G64" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t xml:space="preserve">Afternoon Program </t>
         </is>
       </c>
       <c r="H64" s="63" t="inlineStr">
@@ -13252,8 +13242,10 @@
           <t>Foot</t>
         </is>
       </c>
-      <c r="I64" s="63" t="n">
-        <v>3</v>
+      <c r="I64" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J64" s="63" t="inlineStr">
         <is>
@@ -13315,41 +13307,43 @@
     </row>
     <row r="65">
       <c r="A65" s="199" t="n">
-        <v>45829</v>
+        <v>45776</v>
       </c>
       <c r="B65" s="200" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6326388888888889</v>
       </c>
       <c r="C65" s="63" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D65" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Struck by Equipment</t>
         </is>
       </c>
       <c r="E65" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F65" s="63" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t xml:space="preserve">JDI Studio </t>
         </is>
       </c>
       <c r="G65" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Kicking Boxing</t>
         </is>
       </c>
       <c r="H65" s="63" t="inlineStr">
         <is>
-          <t>Wrist</t>
-        </is>
-      </c>
-      <c r="I65" s="63" t="n">
-        <v>3</v>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I65" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J65" s="63" t="inlineStr">
         <is>
@@ -13411,27 +13405,27 @@
     </row>
     <row r="66">
       <c r="A66" s="199" t="n">
-        <v>45829</v>
+        <v>45777</v>
       </c>
       <c r="B66" s="200" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C66" s="63" t="n">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D66" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Object</t>
+          <t>Muscle Strains</t>
         </is>
       </c>
       <c r="E66" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F66" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t>Athletics track</t>
         </is>
       </c>
       <c r="G66" s="63" t="inlineStr">
@@ -13441,11 +13435,13 @@
       </c>
       <c r="H66" s="63" t="inlineStr">
         <is>
-          <t>Wrist</t>
-        </is>
-      </c>
-      <c r="I66" s="63" t="n">
-        <v>3</v>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I66" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J66" s="63" t="inlineStr">
         <is>
@@ -13507,13 +13503,13 @@
     </row>
     <row r="67">
       <c r="A67" s="199" t="n">
-        <v>45833</v>
+        <v>45777</v>
       </c>
       <c r="B67" s="200" t="n">
-        <v>0.5263888888888889</v>
+        <v>0.4652777777777778</v>
       </c>
       <c r="C67" s="63" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D67" s="63" t="inlineStr">
         <is>
@@ -13522,12 +13518,12 @@
       </c>
       <c r="E67" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F67" s="63" t="inlineStr">
         <is>
-          <t>5 A side</t>
+          <t xml:space="preserve">11- A side </t>
         </is>
       </c>
       <c r="G67" s="63" t="inlineStr">
@@ -13537,11 +13533,13 @@
       </c>
       <c r="H67" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
-        </is>
-      </c>
-      <c r="I67" s="63" t="n">
-        <v>3</v>
+          <t>Knee</t>
+        </is>
+      </c>
+      <c r="I67" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J67" s="63" t="inlineStr">
         <is>
@@ -13603,41 +13601,43 @@
     </row>
     <row r="68">
       <c r="A68" s="199" t="n">
-        <v>45834</v>
+        <v>45777</v>
       </c>
       <c r="B68" s="200" t="n">
-        <v>0.6916666666666667</v>
+        <v>0.7277777777777777</v>
       </c>
       <c r="C68" s="63" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D68" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Stress Fractures</t>
         </is>
       </c>
       <c r="E68" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F68" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="G68" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H68" s="63" t="inlineStr">
         <is>
-          <t>Lower limb</t>
-        </is>
-      </c>
-      <c r="I68" s="63" t="n">
-        <v>3</v>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I68" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
       </c>
       <c r="J68" s="63" t="inlineStr">
         <is>
@@ -13694,17 +13694,17 @@
     </row>
     <row r="69">
       <c r="A69" s="199" t="n">
-        <v>45835</v>
+        <v>45780</v>
       </c>
       <c r="B69" s="200" t="n">
-        <v>0.6875</v>
+        <v>0.6180555555555556</v>
       </c>
       <c r="C69" s="63" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E69" s="63" t="inlineStr">
@@ -13714,7 +13714,7 @@
       </c>
       <c r="F69" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G69" s="63" t="inlineStr">
@@ -13724,7 +13724,7 @@
       </c>
       <c r="H69" s="63" t="inlineStr">
         <is>
-          <t>Hand</t>
+          <t>Arm</t>
         </is>
       </c>
       <c r="I69" s="63" t="n">
@@ -13785,17 +13785,17 @@
     </row>
     <row r="70">
       <c r="A70" s="199" t="n">
-        <v>45836</v>
+        <v>45781</v>
       </c>
       <c r="B70" s="200" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.4173611111111111</v>
       </c>
       <c r="C70" s="63" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D70" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E70" s="63" t="inlineStr">
@@ -13810,12 +13810,12 @@
       </c>
       <c r="G70" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H70" s="63" t="inlineStr">
         <is>
-          <t>Wrist</t>
+          <t>Facial Injury</t>
         </is>
       </c>
       <c r="I70" s="63" t="n">
@@ -13876,17 +13876,17 @@
     </row>
     <row r="71">
       <c r="A71" s="199" t="n">
-        <v>45837</v>
+        <v>45782</v>
       </c>
       <c r="B71" s="200" t="n">
-        <v>0.5652777777777778</v>
+        <v>0.73125</v>
       </c>
       <c r="C71" s="63" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D71" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E71" s="63" t="inlineStr">
@@ -13906,7 +13906,7 @@
       </c>
       <c r="H71" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
+          <t>Knee</t>
         </is>
       </c>
       <c r="I71" s="63" t="n">
@@ -13967,13 +13967,13 @@
     </row>
     <row r="72">
       <c r="A72" s="199" t="n">
-        <v>45838</v>
+        <v>45793</v>
       </c>
       <c r="B72" s="200" t="n">
-        <v>0.5506944444444445</v>
+        <v>0.4673611111111111</v>
       </c>
       <c r="C72" s="63" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D72" s="63" t="inlineStr">
         <is>
@@ -13987,17 +13987,17 @@
       </c>
       <c r="F72" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G72" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Morning Show</t>
         </is>
       </c>
       <c r="H72" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
+          <t>Facial Injury</t>
         </is>
       </c>
       <c r="I72" s="63" t="n">
@@ -14058,27 +14058,27 @@
     </row>
     <row r="73">
       <c r="A73" s="199" t="n">
-        <v>45839</v>
+        <v>45796</v>
       </c>
       <c r="B73" s="200" t="n">
-        <v>0.4375</v>
+        <v>0.7319444444444444</v>
       </c>
       <c r="C73" s="63" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D73" s="63" t="inlineStr">
         <is>
-          <t>Assault</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E73" s="63" t="inlineStr">
         <is>
-          <t>NONE SPORTS CENTER</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F73" s="63" t="inlineStr">
         <is>
-          <t>P GATE</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="G73" s="63" t="inlineStr">
@@ -14088,7 +14088,7 @@
       </c>
       <c r="H73" s="63" t="inlineStr">
         <is>
-          <t>Facial Injury</t>
+          <t>Ankle</t>
         </is>
       </c>
       <c r="I73" s="63" t="n">
@@ -14149,37 +14149,37 @@
     </row>
     <row r="74">
       <c r="A74" s="199" t="n">
-        <v>45839</v>
+        <v>45798</v>
       </c>
       <c r="B74" s="200" t="n">
-        <v>0.5340277777777778</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="C74" s="63" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D74" s="63" t="inlineStr">
         <is>
-          <t>Cleaning Agents</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="E74" s="63" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F74" s="63" t="inlineStr">
         <is>
-          <t>Equipment Rooms</t>
+          <t>JDI Studio</t>
         </is>
       </c>
       <c r="G74" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Kicking Boxing</t>
         </is>
       </c>
       <c r="H74" s="63" t="inlineStr">
         <is>
-          <t>Facial Injury</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="I74" s="63" t="n">
@@ -14240,17 +14240,17 @@
     </row>
     <row r="75">
       <c r="A75" s="199" t="n">
-        <v>45840</v>
+        <v>45800</v>
       </c>
       <c r="B75" s="200" t="n">
-        <v>0.7013888888888888</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="C75" s="63" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D75" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Muscle Strains</t>
         </is>
       </c>
       <c r="E75" s="63" t="inlineStr">
@@ -14270,7 +14270,7 @@
       </c>
       <c r="H75" s="63" t="inlineStr">
         <is>
-          <t>Knee</t>
+          <t>Ankle</t>
         </is>
       </c>
       <c r="I75" s="63" t="n">
@@ -14331,17 +14331,17 @@
     </row>
     <row r="76">
       <c r="A76" s="199" t="n">
-        <v>45841</v>
+        <v>45804</v>
       </c>
       <c r="B76" s="200" t="n">
-        <v>0.5930555555555556</v>
+        <v>0.6930555555555555</v>
       </c>
       <c r="C76" s="63" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E76" s="63" t="inlineStr">
@@ -14351,17 +14351,17 @@
       </c>
       <c r="F76" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G76" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H76" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
+          <t>Knee</t>
         </is>
       </c>
       <c r="I76" s="63" t="n">
@@ -14417,17 +14417,17 @@
     </row>
     <row r="77">
       <c r="A77" s="199" t="n">
-        <v>45841</v>
+        <v>45805</v>
       </c>
       <c r="B77" s="200" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.5180555555555556</v>
       </c>
       <c r="C77" s="63" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D77" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E77" s="63" t="inlineStr">
@@ -14442,7 +14442,7 @@
       </c>
       <c r="G77" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Morning Show</t>
         </is>
       </c>
       <c r="H77" s="63" t="inlineStr">
@@ -14498,17 +14498,17 @@
     </row>
     <row r="78">
       <c r="A78" s="199" t="n">
-        <v>45851</v>
+        <v>45806</v>
       </c>
       <c r="B78" s="200" t="n">
-        <v>0.5020833333333333</v>
+        <v>0.5097222222222222</v>
       </c>
       <c r="C78" s="63" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D78" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E78" s="63" t="inlineStr">
@@ -14523,12 +14523,12 @@
       </c>
       <c r="G78" s="63" t="inlineStr">
         <is>
-          <t>Her Game</t>
+          <t>Morning Show</t>
         </is>
       </c>
       <c r="H78" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
+          <t>Wrist</t>
         </is>
       </c>
       <c r="I78" s="63" t="n">
@@ -14579,17 +14579,17 @@
     </row>
     <row r="79">
       <c r="A79" s="199" t="n">
-        <v>45855</v>
+        <v>45808</v>
       </c>
       <c r="B79" s="200" t="n">
-        <v>0.4833333333333333</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C79" s="63" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D79" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Muscle Strains</t>
         </is>
       </c>
       <c r="E79" s="63" t="inlineStr">
@@ -14599,17 +14599,17 @@
       </c>
       <c r="F79" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>5 A side</t>
         </is>
       </c>
       <c r="G79" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H79" s="63" t="inlineStr">
         <is>
-          <t>Hip</t>
+          <t>Knee</t>
         </is>
       </c>
       <c r="I79" s="63" t="n">
@@ -14660,13 +14660,13 @@
     </row>
     <row r="80">
       <c r="A80" s="199" t="n">
-        <v>45855</v>
+        <v>45808</v>
       </c>
       <c r="B80" s="200" t="n">
-        <v>0.7194444444444444</v>
+        <v>0.6493055555555556</v>
       </c>
       <c r="C80" s="63" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D80" s="63" t="inlineStr">
         <is>
@@ -14680,7 +14680,7 @@
       </c>
       <c r="F80" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G80" s="63" t="inlineStr">
@@ -14690,7 +14690,7 @@
       </c>
       <c r="H80" s="63" t="inlineStr">
         <is>
-          <t>Hip</t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I80" s="63" t="n">
@@ -14736,10 +14736,10 @@
     </row>
     <row r="81">
       <c r="A81" s="199" t="n">
-        <v>45857</v>
+        <v>45808</v>
       </c>
       <c r="B81" s="200" t="n">
-        <v>0.4229166666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C81" s="63" t="n">
         <v>16</v>
@@ -14761,12 +14761,12 @@
       </c>
       <c r="G81" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>LFA</t>
         </is>
       </c>
       <c r="H81" s="63" t="inlineStr">
         <is>
-          <t>Abdominal</t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I81" s="63" t="n">
@@ -14807,17 +14807,17 @@
     </row>
     <row r="82">
       <c r="A82" s="199" t="n">
-        <v>45857</v>
+        <v>45810</v>
       </c>
       <c r="B82" s="200" t="n">
-        <v>0.4409722222222222</v>
+        <v>0.7152777777777778</v>
       </c>
       <c r="C82" s="63" t="n">
         <v>16</v>
       </c>
       <c r="D82" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Muscle Strains</t>
         </is>
       </c>
       <c r="E82" s="63" t="inlineStr">
@@ -14837,7 +14837,7 @@
       </c>
       <c r="H82" s="63" t="inlineStr">
         <is>
-          <t>Facial Injury</t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I82" s="63" t="n">
@@ -14878,13 +14878,13 @@
     </row>
     <row r="83">
       <c r="A83" s="199" t="n">
-        <v>45857</v>
+        <v>45814</v>
       </c>
       <c r="B83" s="200" t="n">
-        <v>0.4708333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="C83" s="63" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D83" s="63" t="inlineStr">
         <is>
@@ -14898,7 +14898,7 @@
       </c>
       <c r="F83" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G83" s="63" t="inlineStr">
@@ -14908,7 +14908,7 @@
       </c>
       <c r="H83" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
+          <t>Facial Injury</t>
         </is>
       </c>
       <c r="I83" s="63" t="n">
@@ -14949,17 +14949,17 @@
     </row>
     <row r="84">
       <c r="A84" s="199" t="n">
-        <v>45857</v>
+        <v>45816</v>
       </c>
       <c r="B84" s="200" t="n">
-        <v>0.5625</v>
+        <v>0.4375</v>
       </c>
       <c r="C84" s="63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D84" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Object</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E84" s="63" t="inlineStr">
@@ -14979,7 +14979,7 @@
       </c>
       <c r="H84" s="63" t="inlineStr">
         <is>
-          <t>Knee</t>
+          <t>Facial Injury</t>
         </is>
       </c>
       <c r="I84" s="63" t="n">
@@ -15020,17 +15020,17 @@
     </row>
     <row r="85">
       <c r="A85" s="199" t="n">
-        <v>45860</v>
+        <v>45821</v>
       </c>
       <c r="B85" s="200" t="n">
-        <v>0.6618055555555555</v>
+        <v>0.6972222222222222</v>
       </c>
       <c r="C85" s="63" t="n">
         <v>11</v>
       </c>
       <c r="D85" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Object</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E85" s="63" t="inlineStr">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="H85" s="63" t="inlineStr">
         <is>
-          <t>Knee</t>
+          <t>Ankle</t>
         </is>
       </c>
       <c r="I85" s="63" t="n">
@@ -15091,17 +15091,17 @@
     </row>
     <row r="86">
       <c r="A86" s="199" t="n">
-        <v>45864</v>
+        <v>45823</v>
       </c>
       <c r="B86" s="200" t="n">
         <v>0.5347222222222222</v>
       </c>
       <c r="C86" s="63" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D86" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E86" s="63" t="inlineStr">
@@ -15111,17 +15111,17 @@
       </c>
       <c r="F86" s="63" t="inlineStr">
         <is>
-          <t>JDI Studio</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G86" s="63" t="inlineStr">
         <is>
-          <t>Kicking Boxing</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H86" s="63" t="inlineStr">
         <is>
-          <t>Lower limb</t>
+          <t>Wrist</t>
         </is>
       </c>
       <c r="I86" s="63" t="n">
@@ -15162,17 +15162,17 @@
     </row>
     <row r="87">
       <c r="A87" s="199" t="n">
-        <v>45868</v>
+        <v>45823</v>
       </c>
       <c r="B87" s="200" t="n">
-        <v>0.4826388888888889</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="C87" s="63" t="n">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D87" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E87" s="63" t="inlineStr">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="H87" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
+          <t>Knee</t>
         </is>
       </c>
       <c r="I87" s="63" t="n">
@@ -15233,43 +15233,41 @@
     </row>
     <row r="88">
       <c r="A88" s="199" t="n">
-        <v>45870</v>
+        <v>45823</v>
       </c>
       <c r="B88" s="200" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C88" s="63" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D88" s="63" t="inlineStr">
         <is>
-          <t>Heat-Related</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E88" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F88" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">JDI Studio </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G88" s="63" t="inlineStr">
         <is>
-          <t>Kicking Boxing</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H88" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
-        </is>
-      </c>
-      <c r="I88" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Knee</t>
+        </is>
+      </c>
+      <c r="I88" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J88" s="63" t="inlineStr">
         <is>
@@ -15306,17 +15304,17 @@
     </row>
     <row r="89">
       <c r="A89" s="199" t="n">
-        <v>45870</v>
+        <v>45824</v>
       </c>
       <c r="B89" s="200" t="n">
-        <v>0.6597222222222222</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="C89" s="63" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D89" s="63" t="inlineStr">
         <is>
-          <t>Heat-Related</t>
+          <t>Muscle Strains</t>
         </is>
       </c>
       <c r="E89" s="63" t="inlineStr">
@@ -15326,17 +15324,17 @@
       </c>
       <c r="F89" s="63" t="inlineStr">
         <is>
-          <t>JDI Studio</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G89" s="63" t="inlineStr">
         <is>
-          <t>Kicking Boxing</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H89" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
+          <t>Ankle</t>
         </is>
       </c>
       <c r="I89" s="63" t="n">
@@ -15377,13 +15375,13 @@
     </row>
     <row r="90">
       <c r="A90" s="199" t="n">
-        <v>45870</v>
+        <v>45827</v>
       </c>
       <c r="B90" s="200" t="n">
-        <v>0.6847222222222222</v>
+        <v>0.6583333333333333</v>
       </c>
       <c r="C90" s="63" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D90" s="63" t="inlineStr">
         <is>
@@ -15392,28 +15390,26 @@
       </c>
       <c r="E90" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F90" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G90" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H90" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
-        </is>
-      </c>
-      <c r="I90" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Spinal Injury</t>
+        </is>
+      </c>
+      <c r="I90" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J90" s="63" t="inlineStr">
         <is>
@@ -15450,17 +15446,17 @@
     </row>
     <row r="91">
       <c r="A91" s="199" t="n">
-        <v>45870</v>
+        <v>45828</v>
       </c>
       <c r="B91" s="200" t="n">
-        <v>0.6847222222222222</v>
+        <v>0.55625</v>
       </c>
       <c r="C91" s="63" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D91" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E91" s="63" t="inlineStr">
@@ -15470,7 +15466,7 @@
       </c>
       <c r="F91" s="63" t="inlineStr">
         <is>
-          <t>5 A side</t>
+          <t>Equipment Rooms</t>
         </is>
       </c>
       <c r="G91" s="63" t="inlineStr">
@@ -15480,7 +15476,7 @@
       </c>
       <c r="H91" s="63" t="inlineStr">
         <is>
-          <t>Ankle</t>
+          <t>Hand</t>
         </is>
       </c>
       <c r="I91" s="63" t="n">
@@ -15518,13 +15514,13 @@
     </row>
     <row r="92">
       <c r="A92" s="199" t="n">
-        <v>45877</v>
+        <v>45828</v>
       </c>
       <c r="B92" s="200" t="n">
-        <v>0.5673611111111111</v>
+        <v>0.6770833333333334</v>
       </c>
       <c r="C92" s="63" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D92" s="63" t="inlineStr">
         <is>
@@ -15533,7 +15529,7 @@
       </c>
       <c r="E92" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F92" s="63" t="inlineStr">
@@ -15543,7 +15539,7 @@
       </c>
       <c r="G92" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H92" s="63" t="inlineStr">
@@ -15551,10 +15547,8 @@
           <t>Foot</t>
         </is>
       </c>
-      <c r="I92" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+      <c r="I92" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J92" s="63" t="inlineStr">
         <is>
@@ -15588,13 +15582,13 @@
     </row>
     <row r="93">
       <c r="A93" s="199" t="n">
-        <v>45877</v>
+        <v>45829</v>
       </c>
       <c r="B93" s="200" t="n">
-        <v>0.5673611111111111</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="C93" s="63" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D93" s="63" t="inlineStr">
         <is>
@@ -15608,7 +15602,7 @@
       </c>
       <c r="F93" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>Athletics track</t>
         </is>
       </c>
       <c r="G93" s="63" t="inlineStr">
@@ -15656,13 +15650,13 @@
     </row>
     <row r="94">
       <c r="A94" s="199" t="n">
-        <v>45880</v>
+        <v>45829</v>
       </c>
       <c r="B94" s="200" t="n">
-        <v>0.6652777777777777</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C94" s="63" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D94" s="63" t="inlineStr">
         <is>
@@ -15671,28 +15665,26 @@
       </c>
       <c r="E94" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F94" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>Basketball</t>
         </is>
       </c>
       <c r="G94" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H94" s="63" t="inlineStr">
         <is>
-          <t>Hip</t>
-        </is>
-      </c>
-      <c r="I94" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Wrist</t>
+        </is>
+      </c>
+      <c r="I94" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J94" s="63" t="inlineStr">
         <is>
@@ -15726,17 +15718,17 @@
     </row>
     <row r="95">
       <c r="A95" s="199" t="n">
-        <v>45880</v>
+        <v>45829</v>
       </c>
       <c r="B95" s="200" t="n">
-        <v>0.6652777777777777</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C95" s="63" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D95" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E95" s="63" t="inlineStr">
@@ -15746,17 +15738,17 @@
       </c>
       <c r="F95" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G95" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H95" s="63" t="inlineStr">
         <is>
-          <t>Hip</t>
+          <t>Wrist</t>
         </is>
       </c>
       <c r="I95" s="63" t="n">
@@ -15794,43 +15786,41 @@
     </row>
     <row r="96">
       <c r="A96" s="199" t="n">
-        <v>45889</v>
+        <v>45833</v>
       </c>
       <c r="B96" s="200" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.5263888888888889</v>
       </c>
       <c r="C96" s="63" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D96" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E96" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F96" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">JDI Studio </t>
+          <t>5 A side</t>
         </is>
       </c>
       <c r="G96" s="63" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H96" s="63" t="inlineStr">
         <is>
-          <t>Shoulder</t>
-        </is>
-      </c>
-      <c r="I96" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I96" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J96" s="63" t="inlineStr">
         <is>
@@ -15864,17 +15854,17 @@
     </row>
     <row r="97">
       <c r="A97" s="199" t="n">
-        <v>45889</v>
+        <v>45834</v>
       </c>
       <c r="B97" s="200" t="n">
-        <v>0.4916666666666666</v>
+        <v>0.6916666666666667</v>
       </c>
       <c r="C97" s="63" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D97" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E97" s="63" t="inlineStr">
@@ -15884,17 +15874,17 @@
       </c>
       <c r="F97" s="63" t="inlineStr">
         <is>
-          <t>JDI Studio</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G97" s="63" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H97" s="63" t="inlineStr">
         <is>
-          <t>Shoulder</t>
+          <t>Lower limb</t>
         </is>
       </c>
       <c r="I97" s="63" t="n">
@@ -15932,27 +15922,27 @@
     </row>
     <row r="98">
       <c r="A98" s="199" t="n">
-        <v>45889</v>
+        <v>45835</v>
       </c>
       <c r="B98" s="200" t="n">
-        <v>0.5020833333333333</v>
+        <v>0.6875</v>
       </c>
       <c r="C98" s="63" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D98" s="63" t="inlineStr">
         <is>
-          <t>Incorrect Use</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E98" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F98" s="63" t="inlineStr">
         <is>
-          <t>Bleachers</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G98" s="63" t="inlineStr">
@@ -15962,13 +15952,11 @@
       </c>
       <c r="H98" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
-        </is>
-      </c>
-      <c r="I98" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Hand</t>
+        </is>
+      </c>
+      <c r="I98" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J98" s="63" t="inlineStr">
         <is>
@@ -16002,17 +15990,17 @@
     </row>
     <row r="99">
       <c r="A99" s="199" t="n">
-        <v>45889</v>
+        <v>45836</v>
       </c>
       <c r="B99" s="200" t="n">
-        <v>0.5020833333333333</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C99" s="63" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D99" s="63" t="inlineStr">
         <is>
-          <t>Incorrect Use</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E99" s="63" t="inlineStr">
@@ -16022,7 +16010,7 @@
       </c>
       <c r="F99" s="63" t="inlineStr">
         <is>
-          <t>Bleachers</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G99" s="63" t="inlineStr">
@@ -16032,7 +16020,7 @@
       </c>
       <c r="H99" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
+          <t>Wrist</t>
         </is>
       </c>
       <c r="I99" s="63" t="n">
@@ -16070,27 +16058,27 @@
     </row>
     <row r="100">
       <c r="A100" s="199" t="n">
-        <v>45893</v>
+        <v>45837</v>
       </c>
       <c r="B100" s="200" t="n">
-        <v>0.4375</v>
+        <v>0.5652777777777778</v>
       </c>
       <c r="C100" s="63" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D100" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E100" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F100" s="63" t="inlineStr">
         <is>
-          <t>Bleachers</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G100" s="63" t="inlineStr">
@@ -16100,13 +16088,11 @@
       </c>
       <c r="H100" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
-        </is>
-      </c>
-      <c r="I100" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I100" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J100" s="63" t="inlineStr">
         <is>
@@ -16140,17 +16126,17 @@
     </row>
     <row r="101">
       <c r="A101" s="199" t="n">
-        <v>45893</v>
+        <v>45838</v>
       </c>
       <c r="B101" s="200" t="n">
-        <v>0.4375</v>
+        <v>0.5506944444444445</v>
       </c>
       <c r="C101" s="63" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D101" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E101" s="63" t="inlineStr">
@@ -16160,7 +16146,7 @@
       </c>
       <c r="F101" s="63" t="inlineStr">
         <is>
-          <t>Bleachers</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G101" s="63" t="inlineStr">
@@ -16170,7 +16156,7 @@
       </c>
       <c r="H101" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I101" s="63" t="n">
@@ -16208,27 +16194,27 @@
     </row>
     <row r="102">
       <c r="A102" s="199" t="n">
-        <v>45896</v>
+        <v>45839</v>
       </c>
       <c r="B102" s="200" t="n">
-        <v>0.5159722222222223</v>
+        <v>0.4375</v>
       </c>
       <c r="C102" s="63" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D102" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Assault</t>
         </is>
       </c>
       <c r="E102" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>NONE SPORTS CENTER</t>
         </is>
       </c>
       <c r="F102" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>P GATE</t>
         </is>
       </c>
       <c r="G102" s="63" t="inlineStr">
@@ -16238,13 +16224,11 @@
       </c>
       <c r="H102" s="63" t="inlineStr">
         <is>
-          <t>Hip</t>
-        </is>
-      </c>
-      <c r="I102" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Facial Injury</t>
+        </is>
+      </c>
+      <c r="I102" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J102" s="63" t="inlineStr">
         <is>
@@ -16278,27 +16262,27 @@
     </row>
     <row r="103">
       <c r="A103" s="199" t="n">
-        <v>45896</v>
+        <v>45839</v>
       </c>
       <c r="B103" s="200" t="n">
-        <v>0.5159722222222223</v>
+        <v>0.5340277777777778</v>
       </c>
       <c r="C103" s="63" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D103" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Cleaning Agents</t>
         </is>
       </c>
       <c r="E103" s="63" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Equipment</t>
         </is>
       </c>
       <c r="F103" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>Equipment Rooms</t>
         </is>
       </c>
       <c r="G103" s="63" t="inlineStr">
@@ -16308,7 +16292,7 @@
       </c>
       <c r="H103" s="63" t="inlineStr">
         <is>
-          <t>Hip</t>
+          <t>Facial Injury</t>
         </is>
       </c>
       <c r="I103" s="63" t="n">
@@ -16346,13 +16330,13 @@
     </row>
     <row r="104">
       <c r="A104" s="199" t="n">
-        <v>45897</v>
+        <v>45840</v>
       </c>
       <c r="B104" s="200" t="n">
-        <v>0.4569444444444444</v>
+        <v>0.7013888888888888</v>
       </c>
       <c r="C104" s="63" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D104" s="63" t="inlineStr">
         <is>
@@ -16361,28 +16345,26 @@
       </c>
       <c r="E104" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F104" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G104" s="63" t="inlineStr">
         <is>
-          <t>Morning Show</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H104" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
-        </is>
-      </c>
-      <c r="I104" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Knee</t>
+        </is>
+      </c>
+      <c r="I104" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J104" s="63" t="inlineStr">
         <is>
@@ -16416,13 +16398,13 @@
     </row>
     <row r="105">
       <c r="A105" s="199" t="n">
-        <v>45897</v>
+        <v>45841</v>
       </c>
       <c r="B105" s="200" t="n">
-        <v>0.4569444444444444</v>
+        <v>0.5930555555555556</v>
       </c>
       <c r="C105" s="63" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D105" s="63" t="inlineStr">
         <is>
@@ -16436,17 +16418,17 @@
       </c>
       <c r="F105" s="63" t="inlineStr">
         <is>
-          <t>11- A side</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G105" s="63" t="inlineStr">
         <is>
-          <t>Morning Show</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H105" s="63" t="inlineStr">
         <is>
-          <t>Foot</t>
+          <t>Ankle</t>
         </is>
       </c>
       <c r="I105" s="63" t="n">
@@ -16484,13 +16466,13 @@
     </row>
     <row r="106">
       <c r="A106" s="199" t="n">
-        <v>45902</v>
+        <v>45841</v>
       </c>
       <c r="B106" s="200" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C106" s="63" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D106" s="63" t="inlineStr">
         <is>
@@ -16499,28 +16481,26 @@
       </c>
       <c r="E106" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F106" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G106" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afternoon Program </t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H106" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arm </t>
-        </is>
-      </c>
-      <c r="I106" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I106" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J106" s="63" t="inlineStr">
         <is>
@@ -16554,43 +16534,41 @@
     </row>
     <row r="107">
       <c r="A107" s="199" t="n">
-        <v>45906</v>
+        <v>45851</v>
       </c>
       <c r="B107" s="200" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="C107" s="63" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D107" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="E107" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F107" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G107" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Her Game</t>
         </is>
       </c>
       <c r="H107" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knee </t>
-        </is>
-      </c>
-      <c r="I107" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="I107" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J107" s="63" t="inlineStr">
         <is>
@@ -16624,13 +16602,13 @@
     </row>
     <row r="108">
       <c r="A108" s="199" t="n">
-        <v>45907</v>
+        <v>45855</v>
       </c>
       <c r="B108" s="200" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.4833333333333333</v>
       </c>
       <c r="C108" s="63" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D108" s="63" t="inlineStr">
         <is>
@@ -16639,28 +16617,26 @@
       </c>
       <c r="E108" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F108" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G108" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H108" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elbow </t>
-        </is>
-      </c>
-      <c r="I108" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Hip</t>
+        </is>
+      </c>
+      <c r="I108" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J108" s="63" t="inlineStr">
         <is>
@@ -16694,13 +16670,13 @@
     </row>
     <row r="109">
       <c r="A109" s="199" t="n">
-        <v>45907</v>
+        <v>45855</v>
       </c>
       <c r="B109" s="200" t="n">
-        <v>0.5763888888888888</v>
+        <v>0.7194444444444444</v>
       </c>
       <c r="C109" s="63" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D109" s="63" t="inlineStr">
         <is>
@@ -16709,12 +16685,12 @@
       </c>
       <c r="E109" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F109" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G109" s="63" t="inlineStr">
@@ -16724,13 +16700,11 @@
       </c>
       <c r="H109" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knee </t>
-        </is>
-      </c>
-      <c r="I109" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Hip</t>
+        </is>
+      </c>
+      <c r="I109" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J109" s="63" t="inlineStr">
         <is>
@@ -16764,43 +16738,41 @@
     </row>
     <row r="110">
       <c r="A110" s="199" t="n">
-        <v>45907</v>
+        <v>45857</v>
       </c>
       <c r="B110" s="200" t="n">
-        <v>0.65</v>
+        <v>0.4229166666666667</v>
       </c>
       <c r="C110" s="63" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D110" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E110" s="63" t="inlineStr">
         <is>
-          <t>NONE SPORTS CENTER</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F110" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G110" s="63" t="inlineStr">
         <is>
-          <t>NONE SPORTS CENTER</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H110" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knee </t>
-        </is>
-      </c>
-      <c r="I110" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Abdominal</t>
+        </is>
+      </c>
+      <c r="I110" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J110" s="63" t="inlineStr">
         <is>
@@ -16834,13 +16806,13 @@
     </row>
     <row r="111">
       <c r="A111" s="199" t="n">
-        <v>45908</v>
+        <v>45857</v>
       </c>
       <c r="B111" s="200" t="n">
-        <v>0.6041666666666666</v>
+        <v>0.4409722222222222</v>
       </c>
       <c r="C111" s="63" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D111" s="63" t="inlineStr">
         <is>
@@ -16849,12 +16821,12 @@
       </c>
       <c r="E111" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F111" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G111" s="63" t="inlineStr">
@@ -16864,13 +16836,11 @@
       </c>
       <c r="H111" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ankle </t>
-        </is>
-      </c>
-      <c r="I111" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Facial Injury</t>
+        </is>
+      </c>
+      <c r="I111" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J111" s="63" t="inlineStr">
         <is>
@@ -16904,43 +16874,41 @@
     </row>
     <row r="112">
       <c r="A112" s="199" t="n">
-        <v>45908</v>
+        <v>45857</v>
       </c>
       <c r="B112" s="200" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4708333333333333</v>
       </c>
       <c r="C112" s="63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D112" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E112" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F112" s="63" t="inlineStr">
         <is>
-          <t>Skate Park</t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G112" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H112" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shoulder </t>
-        </is>
-      </c>
-      <c r="I112" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I112" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J112" s="63" t="inlineStr">
         <is>
@@ -16974,27 +16942,27 @@
     </row>
     <row r="113">
       <c r="A113" s="199" t="n">
-        <v>45914</v>
+        <v>45857</v>
       </c>
       <c r="B113" s="200" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="C113" s="63" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D113" s="63" t="inlineStr">
         <is>
-          <t>Medical</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E113" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F113" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G113" s="63" t="inlineStr">
@@ -17004,13 +16972,11 @@
       </c>
       <c r="H113" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Medical </t>
-        </is>
-      </c>
-      <c r="I113" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Knee</t>
+        </is>
+      </c>
+      <c r="I113" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J113" s="63" t="inlineStr">
         <is>
@@ -17044,43 +17010,41 @@
     </row>
     <row r="114">
       <c r="A114" s="199" t="n">
-        <v>45915</v>
+        <v>45860</v>
       </c>
       <c r="B114" s="200" t="n">
-        <v>0.5625</v>
+        <v>0.6618055555555555</v>
       </c>
       <c r="C114" s="63" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D114" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Player-to-Object</t>
         </is>
       </c>
       <c r="E114" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F114" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G114" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H114" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Foot </t>
-        </is>
-      </c>
-      <c r="I114" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Knee</t>
+        </is>
+      </c>
+      <c r="I114" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J114" s="63" t="inlineStr">
         <is>
@@ -17114,43 +17078,41 @@
     </row>
     <row r="115">
       <c r="A115" s="199" t="n">
-        <v>45919</v>
+        <v>45864</v>
       </c>
       <c r="B115" s="200" t="n">
-        <v>0.7006944444444444</v>
+        <v>0.5347222222222222</v>
       </c>
       <c r="C115" s="63" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D115" s="63" t="inlineStr">
         <is>
-          <t>Struck by Equipment</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E115" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F115" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>JDI Studio</t>
         </is>
       </c>
       <c r="G115" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Kicking Boxing</t>
         </is>
       </c>
       <c r="H115" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Facial Injury </t>
-        </is>
-      </c>
-      <c r="I115" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Lower limb</t>
+        </is>
+      </c>
+      <c r="I115" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J115" s="63" t="inlineStr">
         <is>
@@ -17184,27 +17146,27 @@
     </row>
     <row r="116">
       <c r="A116" s="199" t="n">
-        <v>45921</v>
+        <v>45868</v>
       </c>
       <c r="B116" s="200" t="n">
-        <v>0.4375</v>
+        <v>0.4826388888888889</v>
       </c>
       <c r="C116" s="63" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D116" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E116" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F116" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>11- A side</t>
         </is>
       </c>
       <c r="G116" s="63" t="inlineStr">
@@ -17214,13 +17176,11 @@
       </c>
       <c r="H116" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lower limb </t>
-        </is>
-      </c>
-      <c r="I116" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I116" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J116" s="63" t="inlineStr">
         <is>
@@ -17254,17 +17214,17 @@
     </row>
     <row r="117">
       <c r="A117" s="199" t="n">
-        <v>45921</v>
+        <v>45870</v>
       </c>
       <c r="B117" s="200" t="n">
-        <v>0.45</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="C117" s="63" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D117" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Heat-Related</t>
         </is>
       </c>
       <c r="E117" s="63" t="inlineStr">
@@ -17274,17 +17234,17 @@
       </c>
       <c r="F117" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t xml:space="preserve">JDI Studio </t>
         </is>
       </c>
       <c r="G117" s="63" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Kicking Boxing</t>
         </is>
       </c>
       <c r="H117" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Foot </t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I117" s="63" t="inlineStr">
@@ -17324,43 +17284,41 @@
     </row>
     <row r="118">
       <c r="A118" s="199" t="n">
-        <v>45921</v>
+        <v>45870</v>
       </c>
       <c r="B118" s="200" t="n">
-        <v>0.45</v>
+        <v>0.6597222222222222</v>
       </c>
       <c r="C118" s="63" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D118" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Heat-Related</t>
         </is>
       </c>
       <c r="E118" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F118" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>JDI Studio</t>
         </is>
       </c>
       <c r="G118" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Kicking Boxing</t>
         </is>
       </c>
       <c r="H118" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ankle </t>
-        </is>
-      </c>
-      <c r="I118" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I118" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J118" s="63" t="inlineStr">
         <is>
@@ -17394,17 +17352,17 @@
     </row>
     <row r="119">
       <c r="A119" s="199" t="n">
-        <v>45923</v>
+        <v>45870</v>
       </c>
       <c r="B119" s="200" t="n">
-        <v>0.78125</v>
+        <v>0.6847222222222222</v>
       </c>
       <c r="C119" s="63" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D119" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E119" s="63" t="inlineStr">
@@ -17414,7 +17372,7 @@
       </c>
       <c r="F119" s="63" t="inlineStr">
         <is>
-          <t>1KM RUN/WALK PATH</t>
+          <t xml:space="preserve">5 A side </t>
         </is>
       </c>
       <c r="G119" s="63" t="inlineStr">
@@ -17424,7 +17382,7 @@
       </c>
       <c r="H119" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ankle </t>
+          <t>Ankle</t>
         </is>
       </c>
       <c r="I119" s="63" t="inlineStr">
@@ -17464,27 +17422,27 @@
     </row>
     <row r="120">
       <c r="A120" s="199" t="n">
-        <v>45924</v>
+        <v>45870</v>
       </c>
       <c r="B120" s="200" t="n">
-        <v>0.4375</v>
+        <v>0.6847222222222222</v>
       </c>
       <c r="C120" s="63" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D120" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E120" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F120" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>5 A side</t>
         </is>
       </c>
       <c r="G120" s="63" t="inlineStr">
@@ -17494,13 +17452,11 @@
       </c>
       <c r="H120" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Upper limb Muscle </t>
-        </is>
-      </c>
-      <c r="I120" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Ankle</t>
+        </is>
+      </c>
+      <c r="I120" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J120" s="63" t="inlineStr">
         <is>
@@ -17534,13 +17490,13 @@
     </row>
     <row r="121">
       <c r="A121" s="199" t="n">
-        <v>45925</v>
+        <v>45877</v>
       </c>
       <c r="B121" s="200" t="n">
-        <v>0.5</v>
+        <v>0.5673611111111111</v>
       </c>
       <c r="C121" s="63" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D121" s="63" t="inlineStr">
         <is>
@@ -17554,7 +17510,7 @@
       </c>
       <c r="F121" s="63" t="inlineStr">
         <is>
-          <t>Basketball</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G121" s="63" t="inlineStr">
@@ -17564,7 +17520,7 @@
       </c>
       <c r="H121" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ankle </t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I121" s="63" t="inlineStr">
@@ -17604,13 +17560,13 @@
     </row>
     <row r="122">
       <c r="A122" s="199" t="n">
-        <v>45937</v>
+        <v>45877</v>
       </c>
       <c r="B122" s="200" t="n">
-        <v>0.5805555555555556</v>
+        <v>0.5673611111111111</v>
       </c>
       <c r="C122" s="63" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D122" s="63" t="inlineStr">
         <is>
@@ -17619,28 +17575,26 @@
       </c>
       <c r="E122" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F122" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G122" s="63" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H122" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hand </t>
-        </is>
-      </c>
-      <c r="I122" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I122" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J122" s="63" t="inlineStr">
         <is>
@@ -17674,17 +17628,17 @@
     </row>
     <row r="123">
       <c r="A123" s="199" t="n">
-        <v>45937</v>
+        <v>45880</v>
       </c>
       <c r="B123" s="200" t="n">
-        <v>0.6090277777777777</v>
+        <v>0.6652777777777777</v>
       </c>
       <c r="C123" s="63" t="n">
         <v>14</v>
       </c>
       <c r="D123" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E123" s="63" t="inlineStr">
@@ -17694,17 +17648,17 @@
       </c>
       <c r="F123" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G123" s="63" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H123" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arm </t>
+          <t>Hip</t>
         </is>
       </c>
       <c r="I123" s="63" t="inlineStr">
@@ -17744,43 +17698,41 @@
     </row>
     <row r="124">
       <c r="A124" s="199" t="n">
-        <v>45938</v>
+        <v>45880</v>
       </c>
       <c r="B124" s="200" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.6652777777777777</v>
       </c>
       <c r="C124" s="63" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D124" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Slips, Trips and falls</t>
         </is>
       </c>
       <c r="E124" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F124" s="63" t="inlineStr">
         <is>
-          <t>Athletics track</t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G124" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afternoon Program </t>
+          <t>Girl Skate</t>
         </is>
       </c>
       <c r="H124" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Facial Injury </t>
-        </is>
-      </c>
-      <c r="I124" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Hip</t>
+        </is>
+      </c>
+      <c r="I124" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J124" s="63" t="inlineStr">
         <is>
@@ -17814,37 +17766,37 @@
     </row>
     <row r="125">
       <c r="A125" s="199" t="n">
-        <v>45939</v>
+        <v>45889</v>
       </c>
       <c r="B125" s="200" t="n">
-        <v>0.5888888888888889</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C125" s="63" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D125" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Object</t>
+          <t>Muscle Strains</t>
         </is>
       </c>
       <c r="E125" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equipment </t>
+          <t xml:space="preserve">Activity </t>
         </is>
       </c>
       <c r="F125" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t xml:space="preserve">JDI Studio </t>
         </is>
       </c>
       <c r="G125" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="H125" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wrist </t>
+          <t>Shoulder</t>
         </is>
       </c>
       <c r="I125" s="63" t="inlineStr">
@@ -17884,43 +17836,41 @@
     </row>
     <row r="126">
       <c r="A126" s="199" t="n">
-        <v>45940</v>
+        <v>45889</v>
       </c>
       <c r="B126" s="200" t="n">
-        <v>0.5854166666666667</v>
+        <v>0.4916666666666666</v>
       </c>
       <c r="C126" s="63" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D126" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Muscle Strains</t>
         </is>
       </c>
       <c r="E126" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F126" s="63" t="inlineStr">
         <is>
-          <t>Outdoor gym</t>
+          <t>JDI Studio</t>
         </is>
       </c>
       <c r="G126" s="63" t="inlineStr">
         <is>
-          <t>Open Play</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="H126" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knee </t>
-        </is>
-      </c>
-      <c r="I126" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Shoulder</t>
+        </is>
+      </c>
+      <c r="I126" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J126" s="63" t="inlineStr">
         <is>
@@ -17954,17 +17904,17 @@
     </row>
     <row r="127">
       <c r="A127" s="199" t="n">
-        <v>45947</v>
+        <v>45889</v>
       </c>
       <c r="B127" s="200" t="n">
-        <v>0.5194444444444445</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="C127" s="63" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D127" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Incorrect Use</t>
         </is>
       </c>
       <c r="E127" s="63" t="inlineStr">
@@ -17974,7 +17924,7 @@
       </c>
       <c r="F127" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Bleachers</t>
         </is>
       </c>
       <c r="G127" s="63" t="inlineStr">
@@ -17984,7 +17934,7 @@
       </c>
       <c r="H127" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lower limb </t>
+          <t>Foot</t>
         </is>
       </c>
       <c r="I127" s="63" t="inlineStr">
@@ -18024,27 +17974,27 @@
     </row>
     <row r="128">
       <c r="A128" s="199" t="n">
-        <v>45948</v>
+        <v>45889</v>
       </c>
       <c r="B128" s="200" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.5020833333333333</v>
       </c>
       <c r="C128" s="63" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D128" s="63" t="inlineStr">
         <is>
-          <t>Muscle Strains</t>
+          <t>Incorrect Use</t>
         </is>
       </c>
       <c r="E128" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F128" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Bleachers</t>
         </is>
       </c>
       <c r="G128" s="63" t="inlineStr">
@@ -18054,13 +18004,11 @@
       </c>
       <c r="H128" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Back </t>
-        </is>
-      </c>
-      <c r="I128" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I128" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J128" s="63" t="inlineStr">
         <is>
@@ -18094,17 +18042,17 @@
     </row>
     <row r="129">
       <c r="A129" s="199" t="n">
-        <v>45952</v>
+        <v>45893</v>
       </c>
       <c r="B129" s="200" t="n">
-        <v>0.5590277777777778</v>
+        <v>0.4375</v>
       </c>
       <c r="C129" s="63" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="D129" s="63" t="inlineStr">
         <is>
-          <t>Struck by Equipment</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="E129" s="63" t="inlineStr">
@@ -18114,7 +18062,7 @@
       </c>
       <c r="F129" s="63" t="inlineStr">
         <is>
-          <t>Change Rooms</t>
+          <t>Bleachers</t>
         </is>
       </c>
       <c r="G129" s="63" t="inlineStr">
@@ -18124,7 +18072,7 @@
       </c>
       <c r="H129" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hand </t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="I129" s="63" t="inlineStr">
@@ -18164,27 +18112,27 @@
     </row>
     <row r="130">
       <c r="A130" s="199" t="n">
-        <v>45952</v>
+        <v>45893</v>
       </c>
       <c r="B130" s="200" t="n">
-        <v>0.6763888888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="C130" s="63" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D130" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Player</t>
+          <t>Medical</t>
         </is>
       </c>
       <c r="E130" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Activity </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F130" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">11- A side </t>
+          <t>Bleachers</t>
         </is>
       </c>
       <c r="G130" s="63" t="inlineStr">
@@ -18194,13 +18142,11 @@
       </c>
       <c r="H130" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knee </t>
-        </is>
-      </c>
-      <c r="I130" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="I130" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J130" s="63" t="inlineStr">
         <is>
@@ -18234,17 +18180,17 @@
     </row>
     <row r="131">
       <c r="A131" s="199" t="n">
-        <v>45958</v>
+        <v>45896</v>
       </c>
       <c r="B131" s="200" t="n">
-        <v>0.7368055555555556</v>
+        <v>0.5159722222222223</v>
       </c>
       <c r="C131" s="63" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D131" s="63" t="inlineStr">
         <is>
-          <t>Slips, Trips and falls</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E131" s="63" t="inlineStr">
@@ -18259,12 +18205,12 @@
       </c>
       <c r="G131" s="63" t="inlineStr">
         <is>
-          <t>Girl Skate</t>
+          <t>Open Play</t>
         </is>
       </c>
       <c r="H131" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wrist </t>
+          <t>Hip</t>
         </is>
       </c>
       <c r="I131" s="63" t="inlineStr">
@@ -18304,27 +18250,27 @@
     </row>
     <row r="132">
       <c r="A132" s="199" t="n">
-        <v>45960</v>
+        <v>45896</v>
       </c>
       <c r="B132" s="200" t="n">
-        <v>0.7263888888888889</v>
+        <v>0.5159722222222223</v>
       </c>
       <c r="C132" s="63" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D132" s="63" t="inlineStr">
         <is>
-          <t>Player-to-Object</t>
+          <t>Player-to-Player</t>
         </is>
       </c>
       <c r="E132" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Equipment </t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="F132" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">5 A side </t>
+          <t>Skate Park</t>
         </is>
       </c>
       <c r="G132" s="63" t="inlineStr">
@@ -18334,13 +18280,11 @@
       </c>
       <c r="H132" s="63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Facial Injury </t>
-        </is>
-      </c>
-      <c r="I132" s="63" t="inlineStr">
-        <is>
-          <t>P3</t>
-        </is>
+          <t>Hip</t>
+        </is>
+      </c>
+      <c r="I132" s="63" t="n">
+        <v>3</v>
       </c>
       <c r="J132" s="63" t="inlineStr">
         <is>
@@ -18373,814 +18317,2030 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="18" t="n"/>
-      <c r="B133" s="15" t="n"/>
-      <c r="K133">
-        <f>TEXT(A75,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L133">
-        <f>HOUR(B75)</f>
-        <v/>
-      </c>
-      <c r="M133">
-        <f>IF(L75&lt;6,"Night",IF(L75&lt;12,"Morning",IF(L75&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N133">
-        <f>TEXT(A75,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O133">
-        <f>WEEKNUM(A75)</f>
-        <v/>
-      </c>
-      <c r="P133">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A75))</f>
+      <c r="A133" s="199" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B133" s="200" t="n">
+        <v>0.4569444444444444</v>
+      </c>
+      <c r="C133" s="63" t="n">
+        <v>27</v>
+      </c>
+      <c r="D133" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E133" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F133" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G133" s="63" t="inlineStr">
+        <is>
+          <t>Morning Show</t>
+        </is>
+      </c>
+      <c r="H133" s="63" t="inlineStr">
+        <is>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I133" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J133" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K133" s="63">
+        <f>TEXT(A133,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L133" s="63">
+        <f>HOUR(B133)</f>
+        <v/>
+      </c>
+      <c r="M133" s="63">
+        <f>IF(L133&lt;6,"Night",IF(L133&lt;12,"Morning",IF(L133&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N133" s="63">
+        <f>TEXT(A133,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O133" s="63">
+        <f>WEEKNUM(A133)</f>
+        <v/>
+      </c>
+      <c r="P133" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A133))</f>
         <v/>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="18" t="n"/>
-      <c r="B134" s="15" t="n"/>
-      <c r="K134">
-        <f>TEXT(A76,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L134">
-        <f>HOUR(B76)</f>
-        <v/>
-      </c>
-      <c r="M134">
-        <f>IF(L76&lt;6,"Night",IF(L76&lt;12,"Morning",IF(L76&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N134">
-        <f>TEXT(A76,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O134">
-        <f>WEEKNUM(A76)</f>
-        <v/>
-      </c>
-      <c r="P134">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A76))</f>
+      <c r="A134" s="199" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B134" s="200" t="n">
+        <v>0.4569444444444444</v>
+      </c>
+      <c r="C134" s="63" t="n">
+        <v>27</v>
+      </c>
+      <c r="D134" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E134" s="63" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="F134" s="63" t="inlineStr">
+        <is>
+          <t>11- A side</t>
+        </is>
+      </c>
+      <c r="G134" s="63" t="inlineStr">
+        <is>
+          <t>Morning Show</t>
+        </is>
+      </c>
+      <c r="H134" s="63" t="inlineStr">
+        <is>
+          <t>Foot</t>
+        </is>
+      </c>
+      <c r="I134" s="63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K134" s="63">
+        <f>TEXT(A134,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L134" s="63">
+        <f>HOUR(B134)</f>
+        <v/>
+      </c>
+      <c r="M134" s="63">
+        <f>IF(L134&lt;6,"Night",IF(L134&lt;12,"Morning",IF(L134&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N134" s="63">
+        <f>TEXT(A134,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O134" s="63">
+        <f>WEEKNUM(A134)</f>
+        <v/>
+      </c>
+      <c r="P134" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A134))</f>
         <v/>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="18" t="n"/>
-      <c r="B135" s="15" t="n"/>
-      <c r="K135">
-        <f>TEXT(A77,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L135">
-        <f>HOUR(B77)</f>
-        <v/>
-      </c>
-      <c r="M135">
-        <f>IF(L77&lt;6,"Night",IF(L77&lt;12,"Morning",IF(L77&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N135">
-        <f>TEXT(A77,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O135">
-        <f>WEEKNUM(A77)</f>
-        <v/>
-      </c>
-      <c r="P135">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A77))</f>
+      <c r="A135" s="199" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B135" s="200" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="C135" s="63" t="n">
+        <v>22</v>
+      </c>
+      <c r="D135" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E135" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F135" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="G135" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afternoon Program </t>
+        </is>
+      </c>
+      <c r="H135" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arm </t>
+        </is>
+      </c>
+      <c r="I135" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J135" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K135" s="63">
+        <f>TEXT(A135,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L135" s="63">
+        <f>HOUR(B135)</f>
+        <v/>
+      </c>
+      <c r="M135" s="63">
+        <f>IF(L135&lt;6,"Night",IF(L135&lt;12,"Morning",IF(L135&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N135" s="63">
+        <f>TEXT(A135,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O135" s="63">
+        <f>WEEKNUM(A135)</f>
+        <v/>
+      </c>
+      <c r="P135" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A135))</f>
         <v/>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="18" t="n"/>
-      <c r="B136" s="15" t="n"/>
-      <c r="K136">
-        <f>TEXT(A78,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L136">
-        <f>HOUR(B78)</f>
-        <v/>
-      </c>
-      <c r="M136">
-        <f>IF(L78&lt;6,"Night",IF(L78&lt;12,"Morning",IF(L78&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N136">
-        <f>TEXT(A78,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O136">
-        <f>WEEKNUM(A78)</f>
-        <v/>
-      </c>
-      <c r="P136">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A78))</f>
+      <c r="A136" s="199" t="n">
+        <v>45906</v>
+      </c>
+      <c r="B136" s="200" t="n">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="C136" s="63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D136" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E136" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F136" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="G136" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H136" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knee </t>
+        </is>
+      </c>
+      <c r="I136" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J136" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K136" s="63">
+        <f>TEXT(A136,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L136" s="63">
+        <f>HOUR(B136)</f>
+        <v/>
+      </c>
+      <c r="M136" s="63">
+        <f>IF(L136&lt;6,"Night",IF(L136&lt;12,"Morning",IF(L136&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N136" s="63">
+        <f>TEXT(A136,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O136" s="63">
+        <f>WEEKNUM(A136)</f>
+        <v/>
+      </c>
+      <c r="P136" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A136))</f>
         <v/>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="18" t="n"/>
-      <c r="B137" s="15" t="n"/>
-      <c r="K137">
-        <f>TEXT(A79,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L137">
-        <f>HOUR(B79)</f>
-        <v/>
-      </c>
-      <c r="M137">
-        <f>IF(L79&lt;6,"Night",IF(L79&lt;12,"Morning",IF(L79&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N137">
-        <f>TEXT(A79,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O137">
-        <f>WEEKNUM(A79)</f>
-        <v/>
-      </c>
-      <c r="P137">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A79))</f>
+      <c r="A137" s="199" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B137" s="200" t="n">
+        <v>0.5277777777777778</v>
+      </c>
+      <c r="C137" s="63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D137" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E137" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F137" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G137" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H137" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elbow </t>
+        </is>
+      </c>
+      <c r="I137" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J137" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K137" s="63">
+        <f>TEXT(A137,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L137" s="63">
+        <f>HOUR(B137)</f>
+        <v/>
+      </c>
+      <c r="M137" s="63">
+        <f>IF(L137&lt;6,"Night",IF(L137&lt;12,"Morning",IF(L137&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N137" s="63">
+        <f>TEXT(A137,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O137" s="63">
+        <f>WEEKNUM(A137)</f>
+        <v/>
+      </c>
+      <c r="P137" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A137))</f>
         <v/>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="18" t="n"/>
-      <c r="B138" s="15" t="n"/>
-      <c r="K138">
-        <f>TEXT(A80,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L138">
-        <f>HOUR(B80)</f>
-        <v/>
-      </c>
-      <c r="M138">
-        <f>IF(L80&lt;6,"Night",IF(L80&lt;12,"Morning",IF(L80&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N138">
-        <f>TEXT(A80,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O138">
-        <f>WEEKNUM(A80)</f>
-        <v/>
-      </c>
-      <c r="P138">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A80))</f>
+      <c r="A138" s="199" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B138" s="200" t="n">
+        <v>0.5763888888888888</v>
+      </c>
+      <c r="C138" s="63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D138" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E138" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F138" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G138" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H138" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knee </t>
+        </is>
+      </c>
+      <c r="I138" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J138" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K138" s="63">
+        <f>TEXT(A138,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L138" s="63">
+        <f>HOUR(B138)</f>
+        <v/>
+      </c>
+      <c r="M138" s="63">
+        <f>IF(L138&lt;6,"Night",IF(L138&lt;12,"Morning",IF(L138&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N138" s="63">
+        <f>TEXT(A138,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O138" s="63">
+        <f>WEEKNUM(A138)</f>
+        <v/>
+      </c>
+      <c r="P138" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A138))</f>
         <v/>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="18" t="n"/>
-      <c r="B139" s="15" t="n"/>
-      <c r="K139">
-        <f>TEXT(A81,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L139">
-        <f>HOUR(B81)</f>
-        <v/>
-      </c>
-      <c r="M139">
-        <f>IF(L81&lt;6,"Night",IF(L81&lt;12,"Morning",IF(L81&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N139">
-        <f>TEXT(A81,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O139">
-        <f>WEEKNUM(A81)</f>
-        <v/>
-      </c>
-      <c r="P139">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A81))</f>
+      <c r="A139" s="199" t="n">
+        <v>45907</v>
+      </c>
+      <c r="B139" s="200" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C139" s="63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D139" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E139" s="63" t="inlineStr">
+        <is>
+          <t>NONE SPORTS CENTER</t>
+        </is>
+      </c>
+      <c r="F139" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G139" s="63" t="inlineStr">
+        <is>
+          <t>NONE SPORTS CENTER</t>
+        </is>
+      </c>
+      <c r="H139" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knee </t>
+        </is>
+      </c>
+      <c r="I139" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J139" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K139" s="63">
+        <f>TEXT(A139,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L139" s="63">
+        <f>HOUR(B139)</f>
+        <v/>
+      </c>
+      <c r="M139" s="63">
+        <f>IF(L139&lt;6,"Night",IF(L139&lt;12,"Morning",IF(L139&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N139" s="63">
+        <f>TEXT(A139,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O139" s="63">
+        <f>WEEKNUM(A139)</f>
+        <v/>
+      </c>
+      <c r="P139" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A139))</f>
         <v/>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="18" t="n"/>
-      <c r="B140" s="15" t="n"/>
-      <c r="K140">
-        <f>TEXT(A82,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L140">
-        <f>HOUR(B82)</f>
-        <v/>
-      </c>
-      <c r="M140">
-        <f>IF(L82&lt;6,"Night",IF(L82&lt;12,"Morning",IF(L82&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N140">
-        <f>TEXT(A82,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O140">
-        <f>WEEKNUM(A82)</f>
-        <v/>
-      </c>
-      <c r="P140">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A82))</f>
+      <c r="A140" s="199" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B140" s="200" t="n">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="C140" s="63" t="n">
+        <v>19</v>
+      </c>
+      <c r="D140" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E140" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F140" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G140" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H140" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankle </t>
+        </is>
+      </c>
+      <c r="I140" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J140" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K140" s="63">
+        <f>TEXT(A140,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L140" s="63">
+        <f>HOUR(B140)</f>
+        <v/>
+      </c>
+      <c r="M140" s="63">
+        <f>IF(L140&lt;6,"Night",IF(L140&lt;12,"Morning",IF(L140&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N140" s="63">
+        <f>TEXT(A140,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O140" s="63">
+        <f>WEEKNUM(A140)</f>
+        <v/>
+      </c>
+      <c r="P140" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A140))</f>
         <v/>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="18" t="n"/>
-      <c r="B141" s="15" t="n"/>
-      <c r="K141">
-        <f>TEXT(A83,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L141">
-        <f>HOUR(B83)</f>
-        <v/>
-      </c>
-      <c r="M141">
-        <f>IF(L83&lt;6,"Night",IF(L83&lt;12,"Morning",IF(L83&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N141">
-        <f>TEXT(A83,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O141">
-        <f>WEEKNUM(A83)</f>
-        <v/>
-      </c>
-      <c r="P141">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A83))</f>
+      <c r="A141" s="199" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B141" s="200" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C141" s="63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D141" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E141" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F141" s="63" t="inlineStr">
+        <is>
+          <t>Skate Park</t>
+        </is>
+      </c>
+      <c r="G141" s="63" t="inlineStr">
+        <is>
+          <t>Girl Skate</t>
+        </is>
+      </c>
+      <c r="H141" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shoulder </t>
+        </is>
+      </c>
+      <c r="I141" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J141" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K141" s="63">
+        <f>TEXT(A141,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L141" s="63">
+        <f>HOUR(B141)</f>
+        <v/>
+      </c>
+      <c r="M141" s="63">
+        <f>IF(L141&lt;6,"Night",IF(L141&lt;12,"Morning",IF(L141&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N141" s="63">
+        <f>TEXT(A141,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O141" s="63">
+        <f>WEEKNUM(A141)</f>
+        <v/>
+      </c>
+      <c r="P141" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A141))</f>
         <v/>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="18" t="n"/>
-      <c r="B142" s="15" t="n"/>
-      <c r="K142">
-        <f>TEXT(A84,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L142">
-        <f>HOUR(B84)</f>
-        <v/>
-      </c>
-      <c r="M142">
-        <f>IF(L84&lt;6,"Night",IF(L84&lt;12,"Morning",IF(L84&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N142">
-        <f>TEXT(A84,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O142">
-        <f>WEEKNUM(A84)</f>
-        <v/>
-      </c>
-      <c r="P142">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A84))</f>
+      <c r="A142" s="199" t="n">
+        <v>45914</v>
+      </c>
+      <c r="B142" s="200" t="n">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="C142" s="63" t="n">
+        <v>13</v>
+      </c>
+      <c r="D142" s="63" t="inlineStr">
+        <is>
+          <t>Medical</t>
+        </is>
+      </c>
+      <c r="E142" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F142" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G142" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H142" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Medical </t>
+        </is>
+      </c>
+      <c r="I142" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J142" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K142" s="63">
+        <f>TEXT(A142,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L142" s="63">
+        <f>HOUR(B142)</f>
+        <v/>
+      </c>
+      <c r="M142" s="63">
+        <f>IF(L142&lt;6,"Night",IF(L142&lt;12,"Morning",IF(L142&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N142" s="63">
+        <f>TEXT(A142,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O142" s="63">
+        <f>WEEKNUM(A142)</f>
+        <v/>
+      </c>
+      <c r="P142" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A142))</f>
         <v/>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="18" t="n"/>
-      <c r="B143" s="15" t="n"/>
-      <c r="K143">
-        <f>TEXT(A85,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L143">
-        <f>HOUR(B85)</f>
-        <v/>
-      </c>
-      <c r="M143">
-        <f>IF(L85&lt;6,"Night",IF(L85&lt;12,"Morning",IF(L85&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N143">
-        <f>TEXT(A85,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O143">
-        <f>WEEKNUM(A85)</f>
-        <v/>
-      </c>
-      <c r="P143">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A85))</f>
+      <c r="A143" s="199" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B143" s="200" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="C143" s="63" t="n">
+        <v>19</v>
+      </c>
+      <c r="D143" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E143" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F143" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="G143" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H143" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foot </t>
+        </is>
+      </c>
+      <c r="I143" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J143" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K143" s="63">
+        <f>TEXT(A143,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L143" s="63">
+        <f>HOUR(B143)</f>
+        <v/>
+      </c>
+      <c r="M143" s="63">
+        <f>IF(L143&lt;6,"Night",IF(L143&lt;12,"Morning",IF(L143&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N143" s="63">
+        <f>TEXT(A143,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O143" s="63">
+        <f>WEEKNUM(A143)</f>
+        <v/>
+      </c>
+      <c r="P143" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A143))</f>
         <v/>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="18" t="n"/>
-      <c r="B144" s="15" t="n"/>
-      <c r="K144">
-        <f>TEXT(A86,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L144">
-        <f>HOUR(B86)</f>
-        <v/>
-      </c>
-      <c r="M144">
-        <f>IF(L86&lt;6,"Night",IF(L86&lt;12,"Morning",IF(L86&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N144">
-        <f>TEXT(A86,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O144">
-        <f>WEEKNUM(A86)</f>
-        <v/>
-      </c>
-      <c r="P144">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A86))</f>
+      <c r="A144" s="199" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B144" s="200" t="n">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C144" s="63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D144" s="63" t="inlineStr">
+        <is>
+          <t>Struck by Equipment</t>
+        </is>
+      </c>
+      <c r="E144" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F144" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G144" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H144" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facial Injury </t>
+        </is>
+      </c>
+      <c r="I144" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J144" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K144" s="63">
+        <f>TEXT(A144,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L144" s="63">
+        <f>HOUR(B144)</f>
+        <v/>
+      </c>
+      <c r="M144" s="63">
+        <f>IF(L144&lt;6,"Night",IF(L144&lt;12,"Morning",IF(L144&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N144" s="63">
+        <f>TEXT(A144,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O144" s="63">
+        <f>WEEKNUM(A144)</f>
+        <v/>
+      </c>
+      <c r="P144" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A144))</f>
         <v/>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="18" t="n"/>
-      <c r="B145" s="15" t="n"/>
-      <c r="K145">
-        <f>TEXT(A87,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L145">
-        <f>HOUR(B87)</f>
-        <v/>
-      </c>
-      <c r="M145">
-        <f>IF(L87&lt;6,"Night",IF(L87&lt;12,"Morning",IF(L87&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N145">
-        <f>TEXT(A87,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O145">
-        <f>WEEKNUM(A87)</f>
-        <v/>
-      </c>
-      <c r="P145">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A87))</f>
+      <c r="A145" s="199" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B145" s="200" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C145" s="63" t="n">
+        <v>24</v>
+      </c>
+      <c r="D145" s="63" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="E145" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F145" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G145" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H145" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lower limb </t>
+        </is>
+      </c>
+      <c r="I145" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J145" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K145" s="63">
+        <f>TEXT(A145,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L145" s="63">
+        <f>HOUR(B145)</f>
+        <v/>
+      </c>
+      <c r="M145" s="63">
+        <f>IF(L145&lt;6,"Night",IF(L145&lt;12,"Morning",IF(L145&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N145" s="63">
+        <f>TEXT(A145,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O145" s="63">
+        <f>WEEKNUM(A145)</f>
+        <v/>
+      </c>
+      <c r="P145" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A145))</f>
         <v/>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="18" t="n"/>
-      <c r="B146" s="15" t="n"/>
-      <c r="K146">
-        <f>TEXT(A88,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L146">
-        <f>HOUR(B88)</f>
-        <v/>
-      </c>
-      <c r="M146">
-        <f>IF(L88&lt;6,"Night",IF(L88&lt;12,"Morning",IF(L88&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N146">
-        <f>TEXT(A88,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O146">
-        <f>WEEKNUM(A88)</f>
-        <v/>
-      </c>
-      <c r="P146">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A88))</f>
+      <c r="A146" s="199" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B146" s="200" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C146" s="63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D146" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E146" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F146" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G146" s="63" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="H146" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foot </t>
+        </is>
+      </c>
+      <c r="I146" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J146" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K146" s="63">
+        <f>TEXT(A146,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L146" s="63">
+        <f>HOUR(B146)</f>
+        <v/>
+      </c>
+      <c r="M146" s="63">
+        <f>IF(L146&lt;6,"Night",IF(L146&lt;12,"Morning",IF(L146&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N146" s="63">
+        <f>TEXT(A146,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O146" s="63">
+        <f>WEEKNUM(A146)</f>
+        <v/>
+      </c>
+      <c r="P146" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A146))</f>
         <v/>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="18" t="n"/>
-      <c r="B147" s="15" t="n"/>
-      <c r="K147">
-        <f>TEXT(A89,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L147">
-        <f>HOUR(B89)</f>
-        <v/>
-      </c>
-      <c r="M147">
-        <f>IF(L89&lt;6,"Night",IF(L89&lt;12,"Morning",IF(L89&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N147">
-        <f>TEXT(A89,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O147">
-        <f>WEEKNUM(A89)</f>
-        <v/>
-      </c>
-      <c r="P147">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A89))</f>
+      <c r="A147" s="199" t="n">
+        <v>45921</v>
+      </c>
+      <c r="B147" s="200" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C147" s="63" t="n">
+        <v>16</v>
+      </c>
+      <c r="D147" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E147" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F147" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G147" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H147" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankle </t>
+        </is>
+      </c>
+      <c r="I147" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J147" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K147" s="63">
+        <f>TEXT(A147,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L147" s="63">
+        <f>HOUR(B147)</f>
+        <v/>
+      </c>
+      <c r="M147" s="63">
+        <f>IF(L147&lt;6,"Night",IF(L147&lt;12,"Morning",IF(L147&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N147" s="63">
+        <f>TEXT(A147,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O147" s="63">
+        <f>WEEKNUM(A147)</f>
+        <v/>
+      </c>
+      <c r="P147" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A147))</f>
         <v/>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="18" t="n"/>
-      <c r="B148" s="15" t="n"/>
-      <c r="K148">
-        <f>TEXT(A90,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L148">
-        <f>HOUR(B90)</f>
-        <v/>
-      </c>
-      <c r="M148">
-        <f>IF(L90&lt;6,"Night",IF(L90&lt;12,"Morning",IF(L90&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N148">
-        <f>TEXT(A90,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O148">
-        <f>WEEKNUM(A90)</f>
-        <v/>
-      </c>
-      <c r="P148">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A90))</f>
+      <c r="A148" s="199" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B148" s="200" t="n">
+        <v>0.78125</v>
+      </c>
+      <c r="C148" s="63" t="n">
+        <v>23</v>
+      </c>
+      <c r="D148" s="63" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="E148" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F148" s="63" t="inlineStr">
+        <is>
+          <t>1KM RUN/WALK PATH</t>
+        </is>
+      </c>
+      <c r="G148" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H148" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankle </t>
+        </is>
+      </c>
+      <c r="I148" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J148" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K148" s="63">
+        <f>TEXT(A148,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L148" s="63">
+        <f>HOUR(B148)</f>
+        <v/>
+      </c>
+      <c r="M148" s="63">
+        <f>IF(L148&lt;6,"Night",IF(L148&lt;12,"Morning",IF(L148&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N148" s="63">
+        <f>TEXT(A148,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O148" s="63">
+        <f>WEEKNUM(A148)</f>
+        <v/>
+      </c>
+      <c r="P148" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A148))</f>
         <v/>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="18" t="n"/>
-      <c r="B149" s="15" t="n"/>
-      <c r="K149">
-        <f>TEXT(A91,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L149">
-        <f>HOUR(B91)</f>
-        <v/>
-      </c>
-      <c r="M149">
-        <f>IF(L91&lt;6,"Night",IF(L91&lt;12,"Morning",IF(L91&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N149">
-        <f>TEXT(A91,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O149">
-        <f>WEEKNUM(A91)</f>
-        <v/>
-      </c>
-      <c r="P149">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A91))</f>
+      <c r="A149" s="199" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B149" s="200" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="C149" s="63" t="n">
+        <v>22</v>
+      </c>
+      <c r="D149" s="63" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="E149" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F149" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G149" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H149" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upper limb Muscle </t>
+        </is>
+      </c>
+      <c r="I149" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J149" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K149" s="63">
+        <f>TEXT(A149,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L149" s="63">
+        <f>HOUR(B149)</f>
+        <v/>
+      </c>
+      <c r="M149" s="63">
+        <f>IF(L149&lt;6,"Night",IF(L149&lt;12,"Morning",IF(L149&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N149" s="63">
+        <f>TEXT(A149,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O149" s="63">
+        <f>WEEKNUM(A149)</f>
+        <v/>
+      </c>
+      <c r="P149" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A149))</f>
         <v/>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="18" t="n"/>
-      <c r="B150" s="15" t="n"/>
-      <c r="K150">
-        <f>TEXT(A92,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L150">
-        <f>HOUR(B92)</f>
-        <v/>
-      </c>
-      <c r="M150">
-        <f>IF(L92&lt;6,"Night",IF(L92&lt;12,"Morning",IF(L92&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N150">
-        <f>TEXT(A92,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O150">
-        <f>WEEKNUM(A92)</f>
-        <v/>
-      </c>
-      <c r="P150">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A92))</f>
+      <c r="A150" s="199" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B150" s="200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C150" s="63" t="n">
+        <v>21</v>
+      </c>
+      <c r="D150" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E150" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F150" s="63" t="inlineStr">
+        <is>
+          <t>Basketball</t>
+        </is>
+      </c>
+      <c r="G150" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H150" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankle </t>
+        </is>
+      </c>
+      <c r="I150" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J150" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K150" s="63">
+        <f>TEXT(A150,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L150" s="63">
+        <f>HOUR(B150)</f>
+        <v/>
+      </c>
+      <c r="M150" s="63">
+        <f>IF(L150&lt;6,"Night",IF(L150&lt;12,"Morning",IF(L150&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N150" s="63">
+        <f>TEXT(A150,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O150" s="63">
+        <f>WEEKNUM(A150)</f>
+        <v/>
+      </c>
+      <c r="P150" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A150))</f>
         <v/>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="18" t="n"/>
-      <c r="B151" s="15" t="n"/>
-      <c r="K151">
-        <f>TEXT(A93,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L151">
-        <f>HOUR(B93)</f>
-        <v/>
-      </c>
-      <c r="M151">
-        <f>IF(L93&lt;6,"Night",IF(L93&lt;12,"Morning",IF(L93&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N151">
-        <f>TEXT(A93,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O151">
-        <f>WEEKNUM(A93)</f>
-        <v/>
-      </c>
-      <c r="P151">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A93))</f>
+      <c r="A151" s="199" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B151" s="200" t="n">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="C151" s="63" t="n">
+        <v>13</v>
+      </c>
+      <c r="D151" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E151" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F151" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G151" s="63" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="H151" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hand </t>
+        </is>
+      </c>
+      <c r="I151" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J151" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K151" s="63">
+        <f>TEXT(A151,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L151" s="63">
+        <f>HOUR(B151)</f>
+        <v/>
+      </c>
+      <c r="M151" s="63">
+        <f>IF(L151&lt;6,"Night",IF(L151&lt;12,"Morning",IF(L151&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N151" s="63">
+        <f>TEXT(A151,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O151" s="63">
+        <f>WEEKNUM(A151)</f>
+        <v/>
+      </c>
+      <c r="P151" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A151))</f>
         <v/>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="18" t="n"/>
-      <c r="B152" s="15" t="n"/>
-      <c r="K152">
-        <f>TEXT(A94,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L152">
-        <f>HOUR(B94)</f>
-        <v/>
-      </c>
-      <c r="M152">
-        <f>IF(L94&lt;6,"Night",IF(L94&lt;12,"Morning",IF(L94&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N152">
-        <f>TEXT(A94,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O152">
-        <f>WEEKNUM(A94)</f>
-        <v/>
-      </c>
-      <c r="P152">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A94))</f>
+      <c r="A152" s="199" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B152" s="200" t="n">
+        <v>0.6090277777777777</v>
+      </c>
+      <c r="C152" s="63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D152" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E152" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F152" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G152" s="63" t="inlineStr">
+        <is>
+          <t>Training</t>
+        </is>
+      </c>
+      <c r="H152" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arm </t>
+        </is>
+      </c>
+      <c r="I152" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J152" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K152" s="63">
+        <f>TEXT(A152,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L152" s="63">
+        <f>HOUR(B152)</f>
+        <v/>
+      </c>
+      <c r="M152" s="63">
+        <f>IF(L152&lt;6,"Night",IF(L152&lt;12,"Morning",IF(L152&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N152" s="63">
+        <f>TEXT(A152,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O152" s="63">
+        <f>WEEKNUM(A152)</f>
+        <v/>
+      </c>
+      <c r="P152" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A152))</f>
         <v/>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="18" t="n"/>
-      <c r="B153" s="15" t="n"/>
-      <c r="K153">
-        <f>TEXT(A95,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L153">
-        <f>HOUR(B95)</f>
-        <v/>
-      </c>
-      <c r="M153">
-        <f>IF(L95&lt;6,"Night",IF(L95&lt;12,"Morning",IF(L95&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N153">
-        <f>TEXT(A95,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O153">
-        <f>WEEKNUM(A95)</f>
-        <v/>
-      </c>
-      <c r="P153">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A95))</f>
+      <c r="A153" s="199" t="n">
+        <v>45938</v>
+      </c>
+      <c r="B153" s="200" t="n">
+        <v>0.6388888888888888</v>
+      </c>
+      <c r="C153" s="63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D153" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E153" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F153" s="63" t="inlineStr">
+        <is>
+          <t>Athletics track</t>
+        </is>
+      </c>
+      <c r="G153" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afternoon Program </t>
+        </is>
+      </c>
+      <c r="H153" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facial Injury </t>
+        </is>
+      </c>
+      <c r="I153" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J153" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K153" s="63">
+        <f>TEXT(A153,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L153" s="63">
+        <f>HOUR(B153)</f>
+        <v/>
+      </c>
+      <c r="M153" s="63">
+        <f>IF(L153&lt;6,"Night",IF(L153&lt;12,"Morning",IF(L153&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N153" s="63">
+        <f>TEXT(A153,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O153" s="63">
+        <f>WEEKNUM(A153)</f>
+        <v/>
+      </c>
+      <c r="P153" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A153))</f>
         <v/>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="18" t="n"/>
-      <c r="B154" s="15" t="n"/>
-      <c r="K154">
-        <f>TEXT(A96,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L154">
-        <f>HOUR(B96)</f>
-        <v/>
-      </c>
-      <c r="M154">
-        <f>IF(L96&lt;6,"Night",IF(L96&lt;12,"Morning",IF(L96&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N154">
-        <f>TEXT(A96,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O154">
-        <f>WEEKNUM(A96)</f>
-        <v/>
-      </c>
-      <c r="P154">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A96))</f>
+      <c r="A154" s="199" t="n">
+        <v>45939</v>
+      </c>
+      <c r="B154" s="200" t="n">
+        <v>0.5888888888888889</v>
+      </c>
+      <c r="C154" s="63" t="n">
+        <v>15</v>
+      </c>
+      <c r="D154" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Object</t>
+        </is>
+      </c>
+      <c r="E154" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Equipment </t>
+        </is>
+      </c>
+      <c r="F154" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="G154" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H154" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wrist </t>
+        </is>
+      </c>
+      <c r="I154" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J154" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K154" s="63">
+        <f>TEXT(A154,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L154" s="63">
+        <f>HOUR(B154)</f>
+        <v/>
+      </c>
+      <c r="M154" s="63">
+        <f>IF(L154&lt;6,"Night",IF(L154&lt;12,"Morning",IF(L154&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N154" s="63">
+        <f>TEXT(A154,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O154" s="63">
+        <f>WEEKNUM(A154)</f>
+        <v/>
+      </c>
+      <c r="P154" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A154))</f>
         <v/>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="18" t="n"/>
-      <c r="B155" s="15" t="n"/>
-      <c r="K155">
-        <f>TEXT(A97,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L155">
-        <f>HOUR(B97)</f>
-        <v/>
-      </c>
-      <c r="M155">
-        <f>IF(L97&lt;6,"Night",IF(L97&lt;12,"Morning",IF(L97&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N155">
-        <f>TEXT(A97,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O155">
-        <f>WEEKNUM(A97)</f>
-        <v/>
-      </c>
-      <c r="P155">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A97))</f>
+      <c r="A155" s="199" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B155" s="200" t="n">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C155" s="63" t="n">
+        <v>22</v>
+      </c>
+      <c r="D155" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E155" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F155" s="63" t="inlineStr">
+        <is>
+          <t>Outdoor gym</t>
+        </is>
+      </c>
+      <c r="G155" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H155" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knee </t>
+        </is>
+      </c>
+      <c r="I155" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J155" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K155" s="63">
+        <f>TEXT(A155,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L155" s="63">
+        <f>HOUR(B155)</f>
+        <v/>
+      </c>
+      <c r="M155" s="63">
+        <f>IF(L155&lt;6,"Night",IF(L155&lt;12,"Morning",IF(L155&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N155" s="63">
+        <f>TEXT(A155,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O155" s="63">
+        <f>WEEKNUM(A155)</f>
+        <v/>
+      </c>
+      <c r="P155" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A155))</f>
         <v/>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="18" t="n"/>
-      <c r="B156" s="15" t="n"/>
-      <c r="K156">
-        <f>TEXT(A98,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L156">
-        <f>HOUR(B98)</f>
-        <v/>
-      </c>
-      <c r="M156">
-        <f>IF(L98&lt;6,"Night",IF(L98&lt;12,"Morning",IF(L98&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N156">
-        <f>TEXT(A98,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O156">
-        <f>WEEKNUM(A98)</f>
-        <v/>
-      </c>
-      <c r="P156">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A98))</f>
+      <c r="A156" s="199" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B156" s="200" t="n">
+        <v>0.5194444444444445</v>
+      </c>
+      <c r="C156" s="63" t="n">
+        <v>19</v>
+      </c>
+      <c r="D156" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E156" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F156" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G156" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H156" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lower limb </t>
+        </is>
+      </c>
+      <c r="I156" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J156" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K156" s="63">
+        <f>TEXT(A156,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L156" s="63">
+        <f>HOUR(B156)</f>
+        <v/>
+      </c>
+      <c r="M156" s="63">
+        <f>IF(L156&lt;6,"Night",IF(L156&lt;12,"Morning",IF(L156&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N156" s="63">
+        <f>TEXT(A156,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O156" s="63">
+        <f>WEEKNUM(A156)</f>
+        <v/>
+      </c>
+      <c r="P156" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A156))</f>
         <v/>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="18" t="n"/>
-      <c r="B157" s="15" t="n"/>
-      <c r="K157">
-        <f>TEXT(A99,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L157">
-        <f>HOUR(B99)</f>
-        <v/>
-      </c>
-      <c r="M157">
-        <f>IF(L99&lt;6,"Night",IF(L99&lt;12,"Morning",IF(L99&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N157">
-        <f>TEXT(A99,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O157">
-        <f>WEEKNUM(A99)</f>
-        <v/>
-      </c>
-      <c r="P157">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A99))</f>
+      <c r="A157" s="199" t="n">
+        <v>45948</v>
+      </c>
+      <c r="B157" s="200" t="n">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="C157" s="63" t="n">
+        <v>20</v>
+      </c>
+      <c r="D157" s="63" t="inlineStr">
+        <is>
+          <t>Muscle Strains</t>
+        </is>
+      </c>
+      <c r="E157" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F157" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G157" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H157" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Back </t>
+        </is>
+      </c>
+      <c r="I157" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J157" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K157" s="63">
+        <f>TEXT(A157,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L157" s="63">
+        <f>HOUR(B157)</f>
+        <v/>
+      </c>
+      <c r="M157" s="63">
+        <f>IF(L157&lt;6,"Night",IF(L157&lt;12,"Morning",IF(L157&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N157" s="63">
+        <f>TEXT(A157,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O157" s="63">
+        <f>WEEKNUM(A157)</f>
+        <v/>
+      </c>
+      <c r="P157" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A157))</f>
         <v/>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="18" t="n"/>
-      <c r="B158" s="15" t="n"/>
-      <c r="K158">
-        <f>TEXT(A100,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L158">
-        <f>HOUR(B100)</f>
-        <v/>
-      </c>
-      <c r="M158">
-        <f>IF(L100&lt;6,"Night",IF(L100&lt;12,"Morning",IF(L100&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N158">
-        <f>TEXT(A100,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O158">
-        <f>WEEKNUM(A100)</f>
-        <v/>
-      </c>
-      <c r="P158">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A100))</f>
+      <c r="A158" s="199" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B158" s="200" t="n">
+        <v>0.5590277777777778</v>
+      </c>
+      <c r="C158" s="63" t="n">
+        <v>40</v>
+      </c>
+      <c r="D158" s="63" t="inlineStr">
+        <is>
+          <t>Struck by Equipment</t>
+        </is>
+      </c>
+      <c r="E158" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F158" s="63" t="inlineStr">
+        <is>
+          <t>Change Rooms</t>
+        </is>
+      </c>
+      <c r="G158" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H158" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hand </t>
+        </is>
+      </c>
+      <c r="I158" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J158" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K158" s="63">
+        <f>TEXT(A158,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L158" s="63">
+        <f>HOUR(B158)</f>
+        <v/>
+      </c>
+      <c r="M158" s="63">
+        <f>IF(L158&lt;6,"Night",IF(L158&lt;12,"Morning",IF(L158&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N158" s="63">
+        <f>TEXT(A158,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O158" s="63">
+        <f>WEEKNUM(A158)</f>
+        <v/>
+      </c>
+      <c r="P158" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A158))</f>
         <v/>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="18" t="n"/>
-      <c r="B159" s="15" t="n"/>
-      <c r="K159">
-        <f>TEXT(A101,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L159">
-        <f>HOUR(B101)</f>
-        <v/>
-      </c>
-      <c r="M159">
-        <f>IF(L101&lt;6,"Night",IF(L101&lt;12,"Morning",IF(L101&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N159">
-        <f>TEXT(A101,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O159">
-        <f>WEEKNUM(A101)</f>
-        <v/>
-      </c>
-      <c r="P159">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A101))</f>
+      <c r="A159" s="199" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B159" s="200" t="n">
+        <v>0.6763888888888889</v>
+      </c>
+      <c r="C159" s="63" t="n">
+        <v>12</v>
+      </c>
+      <c r="D159" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Player</t>
+        </is>
+      </c>
+      <c r="E159" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F159" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11- A side </t>
+        </is>
+      </c>
+      <c r="G159" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H159" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knee </t>
+        </is>
+      </c>
+      <c r="I159" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J159" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K159" s="63">
+        <f>TEXT(A159,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L159" s="63">
+        <f>HOUR(B159)</f>
+        <v/>
+      </c>
+      <c r="M159" s="63">
+        <f>IF(L159&lt;6,"Night",IF(L159&lt;12,"Morning",IF(L159&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N159" s="63">
+        <f>TEXT(A159,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O159" s="63">
+        <f>WEEKNUM(A159)</f>
+        <v/>
+      </c>
+      <c r="P159" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A159))</f>
         <v/>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="18" t="n"/>
-      <c r="B160" s="15" t="n"/>
-      <c r="K160">
-        <f>TEXT(A102,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L160">
-        <f>HOUR(B102)</f>
-        <v/>
-      </c>
-      <c r="M160">
-        <f>IF(L102&lt;6,"Night",IF(L102&lt;12,"Morning",IF(L102&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N160">
-        <f>TEXT(A102,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O160">
-        <f>WEEKNUM(A102)</f>
-        <v/>
-      </c>
-      <c r="P160">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A102))</f>
+      <c r="A160" s="199" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B160" s="200" t="n">
+        <v>0.7368055555555556</v>
+      </c>
+      <c r="C160" s="63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D160" s="63" t="inlineStr">
+        <is>
+          <t>Slips, Trips and falls</t>
+        </is>
+      </c>
+      <c r="E160" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Activity </t>
+        </is>
+      </c>
+      <c r="F160" s="63" t="inlineStr">
+        <is>
+          <t>Skate Park</t>
+        </is>
+      </c>
+      <c r="G160" s="63" t="inlineStr">
+        <is>
+          <t>Girl Skate</t>
+        </is>
+      </c>
+      <c r="H160" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wrist </t>
+        </is>
+      </c>
+      <c r="I160" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J160" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K160" s="63">
+        <f>TEXT(A160,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L160" s="63">
+        <f>HOUR(B160)</f>
+        <v/>
+      </c>
+      <c r="M160" s="63">
+        <f>IF(L160&lt;6,"Night",IF(L160&lt;12,"Morning",IF(L160&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N160" s="63">
+        <f>TEXT(A160,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O160" s="63">
+        <f>WEEKNUM(A160)</f>
+        <v/>
+      </c>
+      <c r="P160" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A160))</f>
         <v/>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="18" t="n"/>
-      <c r="B161" s="15" t="n"/>
-      <c r="K161">
-        <f>TEXT(A103,"MMM-YY")</f>
-        <v/>
-      </c>
-      <c r="L161">
-        <f>HOUR(B103)</f>
-        <v/>
-      </c>
-      <c r="M161">
-        <f>IF(L103&lt;6,"Night",IF(L103&lt;12,"Morning",IF(L103&lt;18,"Afternoon","Evening")))</f>
-        <v/>
-      </c>
-      <c r="N161">
-        <f>TEXT(A103,"DDD")</f>
-        <v/>
-      </c>
-      <c r="O161">
-        <f>WEEKNUM(A103)</f>
-        <v/>
-      </c>
-      <c r="P161">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A103))</f>
+      <c r="A161" s="199" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B161" s="200" t="n">
+        <v>0.7263888888888889</v>
+      </c>
+      <c r="C161" s="63" t="n">
+        <v>19</v>
+      </c>
+      <c r="D161" s="63" t="inlineStr">
+        <is>
+          <t>Player-to-Object</t>
+        </is>
+      </c>
+      <c r="E161" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Equipment </t>
+        </is>
+      </c>
+      <c r="F161" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 A side </t>
+        </is>
+      </c>
+      <c r="G161" s="63" t="inlineStr">
+        <is>
+          <t>Open Play</t>
+        </is>
+      </c>
+      <c r="H161" s="63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Facial Injury </t>
+        </is>
+      </c>
+      <c r="I161" s="63" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="J161" s="63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="K161" s="63">
+        <f>TEXT(A161,"MMM-YY")</f>
+        <v/>
+      </c>
+      <c r="L161" s="63">
+        <f>HOUR(B161)</f>
+        <v/>
+      </c>
+      <c r="M161" s="63">
+        <f>IF(L161&lt;6,"Night",IF(L161&lt;12,"Morning",IF(L161&lt;18,"Afternoon","Evening")))</f>
+        <v/>
+      </c>
+      <c r="N161" s="63">
+        <f>TEXT(A161,"DDD")</f>
+        <v/>
+      </c>
+      <c r="O161" s="63">
+        <f>WEEKNUM(A161)</f>
+        <v/>
+      </c>
+      <c r="P161" s="63">
+        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A161))</f>
         <v/>
       </c>
     </row>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -8733,7 +8733,7 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Quarter</t>
+          <t>Quarter (FY)</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
@@ -8833,7 +8833,7 @@
         <v/>
       </c>
       <c r="P2" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A2))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A2))</f>
         <v/>
       </c>
     </row>
@@ -8903,7 +8903,7 @@
         <v/>
       </c>
       <c r="P3" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A3))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A3))</f>
         <v/>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
         <v/>
       </c>
       <c r="P4" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A4))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A4))</f>
         <v/>
       </c>
     </row>
@@ -9043,7 +9043,7 @@
         <v/>
       </c>
       <c r="P5" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A5))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A5))</f>
         <v/>
       </c>
     </row>
@@ -9113,7 +9113,7 @@
         <v/>
       </c>
       <c r="P6" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A6))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A6))</f>
         <v/>
       </c>
     </row>
@@ -9183,7 +9183,7 @@
         <v/>
       </c>
       <c r="P7" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A7))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A7))</f>
         <v/>
       </c>
     </row>
@@ -9253,7 +9253,7 @@
         <v/>
       </c>
       <c r="P8" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A8))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A8))</f>
         <v/>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
         <v/>
       </c>
       <c r="P9" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A9))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A9))</f>
         <v/>
       </c>
     </row>
@@ -9393,7 +9393,7 @@
         <v/>
       </c>
       <c r="P10" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A10))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A10))</f>
         <v/>
       </c>
     </row>
@@ -9463,7 +9463,7 @@
         <v/>
       </c>
       <c r="P11" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A11))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A11))</f>
         <v/>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
         <v/>
       </c>
       <c r="P12" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A12))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A12))</f>
         <v/>
       </c>
     </row>
@@ -9603,7 +9603,7 @@
         <v/>
       </c>
       <c r="P13" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A13))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A13))</f>
         <v/>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
         <v/>
       </c>
       <c r="P14" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A14))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A14))</f>
         <v/>
       </c>
     </row>
@@ -9743,7 +9743,7 @@
         <v/>
       </c>
       <c r="P15" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A15))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A15))</f>
         <v/>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
         <v/>
       </c>
       <c r="P16" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A16))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A16))</f>
         <v/>
       </c>
     </row>
@@ -9883,7 +9883,7 @@
         <v/>
       </c>
       <c r="P17" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A17))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A17))</f>
         <v/>
       </c>
     </row>
@@ -9953,7 +9953,7 @@
         <v/>
       </c>
       <c r="P18" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A18))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A18))</f>
         <v/>
       </c>
     </row>
@@ -10023,7 +10023,7 @@
         <v/>
       </c>
       <c r="P19" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A19))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A19))</f>
         <v/>
       </c>
     </row>
@@ -10093,7 +10093,7 @@
         <v/>
       </c>
       <c r="P20" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A20))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A20))</f>
         <v/>
       </c>
     </row>
@@ -10163,7 +10163,7 @@
         <v/>
       </c>
       <c r="P21" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A21))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A21))</f>
         <v/>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
         <v/>
       </c>
       <c r="P22" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A22))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A22))</f>
         <v/>
       </c>
     </row>
@@ -10303,7 +10303,7 @@
         <v/>
       </c>
       <c r="P23" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A23))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A23))</f>
         <v/>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
         <v/>
       </c>
       <c r="P24" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A24))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A24))</f>
         <v/>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
         <v/>
       </c>
       <c r="P25" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A25))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A25))</f>
         <v/>
       </c>
     </row>
@@ -10513,7 +10513,7 @@
         <v/>
       </c>
       <c r="P26" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A26))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A26))</f>
         <v/>
       </c>
     </row>
@@ -10583,7 +10583,7 @@
         <v/>
       </c>
       <c r="P27" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A27))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A27))</f>
         <v/>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
         <v/>
       </c>
       <c r="P28" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A28))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A28))</f>
         <v/>
       </c>
     </row>
@@ -10723,7 +10723,7 @@
         <v/>
       </c>
       <c r="P29" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A29))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A29))</f>
         <v/>
       </c>
     </row>
@@ -10793,7 +10793,7 @@
         <v/>
       </c>
       <c r="P30" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A30))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A30))</f>
         <v/>
       </c>
     </row>
@@ -10863,7 +10863,7 @@
         <v/>
       </c>
       <c r="P31" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A31))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A31))</f>
         <v/>
       </c>
     </row>
@@ -10933,7 +10933,7 @@
         <v/>
       </c>
       <c r="P32" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A32))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A32))</f>
         <v/>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
         <v/>
       </c>
       <c r="P33" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A33))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A33))</f>
         <v/>
       </c>
     </row>
@@ -11073,7 +11073,7 @@
         <v/>
       </c>
       <c r="P34" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A34))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A34))</f>
         <v/>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
         <v/>
       </c>
       <c r="P35" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A35))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A35))</f>
         <v/>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
         <v/>
       </c>
       <c r="P36" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A36))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A36))</f>
         <v/>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
         <v/>
       </c>
       <c r="P37" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A37))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A37))</f>
         <v/>
       </c>
     </row>
@@ -11351,7 +11351,7 @@
         <v/>
       </c>
       <c r="P38" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A38))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A38))</f>
         <v/>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
         <v/>
       </c>
       <c r="P39" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A39))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A39))</f>
         <v/>
       </c>
     </row>
@@ -11487,7 +11487,7 @@
         <v/>
       </c>
       <c r="P40" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A40))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A40))</f>
         <v/>
       </c>
     </row>
@@ -11555,7 +11555,7 @@
         <v/>
       </c>
       <c r="P41" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A41))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A41))</f>
         <v/>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
         <v/>
       </c>
       <c r="P42" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A42))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A42))</f>
         <v/>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
         <v/>
       </c>
       <c r="P43" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A43))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A43))</f>
         <v/>
       </c>
     </row>
@@ -11759,7 +11759,7 @@
         <v/>
       </c>
       <c r="P44" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A44))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A44))</f>
         <v/>
       </c>
     </row>
@@ -11827,7 +11827,7 @@
         <v/>
       </c>
       <c r="P45" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A45))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A45))</f>
         <v/>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
         <v/>
       </c>
       <c r="P46" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A46))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A46))</f>
         <v/>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
         <v/>
       </c>
       <c r="P47" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A47))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A47))</f>
         <v/>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
         <v/>
       </c>
       <c r="P48" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A48))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A48))</f>
         <v/>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
         <v/>
       </c>
       <c r="P49" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A49))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A49))</f>
         <v/>
       </c>
     </row>
@@ -12167,7 +12167,7 @@
         <v/>
       </c>
       <c r="P50" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A50))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A50))</f>
         <v/>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
         <v/>
       </c>
       <c r="P51" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A51))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A51))</f>
         <v/>
       </c>
     </row>
@@ -12303,7 +12303,7 @@
         <v/>
       </c>
       <c r="P52" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A52))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A52))</f>
         <v/>
       </c>
     </row>
@@ -12371,7 +12371,7 @@
         <v/>
       </c>
       <c r="P53" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A53))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A53))</f>
         <v/>
       </c>
     </row>
@@ -12439,7 +12439,7 @@
         <v/>
       </c>
       <c r="P54" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A54))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A54))</f>
         <v/>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
         <v/>
       </c>
       <c r="P55" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A55))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A55))</f>
         <v/>
       </c>
     </row>
@@ -12577,7 +12577,7 @@
         <v/>
       </c>
       <c r="P56" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A56))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A56))</f>
         <v/>
       </c>
     </row>
@@ -12647,7 +12647,7 @@
         <v/>
       </c>
       <c r="P57" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A57))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A57))</f>
         <v/>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
         <v/>
       </c>
       <c r="P58" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A58))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A58))</f>
         <v/>
       </c>
     </row>
@@ -12787,7 +12787,7 @@
         <v/>
       </c>
       <c r="P59" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A59))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A59))</f>
         <v/>
       </c>
     </row>
@@ -12857,7 +12857,7 @@
         <v/>
       </c>
       <c r="P60" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A60))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A60))</f>
         <v/>
       </c>
       <c r="U60" t="inlineStr">
@@ -12964,7 +12964,7 @@
         <v/>
       </c>
       <c r="P61" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A61))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A61))</f>
         <v/>
       </c>
       <c r="U61" t="inlineStr">
@@ -13067,7 +13067,7 @@
         <v/>
       </c>
       <c r="P62" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A62))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A62))</f>
         <v/>
       </c>
       <c r="U62" t="inlineStr">
@@ -13170,7 +13170,7 @@
         <v/>
       </c>
       <c r="P63" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A63))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A63))</f>
         <v/>
       </c>
       <c r="U63" t="inlineStr">
@@ -13273,7 +13273,7 @@
         <v/>
       </c>
       <c r="P64" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A64))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A64))</f>
         <v/>
       </c>
       <c r="U64" t="inlineStr">
@@ -13371,7 +13371,7 @@
         <v/>
       </c>
       <c r="P65" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A65))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A65))</f>
         <v/>
       </c>
       <c r="U65" s="13" t="inlineStr">
@@ -13469,7 +13469,7 @@
         <v/>
       </c>
       <c r="P66" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A66))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A66))</f>
         <v/>
       </c>
       <c r="U66" t="inlineStr">
@@ -13567,7 +13567,7 @@
         <v/>
       </c>
       <c r="P67" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A67))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A67))</f>
         <v/>
       </c>
       <c r="U67" t="inlineStr">
@@ -13665,7 +13665,7 @@
         <v/>
       </c>
       <c r="P68" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A68))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A68))</f>
         <v/>
       </c>
       <c r="W68" s="19" t="n">
@@ -13756,7 +13756,7 @@
         <v/>
       </c>
       <c r="P69" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A69))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A69))</f>
         <v/>
       </c>
       <c r="W69" s="19" t="n">
@@ -13847,7 +13847,7 @@
         <v/>
       </c>
       <c r="P70" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A70))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A70))</f>
         <v/>
       </c>
       <c r="W70" s="19" t="n">
@@ -13938,7 +13938,7 @@
         <v/>
       </c>
       <c r="P71" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A71))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A71))</f>
         <v/>
       </c>
       <c r="W71" s="19" t="n">
@@ -14029,7 +14029,7 @@
         <v/>
       </c>
       <c r="P72" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A72))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A72))</f>
         <v/>
       </c>
       <c r="W72" s="19" t="n">
@@ -14120,7 +14120,7 @@
         <v/>
       </c>
       <c r="P73" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A73))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A73))</f>
         <v/>
       </c>
       <c r="W73" s="19" t="n">
@@ -14211,7 +14211,7 @@
         <v/>
       </c>
       <c r="P74" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A74))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A74))</f>
         <v/>
       </c>
       <c r="W74" s="19" t="n">
@@ -14302,7 +14302,7 @@
         <v/>
       </c>
       <c r="P75" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A75))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A75))</f>
         <v/>
       </c>
       <c r="W75" s="19" t="n">
@@ -14393,7 +14393,7 @@
         <v/>
       </c>
       <c r="P76" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A76))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A76))</f>
         <v/>
       </c>
       <c r="W76" s="19" t="n">
@@ -14479,7 +14479,7 @@
         <v/>
       </c>
       <c r="P77" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A77))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A77))</f>
         <v/>
       </c>
       <c r="W77" s="19" t="n">
@@ -14560,7 +14560,7 @@
         <v/>
       </c>
       <c r="P78" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A78))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A78))</f>
         <v/>
       </c>
       <c r="W78" s="19" t="n">
@@ -14641,7 +14641,7 @@
         <v/>
       </c>
       <c r="P79" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A79))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A79))</f>
         <v/>
       </c>
       <c r="W79" s="19" t="n">
@@ -14722,7 +14722,7 @@
         <v/>
       </c>
       <c r="P80" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A80))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A80))</f>
         <v/>
       </c>
       <c r="W80" s="19" t="n">
@@ -14798,7 +14798,7 @@
         <v/>
       </c>
       <c r="P81" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A81))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A81))</f>
         <v/>
       </c>
       <c r="W81" s="19" t="n">
@@ -14869,7 +14869,7 @@
         <v/>
       </c>
       <c r="P82" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A82))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A82))</f>
         <v/>
       </c>
       <c r="W82" s="19" t="n">
@@ -14940,7 +14940,7 @@
         <v/>
       </c>
       <c r="P83" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A83))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A83))</f>
         <v/>
       </c>
       <c r="W83" s="19" t="n">
@@ -15011,7 +15011,7 @@
         <v/>
       </c>
       <c r="P84" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A84))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A84))</f>
         <v/>
       </c>
       <c r="W84" s="19" t="n">
@@ -15082,7 +15082,7 @@
         <v/>
       </c>
       <c r="P85" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A85))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A85))</f>
         <v/>
       </c>
       <c r="W85" s="19" t="n">
@@ -15153,7 +15153,7 @@
         <v/>
       </c>
       <c r="P86" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A86))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A86))</f>
         <v/>
       </c>
       <c r="W86" s="19" t="n">
@@ -15224,7 +15224,7 @@
         <v/>
       </c>
       <c r="P87" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A87))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A87))</f>
         <v/>
       </c>
       <c r="W87" s="19" t="n">
@@ -15295,7 +15295,7 @@
         <v/>
       </c>
       <c r="P88" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A88))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A88))</f>
         <v/>
       </c>
       <c r="W88" s="19" t="n">
@@ -15366,7 +15366,7 @@
         <v/>
       </c>
       <c r="P89" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A89))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A89))</f>
         <v/>
       </c>
       <c r="W89" s="19" t="n">
@@ -15437,7 +15437,7 @@
         <v/>
       </c>
       <c r="P90" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A90))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A90))</f>
         <v/>
       </c>
       <c r="W90" s="19" t="n">
@@ -15508,7 +15508,7 @@
         <v/>
       </c>
       <c r="P91" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A91))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A91))</f>
         <v/>
       </c>
     </row>
@@ -15576,7 +15576,7 @@
         <v/>
       </c>
       <c r="P92" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A92))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A92))</f>
         <v/>
       </c>
     </row>
@@ -15644,7 +15644,7 @@
         <v/>
       </c>
       <c r="P93" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A93))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A93))</f>
         <v/>
       </c>
     </row>
@@ -15712,7 +15712,7 @@
         <v/>
       </c>
       <c r="P94" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A94))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A94))</f>
         <v/>
       </c>
     </row>
@@ -15780,7 +15780,7 @@
         <v/>
       </c>
       <c r="P95" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A95))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A95))</f>
         <v/>
       </c>
     </row>
@@ -15848,7 +15848,7 @@
         <v/>
       </c>
       <c r="P96" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A96))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A96))</f>
         <v/>
       </c>
     </row>
@@ -15916,7 +15916,7 @@
         <v/>
       </c>
       <c r="P97" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A97))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A97))</f>
         <v/>
       </c>
     </row>
@@ -15984,7 +15984,7 @@
         <v/>
       </c>
       <c r="P98" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A98))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A98))</f>
         <v/>
       </c>
     </row>
@@ -16052,7 +16052,7 @@
         <v/>
       </c>
       <c r="P99" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A99))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A99))</f>
         <v/>
       </c>
     </row>
@@ -16120,7 +16120,7 @@
         <v/>
       </c>
       <c r="P100" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A100))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A100))</f>
         <v/>
       </c>
     </row>
@@ -16188,7 +16188,7 @@
         <v/>
       </c>
       <c r="P101" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A101))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A101))</f>
         <v/>
       </c>
     </row>
@@ -16256,7 +16256,7 @@
         <v/>
       </c>
       <c r="P102" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A102))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A102))</f>
         <v/>
       </c>
     </row>
@@ -16324,7 +16324,7 @@
         <v/>
       </c>
       <c r="P103" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A103))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A103))</f>
         <v/>
       </c>
     </row>
@@ -16392,7 +16392,7 @@
         <v/>
       </c>
       <c r="P104" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A104))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A104))</f>
         <v/>
       </c>
     </row>
@@ -16460,7 +16460,7 @@
         <v/>
       </c>
       <c r="P105" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A105))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A105))</f>
         <v/>
       </c>
     </row>
@@ -16528,7 +16528,7 @@
         <v/>
       </c>
       <c r="P106" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A106))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A106))</f>
         <v/>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
         <v/>
       </c>
       <c r="P107" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A107))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A107))</f>
         <v/>
       </c>
     </row>
@@ -16664,7 +16664,7 @@
         <v/>
       </c>
       <c r="P108" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A108))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A108))</f>
         <v/>
       </c>
     </row>
@@ -16732,7 +16732,7 @@
         <v/>
       </c>
       <c r="P109" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A109))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A109))</f>
         <v/>
       </c>
     </row>
@@ -16800,7 +16800,7 @@
         <v/>
       </c>
       <c r="P110" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A110))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A110))</f>
         <v/>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
         <v/>
       </c>
       <c r="P111" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A111))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A111))</f>
         <v/>
       </c>
     </row>
@@ -16936,7 +16936,7 @@
         <v/>
       </c>
       <c r="P112" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A112))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A112))</f>
         <v/>
       </c>
     </row>
@@ -17004,7 +17004,7 @@
         <v/>
       </c>
       <c r="P113" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A113))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A113))</f>
         <v/>
       </c>
     </row>
@@ -17072,7 +17072,7 @@
         <v/>
       </c>
       <c r="P114" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A114))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A114))</f>
         <v/>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
         <v/>
       </c>
       <c r="P115" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A115))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A115))</f>
         <v/>
       </c>
     </row>
@@ -17208,7 +17208,7 @@
         <v/>
       </c>
       <c r="P116" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A116))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A116))</f>
         <v/>
       </c>
     </row>
@@ -17278,7 +17278,7 @@
         <v/>
       </c>
       <c r="P117" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A117))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A117))</f>
         <v/>
       </c>
     </row>
@@ -17346,7 +17346,7 @@
         <v/>
       </c>
       <c r="P118" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A118))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A118))</f>
         <v/>
       </c>
     </row>
@@ -17416,7 +17416,7 @@
         <v/>
       </c>
       <c r="P119" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A119))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A119))</f>
         <v/>
       </c>
     </row>
@@ -17484,7 +17484,7 @@
         <v/>
       </c>
       <c r="P120" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A120))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A120))</f>
         <v/>
       </c>
     </row>
@@ -17554,7 +17554,7 @@
         <v/>
       </c>
       <c r="P121" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A121))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A121))</f>
         <v/>
       </c>
     </row>
@@ -17622,7 +17622,7 @@
         <v/>
       </c>
       <c r="P122" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A122))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A122))</f>
         <v/>
       </c>
     </row>
@@ -17692,7 +17692,7 @@
         <v/>
       </c>
       <c r="P123" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A123))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A123))</f>
         <v/>
       </c>
     </row>
@@ -17760,7 +17760,7 @@
         <v/>
       </c>
       <c r="P124" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A124))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A124))</f>
         <v/>
       </c>
     </row>
@@ -17830,7 +17830,7 @@
         <v/>
       </c>
       <c r="P125" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A125))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A125))</f>
         <v/>
       </c>
     </row>
@@ -17898,7 +17898,7 @@
         <v/>
       </c>
       <c r="P126" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A126))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A126))</f>
         <v/>
       </c>
     </row>
@@ -17968,7 +17968,7 @@
         <v/>
       </c>
       <c r="P127" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A127))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A127))</f>
         <v/>
       </c>
     </row>
@@ -18036,7 +18036,7 @@
         <v/>
       </c>
       <c r="P128" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A128))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A128))</f>
         <v/>
       </c>
     </row>
@@ -18106,7 +18106,7 @@
         <v/>
       </c>
       <c r="P129" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A129))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A129))</f>
         <v/>
       </c>
     </row>
@@ -18174,7 +18174,7 @@
         <v/>
       </c>
       <c r="P130" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A130))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A130))</f>
         <v/>
       </c>
     </row>
@@ -18244,7 +18244,7 @@
         <v/>
       </c>
       <c r="P131" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A131))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A131))</f>
         <v/>
       </c>
     </row>
@@ -18312,7 +18312,7 @@
         <v/>
       </c>
       <c r="P132" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A132))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A132))</f>
         <v/>
       </c>
     </row>
@@ -18382,7 +18382,7 @@
         <v/>
       </c>
       <c r="P133" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A133))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A133))</f>
         <v/>
       </c>
     </row>
@@ -18450,7 +18450,7 @@
         <v/>
       </c>
       <c r="P134" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A134))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A134))</f>
         <v/>
       </c>
     </row>
@@ -18520,7 +18520,7 @@
         <v/>
       </c>
       <c r="P135" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A135))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A135))</f>
         <v/>
       </c>
     </row>
@@ -18590,7 +18590,7 @@
         <v/>
       </c>
       <c r="P136" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A136))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A136))</f>
         <v/>
       </c>
     </row>
@@ -18660,7 +18660,7 @@
         <v/>
       </c>
       <c r="P137" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A137))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A137))</f>
         <v/>
       </c>
     </row>
@@ -18730,7 +18730,7 @@
         <v/>
       </c>
       <c r="P138" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A138))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A138))</f>
         <v/>
       </c>
     </row>
@@ -18800,7 +18800,7 @@
         <v/>
       </c>
       <c r="P139" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A139))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A139))</f>
         <v/>
       </c>
     </row>
@@ -18870,7 +18870,7 @@
         <v/>
       </c>
       <c r="P140" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A140))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A140))</f>
         <v/>
       </c>
     </row>
@@ -18940,7 +18940,7 @@
         <v/>
       </c>
       <c r="P141" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A141))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A141))</f>
         <v/>
       </c>
     </row>
@@ -19010,7 +19010,7 @@
         <v/>
       </c>
       <c r="P142" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A142))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A142))</f>
         <v/>
       </c>
     </row>
@@ -19080,7 +19080,7 @@
         <v/>
       </c>
       <c r="P143" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A143))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A143))</f>
         <v/>
       </c>
     </row>
@@ -19150,7 +19150,7 @@
         <v/>
       </c>
       <c r="P144" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A144))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A144))</f>
         <v/>
       </c>
     </row>
@@ -19220,7 +19220,7 @@
         <v/>
       </c>
       <c r="P145" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A145))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A145))</f>
         <v/>
       </c>
     </row>
@@ -19290,7 +19290,7 @@
         <v/>
       </c>
       <c r="P146" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A146))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A146))</f>
         <v/>
       </c>
     </row>
@@ -19360,7 +19360,7 @@
         <v/>
       </c>
       <c r="P147" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A147))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A147))</f>
         <v/>
       </c>
     </row>
@@ -19430,7 +19430,7 @@
         <v/>
       </c>
       <c r="P148" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A148))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A148))</f>
         <v/>
       </c>
     </row>
@@ -19500,7 +19500,7 @@
         <v/>
       </c>
       <c r="P149" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A149))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A149))</f>
         <v/>
       </c>
     </row>
@@ -19570,7 +19570,7 @@
         <v/>
       </c>
       <c r="P150" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A150))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A150))</f>
         <v/>
       </c>
     </row>
@@ -19640,7 +19640,7 @@
         <v/>
       </c>
       <c r="P151" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A151))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A151))</f>
         <v/>
       </c>
     </row>
@@ -19710,7 +19710,7 @@
         <v/>
       </c>
       <c r="P152" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A152))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A152))</f>
         <v/>
       </c>
     </row>
@@ -19780,7 +19780,7 @@
         <v/>
       </c>
       <c r="P153" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A153))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A153))</f>
         <v/>
       </c>
     </row>
@@ -19850,7 +19850,7 @@
         <v/>
       </c>
       <c r="P154" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A154))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A154))</f>
         <v/>
       </c>
     </row>
@@ -19920,7 +19920,7 @@
         <v/>
       </c>
       <c r="P155" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A155))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A155))</f>
         <v/>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
         <v/>
       </c>
       <c r="P156" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A156))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A156))</f>
         <v/>
       </c>
     </row>
@@ -20060,7 +20060,7 @@
         <v/>
       </c>
       <c r="P157" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A157))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A157))</f>
         <v/>
       </c>
     </row>
@@ -20130,7 +20130,7 @@
         <v/>
       </c>
       <c r="P158" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A158))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A158))</f>
         <v/>
       </c>
     </row>
@@ -20200,7 +20200,7 @@
         <v/>
       </c>
       <c r="P159" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A159))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A159))</f>
         <v/>
       </c>
     </row>
@@ -20270,7 +20270,7 @@
         <v/>
       </c>
       <c r="P160" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A160))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A160))</f>
         <v/>
       </c>
     </row>
@@ -20340,7 +20340,7 @@
         <v/>
       </c>
       <c r="P161" s="63">
-        <f>INDEX({"Q1","Q1","Q1","Q2","Q2","Q2","Q3","Q3","Q3","Q4","Q4","Q4"},MONTH(A161))</f>
+        <f>INDEX({"Q3","Q3","Q4","Q4","Q4","Q1","Q1","Q1","Q2","Q2","Q2","Q3"},MONTH(A161))</f>
         <v/>
       </c>
     </row>

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -5565,19 +5565,19 @@
       </c>
       <c r="I106" s="158" t="inlineStr">
         <is>
-          <t>Q1 (Jan-Mar)</t>
+          <t>Q1 (Jun-Aug)</t>
         </is>
       </c>
       <c r="J106" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=1)*(MONTH('Data Entry'!A2:A356)&lt;=3)*1)</f>
+        <f>COUNTIF('Data Entry'!P2:P356,"Q1")</f>
         <v/>
       </c>
       <c r="K106" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=1)*(MONTH('Data Entry'!A2:A356)&lt;=3)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q1")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L106" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),1,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),3,28)),"-")</f>
+        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q1",'Data Entry'!C2:C356),"-")</f>
         <v/>
       </c>
       <c r="M106" s="159" t="inlineStr">
@@ -5616,19 +5616,19 @@
       </c>
       <c r="I107" s="158" t="inlineStr">
         <is>
-          <t>Q2 (Apr-Jun)</t>
+          <t>Q2 (Sep-Nov)</t>
         </is>
       </c>
       <c r="J107" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=4)*(MONTH('Data Entry'!A2:A356)&lt;=6)*1)</f>
+        <f>COUNTIF('Data Entry'!P2:P356,"Q2")</f>
         <v/>
       </c>
       <c r="K107" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=4)*(MONTH('Data Entry'!A2:A356)&lt;=6)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q2")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L107" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),4,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),6,28)),"-")</f>
+        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q2",'Data Entry'!C2:C356),"-")</f>
         <v/>
       </c>
       <c r="M107" s="159">
@@ -5666,19 +5666,19 @@
       </c>
       <c r="I108" s="158" t="inlineStr">
         <is>
-          <t>Q3 (Jul-Sep)</t>
+          <t>Q3 (Dec-Feb)</t>
         </is>
       </c>
       <c r="J108" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=7)*(MONTH('Data Entry'!A2:A356)&lt;=9)*1)</f>
+        <f>COUNTIF('Data Entry'!P2:P356,"Q3")</f>
         <v/>
       </c>
       <c r="K108" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=7)*(MONTH('Data Entry'!A2:A356)&lt;=9)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q3")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L108" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),7,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),9,28)),"-")</f>
+        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q3",'Data Entry'!C2:C356),"-")</f>
         <v/>
       </c>
       <c r="M108" s="159">
@@ -5716,19 +5716,19 @@
       </c>
       <c r="I109" s="158" t="inlineStr">
         <is>
-          <t>Q4 (Oct-Dec)</t>
+          <t>Q4 (Mar-May)</t>
         </is>
       </c>
       <c r="J109" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=10)*(MONTH('Data Entry'!A2:A356)&lt;=12)*1)</f>
+        <f>COUNTIF('Data Entry'!P2:P356,"Q4")</f>
         <v/>
       </c>
       <c r="K109" s="159">
-        <f>SUMPRODUCT((MONTH('Data Entry'!A2:A356)&gt;=10)*(MONTH('Data Entry'!A2:A356)&lt;=12)*('Data Entry'!J2:J356="Yes")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q4")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L109" s="159">
-        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!A2:A356,"&gt;="&amp;DATE(YEAR(TODAY()),10,1),'Data Entry'!A2:A356,"&lt;="&amp;DATE(YEAR(TODAY()),12,28)),"-")</f>
+        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q4",'Data Entry'!C2:C356),"-")</f>
         <v/>
       </c>
       <c r="M109" s="159">

--- a/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
+++ b/Shapa_Nike_Soweto_Medical incidents_Dashboard.xlsx
@@ -3949,7 +3949,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="2" customWidth="1" style="21" min="1" max="1"/>
     <col width="18" customWidth="1" style="21" min="2" max="2"/>
@@ -5569,15 +5569,15 @@
         </is>
       </c>
       <c r="J106" s="159">
-        <f>COUNTIF('Data Entry'!P2:P356,"Q1")</f>
+        <f>COUNTIFS('Data Entry'!P2:P356,"Q1",'Data Entry'!A2:A356,"&lt;&gt;")</f>
         <v/>
       </c>
       <c r="K106" s="159">
-        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q1")*('Data Entry'!J2:J356="YES")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q1")*('Data Entry'!A2:A356&lt;&gt;"")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L106" s="159">
-        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q1",'Data Entry'!C2:C356),"-")</f>
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!P2:P356,"Q1",'Data Entry'!A2:A356,"&lt;&gt;"),"-")</f>
         <v/>
       </c>
       <c r="M106" s="159" t="inlineStr">
@@ -5620,15 +5620,15 @@
         </is>
       </c>
       <c r="J107" s="159">
-        <f>COUNTIF('Data Entry'!P2:P356,"Q2")</f>
+        <f>COUNTIFS('Data Entry'!P2:P356,"Q2",'Data Entry'!A2:A356,"&lt;&gt;")</f>
         <v/>
       </c>
       <c r="K107" s="159">
-        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q2")*('Data Entry'!J2:J356="YES")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q2")*('Data Entry'!A2:A356&lt;&gt;"")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L107" s="159">
-        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q2",'Data Entry'!C2:C356),"-")</f>
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!P2:P356,"Q2",'Data Entry'!A2:A356,"&lt;&gt;"),"-")</f>
         <v/>
       </c>
       <c r="M107" s="159">
@@ -5670,15 +5670,15 @@
         </is>
       </c>
       <c r="J108" s="159">
-        <f>COUNTIF('Data Entry'!P2:P356,"Q3")</f>
+        <f>COUNTIFS('Data Entry'!P2:P356,"Q3",'Data Entry'!A2:A356,"&lt;&gt;")</f>
         <v/>
       </c>
       <c r="K108" s="159">
-        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q3")*('Data Entry'!J2:J356="YES")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q3")*('Data Entry'!A2:A356&lt;&gt;"")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L108" s="159">
-        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q3",'Data Entry'!C2:C356),"-")</f>
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!P2:P356,"Q3",'Data Entry'!A2:A356,"&lt;&gt;"),"-")</f>
         <v/>
       </c>
       <c r="M108" s="159">
@@ -5720,15 +5720,15 @@
         </is>
       </c>
       <c r="J109" s="159">
-        <f>COUNTIF('Data Entry'!P2:P356,"Q4")</f>
+        <f>COUNTIFS('Data Entry'!P2:P356,"Q4",'Data Entry'!A2:A356,"&lt;&gt;")</f>
         <v/>
       </c>
       <c r="K109" s="159">
-        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q4")*('Data Entry'!J2:J356="YES")*1)</f>
+        <f>SUMPRODUCT(('Data Entry'!P2:P356="Q4")*('Data Entry'!A2:A356&lt;&gt;"")*('Data Entry'!J2:J356="YES")*1)</f>
         <v/>
       </c>
       <c r="L109" s="159">
-        <f>IFERROR(AVERAGEIF('Data Entry'!P2:P356,"Q4",'Data Entry'!C2:C356),"-")</f>
+        <f>IFERROR(AVERAGEIFS('Data Entry'!C2:C356,'Data Entry'!P2:P356,"Q4",'Data Entry'!A2:A356,"&lt;&gt;"),"-")</f>
         <v/>
       </c>
       <c r="M109" s="159">
@@ -6615,7 +6615,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="14" customWidth="1" style="21" min="1" max="2"/>
     <col width="14" customWidth="1" style="21" min="2" max="2"/>
@@ -7201,7 +7201,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" style="21" min="1" max="1"/>
     <col width="25" customWidth="1" style="21" min="2" max="2"/>
@@ -7607,7 +7607,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" style="21" min="1" max="1"/>
     <col width="10" customWidth="1" style="21" min="2" max="2"/>
@@ -8637,7 +8637,7 @@
       <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="12" customWidth="1" style="21" min="1" max="1"/>
     <col width="10" customWidth="1" style="21" min="2" max="2"/>
@@ -27474,7 +27474,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="3" customWidth="1" style="21" min="1" max="19"/>
     <col width="15" customWidth="1" style="21" min="2" max="2"/>
@@ -29368,7 +29368,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="12" customWidth="1" style="21" min="1" max="1"/>
     <col width="12" customWidth="1" style="21" min="2" max="2"/>
@@ -29995,7 +29995,7 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" style="21" min="1" max="1"/>
     <col width="10" customWidth="1" style="21" min="2" max="2"/>
@@ -30434,7 +30434,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="15" customWidth="1" style="21" min="1" max="1"/>
     <col width="10" customWidth="1" style="21" min="2" max="2"/>
@@ -30568,7 +30568,7 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="20" customWidth="1" style="21" min="1" max="1"/>
     <col width="10" customWidth="1" style="21" min="2" max="2"/>
@@ -30930,7 +30930,7 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="22" customWidth="1" style="21" min="1" max="1"/>
     <col width="10" customWidth="1" style="21" min="2" max="2"/>
@@ -31394,7 +31394,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="28" customWidth="1" style="21" min="1" max="1"/>
     <col width="10" customWidth="1" style="21" min="2" max="2"/>
